--- a/papers/async-re/data/raw_data.xlsx
+++ b/papers/async-re/data/raw_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20515"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="15700" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="192">
   <si>
     <t>#54</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -766,6 +766,9 @@
   </si>
   <si>
     <t>XXX</t>
+  </si>
+  <si>
+    <t>new advert</t>
   </si>
 </sst>
 </file>
@@ -826,7 +829,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="331">
+  <cellStyleXfs count="451">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1158,8 +1161,128 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1172,8 +1295,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="331">
+  <cellStyles count="451">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1339,6 +1463,66 @@
     <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="422" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="424" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="428" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="436" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="440" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="442" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="444" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="446" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="448" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="450" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1504,6 +1688,66 @@
     <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="327" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="405" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="407" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="409" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="411" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="413" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="415" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="417" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="419" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="421" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="423" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="425" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="427" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="429" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="431" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="433" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="435" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="437" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="439" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="441" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="443" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="445" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="447" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="449" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1658,11 +1902,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="541207176"/>
-        <c:axId val="541279096"/>
+        <c:axId val="97852872"/>
+        <c:axId val="97858376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="541207176"/>
+        <c:axId val="97852872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1690,7 +1934,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="541279096"/>
+        <c:crossAx val="97858376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1698,7 +1942,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="541279096"/>
+        <c:axId val="97858376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1728,7 +1972,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="541207176"/>
+        <c:crossAx val="97852872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1856,11 +2100,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="571603128"/>
-        <c:axId val="10403144"/>
+        <c:axId val="229848872"/>
+        <c:axId val="229854456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="571603128"/>
+        <c:axId val="229848872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1888,7 +2132,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="10403144"/>
+        <c:crossAx val="229854456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1896,7 +2140,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="10403144"/>
+        <c:axId val="229854456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1926,7 +2170,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="571603128"/>
+        <c:crossAx val="229848872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2144,11 +2388,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="572003480"/>
-        <c:axId val="572146904"/>
+        <c:axId val="209541896"/>
+        <c:axId val="229885368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="572003480"/>
+        <c:axId val="209541896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2176,7 +2420,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="572146904"/>
+        <c:crossAx val="229885368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2184,7 +2428,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="572146904"/>
+        <c:axId val="229885368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2214,7 +2458,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="572003480"/>
+        <c:crossAx val="209541896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2355,11 +2599,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="390451656"/>
-        <c:axId val="548444120"/>
+        <c:axId val="229898040"/>
+        <c:axId val="229900616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="390451656"/>
+        <c:axId val="229898040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2368,7 +2612,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="548444120"/>
+        <c:crossAx val="229900616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2376,7 +2620,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="548444120"/>
+        <c:axId val="229900616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2406,7 +2650,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="390451656"/>
+        <c:crossAx val="229898040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2553,11 +2797,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="573580696"/>
-        <c:axId val="568274168"/>
+        <c:axId val="205150168"/>
+        <c:axId val="229879400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="573580696"/>
+        <c:axId val="205150168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2585,7 +2829,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="568274168"/>
+        <c:crossAx val="229879400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2593,7 +2837,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="568274168"/>
+        <c:axId val="229879400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2623,7 +2867,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="573580696"/>
+        <c:crossAx val="205150168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2775,11 +3019,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="541385592"/>
-        <c:axId val="572156504"/>
+        <c:axId val="229651288"/>
+        <c:axId val="229656824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="541385592"/>
+        <c:axId val="229651288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2807,7 +3051,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="572156504"/>
+        <c:crossAx val="229656824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2815,7 +3059,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="572156504"/>
+        <c:axId val="229656824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2845,7 +3089,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="541385592"/>
+        <c:crossAx val="229651288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3347,11 +3591,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="390231384"/>
-        <c:axId val="567897448"/>
+        <c:axId val="229740952"/>
+        <c:axId val="229743928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="390231384"/>
+        <c:axId val="229740952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3360,7 +3604,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="567897448"/>
+        <c:crossAx val="229743928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3368,7 +3612,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="567897448"/>
+        <c:axId val="229743928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3397,7 +3641,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="390231384"/>
+        <c:crossAx val="229740952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3609,11 +3853,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="573988696"/>
-        <c:axId val="539883240"/>
+        <c:axId val="229780600"/>
+        <c:axId val="229783576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="573988696"/>
+        <c:axId val="229780600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3622,7 +3866,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="539883240"/>
+        <c:crossAx val="229783576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3630,7 +3874,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="539883240"/>
+        <c:axId val="229783576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3660,7 +3904,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="573988696"/>
+        <c:crossAx val="229780600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3902,11 +4146,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="550544504"/>
-        <c:axId val="404865368"/>
+        <c:axId val="229825656"/>
+        <c:axId val="229831688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="550544504"/>
+        <c:axId val="229825656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3934,7 +4178,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="404865368"/>
+        <c:crossAx val="229831688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3942,7 +4186,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="404865368"/>
+        <c:axId val="229831688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3972,7 +4216,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="550544504"/>
+        <c:crossAx val="229825656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4689,8 +4933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z814"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A473" workbookViewId="0">
-      <selection activeCell="C495" sqref="C495"/>
+    <sheetView tabSelected="1" topLeftCell="A609" workbookViewId="0">
+      <selection activeCell="K590" sqref="J590:N590"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -10621,10 +10865,10 @@
       <c r="E414" s="6"/>
     </row>
     <row r="415" spans="1:5">
-      <c r="A415" s="11" t="s">
+      <c r="A415" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B415" s="11"/>
+      <c r="B415" s="12"/>
       <c r="D415" s="6"/>
       <c r="E415" s="6"/>
     </row>
@@ -10641,7 +10885,7 @@
       <c r="D416" s="6"/>
       <c r="E416" s="6"/>
     </row>
-    <row r="417" spans="1:8">
+    <row r="417" spans="1:14">
       <c r="A417" t="s">
         <v>114</v>
       </c>
@@ -10654,7 +10898,7 @@
       <c r="D417" s="6"/>
       <c r="E417" s="6"/>
     </row>
-    <row r="418" spans="1:8">
+    <row r="418" spans="1:14">
       <c r="A418" t="s">
         <v>115</v>
       </c>
@@ -10669,7 +10913,7 @@
       <c r="D418" s="6"/>
       <c r="E418" s="6"/>
     </row>
-    <row r="419" spans="1:8">
+    <row r="419" spans="1:14">
       <c r="A419" t="s">
         <v>116</v>
       </c>
@@ -10683,7 +10927,7 @@
       <c r="D419" s="6"/>
       <c r="E419" s="6"/>
     </row>
-    <row r="420" spans="1:8">
+    <row r="420" spans="1:14">
       <c r="A420" t="s">
         <v>117</v>
       </c>
@@ -10698,15 +10942,18 @@
       <c r="D420" s="6"/>
       <c r="E420" s="6"/>
     </row>
-    <row r="423" spans="1:8">
+    <row r="423" spans="1:14">
       <c r="A423" t="s">
         <v>38</v>
       </c>
       <c r="B423" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="424" spans="1:8">
+      <c r="J423" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="424" spans="1:14">
       <c r="A424" t="s">
         <v>74</v>
       </c>
@@ -10731,14 +10978,29 @@
       <c r="H424">
         <v>153</v>
       </c>
-    </row>
-    <row r="425" spans="1:8">
-      <c r="A425" s="11" t="s">
+      <c r="J424">
+        <v>180</v>
+      </c>
+      <c r="K424" s="11">
+        <v>181</v>
+      </c>
+      <c r="L424" s="11">
+        <v>182</v>
+      </c>
+      <c r="M424" s="11">
+        <v>183</v>
+      </c>
+      <c r="N424" s="11">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="425" spans="1:14">
+      <c r="A425" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B425" s="11"/>
-    </row>
-    <row r="426" spans="1:8">
+      <c r="B425" s="12"/>
+    </row>
+    <row r="426" spans="1:14">
       <c r="A426" t="s">
         <v>34</v>
       </c>
@@ -10765,8 +11027,23 @@
       <c r="H426">
         <v>599</v>
       </c>
-    </row>
-    <row r="427" spans="1:8">
+      <c r="J426">
+        <v>573</v>
+      </c>
+      <c r="K426">
+        <v>567</v>
+      </c>
+      <c r="L426">
+        <v>570</v>
+      </c>
+      <c r="M426">
+        <v>571</v>
+      </c>
+      <c r="N426">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="427" spans="1:14">
       <c r="A427" t="s">
         <v>114</v>
       </c>
@@ -10791,8 +11068,23 @@
       <c r="H427">
         <v>585.85714285714289</v>
       </c>
-    </row>
-    <row r="428" spans="1:8">
+      <c r="J427">
+        <v>570.20000000000005</v>
+      </c>
+      <c r="K427">
+        <v>570.20000000000005</v>
+      </c>
+      <c r="L427">
+        <v>570.20000000000005</v>
+      </c>
+      <c r="M427">
+        <v>570.20000000000005</v>
+      </c>
+      <c r="N427">
+        <v>570.20000000000005</v>
+      </c>
+    </row>
+    <row r="428" spans="1:14">
       <c r="A428" t="s">
         <v>115</v>
       </c>
@@ -10805,7 +11097,7 @@
         <v>8.1632653061226339</v>
       </c>
       <c r="D428" s="9">
-        <f t="shared" ref="D428:H428" si="59">(D427-D426)*(D427-D426)</f>
+        <f t="shared" ref="D428:N428" si="59">(D427-D426)*(D427-D426)</f>
         <v>0.73469387755107607</v>
       </c>
       <c r="E428" s="9">
@@ -10824,8 +11116,28 @@
         <f t="shared" si="59"/>
         <v>172.73469387755017</v>
       </c>
-    </row>
-    <row r="429" spans="1:8">
+      <c r="J428" s="11">
+        <f t="shared" si="59"/>
+        <v>7.839999999999745</v>
+      </c>
+      <c r="K428" s="11">
+        <f t="shared" si="59"/>
+        <v>10.240000000000292</v>
+      </c>
+      <c r="L428" s="11">
+        <f t="shared" si="59"/>
+        <v>4.0000000000018188E-2</v>
+      </c>
+      <c r="M428" s="11">
+        <f t="shared" si="59"/>
+        <v>0.63999999999992729</v>
+      </c>
+      <c r="N428" s="11">
+        <f t="shared" si="59"/>
+        <v>4.0000000000018188E-2</v>
+      </c>
+    </row>
+    <row r="429" spans="1:14">
       <c r="A429" t="s">
         <v>116</v>
       </c>
@@ -10850,8 +11162,23 @@
       <c r="H429" s="9">
         <v>9.5682297426516296</v>
       </c>
-    </row>
-    <row r="430" spans="1:8">
+      <c r="J429" s="11">
+        <v>1.9390719429665315</v>
+      </c>
+      <c r="K429" s="11">
+        <v>1.9390719429665315</v>
+      </c>
+      <c r="L429">
+        <v>1.9390719429665315</v>
+      </c>
+      <c r="M429">
+        <v>1.9390719429665315</v>
+      </c>
+      <c r="N429">
+        <v>1.9390719429665315</v>
+      </c>
+    </row>
+    <row r="430" spans="1:14">
       <c r="A430" t="s">
         <v>117</v>
       </c>
@@ -10883,8 +11210,28 @@
         <f t="shared" si="60"/>
         <v>3.616450912312537</v>
       </c>
-    </row>
-    <row r="433" spans="1:8">
+      <c r="J430">
+        <f>J429/SQRT(5)</f>
+        <v>0.86717933554715187</v>
+      </c>
+      <c r="K430" s="11">
+        <f t="shared" ref="K430:N430" si="61">K429/SQRT(5)</f>
+        <v>0.86717933554715187</v>
+      </c>
+      <c r="L430" s="11">
+        <f t="shared" si="61"/>
+        <v>0.86717933554715187</v>
+      </c>
+      <c r="M430" s="11">
+        <f t="shared" si="61"/>
+        <v>0.86717933554715187</v>
+      </c>
+      <c r="N430" s="11">
+        <f t="shared" si="61"/>
+        <v>0.86717933554715187</v>
+      </c>
+    </row>
+    <row r="433" spans="1:14">
       <c r="A433" t="s">
         <v>38</v>
       </c>
@@ -10892,7 +11239,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="434" spans="1:8">
+    <row r="434" spans="1:14">
       <c r="A434" t="s">
         <v>74</v>
       </c>
@@ -10917,14 +11264,29 @@
       <c r="H434">
         <v>158</v>
       </c>
-    </row>
-    <row r="435" spans="1:8">
-      <c r="A435" s="11" t="s">
+      <c r="J434">
+        <v>191</v>
+      </c>
+      <c r="K434" s="11">
+        <v>192</v>
+      </c>
+      <c r="L434" s="11">
+        <v>193</v>
+      </c>
+      <c r="M434" s="11">
+        <v>194</v>
+      </c>
+      <c r="N434" s="11">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="435" spans="1:14">
+      <c r="A435" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B435" s="11"/>
-    </row>
-    <row r="436" spans="1:8">
+      <c r="B435" s="12"/>
+    </row>
+    <row r="436" spans="1:14">
       <c r="A436" t="s">
         <v>34</v>
       </c>
@@ -10949,8 +11311,23 @@
       <c r="H436">
         <v>598</v>
       </c>
-    </row>
-    <row r="437" spans="1:8">
+      <c r="J436">
+        <v>590</v>
+      </c>
+      <c r="K436">
+        <v>586</v>
+      </c>
+      <c r="L436">
+        <v>581</v>
+      </c>
+      <c r="M436">
+        <v>581</v>
+      </c>
+      <c r="N436">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="437" spans="1:14">
       <c r="A437" t="s">
         <v>114</v>
       </c>
@@ -10975,8 +11352,23 @@
       <c r="H437">
         <v>620.71428571428567</v>
       </c>
-    </row>
-    <row r="438" spans="1:8">
+      <c r="J437">
+        <v>584.20000000000005</v>
+      </c>
+      <c r="K437">
+        <v>584.20000000000005</v>
+      </c>
+      <c r="L437">
+        <v>584.20000000000005</v>
+      </c>
+      <c r="M437">
+        <v>584.20000000000005</v>
+      </c>
+      <c r="N437">
+        <v>584.20000000000005</v>
+      </c>
+    </row>
+    <row r="438" spans="1:14">
       <c r="A438" t="s">
         <v>115</v>
       </c>
@@ -10989,27 +11381,47 @@
         <v>1347.9387755102005</v>
       </c>
       <c r="D438" s="9">
-        <f t="shared" ref="D438:H438" si="61">(D437-D436)*(D437-D436)</f>
+        <f t="shared" ref="D438:H438" si="62">(D437-D436)*(D437-D436)</f>
         <v>246.93877551020256</v>
       </c>
       <c r="E438" s="9">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>313.79591836734522</v>
       </c>
       <c r="F438" s="9">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>453.08163265306331</v>
       </c>
       <c r="G438" s="9">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>1245.0816326530646</v>
       </c>
       <c r="H438" s="9">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>515.93877551020182</v>
       </c>
-    </row>
-    <row r="439" spans="1:8">
+      <c r="J438" s="11">
+        <f t="shared" ref="J438:N438" si="63">(J437-J436)*(J437-J436)</f>
+        <v>33.639999999999475</v>
+      </c>
+      <c r="K438" s="11">
+        <f t="shared" si="63"/>
+        <v>3.2399999999998363</v>
+      </c>
+      <c r="L438" s="11">
+        <f t="shared" si="63"/>
+        <v>10.240000000000292</v>
+      </c>
+      <c r="M438" s="11">
+        <f t="shared" si="63"/>
+        <v>10.240000000000292</v>
+      </c>
+      <c r="N438" s="11">
+        <f t="shared" si="63"/>
+        <v>1.4400000000001092</v>
+      </c>
+    </row>
+    <row r="439" spans="1:14">
       <c r="A439" t="s">
         <v>116</v>
       </c>
@@ -11034,8 +11446,23 @@
       <c r="H439">
         <v>27.875817916068328</v>
       </c>
-    </row>
-    <row r="440" spans="1:8">
+      <c r="J439" s="11">
+        <v>3.4292856398964497</v>
+      </c>
+      <c r="K439" s="11">
+        <v>3.4292856398964497</v>
+      </c>
+      <c r="L439">
+        <v>3.4292856398964497</v>
+      </c>
+      <c r="M439">
+        <v>3.4292856398964497</v>
+      </c>
+      <c r="N439">
+        <v>3.4292856398964497</v>
+      </c>
+    </row>
+    <row r="440" spans="1:14">
       <c r="A440" t="s">
         <v>117</v>
       </c>
@@ -11044,31 +11471,51 @@
         <v>10.53606882834794</v>
       </c>
       <c r="C440" s="9">
-        <f t="shared" ref="C440:H440" si="62">C439/SQRT(7)</f>
+        <f t="shared" ref="C440:H440" si="64">C439/SQRT(7)</f>
         <v>10.53606882834794</v>
       </c>
       <c r="D440" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>10.53606882834794</v>
       </c>
       <c r="E440" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>10.53606882834794</v>
       </c>
       <c r="F440" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>10.53606882834794</v>
       </c>
       <c r="G440" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>10.53606882834794</v>
       </c>
       <c r="H440" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>10.53606882834794</v>
       </c>
-    </row>
-    <row r="443" spans="1:8">
+      <c r="J440">
+        <f>J439/SQRT(5)</f>
+        <v>1.5336231610144653</v>
+      </c>
+      <c r="K440" s="11">
+        <f t="shared" ref="K440:N440" si="65">K439/SQRT(5)</f>
+        <v>1.5336231610144653</v>
+      </c>
+      <c r="L440" s="11">
+        <f t="shared" si="65"/>
+        <v>1.5336231610144653</v>
+      </c>
+      <c r="M440" s="11">
+        <f t="shared" si="65"/>
+        <v>1.5336231610144653</v>
+      </c>
+      <c r="N440" s="11">
+        <f t="shared" si="65"/>
+        <v>1.5336231610144653</v>
+      </c>
+    </row>
+    <row r="443" spans="1:14">
       <c r="A443" t="s">
         <v>32</v>
       </c>
@@ -11076,7 +11523,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="444" spans="1:8">
+    <row r="444" spans="1:14">
       <c r="A444" t="s">
         <v>74</v>
       </c>
@@ -11095,13 +11542,19 @@
       <c r="F444">
         <v>161</v>
       </c>
-    </row>
-    <row r="445" spans="1:8">
+      <c r="J444">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="445" spans="1:14">
       <c r="A445" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="446" spans="1:8">
+      <c r="J445">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="446" spans="1:14">
       <c r="A446" t="s">
         <v>34</v>
       </c>
@@ -11121,7 +11574,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="447" spans="1:8">
+    <row r="447" spans="1:14">
       <c r="A447" t="s">
         <v>114</v>
       </c>
@@ -11141,7 +11594,7 @@
         <v>662.6</v>
       </c>
     </row>
-    <row r="448" spans="1:8">
+    <row r="448" spans="1:14">
       <c r="A448" t="s">
         <v>115</v>
       </c>
@@ -11150,23 +11603,23 @@
         <v>2560.3600000000024</v>
       </c>
       <c r="C448" s="9">
-        <f t="shared" ref="C448:F448" si="63">(C447-C446)*(C447-C446)</f>
+        <f t="shared" ref="C448:F448" si="66">(C447-C446)*(C447-C446)</f>
         <v>73.960000000000392</v>
       </c>
       <c r="D448" s="9">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>112.36000000000048</v>
       </c>
       <c r="E448" s="9">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>985.95999999999856</v>
       </c>
       <c r="F448" s="9">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>1474.5599999999984</v>
       </c>
     </row>
-    <row r="449" spans="1:8">
+    <row r="449" spans="1:14">
       <c r="A449" t="s">
         <v>116</v>
       </c>
@@ -11186,7 +11639,7 @@
         <v>32.271349522447927</v>
       </c>
     </row>
-    <row r="450" spans="1:8">
+    <row r="450" spans="1:14">
       <c r="A450" t="s">
         <v>117</v>
       </c>
@@ -11195,23 +11648,23 @@
         <v>14.432186251569787</v>
       </c>
       <c r="C450" s="9">
-        <f t="shared" ref="C450:F450" si="64">C449/SQRT(5)</f>
+        <f t="shared" ref="C450:F450" si="67">C449/SQRT(5)</f>
         <v>14.432186251569787</v>
       </c>
       <c r="D450" s="9">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>14.432186251569787</v>
       </c>
       <c r="E450" s="9">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>14.432186251569787</v>
       </c>
       <c r="F450" s="9">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>14.432186251569787</v>
       </c>
     </row>
-    <row r="454" spans="1:8">
+    <row r="454" spans="1:14">
       <c r="A454" t="s">
         <v>42</v>
       </c>
@@ -11219,7 +11672,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="455" spans="1:8">
+    <row r="455" spans="1:14">
       <c r="A455" t="s">
         <v>74</v>
       </c>
@@ -11244,13 +11697,28 @@
       <c r="H455">
         <v>171</v>
       </c>
-    </row>
-    <row r="456" spans="1:8">
+      <c r="J455">
+        <v>175</v>
+      </c>
+      <c r="K455" s="11">
+        <v>176</v>
+      </c>
+      <c r="L455" s="11">
+        <v>177</v>
+      </c>
+      <c r="M455" s="11">
+        <v>178</v>
+      </c>
+      <c r="N455">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="456" spans="1:14">
       <c r="A456" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="457" spans="1:8">
+    <row r="457" spans="1:14">
       <c r="A457" t="s">
         <v>34</v>
       </c>
@@ -11275,8 +11743,23 @@
       <c r="H457">
         <v>581</v>
       </c>
-    </row>
-    <row r="458" spans="1:8">
+      <c r="J457">
+        <v>602</v>
+      </c>
+      <c r="K457">
+        <v>590</v>
+      </c>
+      <c r="L457">
+        <v>579</v>
+      </c>
+      <c r="M457">
+        <v>587</v>
+      </c>
+      <c r="N457">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="458" spans="1:14">
       <c r="A458" t="s">
         <v>114</v>
       </c>
@@ -11301,8 +11784,23 @@
       <c r="H458">
         <v>584.83333333333337</v>
       </c>
-    </row>
-    <row r="459" spans="1:8">
+      <c r="J458">
+        <v>586.20000000000005</v>
+      </c>
+      <c r="K458">
+        <v>586.20000000000005</v>
+      </c>
+      <c r="L458">
+        <v>586.20000000000005</v>
+      </c>
+      <c r="M458">
+        <v>586.20000000000005</v>
+      </c>
+      <c r="N458">
+        <v>586.20000000000005</v>
+      </c>
+    </row>
+    <row r="459" spans="1:14">
       <c r="A459" t="s">
         <v>115</v>
       </c>
@@ -11315,27 +11813,47 @@
         <v>393.36111111111262</v>
       </c>
       <c r="D459" s="9">
-        <f t="shared" ref="D459:H459" si="65">(D458-D457)*(D458-D457)</f>
+        <f t="shared" ref="D459:N459" si="68">(D458-D457)*(D458-D457)</f>
         <v>3268.0277777777733</v>
       </c>
       <c r="E459" s="9">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>10.027777777777537</v>
       </c>
       <c r="F459" s="9">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>148.02777777777686</v>
       </c>
       <c r="G459" s="9">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>536.69444444444264</v>
       </c>
       <c r="H459" s="9">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>14.694444444444734</v>
       </c>
-    </row>
-    <row r="460" spans="1:8">
+      <c r="J459" s="11">
+        <f t="shared" si="68"/>
+        <v>249.63999999999857</v>
+      </c>
+      <c r="K459" s="11">
+        <f t="shared" si="68"/>
+        <v>14.439999999999655</v>
+      </c>
+      <c r="L459" s="11">
+        <f t="shared" si="68"/>
+        <v>51.840000000000657</v>
+      </c>
+      <c r="M459" s="11">
+        <f t="shared" si="68"/>
+        <v>0.63999999999992729</v>
+      </c>
+      <c r="N459" s="11">
+        <f t="shared" si="68"/>
+        <v>174.2400000000012</v>
+      </c>
+    </row>
+    <row r="460" spans="1:14">
       <c r="A460" t="s">
         <v>116</v>
       </c>
@@ -11360,8 +11878,23 @@
       <c r="H460">
         <v>14.848307049028259</v>
       </c>
-    </row>
-    <row r="461" spans="1:8">
+      <c r="J460" s="11">
+        <v>9.9075728612006682</v>
+      </c>
+      <c r="K460" s="11">
+        <v>9.9075728612006682</v>
+      </c>
+      <c r="L460">
+        <v>9.9075728612006682</v>
+      </c>
+      <c r="M460">
+        <v>9.9075728612006682</v>
+      </c>
+      <c r="N460">
+        <v>9.9075728612006682</v>
+      </c>
+    </row>
+    <row r="461" spans="1:14">
       <c r="A461" t="s">
         <v>117</v>
       </c>
@@ -11370,31 +11903,51 @@
         <v>6.0617959690483136</v>
       </c>
       <c r="C461" s="10">
-        <f t="shared" ref="C461:H461" si="66">C460/SQRT(6)</f>
+        <f t="shared" ref="C461:H461" si="69">C460/SQRT(6)</f>
         <v>6.0617959690483136</v>
       </c>
       <c r="D461" s="10">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>6.0617959690483136</v>
       </c>
       <c r="E461" s="10">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>6.0617959690483136</v>
       </c>
       <c r="F461" s="10">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>6.0617959690483136</v>
       </c>
       <c r="G461" s="10">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>6.0617959690483136</v>
       </c>
       <c r="H461" s="10">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>6.0617959690483136</v>
       </c>
-    </row>
-    <row r="463" spans="1:8">
+      <c r="J461">
+        <f>J460/SQRT(5)</f>
+        <v>4.4308012819353566</v>
+      </c>
+      <c r="K461" s="11">
+        <f t="shared" ref="K461:N461" si="70">K460/SQRT(5)</f>
+        <v>4.4308012819353566</v>
+      </c>
+      <c r="L461" s="11">
+        <f t="shared" si="70"/>
+        <v>4.4308012819353566</v>
+      </c>
+      <c r="M461" s="11">
+        <f t="shared" si="70"/>
+        <v>4.4308012819353566</v>
+      </c>
+      <c r="N461" s="11">
+        <f t="shared" si="70"/>
+        <v>4.4308012819353566</v>
+      </c>
+    </row>
+    <row r="463" spans="1:14">
       <c r="A463" t="s">
         <v>42</v>
       </c>
@@ -11402,7 +11955,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="464" spans="1:8">
+    <row r="464" spans="1:14">
       <c r="A464" t="s">
         <v>74</v>
       </c>
@@ -11427,13 +11980,28 @@
       <c r="H464">
         <v>166</v>
       </c>
-    </row>
-    <row r="465" spans="1:8">
+      <c r="J464">
+        <v>185</v>
+      </c>
+      <c r="K464" s="11">
+        <v>186</v>
+      </c>
+      <c r="L464" s="11">
+        <v>187</v>
+      </c>
+      <c r="M464" s="11">
+        <v>188</v>
+      </c>
+      <c r="N464" s="11">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="465" spans="1:14">
       <c r="A465" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="466" spans="1:8">
+    <row r="466" spans="1:14">
       <c r="A466" t="s">
         <v>34</v>
       </c>
@@ -11458,8 +12026,23 @@
       <c r="H466">
         <v>650</v>
       </c>
-    </row>
-    <row r="467" spans="1:8">
+      <c r="J466">
+        <v>588</v>
+      </c>
+      <c r="K466">
+        <v>594</v>
+      </c>
+      <c r="L466">
+        <v>589</v>
+      </c>
+      <c r="M466">
+        <v>584</v>
+      </c>
+      <c r="N466">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="467" spans="1:14">
       <c r="A467" t="s">
         <v>114</v>
       </c>
@@ -11484,8 +12067,23 @@
       <c r="H467">
         <v>614.14285714285711</v>
       </c>
-    </row>
-    <row r="468" spans="1:8">
+      <c r="J467">
+        <v>588</v>
+      </c>
+      <c r="K467">
+        <v>588</v>
+      </c>
+      <c r="L467">
+        <v>588</v>
+      </c>
+      <c r="M467">
+        <v>588</v>
+      </c>
+      <c r="N467">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="468" spans="1:14">
       <c r="A468" t="s">
         <v>115</v>
       </c>
@@ -11498,27 +12096,47 @@
         <v>26.694444444444052</v>
       </c>
       <c r="D468" s="9">
-        <f t="shared" ref="D468:H468" si="67">(D467-D466)*(D467-D466)</f>
+        <f t="shared" ref="D468:N468" si="71">(D467-D466)*(D467-D466)</f>
         <v>250.69444444444565</v>
       </c>
       <c r="E468" s="9">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>831.36111111111325</v>
       </c>
       <c r="F468" s="9">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>1.3611111111110228</v>
       </c>
       <c r="G468" s="9">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>84.027777777777089</v>
       </c>
       <c r="H468" s="9">
-        <f t="shared" si="67"/>
+        <f t="shared" si="71"/>
         <v>1285.7346938775534</v>
       </c>
-    </row>
-    <row r="469" spans="1:8">
+      <c r="J468" s="11">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+      <c r="K468" s="11">
+        <f t="shared" si="71"/>
+        <v>36</v>
+      </c>
+      <c r="L468" s="11">
+        <f t="shared" si="71"/>
+        <v>1</v>
+      </c>
+      <c r="M468" s="11">
+        <f t="shared" si="71"/>
+        <v>16</v>
+      </c>
+      <c r="N468" s="11">
+        <f t="shared" si="71"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="469" spans="1:14">
       <c r="A469" t="s">
         <v>116</v>
       </c>
@@ -11543,8 +12161,23 @@
       <c r="H469">
         <v>22.50351446475208</v>
       </c>
-    </row>
-    <row r="470" spans="1:8">
+      <c r="J469" s="11">
+        <v>3.5213633723318019</v>
+      </c>
+      <c r="K469" s="11">
+        <v>3.5213633723318019</v>
+      </c>
+      <c r="L469">
+        <v>3.5213633723318019</v>
+      </c>
+      <c r="M469">
+        <v>3.5213633723318019</v>
+      </c>
+      <c r="N469">
+        <v>3.5213633723318019</v>
+      </c>
+    </row>
+    <row r="470" spans="1:14">
       <c r="A470" t="s">
         <v>117</v>
       </c>
@@ -11553,31 +12186,51 @@
         <v>7.5366389011233617</v>
       </c>
       <c r="C470" s="10">
-        <f t="shared" ref="C470:G470" si="68">C469/SQRT(6)</f>
+        <f t="shared" ref="C470:G470" si="72">C469/SQRT(6)</f>
         <v>7.5366389011233617</v>
       </c>
       <c r="D470" s="10">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>7.5366389011233617</v>
       </c>
       <c r="E470" s="10">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>7.5366389011233617</v>
       </c>
       <c r="F470" s="10">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>7.5366389011233617</v>
       </c>
       <c r="G470" s="10">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>7.5366389011233617</v>
       </c>
       <c r="H470" s="9">
-        <f t="shared" ref="C470:H470" si="69">H469/SQRT(7)</f>
+        <f t="shared" ref="H470" si="73">H469/SQRT(7)</f>
         <v>8.505528985525542</v>
       </c>
-    </row>
-    <row r="472" spans="1:8">
+      <c r="J470">
+        <f>J469/SQRT(5)</f>
+        <v>1.574801574802362</v>
+      </c>
+      <c r="K470" s="11">
+        <f t="shared" ref="K470:N470" si="74">K469/SQRT(5)</f>
+        <v>1.574801574802362</v>
+      </c>
+      <c r="L470" s="11">
+        <f t="shared" si="74"/>
+        <v>1.574801574802362</v>
+      </c>
+      <c r="M470" s="11">
+        <f t="shared" si="74"/>
+        <v>1.574801574802362</v>
+      </c>
+      <c r="N470" s="11">
+        <f t="shared" si="74"/>
+        <v>1.574801574802362</v>
+      </c>
+    </row>
+    <row r="472" spans="1:14">
       <c r="A472" t="s">
         <v>41</v>
       </c>
@@ -11585,7 +12238,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="473" spans="1:8">
+    <row r="473" spans="1:14">
       <c r="A473" t="s">
         <v>74</v>
       </c>
@@ -11605,12 +12258,12 @@
         <v>174</v>
       </c>
     </row>
-    <row r="474" spans="1:8">
+    <row r="474" spans="1:14">
       <c r="A474" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="475" spans="1:8">
+    <row r="475" spans="1:14">
       <c r="A475" t="s">
         <v>34</v>
       </c>
@@ -11630,7 +12283,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="476" spans="1:8">
+    <row r="476" spans="1:14">
       <c r="A476" t="s">
         <v>114</v>
       </c>
@@ -11650,7 +12303,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="477" spans="1:8">
+    <row r="477" spans="1:14">
       <c r="A477" t="s">
         <v>115</v>
       </c>
@@ -11663,19 +12316,19 @@
         <v>225</v>
       </c>
       <c r="D477" s="9">
-        <f t="shared" ref="D477:F477" si="70">(D476-D475)*(D476-D475)</f>
+        <f t="shared" ref="D477:F477" si="75">(D476-D475)*(D476-D475)</f>
         <v>196</v>
       </c>
       <c r="E477" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="75"/>
         <v>9</v>
       </c>
       <c r="F477" s="9">
-        <f t="shared" si="70"/>
+        <f t="shared" si="75"/>
         <v>36</v>
       </c>
     </row>
-    <row r="478" spans="1:8">
+    <row r="478" spans="1:14">
       <c r="A478" t="s">
         <v>116</v>
       </c>
@@ -11695,7 +12348,7 @@
         <v>10.295630140987001</v>
       </c>
     </row>
-    <row r="479" spans="1:8">
+    <row r="479" spans="1:14">
       <c r="A479" t="s">
         <v>117</v>
       </c>
@@ -11704,23 +12357,23 @@
         <v>4.6043457732885349</v>
       </c>
       <c r="C479" s="9">
-        <f t="shared" ref="C479:F479" si="71">C478/SQRT(5)</f>
+        <f t="shared" ref="C479:F479" si="76">C478/SQRT(5)</f>
         <v>4.6043457732885349</v>
       </c>
       <c r="D479" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="76"/>
         <v>4.6043457732885349</v>
       </c>
       <c r="E479" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="76"/>
         <v>4.6043457732885349</v>
       </c>
       <c r="F479" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="76"/>
         <v>4.6043457732885349</v>
       </c>
     </row>
-    <row r="483" spans="1:6">
+    <row r="483" spans="1:14">
       <c r="A483" s="8" t="s">
         <v>38</v>
       </c>
@@ -11728,7 +12381,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="484" spans="1:6">
+    <row r="484" spans="1:14">
       <c r="A484" s="8" t="s">
         <v>74</v>
       </c>
@@ -11747,14 +12400,29 @@
       <c r="F484">
         <v>108</v>
       </c>
-    </row>
-    <row r="485" spans="1:6">
-      <c r="A485" s="11" t="s">
+      <c r="J484">
+        <v>148</v>
+      </c>
+      <c r="K484" s="11">
+        <v>149</v>
+      </c>
+      <c r="L484" s="11">
+        <v>150</v>
+      </c>
+      <c r="M484" s="11">
+        <v>151</v>
+      </c>
+      <c r="N484" s="11">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="485" spans="1:14">
+      <c r="A485" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B485" s="11"/>
-    </row>
-    <row r="486" spans="1:6">
+      <c r="B485" s="12"/>
+    </row>
+    <row r="486" spans="1:14">
       <c r="A486" s="8" t="s">
         <v>184</v>
       </c>
@@ -11778,8 +12446,23 @@
         <f>14*60+50-49</f>
         <v>841</v>
       </c>
-    </row>
-    <row r="487" spans="1:6">
+      <c r="J486">
+        <v>614</v>
+      </c>
+      <c r="K486">
+        <v>604</v>
+      </c>
+      <c r="L486">
+        <v>607</v>
+      </c>
+      <c r="M486">
+        <v>609</v>
+      </c>
+      <c r="N486">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="487" spans="1:14">
       <c r="A487" s="8" t="s">
         <v>114</v>
       </c>
@@ -11798,8 +12481,23 @@
       <c r="F487">
         <v>756.8</v>
       </c>
-    </row>
-    <row r="488" spans="1:6">
+      <c r="J487">
+        <v>607.6</v>
+      </c>
+      <c r="K487">
+        <v>607.6</v>
+      </c>
+      <c r="L487">
+        <v>607.6</v>
+      </c>
+      <c r="M487">
+        <v>607.6</v>
+      </c>
+      <c r="N487">
+        <v>607.6</v>
+      </c>
+    </row>
+    <row r="488" spans="1:14">
       <c r="A488" s="8" t="s">
         <v>115</v>
       </c>
@@ -11808,23 +12506,43 @@
         <v>2480.0399999999954</v>
       </c>
       <c r="C488" s="9">
-        <f t="shared" ref="C488:F488" si="72">(C487-C486)*(C487-C486)</f>
+        <f t="shared" ref="C488:F488" si="77">(C487-C486)*(C487-C486)</f>
         <v>96.039999999999111</v>
       </c>
       <c r="D488" s="9">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>77.439999999999202</v>
       </c>
       <c r="E488" s="9">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>249.63999999999857</v>
       </c>
       <c r="F488" s="9">
-        <f t="shared" si="72"/>
+        <f t="shared" si="77"/>
         <v>7089.6400000000076</v>
       </c>
-    </row>
-    <row r="489" spans="1:6" s="7" customFormat="1">
+      <c r="J488" s="11">
+        <f t="shared" ref="J488:N488" si="78">(J487-J486)*(J487-J486)</f>
+        <v>40.95999999999971</v>
+      </c>
+      <c r="K488" s="11">
+        <f t="shared" si="78"/>
+        <v>12.960000000000164</v>
+      </c>
+      <c r="L488" s="11">
+        <f t="shared" si="78"/>
+        <v>0.3600000000000273</v>
+      </c>
+      <c r="M488" s="11">
+        <f t="shared" si="78"/>
+        <v>1.9599999999999362</v>
+      </c>
+      <c r="N488" s="11">
+        <f t="shared" si="78"/>
+        <v>12.960000000000164</v>
+      </c>
+    </row>
+    <row r="489" spans="1:14" s="7" customFormat="1">
       <c r="A489" s="8" t="s">
         <v>116</v>
       </c>
@@ -11843,8 +12561,23 @@
       <c r="F489" s="7">
         <v>44.705256961569965</v>
       </c>
-    </row>
-    <row r="490" spans="1:6" s="7" customFormat="1">
+      <c r="J489" s="11">
+        <v>3.7202150475476548</v>
+      </c>
+      <c r="K489" s="11">
+        <v>3.7202150475476548</v>
+      </c>
+      <c r="L489" s="7">
+        <v>3.7202150475476548</v>
+      </c>
+      <c r="M489" s="7">
+        <v>3.7202150475476548</v>
+      </c>
+      <c r="N489" s="7">
+        <v>3.7202150475476548</v>
+      </c>
+    </row>
+    <row r="490" spans="1:14" s="7" customFormat="1">
       <c r="A490" s="8" t="s">
         <v>117</v>
       </c>
@@ -11853,31 +12586,51 @@
         <v>19.992798703533229</v>
       </c>
       <c r="C490" s="9">
-        <f t="shared" ref="C490:F490" si="73">C489/SQRT(5)</f>
+        <f t="shared" ref="C490:F490" si="79">C489/SQRT(5)</f>
         <v>19.992798703533229</v>
       </c>
       <c r="D490" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v>19.992798703533229</v>
       </c>
       <c r="E490" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v>19.992798703533229</v>
       </c>
       <c r="F490" s="9">
-        <f t="shared" si="73"/>
+        <f t="shared" si="79"/>
         <v>19.992798703533229</v>
       </c>
-    </row>
-    <row r="491" spans="1:6" s="7" customFormat="1">
+      <c r="J490" s="7">
+        <f>J489/SQRT(5)</f>
+        <v>1.6637307474468337</v>
+      </c>
+      <c r="K490" s="11">
+        <f t="shared" ref="K490:N490" si="80">K489/SQRT(5)</f>
+        <v>1.6637307474468337</v>
+      </c>
+      <c r="L490" s="11">
+        <f t="shared" si="80"/>
+        <v>1.6637307474468337</v>
+      </c>
+      <c r="M490" s="11">
+        <f t="shared" si="80"/>
+        <v>1.6637307474468337</v>
+      </c>
+      <c r="N490" s="11">
+        <f t="shared" si="80"/>
+        <v>1.6637307474468337</v>
+      </c>
+    </row>
+    <row r="491" spans="1:14" s="7" customFormat="1">
       <c r="A491" s="8"/>
       <c r="B491" s="8"/>
     </row>
-    <row r="492" spans="1:6" s="7" customFormat="1">
+    <row r="492" spans="1:14" s="7" customFormat="1">
       <c r="A492" s="8"/>
       <c r="B492" s="8"/>
     </row>
-    <row r="493" spans="1:6" s="7" customFormat="1">
+    <row r="493" spans="1:14" s="7" customFormat="1">
       <c r="A493" s="8" t="s">
         <v>38</v>
       </c>
@@ -11885,7 +12638,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="494" spans="1:6" s="7" customFormat="1">
+    <row r="494" spans="1:14" s="7" customFormat="1">
       <c r="A494" s="8" t="s">
         <v>74</v>
       </c>
@@ -11905,13 +12658,13 @@
         <v>112</v>
       </c>
     </row>
-    <row r="495" spans="1:6" s="7" customFormat="1">
-      <c r="A495" s="11" t="s">
+    <row r="495" spans="1:14" s="7" customFormat="1">
+      <c r="A495" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B495" s="11"/>
-    </row>
-    <row r="496" spans="1:6" s="7" customFormat="1">
+      <c r="B495" s="12"/>
+    </row>
+    <row r="496" spans="1:14" s="7" customFormat="1">
       <c r="A496" s="8" t="s">
         <v>184</v>
       </c>
@@ -11964,19 +12717,19 @@
         <v>3648.1599999999971</v>
       </c>
       <c r="C498" s="9">
-        <f t="shared" ref="C498:F498" si="74">(C497-C496)*(C497-C496)</f>
+        <f t="shared" ref="C498:F498" si="81">(C497-C496)*(C497-C496)</f>
         <v>6336.1600000000035</v>
       </c>
       <c r="D498" s="9">
-        <f t="shared" si="74"/>
+        <f t="shared" si="81"/>
         <v>6.7600000000001179</v>
       </c>
       <c r="E498" s="9">
-        <f t="shared" si="74"/>
+        <f t="shared" si="81"/>
         <v>2.5600000000000729</v>
       </c>
       <c r="F498" s="9">
-        <f t="shared" si="74"/>
+        <f t="shared" si="81"/>
         <v>547.55999999999892</v>
       </c>
     </row>
@@ -12009,19 +12762,19 @@
         <v>20.534069250881569</v>
       </c>
       <c r="C500" s="9">
-        <f t="shared" ref="C500:F500" si="75">C499/SQRT(5)</f>
+        <f t="shared" ref="C500:F500" si="82">C499/SQRT(5)</f>
         <v>20.534069250881569</v>
       </c>
       <c r="D500" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="82"/>
         <v>20.534069250881569</v>
       </c>
       <c r="E500" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="82"/>
         <v>20.534069250881569</v>
       </c>
       <c r="F500" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="82"/>
         <v>20.534069250881569</v>
       </c>
     </row>
@@ -12121,19 +12874,19 @@
         <v>10650.240000000009</v>
       </c>
       <c r="C508" s="9">
-        <f t="shared" ref="C508:F508" si="76">(C507-C506)*(C507-C506)</f>
+        <f t="shared" ref="C508:F508" si="83">(C507-C506)*(C507-C506)</f>
         <v>6593.4400000000078</v>
       </c>
       <c r="D508" s="9">
-        <f t="shared" si="76"/>
+        <f t="shared" si="83"/>
         <v>15326.43999999999</v>
       </c>
       <c r="E508" s="9">
-        <f t="shared" si="76"/>
+        <f t="shared" si="83"/>
         <v>665.6399999999976</v>
       </c>
       <c r="F508" s="9">
-        <f t="shared" si="76"/>
+        <f t="shared" si="83"/>
         <v>1211.0399999999968</v>
       </c>
     </row>
@@ -12166,25 +12919,25 @@
         <v>37.119698274635795</v>
       </c>
       <c r="C510" s="9">
-        <f t="shared" ref="C510:F510" si="77">C509/SQRT(5)</f>
+        <f t="shared" ref="C510:F510" si="84">C509/SQRT(5)</f>
         <v>37.119698274635795</v>
       </c>
       <c r="D510" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v>37.119698274635795</v>
       </c>
       <c r="E510" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v>37.119698274635795</v>
       </c>
       <c r="F510" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="84"/>
         <v>37.119698274635795</v>
       </c>
     </row>
     <row r="511" spans="1:6" s="7" customFormat="1"/>
     <row r="512" spans="1:6" s="7" customFormat="1"/>
-    <row r="513" spans="1:6" s="8" customFormat="1">
+    <row r="513" spans="1:14" s="8" customFormat="1">
       <c r="A513" s="8" t="s">
         <v>186</v>
       </c>
@@ -12192,7 +12945,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="514" spans="1:6" s="8" customFormat="1">
+    <row r="514" spans="1:14" s="8" customFormat="1">
       <c r="A514" s="8" t="s">
         <v>74</v>
       </c>
@@ -12211,14 +12964,29 @@
       <c r="F514" s="8">
         <v>120</v>
       </c>
-    </row>
-    <row r="515" spans="1:6" s="8" customFormat="1">
-      <c r="A515" s="11" t="s">
+      <c r="J514" s="8">
+        <v>143</v>
+      </c>
+      <c r="K514" s="11">
+        <v>144</v>
+      </c>
+      <c r="L514" s="11">
+        <v>145</v>
+      </c>
+      <c r="M514" s="11">
+        <v>146</v>
+      </c>
+      <c r="N514" s="11">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="515" spans="1:14" s="8" customFormat="1">
+      <c r="A515" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B515" s="11"/>
-    </row>
-    <row r="516" spans="1:6" s="8" customFormat="1">
+      <c r="B515" s="12"/>
+    </row>
+    <row r="516" spans="1:14" s="8" customFormat="1">
       <c r="A516" s="8" t="s">
         <v>184</v>
       </c>
@@ -12240,8 +13008,23 @@
       <c r="F516" s="8">
         <v>716</v>
       </c>
-    </row>
-    <row r="517" spans="1:6" s="8" customFormat="1">
+      <c r="J516" s="8">
+        <v>626</v>
+      </c>
+      <c r="K516" s="8">
+        <v>630</v>
+      </c>
+      <c r="L516" s="8">
+        <v>625</v>
+      </c>
+      <c r="M516" s="8">
+        <v>623</v>
+      </c>
+      <c r="N516" s="8">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="517" spans="1:14" s="8" customFormat="1">
       <c r="A517" s="8" t="s">
         <v>114</v>
       </c>
@@ -12260,8 +13043,23 @@
       <c r="F517" s="8">
         <v>723.2</v>
       </c>
-    </row>
-    <row r="518" spans="1:6" s="8" customFormat="1">
+      <c r="J517" s="8">
+        <v>623.20000000000005</v>
+      </c>
+      <c r="K517" s="8">
+        <v>623.20000000000005</v>
+      </c>
+      <c r="L517" s="8">
+        <v>623.20000000000005</v>
+      </c>
+      <c r="M517" s="8">
+        <v>623.20000000000005</v>
+      </c>
+      <c r="N517" s="8">
+        <v>623.20000000000005</v>
+      </c>
+    </row>
+    <row r="518" spans="1:14" s="8" customFormat="1">
       <c r="A518" s="8" t="s">
         <v>115</v>
       </c>
@@ -12270,23 +13068,43 @@
         <v>282.23999999999847</v>
       </c>
       <c r="C518" s="9">
-        <f t="shared" ref="C518:F518" si="78">(C517-C516)*(C517-C516)</f>
+        <f t="shared" ref="C518:F518" si="85">(C517-C516)*(C517-C516)</f>
         <v>7.839999999999745</v>
       </c>
       <c r="D518" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="85"/>
         <v>125.44000000000102</v>
       </c>
       <c r="E518" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="85"/>
         <v>1.4400000000001092</v>
       </c>
       <c r="F518" s="9">
-        <f t="shared" si="78"/>
+        <f t="shared" si="85"/>
         <v>51.840000000000657</v>
       </c>
-    </row>
-    <row r="519" spans="1:6" s="8" customFormat="1">
+      <c r="J518" s="11">
+        <f t="shared" ref="J518:N518" si="86">(J517-J516)*(J517-J516)</f>
+        <v>7.839999999999745</v>
+      </c>
+      <c r="K518" s="11">
+        <f t="shared" si="86"/>
+        <v>46.239999999999384</v>
+      </c>
+      <c r="L518" s="11">
+        <f t="shared" si="86"/>
+        <v>3.2399999999998363</v>
+      </c>
+      <c r="M518" s="11">
+        <f t="shared" si="86"/>
+        <v>4.0000000000018188E-2</v>
+      </c>
+      <c r="N518" s="11">
+        <f t="shared" si="86"/>
+        <v>125.44000000000102</v>
+      </c>
+    </row>
+    <row r="519" spans="1:14" s="8" customFormat="1">
       <c r="A519" s="8" t="s">
         <v>116</v>
       </c>
@@ -12305,8 +13123,23 @@
       <c r="F519" s="8">
         <v>9.6829747495281637</v>
       </c>
-    </row>
-    <row r="520" spans="1:6" s="8" customFormat="1">
+      <c r="J519" s="11">
+        <v>6.0464865831323902</v>
+      </c>
+      <c r="K519" s="11">
+        <v>6.0464865831323902</v>
+      </c>
+      <c r="L519" s="8">
+        <v>6.0464865831323902</v>
+      </c>
+      <c r="M519" s="8">
+        <v>6.0464865831323902</v>
+      </c>
+      <c r="N519" s="8">
+        <v>6.0464865831323902</v>
+      </c>
+    </row>
+    <row r="520" spans="1:14" s="8" customFormat="1">
       <c r="A520" s="8" t="s">
         <v>117</v>
       </c>
@@ -12315,25 +13148,45 @@
         <v>4.3303579528717941</v>
       </c>
       <c r="C520" s="9">
-        <f t="shared" ref="C520:F520" si="79">C519/SQRT(5)</f>
+        <f t="shared" ref="C520:F520" si="87">C519/SQRT(5)</f>
         <v>4.3303579528717941</v>
       </c>
       <c r="D520" s="9">
-        <f t="shared" si="79"/>
+        <f t="shared" si="87"/>
         <v>4.3303579528717941</v>
       </c>
       <c r="E520" s="9">
-        <f t="shared" si="79"/>
+        <f t="shared" si="87"/>
         <v>4.3303579528717941</v>
       </c>
       <c r="F520" s="9">
-        <f t="shared" si="79"/>
+        <f t="shared" si="87"/>
         <v>4.3303579528717941</v>
       </c>
-    </row>
-    <row r="521" spans="1:6" s="8" customFormat="1"/>
-    <row r="522" spans="1:6" s="8" customFormat="1"/>
-    <row r="523" spans="1:6" s="8" customFormat="1">
+      <c r="J520" s="8">
+        <f>J519/SQRT(5)</f>
+        <v>2.7040710049848915</v>
+      </c>
+      <c r="K520" s="11">
+        <f t="shared" ref="K520:N520" si="88">K519/SQRT(5)</f>
+        <v>2.7040710049848915</v>
+      </c>
+      <c r="L520" s="11">
+        <f t="shared" si="88"/>
+        <v>2.7040710049848915</v>
+      </c>
+      <c r="M520" s="11">
+        <f t="shared" si="88"/>
+        <v>2.7040710049848915</v>
+      </c>
+      <c r="N520" s="11">
+        <f t="shared" si="88"/>
+        <v>2.7040710049848915</v>
+      </c>
+    </row>
+    <row r="521" spans="1:14" s="8" customFormat="1"/>
+    <row r="522" spans="1:14" s="8" customFormat="1"/>
+    <row r="523" spans="1:14" s="8" customFormat="1">
       <c r="A523" s="8" t="s">
         <v>186</v>
       </c>
@@ -12341,7 +13194,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="524" spans="1:6" s="8" customFormat="1">
+    <row r="524" spans="1:14" s="8" customFormat="1">
       <c r="A524" s="8" t="s">
         <v>74</v>
       </c>
@@ -12360,14 +13213,29 @@
       <c r="F524" s="8">
         <v>125</v>
       </c>
-    </row>
-    <row r="525" spans="1:6" s="8" customFormat="1">
-      <c r="A525" s="11" t="s">
+      <c r="J524" s="8">
+        <v>153</v>
+      </c>
+      <c r="K524" s="11">
+        <v>154</v>
+      </c>
+      <c r="L524" s="11">
+        <v>155</v>
+      </c>
+      <c r="M524" s="11">
+        <v>156</v>
+      </c>
+      <c r="N524" s="11">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="525" spans="1:14" s="8" customFormat="1">
+      <c r="A525" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B525" s="11"/>
-    </row>
-    <row r="526" spans="1:6" s="8" customFormat="1">
+      <c r="B525" s="12"/>
+    </row>
+    <row r="526" spans="1:14" s="8" customFormat="1">
       <c r="A526" s="8" t="s">
         <v>184</v>
       </c>
@@ -12391,8 +13259,23 @@
         <f>16*60+55-53</f>
         <v>962</v>
       </c>
-    </row>
-    <row r="527" spans="1:6" s="8" customFormat="1">
+      <c r="J526" s="8">
+        <v>656</v>
+      </c>
+      <c r="K526" s="8">
+        <v>643</v>
+      </c>
+      <c r="L526" s="8">
+        <v>637</v>
+      </c>
+      <c r="M526" s="8">
+        <v>636</v>
+      </c>
+      <c r="N526" s="8">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="527" spans="1:14" s="8" customFormat="1">
       <c r="A527" s="8" t="s">
         <v>114</v>
       </c>
@@ -12411,8 +13294,23 @@
       <c r="F527" s="8">
         <v>983.2</v>
       </c>
-    </row>
-    <row r="528" spans="1:6" s="8" customFormat="1">
+      <c r="J527" s="8">
+        <v>641.79999999999995</v>
+      </c>
+      <c r="K527" s="8">
+        <v>641.79999999999995</v>
+      </c>
+      <c r="L527" s="8">
+        <v>641.79999999999995</v>
+      </c>
+      <c r="M527" s="8">
+        <v>641.79999999999995</v>
+      </c>
+      <c r="N527" s="8">
+        <v>641.79999999999995</v>
+      </c>
+    </row>
+    <row r="528" spans="1:14" s="8" customFormat="1">
       <c r="A528" s="8" t="s">
         <v>115</v>
       </c>
@@ -12421,23 +13319,43 @@
         <v>1.4400000000001092</v>
       </c>
       <c r="C528" s="9">
-        <f t="shared" ref="C528:F528" si="80">(C527-C526)*(C527-C526)</f>
+        <f t="shared" ref="C528:F528" si="89">(C527-C526)*(C527-C526)</f>
         <v>912.04000000000269</v>
       </c>
       <c r="D528" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="89"/>
         <v>3226.2399999999948</v>
       </c>
       <c r="E528" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="89"/>
         <v>17.640000000000381</v>
       </c>
       <c r="F528" s="9">
-        <f t="shared" si="80"/>
+        <f t="shared" si="89"/>
         <v>449.44000000000193</v>
       </c>
-    </row>
-    <row r="529" spans="1:6" s="8" customFormat="1">
+      <c r="J528" s="11">
+        <f t="shared" ref="J528:N528" si="90">(J527-J526)*(J527-J526)</f>
+        <v>201.64000000000129</v>
+      </c>
+      <c r="K528" s="11">
+        <f t="shared" si="90"/>
+        <v>1.4400000000001092</v>
+      </c>
+      <c r="L528" s="11">
+        <f t="shared" si="90"/>
+        <v>23.039999999999562</v>
+      </c>
+      <c r="M528" s="11">
+        <f t="shared" si="90"/>
+        <v>33.639999999999475</v>
+      </c>
+      <c r="N528" s="11">
+        <f t="shared" si="90"/>
+        <v>23.039999999999562</v>
+      </c>
+    </row>
+    <row r="529" spans="1:14" s="8" customFormat="1">
       <c r="A529" s="8" t="s">
         <v>116</v>
       </c>
@@ -12456,8 +13374,23 @@
       <c r="F529" s="8">
         <v>30.353912433160904</v>
       </c>
-    </row>
-    <row r="530" spans="1:6" s="8" customFormat="1">
+      <c r="J529" s="11">
+        <v>7.5206382707852661</v>
+      </c>
+      <c r="K529" s="11">
+        <v>7.5206382707852661</v>
+      </c>
+      <c r="L529" s="8">
+        <v>7.5206382707852661</v>
+      </c>
+      <c r="M529" s="8">
+        <v>7.5206382707852661</v>
+      </c>
+      <c r="N529" s="8">
+        <v>7.5206382707852661</v>
+      </c>
+    </row>
+    <row r="530" spans="1:14" s="8" customFormat="1">
       <c r="A530" s="8" t="s">
         <v>117</v>
       </c>
@@ -12466,25 +13399,45 @@
         <v>13.574682316724763</v>
       </c>
       <c r="C530" s="9">
-        <f t="shared" ref="C530:F530" si="81">C529/SQRT(5)</f>
+        <f t="shared" ref="C530:F530" si="91">C529/SQRT(5)</f>
         <v>13.574682316724763</v>
       </c>
       <c r="D530" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>13.574682316724763</v>
       </c>
       <c r="E530" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>13.574682316724763</v>
       </c>
       <c r="F530" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>13.574682316724763</v>
       </c>
-    </row>
-    <row r="531" spans="1:6" s="8" customFormat="1"/>
-    <row r="532" spans="1:6" s="8" customFormat="1"/>
-    <row r="533" spans="1:6" s="8" customFormat="1">
+      <c r="J530" s="8">
+        <f>J529/SQRT(5)</f>
+        <v>3.3633316815324652</v>
+      </c>
+      <c r="K530" s="11">
+        <f t="shared" ref="K530:N530" si="92">K529/SQRT(5)</f>
+        <v>3.3633316815324652</v>
+      </c>
+      <c r="L530" s="11">
+        <f t="shared" si="92"/>
+        <v>3.3633316815324652</v>
+      </c>
+      <c r="M530" s="11">
+        <f t="shared" si="92"/>
+        <v>3.3633316815324652</v>
+      </c>
+      <c r="N530" s="11">
+        <f t="shared" si="92"/>
+        <v>3.3633316815324652</v>
+      </c>
+    </row>
+    <row r="531" spans="1:14" s="8" customFormat="1"/>
+    <row r="532" spans="1:14" s="8" customFormat="1"/>
+    <row r="533" spans="1:14" s="8" customFormat="1">
       <c r="A533" s="8" t="s">
         <v>186</v>
       </c>
@@ -12492,7 +13445,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="534" spans="1:6" s="8" customFormat="1">
+    <row r="534" spans="1:14" s="8" customFormat="1">
       <c r="A534" s="8" t="s">
         <v>74</v>
       </c>
@@ -12512,12 +13465,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="535" spans="1:6" s="8" customFormat="1">
+    <row r="535" spans="1:14" s="8" customFormat="1">
       <c r="A535" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="536" spans="1:6" s="8" customFormat="1">
+    <row r="536" spans="1:14" s="8" customFormat="1">
       <c r="A536" s="8" t="s">
         <v>184</v>
       </c>
@@ -12542,7 +13495,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="537" spans="1:6" s="8" customFormat="1">
+    <row r="537" spans="1:14" s="8" customFormat="1">
       <c r="A537" s="8" t="s">
         <v>114</v>
       </c>
@@ -12562,7 +13515,7 @@
         <v>1376.4</v>
       </c>
     </row>
-    <row r="538" spans="1:6" s="8" customFormat="1">
+    <row r="538" spans="1:14" s="8" customFormat="1">
       <c r="A538" s="8" t="s">
         <v>115</v>
       </c>
@@ -12571,23 +13524,23 @@
         <v>1632.1600000000074</v>
       </c>
       <c r="C538" s="9">
-        <f t="shared" ref="C538:F538" si="82">(C537-C536)*(C537-C536)</f>
+        <f t="shared" ref="C538:F538" si="93">(C537-C536)*(C537-C536)</f>
         <v>213.15999999999735</v>
       </c>
       <c r="D538" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="93"/>
         <v>1797.7600000000077</v>
       </c>
       <c r="E538" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="93"/>
         <v>707.55999999999517</v>
       </c>
       <c r="F538" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="93"/>
         <v>1730.5599999999924</v>
       </c>
     </row>
-    <row r="539" spans="1:6" s="8" customFormat="1">
+    <row r="539" spans="1:14" s="8" customFormat="1">
       <c r="A539" s="8" t="s">
         <v>116</v>
       </c>
@@ -12607,7 +13560,7 @@
         <v>34.874632614552375</v>
       </c>
     </row>
-    <row r="540" spans="1:6" s="8" customFormat="1">
+    <row r="540" spans="1:14" s="8" customFormat="1">
       <c r="A540" s="8" t="s">
         <v>117</v>
       </c>
@@ -12616,25 +13569,25 @@
         <v>15.596409843294065</v>
       </c>
       <c r="C540" s="9">
-        <f t="shared" ref="C540:F540" si="83">C539/SQRT(5)</f>
+        <f t="shared" ref="C540:F540" si="94">C539/SQRT(5)</f>
         <v>15.596409843294065</v>
       </c>
       <c r="D540" s="9">
-        <f t="shared" si="83"/>
+        <f t="shared" si="94"/>
         <v>15.596409843294065</v>
       </c>
       <c r="E540" s="9">
-        <f t="shared" si="83"/>
+        <f t="shared" si="94"/>
         <v>15.596409843294065</v>
       </c>
       <c r="F540" s="9">
-        <f t="shared" si="83"/>
+        <f t="shared" si="94"/>
         <v>15.596409843294065</v>
       </c>
     </row>
-    <row r="541" spans="1:6" s="8" customFormat="1"/>
-    <row r="542" spans="1:6" s="8" customFormat="1"/>
-    <row r="543" spans="1:6" s="8" customFormat="1">
+    <row r="541" spans="1:14" s="8" customFormat="1"/>
+    <row r="542" spans="1:14" s="8" customFormat="1"/>
+    <row r="543" spans="1:14" s="8" customFormat="1">
       <c r="A543" s="8" t="s">
         <v>38</v>
       </c>
@@ -12642,7 +13595,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="544" spans="1:6" s="8" customFormat="1">
+    <row r="544" spans="1:14" s="8" customFormat="1">
       <c r="A544" s="8" t="s">
         <v>74</v>
       </c>
@@ -12661,14 +13614,29 @@
       <c r="F544" s="8">
         <v>143</v>
       </c>
-    </row>
-    <row r="545" spans="1:7" s="8" customFormat="1">
-      <c r="A545" s="11" t="s">
+      <c r="J544" s="8">
+        <v>172</v>
+      </c>
+      <c r="K544" s="11">
+        <v>173</v>
+      </c>
+      <c r="L544" s="11">
+        <v>174</v>
+      </c>
+      <c r="M544" s="11">
+        <v>175</v>
+      </c>
+      <c r="N544" s="11">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="545" spans="1:14" s="8" customFormat="1">
+      <c r="A545" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B545" s="11"/>
-    </row>
-    <row r="546" spans="1:7" s="8" customFormat="1">
+      <c r="B545" s="12"/>
+    </row>
+    <row r="546" spans="1:14" s="8" customFormat="1">
       <c r="A546" s="8" t="s">
         <v>187</v>
       </c>
@@ -12689,8 +13657,23 @@
       <c r="F546" s="8">
         <v>590</v>
       </c>
-    </row>
-    <row r="547" spans="1:7" s="8" customFormat="1">
+      <c r="J546" s="8">
+        <v>557</v>
+      </c>
+      <c r="K546" s="8">
+        <v>620</v>
+      </c>
+      <c r="L546" s="8">
+        <v>565</v>
+      </c>
+      <c r="M546" s="8">
+        <v>624</v>
+      </c>
+      <c r="N546" s="8">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="547" spans="1:14" s="8" customFormat="1">
       <c r="A547" s="8" t="s">
         <v>114</v>
       </c>
@@ -12709,8 +13692,23 @@
       <c r="F547" s="8">
         <v>604.4</v>
       </c>
-    </row>
-    <row r="548" spans="1:7" s="8" customFormat="1">
+      <c r="J547" s="8">
+        <v>585.79999999999995</v>
+      </c>
+      <c r="K547" s="8">
+        <v>585.79999999999995</v>
+      </c>
+      <c r="L547" s="8">
+        <v>585.79999999999995</v>
+      </c>
+      <c r="M547" s="8">
+        <v>585.79999999999995</v>
+      </c>
+      <c r="N547" s="8">
+        <v>585.79999999999995</v>
+      </c>
+    </row>
+    <row r="548" spans="1:14" s="8" customFormat="1">
       <c r="A548" s="8" t="s">
         <v>115</v>
       </c>
@@ -12719,23 +13717,43 @@
         <v>501.75999999999897</v>
       </c>
       <c r="C548" s="9">
-        <f t="shared" ref="C548:F548" si="84">(C547-C546)*(C547-C546)</f>
+        <f t="shared" ref="C548:F548" si="95">(C547-C546)*(C547-C546)</f>
         <v>5867.5600000000031</v>
       </c>
       <c r="D548" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="95"/>
         <v>645.15999999999883</v>
       </c>
       <c r="E548" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="95"/>
         <v>207.35999999999933</v>
       </c>
       <c r="F548" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="95"/>
         <v>207.35999999999933</v>
       </c>
-    </row>
-    <row r="549" spans="1:7" s="8" customFormat="1">
+      <c r="J548" s="11">
+        <f t="shared" ref="J548:N548" si="96">(J547-J546)*(J547-J546)</f>
+        <v>829.43999999999733</v>
+      </c>
+      <c r="K548" s="11">
+        <f t="shared" si="96"/>
+        <v>1169.6400000000031</v>
+      </c>
+      <c r="L548" s="11">
+        <f t="shared" si="96"/>
+        <v>432.63999999999811</v>
+      </c>
+      <c r="M548" s="11">
+        <f t="shared" si="96"/>
+        <v>1459.2400000000034</v>
+      </c>
+      <c r="N548" s="11">
+        <f t="shared" si="96"/>
+        <v>519.83999999999787</v>
+      </c>
+    </row>
+    <row r="549" spans="1:14" s="8" customFormat="1">
       <c r="A549" s="8" t="s">
         <v>116</v>
       </c>
@@ -12754,8 +13772,23 @@
       <c r="F549" s="8">
         <v>38.546595180378773</v>
       </c>
-    </row>
-    <row r="550" spans="1:7" s="8" customFormat="1">
+      <c r="J549" s="11">
+        <v>29.701178427799793</v>
+      </c>
+      <c r="K549" s="11">
+        <v>29.701178427799793</v>
+      </c>
+      <c r="L549" s="8">
+        <v>29.701178427799793</v>
+      </c>
+      <c r="M549" s="8">
+        <v>29.701178427799793</v>
+      </c>
+      <c r="N549" s="8">
+        <v>29.701178427799793</v>
+      </c>
+    </row>
+    <row r="550" spans="1:14" s="8" customFormat="1">
       <c r="A550" s="8" t="s">
         <v>117</v>
       </c>
@@ -12764,25 +13797,45 @@
         <v>17.238561424898538</v>
       </c>
       <c r="C550" s="9">
-        <f t="shared" ref="C550:F550" si="85">C549/SQRT(5)</f>
+        <f t="shared" ref="C550:F550" si="97">C549/SQRT(5)</f>
         <v>17.238561424898538</v>
       </c>
       <c r="D550" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v>17.238561424898538</v>
       </c>
       <c r="E550" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v>17.238561424898538</v>
       </c>
       <c r="F550" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="97"/>
         <v>17.238561424898538</v>
       </c>
-    </row>
-    <row r="551" spans="1:7" s="8" customFormat="1"/>
-    <row r="552" spans="1:7" s="8" customFormat="1"/>
-    <row r="553" spans="1:7" s="8" customFormat="1">
+      <c r="J550" s="8">
+        <f>J549/SQRT(5)</f>
+        <v>13.282770795282133</v>
+      </c>
+      <c r="K550" s="11">
+        <f t="shared" ref="K550:N550" si="98">K549/SQRT(5)</f>
+        <v>13.282770795282133</v>
+      </c>
+      <c r="L550" s="11">
+        <f t="shared" si="98"/>
+        <v>13.282770795282133</v>
+      </c>
+      <c r="M550" s="11">
+        <f t="shared" si="98"/>
+        <v>13.282770795282133</v>
+      </c>
+      <c r="N550" s="11">
+        <f t="shared" si="98"/>
+        <v>13.282770795282133</v>
+      </c>
+    </row>
+    <row r="551" spans="1:14" s="8" customFormat="1"/>
+    <row r="552" spans="1:14" s="8" customFormat="1"/>
+    <row r="553" spans="1:14" s="8" customFormat="1">
       <c r="A553" s="8" t="s">
         <v>38</v>
       </c>
@@ -12790,7 +13843,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="554" spans="1:7" s="8" customFormat="1">
+    <row r="554" spans="1:14" s="8" customFormat="1">
       <c r="A554" s="8" t="s">
         <v>74</v>
       </c>
@@ -12812,14 +13865,23 @@
       <c r="G554" s="8">
         <v>148</v>
       </c>
-    </row>
-    <row r="555" spans="1:7" s="8" customFormat="1">
-      <c r="A555" s="11" t="s">
+      <c r="J554" s="8">
+        <v>182</v>
+      </c>
+      <c r="K554" s="8">
+        <v>183</v>
+      </c>
+      <c r="L554" s="8">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="555" spans="1:14" s="8" customFormat="1">
+      <c r="A555" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B555" s="11"/>
-    </row>
-    <row r="556" spans="1:7" s="8" customFormat="1">
+      <c r="B555" s="12"/>
+    </row>
+    <row r="556" spans="1:14" s="8" customFormat="1">
       <c r="A556" s="8" t="s">
         <v>187</v>
       </c>
@@ -12841,8 +13903,17 @@
       <c r="G556" s="8">
         <v>613</v>
       </c>
-    </row>
-    <row r="557" spans="1:7" s="8" customFormat="1">
+      <c r="J556" s="8">
+        <v>620</v>
+      </c>
+      <c r="K556" s="8">
+        <v>631</v>
+      </c>
+      <c r="L556" s="8">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="557" spans="1:14" s="8" customFormat="1">
       <c r="A557" s="8" t="s">
         <v>114</v>
       </c>
@@ -12864,8 +13935,17 @@
       <c r="G557" s="8">
         <v>616.33333333333337</v>
       </c>
-    </row>
-    <row r="558" spans="1:7" s="8" customFormat="1">
+      <c r="J557" s="8">
+        <v>610.33333333333337</v>
+      </c>
+      <c r="K557" s="8">
+        <v>610.33333333333337</v>
+      </c>
+      <c r="L557" s="8">
+        <v>610.33333333333337</v>
+      </c>
+    </row>
+    <row r="558" spans="1:14" s="8" customFormat="1">
       <c r="A558" s="8" t="s">
         <v>115</v>
       </c>
@@ -12874,27 +13954,39 @@
         <v>205.44444444444554</v>
       </c>
       <c r="C558" s="9">
-        <f t="shared" ref="C558:G558" si="86">(C557-C556)*(C557-C556)</f>
+        <f t="shared" ref="C558:G558" si="99">(C557-C556)*(C557-C556)</f>
         <v>32.111111111110681</v>
       </c>
       <c r="D558" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="99"/>
         <v>11.111111111111363</v>
       </c>
       <c r="E558" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="99"/>
         <v>5.4444444444446214</v>
       </c>
       <c r="F558" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="99"/>
         <v>312.11111111110978</v>
       </c>
       <c r="G558" s="9">
-        <f t="shared" si="86"/>
+        <f t="shared" si="99"/>
         <v>11.111111111111363</v>
       </c>
-    </row>
-    <row r="559" spans="1:7" s="8" customFormat="1">
+      <c r="J558" s="11">
+        <f t="shared" ref="J558:L558" si="100">(J557-J556)*(J557-J556)</f>
+        <v>93.444444444443718</v>
+      </c>
+      <c r="K558" s="11">
+        <f t="shared" si="100"/>
+        <v>427.11111111110955</v>
+      </c>
+      <c r="L558" s="11">
+        <f t="shared" si="100"/>
+        <v>920.11111111111336</v>
+      </c>
+    </row>
+    <row r="559" spans="1:14" s="8" customFormat="1">
       <c r="A559" s="8" t="s">
         <v>116</v>
       </c>
@@ -12916,8 +14008,17 @@
       <c r="G559" s="8">
         <v>9.8092926463747734</v>
       </c>
-    </row>
-    <row r="560" spans="1:7" s="8" customFormat="1">
+      <c r="J559" s="11">
+        <v>21.913973218524799</v>
+      </c>
+      <c r="K559" s="11">
+        <v>21.913973218524799</v>
+      </c>
+      <c r="L559" s="8">
+        <v>21.913973218524799</v>
+      </c>
+    </row>
+    <row r="560" spans="1:14" s="8" customFormat="1">
       <c r="A560" s="8" t="s">
         <v>117</v>
       </c>
@@ -12926,29 +14027,41 @@
         <v>4.0046269535422443</v>
       </c>
       <c r="C560" s="9">
-        <f t="shared" ref="C560:G560" si="87">C559/SQRT(6)</f>
+        <f t="shared" ref="C560:G560" si="101">C559/SQRT(6)</f>
         <v>4.0046269535422443</v>
       </c>
       <c r="D560" s="9">
-        <f t="shared" si="87"/>
+        <f t="shared" si="101"/>
         <v>4.0046269535422443</v>
       </c>
       <c r="E560" s="9">
-        <f t="shared" si="87"/>
+        <f t="shared" si="101"/>
         <v>4.0046269535422443</v>
       </c>
       <c r="F560" s="9">
-        <f t="shared" si="87"/>
+        <f t="shared" si="101"/>
         <v>4.0046269535422443</v>
       </c>
       <c r="G560" s="9">
-        <f t="shared" si="87"/>
+        <f t="shared" si="101"/>
         <v>4.0046269535422443</v>
       </c>
-    </row>
-    <row r="561" spans="1:6" s="8" customFormat="1"/>
-    <row r="562" spans="1:6" s="8" customFormat="1"/>
-    <row r="563" spans="1:6" s="8" customFormat="1">
+      <c r="J560" s="8">
+        <f>J559/SQRT(3)</f>
+        <v>12.652038336729543</v>
+      </c>
+      <c r="K560" s="11">
+        <f t="shared" ref="K560:L560" si="102">K559/SQRT(3)</f>
+        <v>12.652038336729543</v>
+      </c>
+      <c r="L560" s="11">
+        <f t="shared" si="102"/>
+        <v>12.652038336729543</v>
+      </c>
+    </row>
+    <row r="561" spans="1:14" s="8" customFormat="1"/>
+    <row r="562" spans="1:14" s="8" customFormat="1"/>
+    <row r="563" spans="1:14" s="8" customFormat="1">
       <c r="A563" s="8" t="s">
         <v>32</v>
       </c>
@@ -12956,7 +14069,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="564" spans="1:6" s="8" customFormat="1">
+    <row r="564" spans="1:14" s="8" customFormat="1">
       <c r="A564" s="8" t="s">
         <v>74</v>
       </c>
@@ -12976,12 +14089,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="565" spans="1:6" s="8" customFormat="1">
+    <row r="565" spans="1:14" s="8" customFormat="1">
       <c r="A565" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="566" spans="1:6" s="8" customFormat="1">
+    <row r="566" spans="1:14" s="8" customFormat="1">
       <c r="A566" s="8" t="s">
         <v>187</v>
       </c>
@@ -13001,7 +14114,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="567" spans="1:6" s="8" customFormat="1">
+    <row r="567" spans="1:14" s="8" customFormat="1">
       <c r="A567" s="8" t="s">
         <v>114</v>
       </c>
@@ -13021,7 +14134,7 @@
         <v>650.20000000000005</v>
       </c>
     </row>
-    <row r="568" spans="1:6" s="8" customFormat="1">
+    <row r="568" spans="1:14" s="8" customFormat="1">
       <c r="A568" s="8" t="s">
         <v>115</v>
       </c>
@@ -13030,23 +14143,23 @@
         <v>4.0000000000018188E-2</v>
       </c>
       <c r="C568" s="9">
-        <f t="shared" ref="C568:F568" si="88">(C567-C566)*(C567-C566)</f>
+        <f t="shared" ref="C568:F568" si="103">(C567-C566)*(C567-C566)</f>
         <v>4.8400000000001997</v>
       </c>
       <c r="D568" s="9">
-        <f t="shared" si="88"/>
+        <f t="shared" si="103"/>
         <v>4.8400000000001997</v>
       </c>
       <c r="E568" s="9">
-        <f t="shared" si="88"/>
+        <f t="shared" si="103"/>
         <v>96.039999999999111</v>
       </c>
       <c r="F568" s="9">
-        <f t="shared" si="88"/>
+        <f t="shared" si="103"/>
         <v>27.040000000000472</v>
       </c>
     </row>
-    <row r="569" spans="1:6" s="8" customFormat="1">
+    <row r="569" spans="1:14" s="8" customFormat="1">
       <c r="A569" s="8" t="s">
         <v>116</v>
       </c>
@@ -13066,7 +14179,7 @@
         <v>5.1536394906900505</v>
       </c>
     </row>
-    <row r="570" spans="1:6" s="8" customFormat="1">
+    <row r="570" spans="1:14" s="8" customFormat="1">
       <c r="A570" s="8" t="s">
         <v>117</v>
       </c>
@@ -13075,25 +14188,25 @@
         <v>2.3047776465420693</v>
       </c>
       <c r="C570" s="9">
-        <f t="shared" ref="C570:F570" si="89">C569/SQRT(5)</f>
+        <f t="shared" ref="C570:F570" si="104">C569/SQRT(5)</f>
         <v>2.3047776465420693</v>
       </c>
       <c r="D570" s="9">
-        <f t="shared" si="89"/>
+        <f t="shared" si="104"/>
         <v>2.3047776465420693</v>
       </c>
       <c r="E570" s="9">
-        <f t="shared" si="89"/>
+        <f t="shared" si="104"/>
         <v>2.3047776465420693</v>
       </c>
       <c r="F570" s="9">
-        <f t="shared" si="89"/>
+        <f t="shared" si="104"/>
         <v>2.3047776465420693</v>
       </c>
     </row>
-    <row r="571" spans="1:6" s="8" customFormat="1"/>
-    <row r="572" spans="1:6" s="8" customFormat="1"/>
-    <row r="573" spans="1:6" s="8" customFormat="1">
+    <row r="571" spans="1:14" s="8" customFormat="1"/>
+    <row r="572" spans="1:14" s="8" customFormat="1"/>
+    <row r="573" spans="1:14" s="8" customFormat="1">
       <c r="A573" s="8" t="s">
         <v>186</v>
       </c>
@@ -13101,7 +14214,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="574" spans="1:6" s="8" customFormat="1">
+    <row r="574" spans="1:14" s="8" customFormat="1">
       <c r="A574" s="8" t="s">
         <v>74</v>
       </c>
@@ -13120,14 +14233,29 @@
       <c r="F574" s="8">
         <v>160</v>
       </c>
-    </row>
-    <row r="575" spans="1:6" s="8" customFormat="1">
-      <c r="A575" s="11" t="s">
+      <c r="J574" s="8">
+        <v>167</v>
+      </c>
+      <c r="K574" s="11">
+        <v>168</v>
+      </c>
+      <c r="L574" s="11">
+        <v>169</v>
+      </c>
+      <c r="M574" s="11">
+        <v>170</v>
+      </c>
+      <c r="N574" s="11">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="575" spans="1:14" s="8" customFormat="1">
+      <c r="A575" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B575" s="11"/>
-    </row>
-    <row r="576" spans="1:6" s="8" customFormat="1">
+      <c r="B575" s="12"/>
+    </row>
+    <row r="576" spans="1:14" s="8" customFormat="1">
       <c r="A576" s="8" t="s">
         <v>187</v>
       </c>
@@ -13146,8 +14274,23 @@
       <c r="F576" s="8">
         <v>598</v>
       </c>
-    </row>
-    <row r="577" spans="1:6" s="8" customFormat="1">
+      <c r="J576" s="8">
+        <v>543</v>
+      </c>
+      <c r="K576" s="8">
+        <v>540</v>
+      </c>
+      <c r="L576" s="8">
+        <v>570</v>
+      </c>
+      <c r="M576" s="8">
+        <v>582</v>
+      </c>
+      <c r="N576" s="8">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="577" spans="1:14" s="8" customFormat="1">
       <c r="A577" s="8" t="s">
         <v>114</v>
       </c>
@@ -13166,8 +14309,23 @@
       <c r="F577" s="8">
         <v>597.6</v>
       </c>
-    </row>
-    <row r="578" spans="1:6" s="8" customFormat="1">
+      <c r="J577" s="8">
+        <v>557</v>
+      </c>
+      <c r="K577" s="8">
+        <v>557</v>
+      </c>
+      <c r="L577" s="8">
+        <v>557</v>
+      </c>
+      <c r="M577" s="8">
+        <v>557</v>
+      </c>
+      <c r="N577" s="8">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="578" spans="1:14" s="8" customFormat="1">
       <c r="A578" s="8" t="s">
         <v>115</v>
       </c>
@@ -13176,23 +14334,43 @@
         <v>2.5600000000000729</v>
       </c>
       <c r="C578" s="9">
-        <f t="shared" ref="C578:F578" si="90">(C577-C576)*(C577-C576)</f>
+        <f t="shared" ref="C578:F578" si="105">(C577-C576)*(C577-C576)</f>
         <v>54.759999999999664</v>
       </c>
       <c r="D578" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="105"/>
         <v>54.759999999999664</v>
       </c>
       <c r="E578" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="105"/>
         <v>184.9600000000006</v>
       </c>
       <c r="F578" s="9">
-        <f t="shared" si="90"/>
+        <f t="shared" si="105"/>
         <v>0.15999999999998182</v>
       </c>
-    </row>
-    <row r="579" spans="1:6" s="8" customFormat="1">
+      <c r="J578" s="11">
+        <f t="shared" ref="J578:N578" si="106">(J577-J576)*(J577-J576)</f>
+        <v>196</v>
+      </c>
+      <c r="K578" s="11">
+        <f t="shared" si="106"/>
+        <v>289</v>
+      </c>
+      <c r="L578" s="11">
+        <f t="shared" si="106"/>
+        <v>169</v>
+      </c>
+      <c r="M578" s="11">
+        <f t="shared" si="106"/>
+        <v>625</v>
+      </c>
+      <c r="N578" s="11">
+        <f t="shared" si="106"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="579" spans="1:14" s="8" customFormat="1">
       <c r="A579" s="8" t="s">
         <v>116</v>
       </c>
@@ -13211,8 +14389,23 @@
       <c r="F579" s="8">
         <v>7.7097341069585532</v>
       </c>
-    </row>
-    <row r="580" spans="1:6" s="8" customFormat="1">
+      <c r="J579" s="11">
+        <v>16.29723902997069</v>
+      </c>
+      <c r="K579" s="11">
+        <v>16.29723902997069</v>
+      </c>
+      <c r="L579" s="8">
+        <v>16.29723902997069</v>
+      </c>
+      <c r="M579" s="8">
+        <v>16.29723902997069</v>
+      </c>
+      <c r="N579" s="8">
+        <v>16.29723902997069</v>
+      </c>
+    </row>
+    <row r="580" spans="1:14" s="8" customFormat="1">
       <c r="A580" s="8" t="s">
         <v>117</v>
       </c>
@@ -13221,25 +14414,45 @@
         <v>3.4478979103215917</v>
       </c>
       <c r="C580" s="9">
-        <f t="shared" ref="C580:F580" si="91">C579/SQRT(5)</f>
+        <f t="shared" ref="C580:F580" si="107">C579/SQRT(5)</f>
         <v>3.4478979103215917</v>
       </c>
       <c r="D580" s="9">
-        <f t="shared" si="91"/>
+        <f t="shared" si="107"/>
         <v>3.4478979103215917</v>
       </c>
       <c r="E580" s="9">
-        <f t="shared" si="91"/>
+        <f t="shared" si="107"/>
         <v>3.4478979103215917</v>
       </c>
       <c r="F580" s="9">
-        <f t="shared" si="91"/>
+        <f t="shared" si="107"/>
         <v>3.4478979103215917</v>
       </c>
-    </row>
-    <row r="581" spans="1:6" s="8" customFormat="1"/>
-    <row r="582" spans="1:6" s="8" customFormat="1"/>
-    <row r="583" spans="1:6" s="8" customFormat="1">
+      <c r="J580" s="8">
+        <f>J579/SQRT(5)</f>
+        <v>7.2883468633154385</v>
+      </c>
+      <c r="K580" s="11">
+        <f t="shared" ref="K580:N580" si="108">K579/SQRT(5)</f>
+        <v>7.2883468633154385</v>
+      </c>
+      <c r="L580" s="11">
+        <f t="shared" si="108"/>
+        <v>7.2883468633154385</v>
+      </c>
+      <c r="M580" s="11">
+        <f t="shared" si="108"/>
+        <v>7.2883468633154385</v>
+      </c>
+      <c r="N580" s="11">
+        <f t="shared" si="108"/>
+        <v>7.2883468633154385</v>
+      </c>
+    </row>
+    <row r="581" spans="1:14" s="8" customFormat="1"/>
+    <row r="582" spans="1:14" s="8" customFormat="1"/>
+    <row r="583" spans="1:14" s="8" customFormat="1">
       <c r="A583" s="8" t="s">
         <v>186</v>
       </c>
@@ -13247,7 +14460,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="584" spans="1:6" s="8" customFormat="1">
+    <row r="584" spans="1:14" s="8" customFormat="1">
       <c r="A584" s="8" t="s">
         <v>74</v>
       </c>
@@ -13266,14 +14479,29 @@
       <c r="F584" s="8">
         <v>157</v>
       </c>
-    </row>
-    <row r="585" spans="1:6" s="8" customFormat="1">
-      <c r="A585" s="11" t="s">
+      <c r="J584" s="8">
+        <v>177</v>
+      </c>
+      <c r="K584" s="11">
+        <v>178</v>
+      </c>
+      <c r="L584" s="11">
+        <v>179</v>
+      </c>
+      <c r="M584" s="11">
+        <v>180</v>
+      </c>
+      <c r="N584" s="11">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="585" spans="1:14" s="8" customFormat="1">
+      <c r="A585" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B585" s="11"/>
-    </row>
-    <row r="586" spans="1:6" s="8" customFormat="1">
+      <c r="B585" s="12"/>
+    </row>
+    <row r="586" spans="1:14" s="8" customFormat="1">
       <c r="A586" s="8" t="s">
         <v>187</v>
       </c>
@@ -13292,8 +14520,23 @@
       <c r="F586" s="8">
         <v>639</v>
       </c>
-    </row>
-    <row r="587" spans="1:6" s="8" customFormat="1">
+      <c r="J586" s="8">
+        <v>582</v>
+      </c>
+      <c r="K586" s="8">
+        <v>589</v>
+      </c>
+      <c r="L586" s="8">
+        <v>562</v>
+      </c>
+      <c r="M586" s="8">
+        <v>556</v>
+      </c>
+      <c r="N586" s="8">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="587" spans="1:14" s="8" customFormat="1">
       <c r="A587" s="8" t="s">
         <v>114</v>
       </c>
@@ -13312,8 +14555,23 @@
       <c r="F587" s="8">
         <v>624.79999999999995</v>
       </c>
-    </row>
-    <row r="588" spans="1:6" s="8" customFormat="1">
+      <c r="J587" s="8">
+        <v>577.6</v>
+      </c>
+      <c r="K587" s="8">
+        <v>577.6</v>
+      </c>
+      <c r="L587" s="8">
+        <v>577.6</v>
+      </c>
+      <c r="M587" s="8">
+        <v>577.6</v>
+      </c>
+      <c r="N587" s="8">
+        <v>577.6</v>
+      </c>
+    </row>
+    <row r="588" spans="1:14" s="8" customFormat="1">
       <c r="A588" s="8" t="s">
         <v>115</v>
       </c>
@@ -13322,23 +14580,43 @@
         <v>96.039999999999111</v>
       </c>
       <c r="C588" s="9">
-        <f t="shared" ref="C588:F588" si="92">(C587-C586)*(C587-C586)</f>
+        <f t="shared" ref="C588:F588" si="109">(C587-C586)*(C587-C586)</f>
         <v>190.43999999999875</v>
       </c>
       <c r="D588" s="9">
-        <f t="shared" si="92"/>
+        <f t="shared" si="109"/>
         <v>408.04000000000184</v>
       </c>
       <c r="E588" s="9">
-        <f t="shared" si="92"/>
+        <f t="shared" si="109"/>
         <v>116.63999999999902</v>
       </c>
       <c r="F588" s="9">
-        <f t="shared" si="92"/>
+        <f t="shared" si="109"/>
         <v>201.64000000000129</v>
       </c>
-    </row>
-    <row r="589" spans="1:6" s="8" customFormat="1">
+      <c r="J588" s="11">
+        <f t="shared" ref="J588:N588" si="110">(J587-J586)*(J587-J586)</f>
+        <v>19.3599999999998</v>
+      </c>
+      <c r="K588" s="11">
+        <f t="shared" si="110"/>
+        <v>129.95999999999947</v>
+      </c>
+      <c r="L588" s="11">
+        <f t="shared" si="110"/>
+        <v>243.3600000000007</v>
+      </c>
+      <c r="M588" s="11">
+        <f t="shared" si="110"/>
+        <v>466.56000000000097</v>
+      </c>
+      <c r="N588" s="11">
+        <f t="shared" si="110"/>
+        <v>457.95999999999901</v>
+      </c>
+    </row>
+    <row r="589" spans="1:14" s="8" customFormat="1">
       <c r="A589" s="8" t="s">
         <v>116</v>
       </c>
@@ -13357,8 +14635,23 @@
       <c r="F589" s="8">
         <v>14.232357499725756</v>
       </c>
-    </row>
-    <row r="590" spans="1:6" s="8" customFormat="1">
+      <c r="J589" s="11">
+        <v>16.230834852218784</v>
+      </c>
+      <c r="K589" s="11">
+        <v>16.230834852218784</v>
+      </c>
+      <c r="L589" s="8">
+        <v>16.230834852218784</v>
+      </c>
+      <c r="M589" s="8">
+        <v>16.230834852218784</v>
+      </c>
+      <c r="N589" s="8">
+        <v>16.230834852218784</v>
+      </c>
+    </row>
+    <row r="590" spans="1:14" s="8" customFormat="1">
       <c r="A590" s="8" t="s">
         <v>117</v>
       </c>
@@ -13367,24 +14660,44 @@
         <v>6.3649037698931465</v>
       </c>
       <c r="C590" s="9">
-        <f t="shared" ref="C590:F590" si="93">C589/SQRT(5)</f>
+        <f t="shared" ref="C590:F590" si="111">C589/SQRT(5)</f>
         <v>6.3649037698931465</v>
       </c>
       <c r="D590" s="9">
-        <f t="shared" si="93"/>
+        <f t="shared" si="111"/>
         <v>6.3649037698931465</v>
       </c>
       <c r="E590" s="9">
-        <f t="shared" si="93"/>
+        <f t="shared" si="111"/>
         <v>6.3649037698931465</v>
       </c>
       <c r="F590" s="9">
-        <f t="shared" si="93"/>
+        <f t="shared" si="111"/>
         <v>6.3649037698931465</v>
       </c>
-    </row>
-    <row r="591" spans="1:6" s="8" customFormat="1"/>
-    <row r="592" spans="1:6" s="7" customFormat="1">
+      <c r="J590" s="8">
+        <f>J589/SQRT(5)</f>
+        <v>7.2586500122267905</v>
+      </c>
+      <c r="K590" s="11">
+        <f t="shared" ref="K590:N590" si="112">K589/SQRT(5)</f>
+        <v>7.2586500122267905</v>
+      </c>
+      <c r="L590" s="11">
+        <f t="shared" si="112"/>
+        <v>7.2586500122267905</v>
+      </c>
+      <c r="M590" s="11">
+        <f t="shared" si="112"/>
+        <v>7.2586500122267905</v>
+      </c>
+      <c r="N590" s="11">
+        <f t="shared" si="112"/>
+        <v>7.2586500122267905</v>
+      </c>
+    </row>
+    <row r="591" spans="1:14" s="8" customFormat="1"/>
+    <row r="592" spans="1:14" s="7" customFormat="1">
       <c r="A592" s="8"/>
       <c r="B592" s="8"/>
     </row>
@@ -13477,15 +14790,15 @@
         <v>6.25</v>
       </c>
       <c r="D598" s="9">
-        <f t="shared" ref="D598:F598" si="94">(D597-D596)*(D597-D596)</f>
+        <f t="shared" ref="D598:F598" si="113">(D597-D596)*(D597-D596)</f>
         <v>42.25</v>
       </c>
       <c r="E598" s="9">
-        <f t="shared" si="94"/>
+        <f t="shared" si="113"/>
         <v>12.25</v>
       </c>
       <c r="F598" s="9">
-        <f t="shared" si="94"/>
+        <f t="shared" si="113"/>
         <v>0.25</v>
       </c>
     </row>
@@ -13517,15 +14830,15 @@
         <v>1.9525624189766635</v>
       </c>
       <c r="D600" s="9">
-        <f t="shared" ref="D600:F600" si="95">D599/SQRT(4)</f>
+        <f t="shared" ref="D600:F600" si="114">D599/SQRT(4)</f>
         <v>1.9525624189766635</v>
       </c>
       <c r="E600" s="9">
-        <f t="shared" si="95"/>
+        <f t="shared" si="114"/>
         <v>1.9525624189766635</v>
       </c>
       <c r="F600" s="9">
-        <f t="shared" si="95"/>
+        <f t="shared" si="114"/>
         <v>1.9525624189766635</v>
       </c>
     </row>
@@ -13630,27 +14943,27 @@
         <v>115</v>
       </c>
       <c r="B609">
-        <f t="shared" ref="B609:G609" si="96">(B608-B607)*(B608-B607)</f>
+        <f t="shared" ref="B609:G609" si="115">(B608-B607)*(B608-B607)</f>
         <v>552.25</v>
       </c>
       <c r="C609" s="4">
-        <f t="shared" si="96"/>
+        <f t="shared" si="115"/>
         <v>0.25</v>
       </c>
       <c r="D609" s="4">
-        <f t="shared" si="96"/>
+        <f t="shared" si="115"/>
         <v>1640.25</v>
       </c>
       <c r="E609" s="4">
-        <f t="shared" si="96"/>
+        <f t="shared" si="115"/>
         <v>30.25</v>
       </c>
       <c r="F609" s="4">
-        <f t="shared" si="96"/>
+        <f t="shared" si="115"/>
         <v>30.25</v>
       </c>
       <c r="G609" s="4">
-        <f t="shared" si="96"/>
+        <f t="shared" si="115"/>
         <v>306.25</v>
       </c>
     </row>
@@ -13682,27 +14995,27 @@
         <v>117</v>
       </c>
       <c r="B611">
-        <f t="shared" ref="B611:G611" si="97">B610/SQRT(6)</f>
+        <f t="shared" ref="B611:G611" si="116">B610/SQRT(6)</f>
         <v>8.4319168770939772</v>
       </c>
       <c r="C611" s="4">
-        <f t="shared" si="97"/>
+        <f t="shared" si="116"/>
         <v>8.4319168770939772</v>
       </c>
       <c r="D611" s="4">
-        <f t="shared" si="97"/>
+        <f t="shared" si="116"/>
         <v>8.4319168770939772</v>
       </c>
       <c r="E611" s="4">
-        <f t="shared" si="97"/>
+        <f t="shared" si="116"/>
         <v>8.4319168770939772</v>
       </c>
       <c r="F611" s="4">
-        <f t="shared" si="97"/>
+        <f t="shared" si="116"/>
         <v>8.4319168770939772</v>
       </c>
       <c r="G611" s="4">
-        <f t="shared" si="97"/>
+        <f t="shared" si="116"/>
         <v>8.4319168770939772</v>
       </c>
     </row>
@@ -13773,11 +15086,11 @@
         <v>711.11111111110904</v>
       </c>
       <c r="C621" s="4">
-        <f t="shared" ref="C621:D621" si="98">(C620-C619)*(C620-C619)</f>
+        <f t="shared" ref="C621:D621" si="117">(C620-C619)*(C620-C619)</f>
         <v>152.11111111111205</v>
       </c>
       <c r="D621" s="4">
-        <f t="shared" si="98"/>
+        <f t="shared" si="117"/>
         <v>205.44444444444554</v>
       </c>
     </row>
@@ -13804,11 +15117,11 @@
         <v>10.896822506618189</v>
       </c>
       <c r="C623" s="4">
-        <f t="shared" ref="C623:D623" si="99">C622/SQRT(3)</f>
+        <f t="shared" ref="C623:D623" si="118">C622/SQRT(3)</f>
         <v>10.896822506618189</v>
       </c>
       <c r="D623" s="4">
-        <f t="shared" si="99"/>
+        <f t="shared" si="118"/>
         <v>10.896822506618189</v>
       </c>
     </row>
@@ -13880,11 +15193,11 @@
         <v>121</v>
       </c>
       <c r="C630" s="4">
-        <f t="shared" ref="C630:D630" si="100">(C629-C628)*(C629-C628)</f>
+        <f t="shared" ref="C630:D630" si="119">(C629-C628)*(C629-C628)</f>
         <v>3844</v>
       </c>
       <c r="D630" s="4">
-        <f t="shared" si="100"/>
+        <f t="shared" si="119"/>
         <v>2601</v>
       </c>
     </row>
@@ -13911,11 +15224,11 @@
         <v>27.010286106510527</v>
       </c>
       <c r="C632" s="4">
-        <f t="shared" ref="C632:D632" si="101">C631/SQRT(3)</f>
+        <f t="shared" ref="C632:D632" si="120">C631/SQRT(3)</f>
         <v>27.010286106510527</v>
       </c>
       <c r="D632" s="4">
-        <f t="shared" si="101"/>
+        <f t="shared" si="120"/>
         <v>27.010286106510527</v>
       </c>
     </row>
@@ -14107,27 +15420,27 @@
         <v>18.489999999999608</v>
       </c>
       <c r="C641">
-        <f t="shared" ref="C641:I641" si="102">(C639-C640)*(C639-C640)</f>
+        <f t="shared" ref="C641:I641" si="121">(C639-C640)*(C639-C640)</f>
         <v>1789.2899999999961</v>
       </c>
       <c r="E641">
-        <f t="shared" si="102"/>
+        <f t="shared" si="121"/>
         <v>53.289999999999338</v>
       </c>
       <c r="F641">
-        <f t="shared" si="102"/>
+        <f t="shared" si="121"/>
         <v>2735.2899999999954</v>
       </c>
       <c r="G641">
-        <f t="shared" si="102"/>
+        <f t="shared" si="121"/>
         <v>5.2899999999997904</v>
       </c>
       <c r="H641">
-        <f t="shared" si="102"/>
+        <f t="shared" si="121"/>
         <v>691.68999999999755</v>
       </c>
       <c r="I641">
-        <f t="shared" si="102"/>
+        <f t="shared" si="121"/>
         <v>1466.8899999999965</v>
       </c>
       <c r="L641">
@@ -14135,23 +15448,23 @@
         <v>441</v>
       </c>
       <c r="M641" s="5">
-        <f t="shared" ref="M641:Q641" si="103">(M640-M639)*(M640-M639)</f>
+        <f t="shared" ref="M641:Q641" si="122">(M640-M639)*(M640-M639)</f>
         <v>4</v>
       </c>
       <c r="N641" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="122"/>
         <v>100</v>
       </c>
       <c r="O641" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="122"/>
         <v>144</v>
       </c>
       <c r="P641" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="122"/>
         <v>16</v>
       </c>
       <c r="Q641" s="5">
-        <f t="shared" si="103"/>
+        <f t="shared" si="122"/>
         <v>49</v>
       </c>
     </row>
@@ -14208,27 +15521,27 @@
         <v>7.1138185241239524</v>
       </c>
       <c r="C643">
-        <f t="shared" ref="C643:I643" si="104">C642/SQRT(7)</f>
+        <f t="shared" ref="C643:I643" si="123">C642/SQRT(7)</f>
         <v>7.1138185241239524</v>
       </c>
       <c r="E643">
-        <f t="shared" si="104"/>
+        <f t="shared" si="123"/>
         <v>7.1138185241239524</v>
       </c>
       <c r="F643">
-        <f t="shared" si="104"/>
+        <f t="shared" si="123"/>
         <v>7.1138185241239524</v>
       </c>
       <c r="G643">
-        <f t="shared" si="104"/>
+        <f t="shared" si="123"/>
         <v>7.1138185241239524</v>
       </c>
       <c r="H643">
-        <f t="shared" si="104"/>
+        <f t="shared" si="123"/>
         <v>7.1138185241239524</v>
       </c>
       <c r="I643">
-        <f t="shared" si="104"/>
+        <f t="shared" si="123"/>
         <v>7.1138185241239524</v>
       </c>
       <c r="L643">
@@ -14236,23 +15549,23 @@
         <v>4.5765100725819936</v>
       </c>
       <c r="M643" s="5">
-        <f t="shared" ref="M643:Q643" si="105">M642/SQRT(6)</f>
+        <f t="shared" ref="M643:Q643" si="124">M642/SQRT(6)</f>
         <v>4.5765100725819936</v>
       </c>
       <c r="N643" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="124"/>
         <v>4.5765100725819936</v>
       </c>
       <c r="O643" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="124"/>
         <v>4.5765100725819936</v>
       </c>
       <c r="P643" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="124"/>
         <v>4.5765100725819936</v>
       </c>
       <c r="Q643" s="5">
-        <f t="shared" si="105"/>
+        <f t="shared" si="124"/>
         <v>4.5765100725819936</v>
       </c>
     </row>
@@ -14388,23 +15701,23 @@
         <v>230.02777777777663</v>
       </c>
       <c r="D650">
-        <f t="shared" ref="D650:H650" si="106">(D649-D648)*(D649-D648)</f>
+        <f t="shared" ref="D650:H650" si="125">(D649-D648)*(D649-D648)</f>
         <v>38.027777777781516</v>
       </c>
       <c r="E650">
-        <f t="shared" si="106"/>
+        <f t="shared" si="125"/>
         <v>220.02777777777891</v>
       </c>
       <c r="F650">
-        <f t="shared" si="106"/>
+        <f t="shared" si="125"/>
         <v>84.027777777777089</v>
       </c>
       <c r="G650">
-        <f t="shared" si="106"/>
+        <f t="shared" si="125"/>
         <v>3.3611111111112502</v>
       </c>
       <c r="H650">
-        <f t="shared" si="106"/>
+        <f t="shared" si="125"/>
         <v>191.36111111111217</v>
       </c>
       <c r="J650">
@@ -14412,11 +15725,11 @@
         <v>160.44444444444349</v>
       </c>
       <c r="K650" s="5">
-        <f t="shared" ref="K650:L650" si="107">(K649-K648)*(K649-K648)</f>
+        <f t="shared" ref="K650:L650" si="126">(K649-K648)*(K649-K648)</f>
         <v>215.11111111111001</v>
       </c>
       <c r="L650" s="5">
-        <f t="shared" si="107"/>
+        <f t="shared" si="126"/>
         <v>747.11111111111313</v>
       </c>
     </row>
@@ -14461,23 +15774,23 @@
         <v>4.6152926154173635</v>
       </c>
       <c r="D652">
-        <f t="shared" ref="D652:H652" si="108">D651/SQRT(6)</f>
+        <f t="shared" ref="D652:H652" si="127">D651/SQRT(6)</f>
         <v>4.6152926154173635</v>
       </c>
       <c r="E652">
-        <f t="shared" si="108"/>
+        <f t="shared" si="127"/>
         <v>4.6152926154173635</v>
       </c>
       <c r="F652">
-        <f t="shared" si="108"/>
+        <f t="shared" si="127"/>
         <v>4.6152926154173635</v>
       </c>
       <c r="G652">
-        <f t="shared" si="108"/>
+        <f t="shared" si="127"/>
         <v>4.6152926154173635</v>
       </c>
       <c r="H652">
-        <f t="shared" si="108"/>
+        <f t="shared" si="127"/>
         <v>4.6152926154173635</v>
       </c>
       <c r="J652">
@@ -14485,11 +15798,11 @@
         <v>11.168739442781391</v>
       </c>
       <c r="K652" s="5">
-        <f t="shared" ref="K652:L652" si="109">K651/SQRT(3)</f>
+        <f t="shared" ref="K652:L652" si="128">K651/SQRT(3)</f>
         <v>11.168739442781391</v>
       </c>
       <c r="L652" s="5">
-        <f t="shared" si="109"/>
+        <f t="shared" si="128"/>
         <v>11.168739442781391</v>
       </c>
     </row>
@@ -14626,23 +15939,23 @@
         <v>1.3611111111112879</v>
       </c>
       <c r="C658">
-        <f t="shared" ref="C658:G658" si="110">(C656-C657)*(C656-C657)</f>
+        <f t="shared" ref="C658:G658" si="129">(C656-C657)*(C656-C657)</f>
         <v>51.361111111112194</v>
       </c>
       <c r="D658">
-        <f t="shared" si="110"/>
+        <f t="shared" si="129"/>
         <v>2040.0277777777846</v>
       </c>
       <c r="E658">
-        <f t="shared" si="110"/>
+        <f t="shared" si="129"/>
         <v>84.027777777779164</v>
       </c>
       <c r="F658">
-        <f t="shared" si="110"/>
+        <f t="shared" si="129"/>
         <v>103.36111111111265</v>
       </c>
       <c r="G658">
-        <f t="shared" si="110"/>
+        <f t="shared" si="129"/>
         <v>5304.6944444444334</v>
       </c>
       <c r="I658">
@@ -14650,11 +15963,11 @@
         <v>1.7777777777778789</v>
       </c>
       <c r="J658">
-        <f t="shared" ref="J658:K658" si="111">(J656-J657)*(J656-J657)</f>
+        <f t="shared" ref="J658:K658" si="130">(J656-J657)*(J656-J657)</f>
         <v>53.777777777778333</v>
       </c>
       <c r="K658">
-        <f t="shared" si="111"/>
+        <f t="shared" si="130"/>
         <v>75.111111111110461</v>
       </c>
     </row>
@@ -14699,23 +16012,23 @@
         <v>14.515158105057445</v>
       </c>
       <c r="C660">
-        <f t="shared" ref="C660:G660" si="112">C659/SQRT(6)</f>
+        <f t="shared" ref="C660:G660" si="131">C659/SQRT(6)</f>
         <v>14.515158105057445</v>
       </c>
       <c r="D660">
-        <f t="shared" si="112"/>
+        <f t="shared" si="131"/>
         <v>14.515158105057445</v>
       </c>
       <c r="E660">
-        <f t="shared" si="112"/>
+        <f t="shared" si="131"/>
         <v>14.515158105057445</v>
       </c>
       <c r="F660">
-        <f t="shared" si="112"/>
+        <f t="shared" si="131"/>
         <v>14.515158105057445</v>
       </c>
       <c r="G660">
-        <f t="shared" si="112"/>
+        <f t="shared" si="131"/>
         <v>14.515158105057445</v>
       </c>
       <c r="I660">
@@ -14723,11 +16036,11 @@
         <v>3.8103173776627219</v>
       </c>
       <c r="J660">
-        <f t="shared" ref="J660:K660" si="113">J659/SQRT(3)</f>
+        <f t="shared" ref="J660:K660" si="132">J659/SQRT(3)</f>
         <v>3.8103173776627219</v>
       </c>
       <c r="K660">
-        <f t="shared" si="113"/>
+        <f t="shared" si="132"/>
         <v>3.8103173776627219</v>
       </c>
     </row>
@@ -14847,23 +16160,23 @@
         <v>0</v>
       </c>
       <c r="C668">
-        <f t="shared" ref="C668:G668" si="114">(C666-C667)*(C666-C667)</f>
+        <f t="shared" ref="C668:G668" si="133">(C666-C667)*(C666-C667)</f>
         <v>25</v>
       </c>
       <c r="D668">
-        <f t="shared" si="114"/>
+        <f t="shared" si="133"/>
         <v>16</v>
       </c>
       <c r="E668">
-        <f t="shared" si="114"/>
+        <f t="shared" si="133"/>
         <v>1</v>
       </c>
       <c r="F668">
-        <f t="shared" si="114"/>
+        <f t="shared" si="133"/>
         <v>169</v>
       </c>
       <c r="G668">
-        <f t="shared" si="114"/>
+        <f t="shared" si="133"/>
         <v>1024</v>
       </c>
       <c r="H668" s="5"/>
@@ -14901,23 +16214,23 @@
         <v>5.576920370269467</v>
       </c>
       <c r="C670">
-        <f t="shared" ref="C670:G670" si="115">C669/SQRT(7)</f>
+        <f t="shared" ref="C670:G670" si="134">C669/SQRT(7)</f>
         <v>5.576920370269467</v>
       </c>
       <c r="D670">
-        <f t="shared" si="115"/>
+        <f t="shared" si="134"/>
         <v>5.576920370269467</v>
       </c>
       <c r="E670">
-        <f t="shared" si="115"/>
+        <f t="shared" si="134"/>
         <v>5.576920370269467</v>
       </c>
       <c r="F670">
-        <f t="shared" si="115"/>
+        <f t="shared" si="134"/>
         <v>5.576920370269467</v>
       </c>
       <c r="G670">
-        <f t="shared" si="115"/>
+        <f t="shared" si="134"/>
         <v>5.576920370269467</v>
       </c>
       <c r="H670" s="5"/>
@@ -15048,31 +16361,31 @@
         <v>395.015625</v>
       </c>
       <c r="C677">
-        <f t="shared" ref="C677" si="116">(C675-C676)*(C675-C676)</f>
+        <f t="shared" ref="C677" si="135">(C675-C676)*(C675-C676)</f>
         <v>47.265625</v>
       </c>
       <c r="D677">
-        <f t="shared" ref="D677:I677" si="117">(D675-D676)*(D675-D676)</f>
+        <f t="shared" ref="D677:I677" si="136">(D675-D676)*(D675-D676)</f>
         <v>228.765625</v>
       </c>
       <c r="E677">
-        <f t="shared" si="117"/>
+        <f t="shared" si="136"/>
         <v>83.265625</v>
       </c>
       <c r="F677">
-        <f t="shared" si="117"/>
+        <f t="shared" si="136"/>
         <v>907.515625</v>
       </c>
       <c r="G677">
-        <f t="shared" si="117"/>
+        <f t="shared" si="136"/>
         <v>435.765625</v>
       </c>
       <c r="H677">
-        <f t="shared" si="117"/>
+        <f t="shared" si="136"/>
         <v>892.515625</v>
       </c>
       <c r="I677">
-        <f t="shared" si="117"/>
+        <f t="shared" si="136"/>
         <v>534.765625</v>
       </c>
     </row>
@@ -15114,31 +16427,31 @@
         <v>6.9968991147666424</v>
       </c>
       <c r="C679">
-        <f t="shared" ref="C679" si="118">C678/3</f>
+        <f t="shared" ref="C679" si="137">C678/3</f>
         <v>6.9968991147666424</v>
       </c>
       <c r="D679">
-        <f t="shared" ref="D679:I679" si="119">D678/3</f>
+        <f t="shared" ref="D679:I679" si="138">D678/3</f>
         <v>6.9968991147666424</v>
       </c>
       <c r="E679">
-        <f t="shared" si="119"/>
+        <f t="shared" si="138"/>
         <v>6.9968991147666424</v>
       </c>
       <c r="F679">
-        <f t="shared" si="119"/>
+        <f t="shared" si="138"/>
         <v>6.9968991147666424</v>
       </c>
       <c r="G679">
-        <f t="shared" si="119"/>
+        <f t="shared" si="138"/>
         <v>6.9968991147666424</v>
       </c>
       <c r="H679">
-        <f t="shared" si="119"/>
+        <f t="shared" si="138"/>
         <v>6.9968991147666424</v>
       </c>
       <c r="I679">
-        <f t="shared" si="119"/>
+        <f t="shared" si="138"/>
         <v>6.9968991147666424</v>
       </c>
     </row>
@@ -15289,27 +16602,27 @@
         <v>4980.326530612243</v>
       </c>
       <c r="C685">
-        <f t="shared" ref="C685:H685" si="120">(C683-C684)*(C683-C684)</f>
+        <f t="shared" ref="C685:H685" si="139">(C683-C684)*(C683-C684)</f>
         <v>31.040816326530432</v>
       </c>
       <c r="D685">
-        <f t="shared" si="120"/>
+        <f t="shared" si="139"/>
         <v>88.897959183673777</v>
       </c>
       <c r="E685">
-        <f t="shared" si="120"/>
+        <f t="shared" si="139"/>
         <v>41.326530612245108</v>
       </c>
       <c r="F685">
-        <f t="shared" si="120"/>
+        <f t="shared" si="139"/>
         <v>108.75510204081667</v>
       </c>
       <c r="G685">
-        <f t="shared" si="120"/>
+        <f t="shared" si="139"/>
         <v>133.89795918367309</v>
       </c>
       <c r="H685">
-        <f t="shared" si="120"/>
+        <f t="shared" si="139"/>
         <v>3773.469387755104</v>
       </c>
       <c r="J685">
@@ -15317,11 +16630,11 @@
         <v>32.111111111110681</v>
       </c>
       <c r="K685">
-        <f t="shared" ref="K685:L685" si="121">(K683-K684)*(K683-K684)</f>
+        <f t="shared" ref="K685:L685" si="140">(K683-K684)*(K683-K684)</f>
         <v>53.777777777778333</v>
       </c>
       <c r="L685">
-        <f t="shared" si="121"/>
+        <f t="shared" si="140"/>
         <v>2.7777777777776516</v>
       </c>
     </row>
@@ -15369,27 +16682,27 @@
         <v>10.081632653061222</v>
       </c>
       <c r="C687">
-        <f t="shared" ref="C687:H687" si="122">C686/SQRT(7)</f>
+        <f t="shared" ref="C687:H687" si="141">C686/SQRT(7)</f>
         <v>10.081632653061222</v>
       </c>
       <c r="D687">
-        <f t="shared" si="122"/>
+        <f t="shared" si="141"/>
         <v>10.081632653061222</v>
       </c>
       <c r="E687">
-        <f t="shared" si="122"/>
+        <f t="shared" si="141"/>
         <v>10.081632653061222</v>
       </c>
       <c r="F687">
-        <f t="shared" si="122"/>
+        <f t="shared" si="141"/>
         <v>10.081632653061222</v>
       </c>
       <c r="G687">
-        <f t="shared" si="122"/>
+        <f t="shared" si="141"/>
         <v>10.081632653061222</v>
       </c>
       <c r="H687">
-        <f t="shared" si="122"/>
+        <f t="shared" si="141"/>
         <v>10.081632653061222</v>
       </c>
       <c r="J687">
@@ -15397,11 +16710,11 @@
         <v>3.1387659759612303</v>
       </c>
       <c r="K687">
-        <f t="shared" ref="K687:L687" si="123">K686/SQRT(3)</f>
+        <f t="shared" ref="K687:L687" si="142">K686/SQRT(3)</f>
         <v>3.1387659759612303</v>
       </c>
       <c r="L687">
-        <f t="shared" si="123"/>
+        <f t="shared" si="142"/>
         <v>3.1387659759612303</v>
       </c>
     </row>
@@ -15493,15 +16806,15 @@
         <v>16</v>
       </c>
       <c r="C698">
-        <f t="shared" ref="C698:E698" si="124">(C696-C697)*(C696-C697)</f>
+        <f t="shared" ref="C698:E698" si="143">(C696-C697)*(C696-C697)</f>
         <v>16</v>
       </c>
       <c r="D698">
-        <f t="shared" si="124"/>
+        <f t="shared" si="143"/>
         <v>16</v>
       </c>
       <c r="E698">
-        <f t="shared" si="124"/>
+        <f t="shared" si="143"/>
         <v>16</v>
       </c>
     </row>
@@ -15531,15 +16844,15 @@
         <v>2</v>
       </c>
       <c r="C700">
-        <f t="shared" ref="C700:E700" si="125">C699/SQRT(4)</f>
+        <f t="shared" ref="C700:E700" si="144">C699/SQRT(4)</f>
         <v>2</v>
       </c>
       <c r="D700">
-        <f t="shared" si="125"/>
+        <f t="shared" si="144"/>
         <v>2</v>
       </c>
       <c r="E700">
-        <f t="shared" si="125"/>
+        <f t="shared" si="144"/>
         <v>2</v>
       </c>
     </row>
@@ -15608,11 +16921,11 @@
         <v>169</v>
       </c>
       <c r="C707">
-        <f t="shared" ref="C707:D707" si="126">(C705-C706)*(C705-C706)</f>
+        <f t="shared" ref="C707:D707" si="145">(C705-C706)*(C705-C706)</f>
         <v>49</v>
       </c>
       <c r="D707">
-        <f t="shared" si="126"/>
+        <f t="shared" si="145"/>
         <v>400</v>
       </c>
     </row>
@@ -15625,11 +16938,11 @@
         <v>14.352700094407323</v>
       </c>
       <c r="C708">
-        <f t="shared" ref="C708:D708" si="127">SQRT(206)</f>
+        <f t="shared" ref="C708:D708" si="146">SQRT(206)</f>
         <v>14.352700094407323</v>
       </c>
       <c r="D708">
-        <f t="shared" si="127"/>
+        <f t="shared" si="146"/>
         <v>14.352700094407323</v>
       </c>
     </row>
@@ -15642,11 +16955,11 @@
         <v>8.2865352631040352</v>
       </c>
       <c r="C709">
-        <f t="shared" ref="C709:D709" si="128">C708/SQRT(3)</f>
+        <f t="shared" ref="C709:D709" si="147">C708/SQRT(3)</f>
         <v>8.2865352631040352</v>
       </c>
       <c r="D709">
-        <f t="shared" si="128"/>
+        <f t="shared" si="147"/>
         <v>8.2865352631040352</v>
       </c>
     </row>
@@ -15709,11 +17022,11 @@
         <v>498.77777777777948</v>
       </c>
       <c r="C715">
-        <f t="shared" ref="C715:D715" si="129">(C713-C714)*(C713-C714)</f>
+        <f t="shared" ref="C715:D715" si="148">(C713-C714)*(C713-C714)</f>
         <v>2085.4444444444412</v>
       </c>
       <c r="D715">
-        <f t="shared" si="129"/>
+        <f t="shared" si="148"/>
         <v>544.44444444444616</v>
       </c>
     </row>
@@ -15740,11 +17053,11 @@
         <v>18.644828495581013</v>
       </c>
       <c r="C717">
-        <f t="shared" ref="C717:D717" si="130">C716/SQRT(3)</f>
+        <f t="shared" ref="C717:D717" si="149">C716/SQRT(3)</f>
         <v>18.644828495581013</v>
       </c>
       <c r="D717">
-        <f t="shared" si="130"/>
+        <f t="shared" si="149"/>
         <v>18.644828495581013</v>
       </c>
     </row>
@@ -15836,15 +17149,15 @@
         <v>10.5625</v>
       </c>
       <c r="C726">
-        <f t="shared" ref="C726:E726" si="131">(C724-C725)*(C724-C725)</f>
+        <f t="shared" ref="C726:E726" si="150">(C724-C725)*(C724-C725)</f>
         <v>248.0625</v>
       </c>
       <c r="D726">
-        <f t="shared" si="131"/>
+        <f t="shared" si="150"/>
         <v>27.5625</v>
       </c>
       <c r="E726">
-        <f t="shared" si="131"/>
+        <f t="shared" si="150"/>
         <v>52.5625</v>
       </c>
     </row>
@@ -15874,15 +17187,15 @@
         <v>4.6012905798264905</v>
       </c>
       <c r="C728">
-        <f t="shared" ref="C728:E728" si="132">C727/SQRT(4)</f>
+        <f t="shared" ref="C728:E728" si="151">C727/SQRT(4)</f>
         <v>4.6012905798264905</v>
       </c>
       <c r="D728">
-        <f t="shared" si="132"/>
+        <f t="shared" si="151"/>
         <v>4.6012905798264905</v>
       </c>
       <c r="E728">
-        <f t="shared" si="132"/>
+        <f t="shared" si="151"/>
         <v>4.6012905798264905</v>
       </c>
     </row>
@@ -15972,19 +17285,19 @@
         <v>353.43999999999829</v>
       </c>
       <c r="C735" s="5">
-        <f t="shared" ref="C735:F735" si="133">(C733-C734)*(C733-C734)</f>
+        <f t="shared" ref="C735:F735" si="152">(C733-C734)*(C733-C734)</f>
         <v>249.63999999999857</v>
       </c>
       <c r="D735" s="5">
-        <f t="shared" si="133"/>
+        <f t="shared" si="152"/>
         <v>46.239999999999384</v>
       </c>
       <c r="E735" s="5">
-        <f t="shared" si="133"/>
+        <f t="shared" si="152"/>
         <v>33.639999999999475</v>
       </c>
       <c r="F735" s="5">
-        <f t="shared" si="133"/>
+        <f t="shared" si="152"/>
         <v>2227.8400000000042</v>
       </c>
     </row>
@@ -16017,19 +17330,19 @@
         <v>10.790366073493521</v>
       </c>
       <c r="C737" s="5">
-        <f t="shared" ref="C737:F737" si="134">C736/SQRT(5)</f>
+        <f t="shared" ref="C737:F737" si="153">C736/SQRT(5)</f>
         <v>10.790366073493521</v>
       </c>
       <c r="D737" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="153"/>
         <v>10.790366073493521</v>
       </c>
       <c r="E737" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="153"/>
         <v>10.790366073493521</v>
       </c>
       <c r="F737" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="153"/>
         <v>10.790366073493521</v>
       </c>
     </row>
@@ -16111,19 +17424,19 @@
         <v>484</v>
       </c>
       <c r="C743">
-        <f t="shared" ref="C743:F743" si="135">(C741-C742)*(C741-C742)</f>
+        <f t="shared" ref="C743:F743" si="154">(C741-C742)*(C741-C742)</f>
         <v>169</v>
       </c>
       <c r="D743">
-        <f t="shared" si="135"/>
+        <f t="shared" si="154"/>
         <v>11236</v>
       </c>
       <c r="E743">
-        <f t="shared" si="135"/>
+        <f t="shared" si="154"/>
         <v>1296</v>
       </c>
       <c r="F743">
-        <f t="shared" si="135"/>
+        <f t="shared" si="154"/>
         <v>1225</v>
       </c>
     </row>
@@ -16156,19 +17469,19 @@
         <v>24.008331887076199</v>
       </c>
       <c r="C745">
-        <f t="shared" ref="C745:F745" si="136">C744/SQRT(5)</f>
+        <f t="shared" ref="C745:F745" si="155">C744/SQRT(5)</f>
         <v>24.008331887076199</v>
       </c>
       <c r="D745">
-        <f t="shared" si="136"/>
+        <f t="shared" si="155"/>
         <v>24.008331887076199</v>
       </c>
       <c r="E745">
-        <f t="shared" si="136"/>
+        <f t="shared" si="155"/>
         <v>24.008331887076199</v>
       </c>
       <c r="F745">
-        <f t="shared" si="136"/>
+        <f t="shared" si="155"/>
         <v>24.008331887076199</v>
       </c>
     </row>
@@ -16262,15 +17575,15 @@
         <v>7744</v>
       </c>
       <c r="C754">
-        <f t="shared" ref="C754:E754" si="137">(C752-C753)*(C752-C753)</f>
+        <f t="shared" ref="C754:E754" si="156">(C752-C753)*(C752-C753)</f>
         <v>1089</v>
       </c>
       <c r="D754">
-        <f t="shared" si="137"/>
+        <f t="shared" si="156"/>
         <v>0</v>
       </c>
       <c r="E754">
-        <f t="shared" si="137"/>
+        <f t="shared" si="156"/>
         <v>3025</v>
       </c>
     </row>
@@ -16300,15 +17613,15 @@
         <v>27.223611075682079</v>
       </c>
       <c r="C756">
-        <f t="shared" ref="C756:E756" si="138">C755/SQRT(4)</f>
+        <f t="shared" ref="C756:E756" si="157">C755/SQRT(4)</f>
         <v>27.223611075682079</v>
       </c>
       <c r="D756">
-        <f t="shared" si="138"/>
+        <f t="shared" si="157"/>
         <v>27.223611075682079</v>
       </c>
       <c r="E756">
-        <f t="shared" si="138"/>
+        <f t="shared" si="157"/>
         <v>27.223611075682079</v>
       </c>
     </row>
@@ -16389,15 +17702,15 @@
         <v>12.25</v>
       </c>
       <c r="C763">
-        <f t="shared" ref="C763:E763" si="139">(C761-C762)*(C761-C762)</f>
+        <f t="shared" ref="C763:E763" si="158">(C761-C762)*(C761-C762)</f>
         <v>182.25</v>
       </c>
       <c r="D763">
-        <f t="shared" si="139"/>
+        <f t="shared" si="158"/>
         <v>0.25</v>
       </c>
       <c r="E763">
-        <f t="shared" si="139"/>
+        <f t="shared" si="158"/>
         <v>90.25</v>
       </c>
     </row>
@@ -16427,15 +17740,15 @@
         <v>4.2204857540335334</v>
       </c>
       <c r="C765">
-        <f t="shared" ref="C765:E765" si="140">C764/SQRT(4)</f>
+        <f t="shared" ref="C765:E765" si="159">C764/SQRT(4)</f>
         <v>4.2204857540335334</v>
       </c>
       <c r="D765">
-        <f t="shared" si="140"/>
+        <f t="shared" si="159"/>
         <v>4.2204857540335334</v>
       </c>
       <c r="E765">
-        <f t="shared" si="140"/>
+        <f t="shared" si="159"/>
         <v>4.2204857540335334</v>
       </c>
     </row>
@@ -16537,11 +17850,11 @@
         <v>576</v>
       </c>
       <c r="C771">
-        <f t="shared" ref="C771:D771" si="141">(C769-C770)*(C769-C770)</f>
+        <f t="shared" ref="C771:D771" si="160">(C769-C770)*(C769-C770)</f>
         <v>324</v>
       </c>
       <c r="D771">
-        <f t="shared" si="141"/>
+        <f t="shared" si="160"/>
         <v>36</v>
       </c>
       <c r="F771">
@@ -16549,15 +17862,15 @@
         <v>20.25</v>
       </c>
       <c r="G771">
-        <f t="shared" ref="G771:I771" si="142">(G770-G769)*(G770-G769)</f>
+        <f t="shared" ref="G771:I771" si="161">(G770-G769)*(G770-G769)</f>
         <v>930.25</v>
       </c>
       <c r="H771">
-        <f t="shared" si="142"/>
+        <f t="shared" si="161"/>
         <v>650.25</v>
       </c>
       <c r="I771">
-        <f t="shared" si="142"/>
+        <f t="shared" si="161"/>
         <v>90.25</v>
       </c>
     </row>
@@ -16596,11 +17909,11 @@
         <v>10.198039027185571</v>
       </c>
       <c r="C773">
-        <f t="shared" ref="C773:D773" si="143">C772/SQRT(3)</f>
+        <f t="shared" ref="C773:D773" si="162">C772/SQRT(3)</f>
         <v>10.198039027185571</v>
       </c>
       <c r="D773">
-        <f t="shared" si="143"/>
+        <f t="shared" si="162"/>
         <v>10.198039027185571</v>
       </c>
       <c r="F773">
@@ -16608,15 +17921,15 @@
         <v>10.280442597476044</v>
       </c>
       <c r="G773">
-        <f t="shared" ref="G773:I773" si="144">G772/SQRT(4)</f>
+        <f t="shared" ref="G773:I773" si="163">G772/SQRT(4)</f>
         <v>10.280442597476044</v>
       </c>
       <c r="H773">
-        <f t="shared" si="144"/>
+        <f t="shared" si="163"/>
         <v>10.280442597476044</v>
       </c>
       <c r="I773">
-        <f t="shared" si="144"/>
+        <f t="shared" si="163"/>
         <v>10.280442597476044</v>
       </c>
     </row>
@@ -17396,17 +18709,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A415:B415"/>
+    <mergeCell ref="A435:B435"/>
+    <mergeCell ref="A425:B425"/>
+    <mergeCell ref="A485:B485"/>
+    <mergeCell ref="A495:B495"/>
     <mergeCell ref="A575:B575"/>
     <mergeCell ref="A585:B585"/>
     <mergeCell ref="A515:B515"/>
     <mergeCell ref="A525:B525"/>
     <mergeCell ref="A545:B545"/>
     <mergeCell ref="A555:B555"/>
-    <mergeCell ref="A415:B415"/>
-    <mergeCell ref="A435:B435"/>
-    <mergeCell ref="A425:B425"/>
-    <mergeCell ref="A485:B485"/>
-    <mergeCell ref="A495:B495"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/papers/async-re/data/raw_data.xlsx
+++ b/papers/async-re/data/raw_data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="191">
   <si>
     <t>#54</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -759,16 +759,13 @@
     <t>decent</t>
   </si>
   <si>
-    <t>161*</t>
-  </si>
-  <si>
-    <t>162*</t>
-  </si>
-  <si>
     <t>XXX</t>
   </si>
   <si>
     <t>new advert</t>
+  </si>
+  <si>
+    <t>161,162**</t>
   </si>
 </sst>
 </file>
@@ -829,7 +826,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="451">
+  <cellStyleXfs count="521">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1281,8 +1278,78 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1296,8 +1363,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="451">
+  <cellStyles count="521">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1523,6 +1591,41 @@
     <cellStyle name="Followed Hyperlink" xfId="446" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="448" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="450" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="452" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="454" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="456" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="458" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="460" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="462" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="464" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="466" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="468" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="470" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="472" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="474" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="476" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="478" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="480" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="482" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="484" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="486" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="488" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="490" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="492" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="494" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="496" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="498" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="500" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="502" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="504" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="506" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="508" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="510" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="512" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="514" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="516" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="518" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="520" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1748,6 +1851,41 @@
     <cellStyle name="Hyperlink" xfId="445" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="447" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="449" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="451" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="453" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="455" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="457" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="459" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="461" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="463" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="465" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="467" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="469" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="471" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="473" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="475" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="477" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="479" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="481" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="483" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="485" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="487" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="489" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="491" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="493" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="495" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="497" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="499" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="501" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="503" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="505" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="507" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="509" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="511" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="513" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="515" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="517" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="519" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1902,11 +2040,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="97852872"/>
-        <c:axId val="97858376"/>
+        <c:axId val="478005496"/>
+        <c:axId val="478012360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97852872"/>
+        <c:axId val="478005496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1934,7 +2072,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97858376"/>
+        <c:crossAx val="478012360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1942,7 +2080,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97858376"/>
+        <c:axId val="478012360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1972,7 +2110,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97852872"/>
+        <c:crossAx val="478005496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2100,11 +2238,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="229848872"/>
-        <c:axId val="229854456"/>
+        <c:axId val="478080472"/>
+        <c:axId val="478086056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="229848872"/>
+        <c:axId val="478080472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2132,7 +2270,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="229854456"/>
+        <c:crossAx val="478086056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2140,7 +2278,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="229854456"/>
+        <c:axId val="478086056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2170,7 +2308,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="229848872"/>
+        <c:crossAx val="478080472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2388,11 +2526,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="209541896"/>
-        <c:axId val="229885368"/>
+        <c:axId val="478121000"/>
+        <c:axId val="478126504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="209541896"/>
+        <c:axId val="478121000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2420,7 +2558,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="229885368"/>
+        <c:crossAx val="478126504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2428,7 +2566,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="229885368"/>
+        <c:axId val="478126504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2458,7 +2596,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209541896"/>
+        <c:crossAx val="478121000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2599,11 +2737,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="229898040"/>
-        <c:axId val="229900616"/>
+        <c:axId val="498104968"/>
+        <c:axId val="498107752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="229898040"/>
+        <c:axId val="498104968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2612,7 +2750,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="229900616"/>
+        <c:crossAx val="498107752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2620,7 +2758,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="229900616"/>
+        <c:axId val="498107752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2650,7 +2788,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="229898040"/>
+        <c:crossAx val="498104968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2797,11 +2935,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="205150168"/>
-        <c:axId val="229879400"/>
+        <c:axId val="498141128"/>
+        <c:axId val="498146648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="205150168"/>
+        <c:axId val="498141128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2829,7 +2967,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="229879400"/>
+        <c:crossAx val="498146648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2837,7 +2975,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="229879400"/>
+        <c:axId val="498146648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2867,7 +3005,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205150168"/>
+        <c:crossAx val="498141128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3019,11 +3157,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="229651288"/>
-        <c:axId val="229656824"/>
+        <c:axId val="498182136"/>
+        <c:axId val="498187656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="229651288"/>
+        <c:axId val="498182136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3051,7 +3189,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="229656824"/>
+        <c:crossAx val="498187656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3059,7 +3197,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="229656824"/>
+        <c:axId val="498187656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3089,7 +3227,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="229651288"/>
+        <c:crossAx val="498182136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3591,11 +3729,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="229740952"/>
-        <c:axId val="229743928"/>
+        <c:axId val="498271800"/>
+        <c:axId val="498274776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="229740952"/>
+        <c:axId val="498271800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3604,7 +3742,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="229743928"/>
+        <c:crossAx val="498274776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3612,7 +3750,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="229743928"/>
+        <c:axId val="498274776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3641,7 +3779,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="229740952"/>
+        <c:crossAx val="498271800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3853,11 +3991,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="229780600"/>
-        <c:axId val="229783576"/>
+        <c:axId val="498304824"/>
+        <c:axId val="498307800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="229780600"/>
+        <c:axId val="498304824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3866,7 +4004,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="229783576"/>
+        <c:crossAx val="498307800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3874,7 +4012,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="229783576"/>
+        <c:axId val="498307800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3904,7 +4042,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="229780600"/>
+        <c:crossAx val="498304824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4146,11 +4284,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="229825656"/>
-        <c:axId val="229831688"/>
+        <c:axId val="498346312"/>
+        <c:axId val="498352328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="229825656"/>
+        <c:axId val="498346312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4178,7 +4316,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="229831688"/>
+        <c:crossAx val="498352328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4186,7 +4324,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="229831688"/>
+        <c:axId val="498352328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4216,7 +4354,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="229825656"/>
+        <c:crossAx val="498346312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4933,8 +5071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z814"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A609" workbookViewId="0">
-      <selection activeCell="K590" sqref="J590:N590"/>
+    <sheetView tabSelected="1" topLeftCell="A600" workbookViewId="0">
+      <selection activeCell="B632" sqref="B632:F632"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -10865,10 +11003,10 @@
       <c r="E414" s="6"/>
     </row>
     <row r="415" spans="1:5">
-      <c r="A415" s="12" t="s">
+      <c r="A415" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B415" s="12"/>
+      <c r="B415" s="13"/>
       <c r="D415" s="6"/>
       <c r="E415" s="6"/>
     </row>
@@ -10950,7 +11088,7 @@
         <v>46</v>
       </c>
       <c r="J423" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="424" spans="1:14">
@@ -10995,10 +11133,10 @@
       </c>
     </row>
     <row r="425" spans="1:14">
-      <c r="A425" s="12" t="s">
+      <c r="A425" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B425" s="12"/>
+      <c r="B425" s="13"/>
     </row>
     <row r="426" spans="1:14">
       <c r="A426" t="s">
@@ -11281,10 +11419,10 @@
       </c>
     </row>
     <row r="435" spans="1:14">
-      <c r="A435" s="12" t="s">
+      <c r="A435" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B435" s="12"/>
+      <c r="B435" s="13"/>
     </row>
     <row r="436" spans="1:14">
       <c r="A436" t="s">
@@ -12257,6 +12395,21 @@
       <c r="F473">
         <v>174</v>
       </c>
+      <c r="J473">
+        <v>196</v>
+      </c>
+      <c r="K473" s="12">
+        <v>197</v>
+      </c>
+      <c r="L473" s="12">
+        <v>198</v>
+      </c>
+      <c r="M473" s="12">
+        <v>199</v>
+      </c>
+      <c r="N473" s="12">
+        <v>200</v>
+      </c>
     </row>
     <row r="474" spans="1:14">
       <c r="A474" t="s">
@@ -12282,6 +12435,21 @@
       <c r="F475">
         <v>655</v>
       </c>
+      <c r="J475">
+        <v>642</v>
+      </c>
+      <c r="K475">
+        <v>648</v>
+      </c>
+      <c r="L475">
+        <v>653</v>
+      </c>
+      <c r="M475">
+        <v>674</v>
+      </c>
+      <c r="N475">
+        <v>662</v>
+      </c>
     </row>
     <row r="476" spans="1:14">
       <c r="A476" t="s">
@@ -12302,6 +12470,21 @@
       <c r="F476">
         <v>649</v>
       </c>
+      <c r="J476">
+        <v>655.8</v>
+      </c>
+      <c r="K476">
+        <v>655.8</v>
+      </c>
+      <c r="L476">
+        <v>655.8</v>
+      </c>
+      <c r="M476">
+        <v>655.8</v>
+      </c>
+      <c r="N476">
+        <v>655.8</v>
+      </c>
     </row>
     <row r="477" spans="1:14">
       <c r="A477" t="s">
@@ -12327,6 +12510,26 @@
         <f t="shared" si="75"/>
         <v>36</v>
       </c>
+      <c r="J477" s="12">
+        <f t="shared" ref="J477:N477" si="76">(J476-J475)*(J476-J475)</f>
+        <v>190.43999999999875</v>
+      </c>
+      <c r="K477" s="12">
+        <f t="shared" si="76"/>
+        <v>60.839999999999293</v>
+      </c>
+      <c r="L477" s="12">
+        <f t="shared" si="76"/>
+        <v>7.839999999999745</v>
+      </c>
+      <c r="M477" s="12">
+        <f t="shared" si="76"/>
+        <v>331.24000000000166</v>
+      </c>
+      <c r="N477" s="12">
+        <f t="shared" si="76"/>
+        <v>38.440000000000566</v>
+      </c>
     </row>
     <row r="478" spans="1:14">
       <c r="A478" t="s">
@@ -12347,6 +12550,21 @@
       <c r="F478">
         <v>10.295630140987001</v>
       </c>
+      <c r="J478" s="12">
+        <v>11.214276615100948</v>
+      </c>
+      <c r="K478" s="12">
+        <v>11.214276615100948</v>
+      </c>
+      <c r="L478">
+        <v>11.214276615100948</v>
+      </c>
+      <c r="M478">
+        <v>11.214276615100948</v>
+      </c>
+      <c r="N478">
+        <v>11.214276615100948</v>
+      </c>
     </row>
     <row r="479" spans="1:14">
       <c r="A479" t="s">
@@ -12357,20 +12575,40 @@
         <v>4.6043457732885349</v>
       </c>
       <c r="C479" s="9">
-        <f t="shared" ref="C479:F479" si="76">C478/SQRT(5)</f>
+        <f t="shared" ref="C479:F479" si="77">C478/SQRT(5)</f>
         <v>4.6043457732885349</v>
       </c>
       <c r="D479" s="9">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>4.6043457732885349</v>
       </c>
       <c r="E479" s="9">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>4.6043457732885349</v>
       </c>
       <c r="F479" s="9">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>4.6043457732885349</v>
+      </c>
+      <c r="J479">
+        <f>J478/SQRT(5)</f>
+        <v>5.0151769659703929</v>
+      </c>
+      <c r="K479" s="12">
+        <f t="shared" ref="K479:N479" si="78">K478/SQRT(5)</f>
+        <v>5.0151769659703929</v>
+      </c>
+      <c r="L479" s="12">
+        <f t="shared" si="78"/>
+        <v>5.0151769659703929</v>
+      </c>
+      <c r="M479" s="12">
+        <f t="shared" si="78"/>
+        <v>5.0151769659703929</v>
+      </c>
+      <c r="N479" s="12">
+        <f t="shared" si="78"/>
+        <v>5.0151769659703929</v>
       </c>
     </row>
     <row r="483" spans="1:14">
@@ -12417,10 +12655,10 @@
       </c>
     </row>
     <row r="485" spans="1:14">
-      <c r="A485" s="12" t="s">
+      <c r="A485" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B485" s="12"/>
+      <c r="B485" s="13"/>
     </row>
     <row r="486" spans="1:14">
       <c r="A486" s="8" t="s">
@@ -12506,39 +12744,39 @@
         <v>2480.0399999999954</v>
       </c>
       <c r="C488" s="9">
-        <f t="shared" ref="C488:F488" si="77">(C487-C486)*(C487-C486)</f>
+        <f t="shared" ref="C488:F488" si="79">(C487-C486)*(C487-C486)</f>
         <v>96.039999999999111</v>
       </c>
       <c r="D488" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>77.439999999999202</v>
       </c>
       <c r="E488" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>249.63999999999857</v>
       </c>
       <c r="F488" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>7089.6400000000076</v>
       </c>
       <c r="J488" s="11">
-        <f t="shared" ref="J488:N488" si="78">(J487-J486)*(J487-J486)</f>
+        <f t="shared" ref="J488:N488" si="80">(J487-J486)*(J487-J486)</f>
         <v>40.95999999999971</v>
       </c>
       <c r="K488" s="11">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>12.960000000000164</v>
       </c>
       <c r="L488" s="11">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>0.3600000000000273</v>
       </c>
       <c r="M488" s="11">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>1.9599999999999362</v>
       </c>
       <c r="N488" s="11">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>12.960000000000164</v>
       </c>
     </row>
@@ -12586,19 +12824,19 @@
         <v>19.992798703533229</v>
       </c>
       <c r="C490" s="9">
-        <f t="shared" ref="C490:F490" si="79">C489/SQRT(5)</f>
+        <f t="shared" ref="C490:F490" si="81">C489/SQRT(5)</f>
         <v>19.992798703533229</v>
       </c>
       <c r="D490" s="9">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>19.992798703533229</v>
       </c>
       <c r="E490" s="9">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>19.992798703533229</v>
       </c>
       <c r="F490" s="9">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>19.992798703533229</v>
       </c>
       <c r="J490" s="7">
@@ -12606,19 +12844,19 @@
         <v>1.6637307474468337</v>
       </c>
       <c r="K490" s="11">
-        <f t="shared" ref="K490:N490" si="80">K489/SQRT(5)</f>
+        <f t="shared" ref="K490:N490" si="82">K489/SQRT(5)</f>
         <v>1.6637307474468337</v>
       </c>
       <c r="L490" s="11">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>1.6637307474468337</v>
       </c>
       <c r="M490" s="11">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>1.6637307474468337</v>
       </c>
       <c r="N490" s="11">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>1.6637307474468337</v>
       </c>
     </row>
@@ -12657,12 +12895,27 @@
       <c r="F494" s="7">
         <v>112</v>
       </c>
+      <c r="J494" s="7">
+        <v>158</v>
+      </c>
+      <c r="K494" s="7">
+        <v>159</v>
+      </c>
+      <c r="L494" s="7">
+        <v>160</v>
+      </c>
+      <c r="M494" s="7">
+        <v>163</v>
+      </c>
+      <c r="N494" s="7">
+        <v>165</v>
+      </c>
     </row>
     <row r="495" spans="1:14" s="7" customFormat="1">
-      <c r="A495" s="12" t="s">
+      <c r="A495" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B495" s="12"/>
+      <c r="B495" s="13"/>
     </row>
     <row r="496" spans="1:14" s="7" customFormat="1">
       <c r="A496" s="8" t="s">
@@ -12687,8 +12940,23 @@
         <f>16*60+38-105</f>
         <v>893</v>
       </c>
-    </row>
-    <row r="497" spans="1:6" s="7" customFormat="1">
+      <c r="J496" s="7">
+        <v>663</v>
+      </c>
+      <c r="K496" s="7">
+        <v>668</v>
+      </c>
+      <c r="L496" s="7">
+        <v>666</v>
+      </c>
+      <c r="M496" s="7">
+        <v>668</v>
+      </c>
+      <c r="N496" s="7">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="497" spans="1:14" s="7" customFormat="1">
       <c r="A497" s="8" t="s">
         <v>114</v>
       </c>
@@ -12707,8 +12975,23 @@
       <c r="F497" s="7">
         <v>916.4</v>
       </c>
-    </row>
-    <row r="498" spans="1:6" s="7" customFormat="1">
+      <c r="J497" s="7">
+        <v>670.6</v>
+      </c>
+      <c r="K497" s="7">
+        <v>670.6</v>
+      </c>
+      <c r="L497" s="7">
+        <v>670.6</v>
+      </c>
+      <c r="M497" s="7">
+        <v>670.6</v>
+      </c>
+      <c r="N497" s="7">
+        <v>670.6</v>
+      </c>
+    </row>
+    <row r="498" spans="1:14" s="7" customFormat="1">
       <c r="A498" s="8" t="s">
         <v>115</v>
       </c>
@@ -12717,23 +13000,43 @@
         <v>3648.1599999999971</v>
       </c>
       <c r="C498" s="9">
-        <f t="shared" ref="C498:F498" si="81">(C497-C496)*(C497-C496)</f>
+        <f t="shared" ref="C498:F498" si="83">(C497-C496)*(C497-C496)</f>
         <v>6336.1600000000035</v>
       </c>
       <c r="D498" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>6.7600000000001179</v>
       </c>
       <c r="E498" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>2.5600000000000729</v>
       </c>
       <c r="F498" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>547.55999999999892</v>
       </c>
-    </row>
-    <row r="499" spans="1:6" s="7" customFormat="1">
+      <c r="J498" s="12">
+        <f t="shared" ref="J498:N498" si="84">(J497-J496)*(J497-J496)</f>
+        <v>57.760000000000346</v>
+      </c>
+      <c r="K498" s="12">
+        <f t="shared" si="84"/>
+        <v>6.7600000000001179</v>
+      </c>
+      <c r="L498" s="12">
+        <f t="shared" si="84"/>
+        <v>21.16000000000021</v>
+      </c>
+      <c r="M498" s="12">
+        <f t="shared" si="84"/>
+        <v>6.7600000000001179</v>
+      </c>
+      <c r="N498" s="12">
+        <f t="shared" si="84"/>
+        <v>302.7599999999992</v>
+      </c>
+    </row>
+    <row r="499" spans="1:14" s="7" customFormat="1">
       <c r="A499" s="8" t="s">
         <v>116</v>
       </c>
@@ -12752,8 +13055,23 @@
       <c r="F499" s="7">
         <v>45.915574699659373</v>
       </c>
-    </row>
-    <row r="500" spans="1:6" s="7" customFormat="1">
+      <c r="J499" s="12">
+        <v>8.8904443083571465</v>
+      </c>
+      <c r="K499" s="12">
+        <v>8.8904443083571465</v>
+      </c>
+      <c r="L499" s="7">
+        <v>8.8904443083571465</v>
+      </c>
+      <c r="M499" s="7">
+        <v>8.8904443083571465</v>
+      </c>
+      <c r="N499" s="7">
+        <v>8.8904443083571465</v>
+      </c>
+    </row>
+    <row r="500" spans="1:14" s="7" customFormat="1">
       <c r="A500" s="8" t="s">
         <v>117</v>
       </c>
@@ -12762,31 +13080,51 @@
         <v>20.534069250881569</v>
       </c>
       <c r="C500" s="9">
-        <f t="shared" ref="C500:F500" si="82">C499/SQRT(5)</f>
+        <f t="shared" ref="C500:F500" si="85">C499/SQRT(5)</f>
         <v>20.534069250881569</v>
       </c>
       <c r="D500" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>20.534069250881569</v>
       </c>
       <c r="E500" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>20.534069250881569</v>
       </c>
       <c r="F500" s="9">
-        <f t="shared" si="82"/>
+        <f t="shared" si="85"/>
         <v>20.534069250881569</v>
       </c>
-    </row>
-    <row r="501" spans="1:6" s="7" customFormat="1">
+      <c r="J500" s="7">
+        <f>J499/SQRT(5)</f>
+        <v>3.9759275647325358</v>
+      </c>
+      <c r="K500" s="12">
+        <f t="shared" ref="K500:N500" si="86">K499/SQRT(5)</f>
+        <v>3.9759275647325358</v>
+      </c>
+      <c r="L500" s="12">
+        <f t="shared" si="86"/>
+        <v>3.9759275647325358</v>
+      </c>
+      <c r="M500" s="12">
+        <f t="shared" si="86"/>
+        <v>3.9759275647325358</v>
+      </c>
+      <c r="N500" s="12">
+        <f t="shared" si="86"/>
+        <v>3.9759275647325358</v>
+      </c>
+    </row>
+    <row r="501" spans="1:14" s="7" customFormat="1">
       <c r="A501" s="8"/>
       <c r="B501" s="8"/>
     </row>
-    <row r="502" spans="1:6" s="7" customFormat="1">
+    <row r="502" spans="1:14" s="7" customFormat="1">
       <c r="A502" s="8"/>
       <c r="B502" s="8"/>
     </row>
-    <row r="503" spans="1:6" s="7" customFormat="1">
+    <row r="503" spans="1:14" s="7" customFormat="1">
       <c r="A503" s="8" t="s">
         <v>32</v>
       </c>
@@ -12794,7 +13132,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="504" spans="1:6" s="7" customFormat="1">
+    <row r="504" spans="1:14" s="7" customFormat="1">
       <c r="A504" s="8" t="s">
         <v>74</v>
       </c>
@@ -12813,14 +13151,17 @@
       <c r="F504" s="7">
         <v>115</v>
       </c>
-    </row>
-    <row r="505" spans="1:6" s="7" customFormat="1">
+      <c r="J504" s="7">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="505" spans="1:14" s="7" customFormat="1">
       <c r="A505" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B505" s="8"/>
     </row>
-    <row r="506" spans="1:6" s="7" customFormat="1">
+    <row r="506" spans="1:14" s="7" customFormat="1">
       <c r="A506" s="8" t="s">
         <v>184</v>
       </c>
@@ -12843,8 +13184,12 @@
       <c r="F506" s="7">
         <v>1265</v>
       </c>
-    </row>
-    <row r="507" spans="1:6" s="7" customFormat="1">
+      <c r="J506" s="7">
+        <f>19*60+26</f>
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="507" spans="1:14" s="7" customFormat="1">
       <c r="A507" s="8" t="s">
         <v>114</v>
       </c>
@@ -12865,7 +13210,7 @@
         <v>1230.2</v>
       </c>
     </row>
-    <row r="508" spans="1:6" s="7" customFormat="1">
+    <row r="508" spans="1:14" s="7" customFormat="1">
       <c r="A508" s="8" t="s">
         <v>115</v>
       </c>
@@ -12874,23 +13219,23 @@
         <v>10650.240000000009</v>
       </c>
       <c r="C508" s="9">
-        <f t="shared" ref="C508:F508" si="83">(C507-C506)*(C507-C506)</f>
+        <f t="shared" ref="C508:F508" si="87">(C507-C506)*(C507-C506)</f>
         <v>6593.4400000000078</v>
       </c>
       <c r="D508" s="9">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>15326.43999999999</v>
       </c>
       <c r="E508" s="9">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>665.6399999999976</v>
       </c>
       <c r="F508" s="9">
-        <f t="shared" si="83"/>
+        <f t="shared" si="87"/>
         <v>1211.0399999999968</v>
       </c>
     </row>
-    <row r="509" spans="1:6" s="7" customFormat="1">
+    <row r="509" spans="1:14" s="7" customFormat="1">
       <c r="A509" s="8" t="s">
         <v>116</v>
       </c>
@@ -12910,7 +13255,7 @@
         <v>83.002168646367295</v>
       </c>
     </row>
-    <row r="510" spans="1:6" s="7" customFormat="1">
+    <row r="510" spans="1:14" s="7" customFormat="1">
       <c r="A510" s="8" t="s">
         <v>117</v>
       </c>
@@ -12919,24 +13264,24 @@
         <v>37.119698274635795</v>
       </c>
       <c r="C510" s="9">
-        <f t="shared" ref="C510:F510" si="84">C509/SQRT(5)</f>
+        <f t="shared" ref="C510:F510" si="88">C509/SQRT(5)</f>
         <v>37.119698274635795</v>
       </c>
       <c r="D510" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>37.119698274635795</v>
       </c>
       <c r="E510" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>37.119698274635795</v>
       </c>
       <c r="F510" s="9">
-        <f t="shared" si="84"/>
+        <f t="shared" si="88"/>
         <v>37.119698274635795</v>
       </c>
     </row>
-    <row r="511" spans="1:6" s="7" customFormat="1"/>
-    <row r="512" spans="1:6" s="7" customFormat="1"/>
+    <row r="511" spans="1:14" s="7" customFormat="1"/>
+    <row r="512" spans="1:14" s="7" customFormat="1"/>
     <row r="513" spans="1:14" s="8" customFormat="1">
       <c r="A513" s="8" t="s">
         <v>186</v>
@@ -12981,10 +13326,10 @@
       </c>
     </row>
     <row r="515" spans="1:14" s="8" customFormat="1">
-      <c r="A515" s="12" t="s">
+      <c r="A515" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B515" s="12"/>
+      <c r="B515" s="13"/>
     </row>
     <row r="516" spans="1:14" s="8" customFormat="1">
       <c r="A516" s="8" t="s">
@@ -13068,39 +13413,39 @@
         <v>282.23999999999847</v>
       </c>
       <c r="C518" s="9">
-        <f t="shared" ref="C518:F518" si="85">(C517-C516)*(C517-C516)</f>
+        <f t="shared" ref="C518:F518" si="89">(C517-C516)*(C517-C516)</f>
         <v>7.839999999999745</v>
       </c>
       <c r="D518" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="89"/>
         <v>125.44000000000102</v>
       </c>
       <c r="E518" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="89"/>
         <v>1.4400000000001092</v>
       </c>
       <c r="F518" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="89"/>
         <v>51.840000000000657</v>
       </c>
       <c r="J518" s="11">
-        <f t="shared" ref="J518:N518" si="86">(J517-J516)*(J517-J516)</f>
+        <f t="shared" ref="J518:N518" si="90">(J517-J516)*(J517-J516)</f>
         <v>7.839999999999745</v>
       </c>
       <c r="K518" s="11">
-        <f t="shared" si="86"/>
+        <f t="shared" si="90"/>
         <v>46.239999999999384</v>
       </c>
       <c r="L518" s="11">
-        <f t="shared" si="86"/>
+        <f t="shared" si="90"/>
         <v>3.2399999999998363</v>
       </c>
       <c r="M518" s="11">
-        <f t="shared" si="86"/>
+        <f t="shared" si="90"/>
         <v>4.0000000000018188E-2</v>
       </c>
       <c r="N518" s="11">
-        <f t="shared" si="86"/>
+        <f t="shared" si="90"/>
         <v>125.44000000000102</v>
       </c>
     </row>
@@ -13148,19 +13493,19 @@
         <v>4.3303579528717941</v>
       </c>
       <c r="C520" s="9">
-        <f t="shared" ref="C520:F520" si="87">C519/SQRT(5)</f>
+        <f t="shared" ref="C520:F520" si="91">C519/SQRT(5)</f>
         <v>4.3303579528717941</v>
       </c>
       <c r="D520" s="9">
-        <f t="shared" si="87"/>
+        <f t="shared" si="91"/>
         <v>4.3303579528717941</v>
       </c>
       <c r="E520" s="9">
-        <f t="shared" si="87"/>
+        <f t="shared" si="91"/>
         <v>4.3303579528717941</v>
       </c>
       <c r="F520" s="9">
-        <f t="shared" si="87"/>
+        <f t="shared" si="91"/>
         <v>4.3303579528717941</v>
       </c>
       <c r="J520" s="8">
@@ -13168,19 +13513,19 @@
         <v>2.7040710049848915</v>
       </c>
       <c r="K520" s="11">
-        <f t="shared" ref="K520:N520" si="88">K519/SQRT(5)</f>
+        <f t="shared" ref="K520:N520" si="92">K519/SQRT(5)</f>
         <v>2.7040710049848915</v>
       </c>
       <c r="L520" s="11">
-        <f t="shared" si="88"/>
+        <f t="shared" si="92"/>
         <v>2.7040710049848915</v>
       </c>
       <c r="M520" s="11">
-        <f t="shared" si="88"/>
+        <f t="shared" si="92"/>
         <v>2.7040710049848915</v>
       </c>
       <c r="N520" s="11">
-        <f t="shared" si="88"/>
+        <f t="shared" si="92"/>
         <v>2.7040710049848915</v>
       </c>
     </row>
@@ -13230,10 +13575,10 @@
       </c>
     </row>
     <row r="525" spans="1:14" s="8" customFormat="1">
-      <c r="A525" s="12" t="s">
+      <c r="A525" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B525" s="12"/>
+      <c r="B525" s="13"/>
     </row>
     <row r="526" spans="1:14" s="8" customFormat="1">
       <c r="A526" s="8" t="s">
@@ -13319,39 +13664,39 @@
         <v>1.4400000000001092</v>
       </c>
       <c r="C528" s="9">
-        <f t="shared" ref="C528:F528" si="89">(C527-C526)*(C527-C526)</f>
+        <f t="shared" ref="C528:F528" si="93">(C527-C526)*(C527-C526)</f>
         <v>912.04000000000269</v>
       </c>
       <c r="D528" s="9">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>3226.2399999999948</v>
       </c>
       <c r="E528" s="9">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>17.640000000000381</v>
       </c>
       <c r="F528" s="9">
-        <f t="shared" si="89"/>
+        <f t="shared" si="93"/>
         <v>449.44000000000193</v>
       </c>
       <c r="J528" s="11">
-        <f t="shared" ref="J528:N528" si="90">(J527-J526)*(J527-J526)</f>
+        <f t="shared" ref="J528:N528" si="94">(J527-J526)*(J527-J526)</f>
         <v>201.64000000000129</v>
       </c>
       <c r="K528" s="11">
-        <f t="shared" si="90"/>
+        <f t="shared" si="94"/>
         <v>1.4400000000001092</v>
       </c>
       <c r="L528" s="11">
-        <f t="shared" si="90"/>
+        <f t="shared" si="94"/>
         <v>23.039999999999562</v>
       </c>
       <c r="M528" s="11">
-        <f t="shared" si="90"/>
+        <f t="shared" si="94"/>
         <v>33.639999999999475</v>
       </c>
       <c r="N528" s="11">
-        <f t="shared" si="90"/>
+        <f t="shared" si="94"/>
         <v>23.039999999999562</v>
       </c>
     </row>
@@ -13399,19 +13744,19 @@
         <v>13.574682316724763</v>
       </c>
       <c r="C530" s="9">
-        <f t="shared" ref="C530:F530" si="91">C529/SQRT(5)</f>
+        <f t="shared" ref="C530:F530" si="95">C529/SQRT(5)</f>
         <v>13.574682316724763</v>
       </c>
       <c r="D530" s="9">
-        <f t="shared" si="91"/>
+        <f t="shared" si="95"/>
         <v>13.574682316724763</v>
       </c>
       <c r="E530" s="9">
-        <f t="shared" si="91"/>
+        <f t="shared" si="95"/>
         <v>13.574682316724763</v>
       </c>
       <c r="F530" s="9">
-        <f t="shared" si="91"/>
+        <f t="shared" si="95"/>
         <v>13.574682316724763</v>
       </c>
       <c r="J530" s="8">
@@ -13419,19 +13764,19 @@
         <v>3.3633316815324652</v>
       </c>
       <c r="K530" s="11">
-        <f t="shared" ref="K530:N530" si="92">K529/SQRT(5)</f>
+        <f t="shared" ref="K530:N530" si="96">K529/SQRT(5)</f>
         <v>3.3633316815324652</v>
       </c>
       <c r="L530" s="11">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>3.3633316815324652</v>
       </c>
       <c r="M530" s="11">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>3.3633316815324652</v>
       </c>
       <c r="N530" s="11">
-        <f t="shared" si="92"/>
+        <f t="shared" si="96"/>
         <v>3.3633316815324652</v>
       </c>
     </row>
@@ -13464,6 +13809,21 @@
       <c r="F534" s="8">
         <v>130</v>
       </c>
+      <c r="J534" s="8">
+        <v>161</v>
+      </c>
+      <c r="K534" s="8">
+        <v>162</v>
+      </c>
+      <c r="L534" s="8">
+        <v>166</v>
+      </c>
+      <c r="M534" s="8">
+        <v>167</v>
+      </c>
+      <c r="N534" s="8">
+        <v>168</v>
+      </c>
     </row>
     <row r="535" spans="1:14" s="8" customFormat="1">
       <c r="A535" s="8" t="s">
@@ -13494,6 +13854,26 @@
         <f>25*60+31-113</f>
         <v>1418</v>
       </c>
+      <c r="J536" s="8">
+        <f>16*60+34</f>
+        <v>994</v>
+      </c>
+      <c r="K536" s="8">
+        <f>16*60+19</f>
+        <v>979</v>
+      </c>
+      <c r="L536" s="8">
+        <f>14*60+9</f>
+        <v>849</v>
+      </c>
+      <c r="M536" s="8">
+        <f>13*60+50</f>
+        <v>830</v>
+      </c>
+      <c r="N536" s="8">
+        <f>14*60+6</f>
+        <v>846</v>
+      </c>
     </row>
     <row r="537" spans="1:14" s="8" customFormat="1">
       <c r="A537" s="8" t="s">
@@ -13514,6 +13894,21 @@
       <c r="F537" s="8">
         <v>1376.4</v>
       </c>
+      <c r="J537" s="8">
+        <v>899.6</v>
+      </c>
+      <c r="K537" s="8">
+        <v>899.6</v>
+      </c>
+      <c r="L537" s="8">
+        <v>899.6</v>
+      </c>
+      <c r="M537" s="8">
+        <v>899.6</v>
+      </c>
+      <c r="N537" s="8">
+        <v>899.6</v>
+      </c>
     </row>
     <row r="538" spans="1:14" s="8" customFormat="1">
       <c r="A538" s="8" t="s">
@@ -13524,20 +13919,40 @@
         <v>1632.1600000000074</v>
       </c>
       <c r="C538" s="9">
-        <f t="shared" ref="C538:F538" si="93">(C537-C536)*(C537-C536)</f>
+        <f t="shared" ref="C538:F538" si="97">(C537-C536)*(C537-C536)</f>
         <v>213.15999999999735</v>
       </c>
       <c r="D538" s="9">
-        <f t="shared" si="93"/>
+        <f t="shared" si="97"/>
         <v>1797.7600000000077</v>
       </c>
       <c r="E538" s="9">
-        <f t="shared" si="93"/>
+        <f t="shared" si="97"/>
         <v>707.55999999999517</v>
       </c>
       <c r="F538" s="9">
-        <f t="shared" si="93"/>
+        <f t="shared" si="97"/>
         <v>1730.5599999999924</v>
+      </c>
+      <c r="J538" s="8">
+        <f>(J537-J536)*(J537-J536)</f>
+        <v>8911.3599999999951</v>
+      </c>
+      <c r="K538" s="12">
+        <f t="shared" ref="K538:N538" si="98">(K537-K536)*(K537-K536)</f>
+        <v>6304.359999999996</v>
+      </c>
+      <c r="L538" s="12">
+        <f t="shared" si="98"/>
+        <v>2560.3600000000024</v>
+      </c>
+      <c r="M538" s="12">
+        <f t="shared" si="98"/>
+        <v>4844.1600000000035</v>
+      </c>
+      <c r="N538" s="12">
+        <f t="shared" si="98"/>
+        <v>2872.9600000000023</v>
       </c>
     </row>
     <row r="539" spans="1:14" s="8" customFormat="1">
@@ -13559,6 +13974,21 @@
       <c r="F539" s="8">
         <v>34.874632614552375</v>
       </c>
+      <c r="J539" s="12">
+        <v>71.404761745978817</v>
+      </c>
+      <c r="K539" s="12">
+        <v>71.404761745978817</v>
+      </c>
+      <c r="L539" s="8">
+        <v>71.404761745978817</v>
+      </c>
+      <c r="M539" s="8">
+        <v>71.404761745978817</v>
+      </c>
+      <c r="N539" s="8">
+        <v>71.404761745978817</v>
+      </c>
     </row>
     <row r="540" spans="1:14" s="8" customFormat="1">
       <c r="A540" s="8" t="s">
@@ -13569,20 +13999,40 @@
         <v>15.596409843294065</v>
       </c>
       <c r="C540" s="9">
-        <f t="shared" ref="C540:F540" si="94">C539/SQRT(5)</f>
+        <f t="shared" ref="C540:F540" si="99">C539/SQRT(5)</f>
         <v>15.596409843294065</v>
       </c>
       <c r="D540" s="9">
-        <f t="shared" si="94"/>
+        <f t="shared" si="99"/>
         <v>15.596409843294065</v>
       </c>
       <c r="E540" s="9">
-        <f t="shared" si="94"/>
+        <f t="shared" si="99"/>
         <v>15.596409843294065</v>
       </c>
       <c r="F540" s="9">
-        <f t="shared" si="94"/>
+        <f t="shared" si="99"/>
         <v>15.596409843294065</v>
+      </c>
+      <c r="J540" s="8">
+        <f>J539/SQRT(5)</f>
+        <v>31.933180236237039</v>
+      </c>
+      <c r="K540" s="12">
+        <f t="shared" ref="K540:N540" si="100">K539/SQRT(5)</f>
+        <v>31.933180236237039</v>
+      </c>
+      <c r="L540" s="12">
+        <f t="shared" si="100"/>
+        <v>31.933180236237039</v>
+      </c>
+      <c r="M540" s="12">
+        <f t="shared" si="100"/>
+        <v>31.933180236237039</v>
+      </c>
+      <c r="N540" s="12">
+        <f t="shared" si="100"/>
+        <v>31.933180236237039</v>
       </c>
     </row>
     <row r="541" spans="1:14" s="8" customFormat="1"/>
@@ -13631,10 +14081,10 @@
       </c>
     </row>
     <row r="545" spans="1:14" s="8" customFormat="1">
-      <c r="A545" s="12" t="s">
+      <c r="A545" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B545" s="12"/>
+      <c r="B545" s="13"/>
     </row>
     <row r="546" spans="1:14" s="8" customFormat="1">
       <c r="A546" s="8" t="s">
@@ -13717,39 +14167,39 @@
         <v>501.75999999999897</v>
       </c>
       <c r="C548" s="9">
-        <f t="shared" ref="C548:F548" si="95">(C547-C546)*(C547-C546)</f>
+        <f t="shared" ref="C548:F548" si="101">(C547-C546)*(C547-C546)</f>
         <v>5867.5600000000031</v>
       </c>
       <c r="D548" s="9">
-        <f t="shared" si="95"/>
+        <f t="shared" si="101"/>
         <v>645.15999999999883</v>
       </c>
       <c r="E548" s="9">
-        <f t="shared" si="95"/>
+        <f t="shared" si="101"/>
         <v>207.35999999999933</v>
       </c>
       <c r="F548" s="9">
-        <f t="shared" si="95"/>
+        <f t="shared" si="101"/>
         <v>207.35999999999933</v>
       </c>
       <c r="J548" s="11">
-        <f t="shared" ref="J548:N548" si="96">(J547-J546)*(J547-J546)</f>
+        <f t="shared" ref="J548:N548" si="102">(J547-J546)*(J547-J546)</f>
         <v>829.43999999999733</v>
       </c>
       <c r="K548" s="11">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v>1169.6400000000031</v>
       </c>
       <c r="L548" s="11">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v>432.63999999999811</v>
       </c>
       <c r="M548" s="11">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v>1459.2400000000034</v>
       </c>
       <c r="N548" s="11">
-        <f t="shared" si="96"/>
+        <f t="shared" si="102"/>
         <v>519.83999999999787</v>
       </c>
     </row>
@@ -13797,19 +14247,19 @@
         <v>17.238561424898538</v>
       </c>
       <c r="C550" s="9">
-        <f t="shared" ref="C550:F550" si="97">C549/SQRT(5)</f>
+        <f t="shared" ref="C550:F550" si="103">C549/SQRT(5)</f>
         <v>17.238561424898538</v>
       </c>
       <c r="D550" s="9">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v>17.238561424898538</v>
       </c>
       <c r="E550" s="9">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v>17.238561424898538</v>
       </c>
       <c r="F550" s="9">
-        <f t="shared" si="97"/>
+        <f t="shared" si="103"/>
         <v>17.238561424898538</v>
       </c>
       <c r="J550" s="8">
@@ -13817,19 +14267,19 @@
         <v>13.282770795282133</v>
       </c>
       <c r="K550" s="11">
-        <f t="shared" ref="K550:N550" si="98">K549/SQRT(5)</f>
+        <f t="shared" ref="K550:N550" si="104">K549/SQRT(5)</f>
         <v>13.282770795282133</v>
       </c>
       <c r="L550" s="11">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v>13.282770795282133</v>
       </c>
       <c r="M550" s="11">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v>13.282770795282133</v>
       </c>
       <c r="N550" s="11">
-        <f t="shared" si="98"/>
+        <f t="shared" si="104"/>
         <v>13.282770795282133</v>
       </c>
     </row>
@@ -13874,12 +14324,18 @@
       <c r="L554" s="8">
         <v>184</v>
       </c>
+      <c r="M554" s="8">
+        <v>185</v>
+      </c>
+      <c r="N554" s="8">
+        <v>186</v>
+      </c>
     </row>
     <row r="555" spans="1:14" s="8" customFormat="1">
-      <c r="A555" s="12" t="s">
+      <c r="A555" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B555" s="12"/>
+      <c r="B555" s="13"/>
     </row>
     <row r="556" spans="1:14" s="8" customFormat="1">
       <c r="A556" s="8" t="s">
@@ -13912,6 +14368,12 @@
       <c r="L556" s="8">
         <v>580</v>
       </c>
+      <c r="M556" s="8">
+        <v>647</v>
+      </c>
+      <c r="N556" s="8">
+        <v>554</v>
+      </c>
     </row>
     <row r="557" spans="1:14" s="8" customFormat="1">
       <c r="A557" s="8" t="s">
@@ -13936,13 +14398,19 @@
         <v>616.33333333333337</v>
       </c>
       <c r="J557" s="8">
-        <v>610.33333333333337</v>
+        <v>606.4</v>
       </c>
       <c r="K557" s="8">
-        <v>610.33333333333337</v>
+        <v>606.4</v>
       </c>
       <c r="L557" s="8">
-        <v>610.33333333333337</v>
+        <v>606.4</v>
+      </c>
+      <c r="M557" s="8">
+        <v>606.4</v>
+      </c>
+      <c r="N557" s="8">
+        <v>606.4</v>
       </c>
     </row>
     <row r="558" spans="1:14" s="8" customFormat="1">
@@ -13954,36 +14422,44 @@
         <v>205.44444444444554</v>
       </c>
       <c r="C558" s="9">
-        <f t="shared" ref="C558:G558" si="99">(C557-C556)*(C557-C556)</f>
+        <f t="shared" ref="C558:G558" si="105">(C557-C556)*(C557-C556)</f>
         <v>32.111111111110681</v>
       </c>
       <c r="D558" s="9">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>11.111111111111363</v>
       </c>
       <c r="E558" s="9">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>5.4444444444446214</v>
       </c>
       <c r="F558" s="9">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>312.11111111110978</v>
       </c>
       <c r="G558" s="9">
-        <f t="shared" si="99"/>
+        <f t="shared" si="105"/>
         <v>11.111111111111363</v>
       </c>
       <c r="J558" s="11">
-        <f t="shared" ref="J558:L558" si="100">(J557-J556)*(J557-J556)</f>
-        <v>93.444444444443718</v>
-      </c>
-      <c r="K558" s="11">
-        <f t="shared" si="100"/>
-        <v>427.11111111110955</v>
-      </c>
-      <c r="L558" s="11">
-        <f t="shared" si="100"/>
-        <v>920.11111111111336</v>
+        <f t="shared" ref="J558:N558" si="106">(J557-J556)*(J557-J556)</f>
+        <v>184.9600000000006</v>
+      </c>
+      <c r="K558" s="12">
+        <f t="shared" si="106"/>
+        <v>605.16000000000111</v>
+      </c>
+      <c r="L558" s="12">
+        <f t="shared" si="106"/>
+        <v>696.95999999999879</v>
+      </c>
+      <c r="M558" s="12">
+        <f t="shared" si="106"/>
+        <v>1648.3600000000019</v>
+      </c>
+      <c r="N558" s="12">
+        <f t="shared" si="106"/>
+        <v>2745.7599999999975</v>
       </c>
     </row>
     <row r="559" spans="1:14" s="8" customFormat="1">
@@ -14008,14 +14484,20 @@
       <c r="G559" s="8">
         <v>9.8092926463747734</v>
       </c>
-      <c r="J559" s="11">
-        <v>21.913973218524799</v>
-      </c>
-      <c r="K559" s="11">
-        <v>21.913973218524799</v>
+      <c r="J559" s="12">
+        <v>34.296355491509587</v>
+      </c>
+      <c r="K559" s="12">
+        <v>34.296355491509587</v>
       </c>
       <c r="L559" s="8">
-        <v>21.913973218524799</v>
+        <v>34.296355491509587</v>
+      </c>
+      <c r="M559" s="8">
+        <v>34.296355491509587</v>
+      </c>
+      <c r="N559" s="8">
+        <v>34.296355491509587</v>
       </c>
     </row>
     <row r="560" spans="1:14" s="8" customFormat="1">
@@ -14027,36 +14509,44 @@
         <v>4.0046269535422443</v>
       </c>
       <c r="C560" s="9">
-        <f t="shared" ref="C560:G560" si="101">C559/SQRT(6)</f>
+        <f t="shared" ref="C560:G560" si="107">C559/SQRT(6)</f>
         <v>4.0046269535422443</v>
       </c>
       <c r="D560" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>4.0046269535422443</v>
       </c>
       <c r="E560" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>4.0046269535422443</v>
       </c>
       <c r="F560" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>4.0046269535422443</v>
       </c>
       <c r="G560" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="107"/>
         <v>4.0046269535422443</v>
       </c>
       <c r="J560" s="8">
         <f>J559/SQRT(3)</f>
-        <v>12.652038336729543</v>
-      </c>
-      <c r="K560" s="11">
-        <f t="shared" ref="K560:L560" si="102">K559/SQRT(3)</f>
-        <v>12.652038336729543</v>
-      </c>
-      <c r="L560" s="11">
-        <f t="shared" si="102"/>
-        <v>12.652038336729543</v>
+        <v>19.801010075246161</v>
+      </c>
+      <c r="K560" s="12">
+        <f t="shared" ref="K560:N560" si="108">K559/SQRT(3)</f>
+        <v>19.801010075246161</v>
+      </c>
+      <c r="L560" s="12">
+        <f t="shared" si="108"/>
+        <v>19.801010075246161</v>
+      </c>
+      <c r="M560" s="12">
+        <f t="shared" si="108"/>
+        <v>19.801010075246161</v>
+      </c>
+      <c r="N560" s="12">
+        <f t="shared" si="108"/>
+        <v>19.801010075246161</v>
       </c>
     </row>
     <row r="561" spans="1:14" s="8" customFormat="1"/>
@@ -14088,6 +14578,9 @@
       <c r="F564" s="8">
         <v>152</v>
       </c>
+      <c r="J564" s="8">
+        <v>189</v>
+      </c>
     </row>
     <row r="565" spans="1:14" s="8" customFormat="1">
       <c r="A565" s="8" t="s">
@@ -14113,6 +14606,9 @@
       <c r="F566" s="8">
         <v>645</v>
       </c>
+      <c r="J566" s="8">
+        <v>616</v>
+      </c>
     </row>
     <row r="567" spans="1:14" s="8" customFormat="1">
       <c r="A567" s="8" t="s">
@@ -14143,19 +14639,19 @@
         <v>4.0000000000018188E-2</v>
       </c>
       <c r="C568" s="9">
-        <f t="shared" ref="C568:F568" si="103">(C567-C566)*(C567-C566)</f>
+        <f t="shared" ref="C568:F568" si="109">(C567-C566)*(C567-C566)</f>
         <v>4.8400000000001997</v>
       </c>
       <c r="D568" s="9">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>4.8400000000001997</v>
       </c>
       <c r="E568" s="9">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>96.039999999999111</v>
       </c>
       <c r="F568" s="9">
-        <f t="shared" si="103"/>
+        <f t="shared" si="109"/>
         <v>27.040000000000472</v>
       </c>
     </row>
@@ -14188,19 +14684,19 @@
         <v>2.3047776465420693</v>
       </c>
       <c r="C570" s="9">
-        <f t="shared" ref="C570:F570" si="104">C569/SQRT(5)</f>
+        <f t="shared" ref="C570:F570" si="110">C569/SQRT(5)</f>
         <v>2.3047776465420693</v>
       </c>
       <c r="D570" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v>2.3047776465420693</v>
       </c>
       <c r="E570" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v>2.3047776465420693</v>
       </c>
       <c r="F570" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="110"/>
         <v>2.3047776465420693</v>
       </c>
     </row>
@@ -14250,10 +14746,10 @@
       </c>
     </row>
     <row r="575" spans="1:14" s="8" customFormat="1">
-      <c r="A575" s="12" t="s">
+      <c r="A575" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B575" s="12"/>
+      <c r="B575" s="13"/>
     </row>
     <row r="576" spans="1:14" s="8" customFormat="1">
       <c r="A576" s="8" t="s">
@@ -14334,39 +14830,39 @@
         <v>2.5600000000000729</v>
       </c>
       <c r="C578" s="9">
-        <f t="shared" ref="C578:F578" si="105">(C577-C576)*(C577-C576)</f>
+        <f t="shared" ref="C578:F578" si="111">(C577-C576)*(C577-C576)</f>
         <v>54.759999999999664</v>
       </c>
       <c r="D578" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>54.759999999999664</v>
       </c>
       <c r="E578" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>184.9600000000006</v>
       </c>
       <c r="F578" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="111"/>
         <v>0.15999999999998182</v>
       </c>
       <c r="J578" s="11">
-        <f t="shared" ref="J578:N578" si="106">(J577-J576)*(J577-J576)</f>
+        <f t="shared" ref="J578:N578" si="112">(J577-J576)*(J577-J576)</f>
         <v>196</v>
       </c>
       <c r="K578" s="11">
-        <f t="shared" si="106"/>
+        <f t="shared" si="112"/>
         <v>289</v>
       </c>
       <c r="L578" s="11">
-        <f t="shared" si="106"/>
+        <f t="shared" si="112"/>
         <v>169</v>
       </c>
       <c r="M578" s="11">
-        <f t="shared" si="106"/>
+        <f t="shared" si="112"/>
         <v>625</v>
       </c>
       <c r="N578" s="11">
-        <f t="shared" si="106"/>
+        <f t="shared" si="112"/>
         <v>49</v>
       </c>
     </row>
@@ -14414,19 +14910,19 @@
         <v>3.4478979103215917</v>
       </c>
       <c r="C580" s="9">
-        <f t="shared" ref="C580:F580" si="107">C579/SQRT(5)</f>
+        <f t="shared" ref="C580:F580" si="113">C579/SQRT(5)</f>
         <v>3.4478979103215917</v>
       </c>
       <c r="D580" s="9">
-        <f t="shared" si="107"/>
+        <f t="shared" si="113"/>
         <v>3.4478979103215917</v>
       </c>
       <c r="E580" s="9">
-        <f t="shared" si="107"/>
+        <f t="shared" si="113"/>
         <v>3.4478979103215917</v>
       </c>
       <c r="F580" s="9">
-        <f t="shared" si="107"/>
+        <f t="shared" si="113"/>
         <v>3.4478979103215917</v>
       </c>
       <c r="J580" s="8">
@@ -14434,19 +14930,19 @@
         <v>7.2883468633154385</v>
       </c>
       <c r="K580" s="11">
-        <f t="shared" ref="K580:N580" si="108">K579/SQRT(5)</f>
+        <f t="shared" ref="K580:N580" si="114">K579/SQRT(5)</f>
         <v>7.2883468633154385</v>
       </c>
       <c r="L580" s="11">
-        <f t="shared" si="108"/>
+        <f t="shared" si="114"/>
         <v>7.2883468633154385</v>
       </c>
       <c r="M580" s="11">
-        <f t="shared" si="108"/>
+        <f t="shared" si="114"/>
         <v>7.2883468633154385</v>
       </c>
       <c r="N580" s="11">
-        <f t="shared" si="108"/>
+        <f t="shared" si="114"/>
         <v>7.2883468633154385</v>
       </c>
     </row>
@@ -14496,10 +14992,10 @@
       </c>
     </row>
     <row r="585" spans="1:14" s="8" customFormat="1">
-      <c r="A585" s="12" t="s">
+      <c r="A585" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B585" s="12"/>
+      <c r="B585" s="13"/>
     </row>
     <row r="586" spans="1:14" s="8" customFormat="1">
       <c r="A586" s="8" t="s">
@@ -14580,39 +15076,39 @@
         <v>96.039999999999111</v>
       </c>
       <c r="C588" s="9">
-        <f t="shared" ref="C588:F588" si="109">(C587-C586)*(C587-C586)</f>
+        <f t="shared" ref="C588:F588" si="115">(C587-C586)*(C587-C586)</f>
         <v>190.43999999999875</v>
       </c>
       <c r="D588" s="9">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>408.04000000000184</v>
       </c>
       <c r="E588" s="9">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>116.63999999999902</v>
       </c>
       <c r="F588" s="9">
-        <f t="shared" si="109"/>
+        <f t="shared" si="115"/>
         <v>201.64000000000129</v>
       </c>
       <c r="J588" s="11">
-        <f t="shared" ref="J588:N588" si="110">(J587-J586)*(J587-J586)</f>
+        <f t="shared" ref="J588:N588" si="116">(J587-J586)*(J587-J586)</f>
         <v>19.3599999999998</v>
       </c>
       <c r="K588" s="11">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>129.95999999999947</v>
       </c>
       <c r="L588" s="11">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>243.3600000000007</v>
       </c>
       <c r="M588" s="11">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>466.56000000000097</v>
       </c>
       <c r="N588" s="11">
-        <f t="shared" si="110"/>
+        <f t="shared" si="116"/>
         <v>457.95999999999901</v>
       </c>
     </row>
@@ -14660,19 +15156,19 @@
         <v>6.3649037698931465</v>
       </c>
       <c r="C590" s="9">
-        <f t="shared" ref="C590:F590" si="111">C589/SQRT(5)</f>
+        <f t="shared" ref="C590:F590" si="117">C589/SQRT(5)</f>
         <v>6.3649037698931465</v>
       </c>
       <c r="D590" s="9">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>6.3649037698931465</v>
       </c>
       <c r="E590" s="9">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>6.3649037698931465</v>
       </c>
       <c r="F590" s="9">
-        <f t="shared" si="111"/>
+        <f t="shared" si="117"/>
         <v>6.3649037698931465</v>
       </c>
       <c r="J590" s="8">
@@ -14680,19 +15176,19 @@
         <v>7.2586500122267905</v>
       </c>
       <c r="K590" s="11">
-        <f t="shared" ref="K590:N590" si="112">K589/SQRT(5)</f>
+        <f t="shared" ref="K590:N590" si="118">K589/SQRT(5)</f>
         <v>7.2586500122267905</v>
       </c>
       <c r="L590" s="11">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>7.2586500122267905</v>
       </c>
       <c r="M590" s="11">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>7.2586500122267905</v>
       </c>
       <c r="N590" s="11">
-        <f t="shared" si="112"/>
+        <f t="shared" si="118"/>
         <v>7.2586500122267905</v>
       </c>
     </row>
@@ -14701,7 +15197,7 @@
       <c r="A592" s="8"/>
       <c r="B592" s="8"/>
     </row>
-    <row r="593" spans="1:10" s="7" customFormat="1">
+    <row r="593" spans="1:14" s="7" customFormat="1">
       <c r="A593" s="8" t="s">
         <v>186</v>
       </c>
@@ -14709,7 +15205,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="594" spans="1:10" s="7" customFormat="1">
+    <row r="594" spans="1:14" s="7" customFormat="1">
       <c r="A594" s="8" t="s">
         <v>74</v>
       </c>
@@ -14728,25 +15224,37 @@
       <c r="F594" s="7">
         <v>166</v>
       </c>
-      <c r="I594" s="7" t="s">
+      <c r="H594" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="J594" s="7">
+        <v>187</v>
+      </c>
+      <c r="K594" s="12">
         <v>188</v>
       </c>
-      <c r="J594" s="7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="595" spans="1:10" s="7" customFormat="1">
+      <c r="L594" s="12">
+        <v>190</v>
+      </c>
+      <c r="M594" s="12">
+        <v>191</v>
+      </c>
+      <c r="N594" s="7">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="595" spans="1:14" s="7" customFormat="1">
       <c r="A595" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B595" s="8"/>
     </row>
-    <row r="596" spans="1:10" s="7" customFormat="1">
+    <row r="596" spans="1:14" s="7" customFormat="1">
       <c r="A596" s="8" t="s">
         <v>187</v>
       </c>
       <c r="B596" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C596" s="7">
         <v>648</v>
@@ -14760,8 +15268,23 @@
       <c r="F596" s="7">
         <v>646</v>
       </c>
-    </row>
-    <row r="597" spans="1:10" s="7" customFormat="1">
+      <c r="J596" s="7">
+        <v>623</v>
+      </c>
+      <c r="K596" s="7">
+        <v>600</v>
+      </c>
+      <c r="L596" s="7">
+        <v>614</v>
+      </c>
+      <c r="M596" s="7">
+        <v>619</v>
+      </c>
+      <c r="N596" s="7">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="597" spans="1:14" s="7" customFormat="1">
       <c r="A597" s="8" t="s">
         <v>114</v>
       </c>
@@ -14779,8 +15302,23 @@
       <c r="F597" s="7">
         <v>645.5</v>
       </c>
-    </row>
-    <row r="598" spans="1:10" s="7" customFormat="1">
+      <c r="J597" s="7">
+        <v>613.4</v>
+      </c>
+      <c r="K597" s="7">
+        <v>613.4</v>
+      </c>
+      <c r="L597" s="7">
+        <v>613.4</v>
+      </c>
+      <c r="M597" s="7">
+        <v>613.4</v>
+      </c>
+      <c r="N597" s="7">
+        <v>613.4</v>
+      </c>
+    </row>
+    <row r="598" spans="1:14" s="7" customFormat="1">
       <c r="A598" s="8" t="s">
         <v>115</v>
       </c>
@@ -14790,19 +15328,39 @@
         <v>6.25</v>
       </c>
       <c r="D598" s="9">
-        <f t="shared" ref="D598:F598" si="113">(D597-D596)*(D597-D596)</f>
+        <f t="shared" ref="D598:F598" si="119">(D597-D596)*(D597-D596)</f>
         <v>42.25</v>
       </c>
       <c r="E598" s="9">
-        <f t="shared" si="113"/>
+        <f t="shared" si="119"/>
         <v>12.25</v>
       </c>
       <c r="F598" s="9">
-        <f t="shared" si="113"/>
+        <f t="shared" si="119"/>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="599" spans="1:10" s="7" customFormat="1">
+      <c r="J598" s="12">
+        <f t="shared" ref="J598:N598" si="120">(J597-J596)*(J597-J596)</f>
+        <v>92.160000000000437</v>
+      </c>
+      <c r="K598" s="12">
+        <f t="shared" si="120"/>
+        <v>179.55999999999938</v>
+      </c>
+      <c r="L598" s="12">
+        <f t="shared" si="120"/>
+        <v>0.3600000000000273</v>
+      </c>
+      <c r="M598" s="12">
+        <f t="shared" si="120"/>
+        <v>31.360000000000255</v>
+      </c>
+      <c r="N598" s="12">
+        <f t="shared" si="120"/>
+        <v>5.7599999999998905</v>
+      </c>
+    </row>
+    <row r="599" spans="1:14" s="7" customFormat="1">
       <c r="A599" s="8" t="s">
         <v>116</v>
       </c>
@@ -14819,8 +15377,23 @@
       <c r="F599" s="9">
         <v>3.905124837953327</v>
       </c>
-    </row>
-    <row r="600" spans="1:10" s="7" customFormat="1">
+      <c r="J599" s="12">
+        <v>7.8638413005349994</v>
+      </c>
+      <c r="K599" s="12">
+        <v>7.8638413005349994</v>
+      </c>
+      <c r="L599" s="7">
+        <v>7.8638413005349994</v>
+      </c>
+      <c r="M599" s="7">
+        <v>7.8638413005349994</v>
+      </c>
+      <c r="N599" s="7">
+        <v>7.8638413005349994</v>
+      </c>
+    </row>
+    <row r="600" spans="1:14" s="7" customFormat="1">
       <c r="A600" s="8" t="s">
         <v>117</v>
       </c>
@@ -14830,22 +15403,42 @@
         <v>1.9525624189766635</v>
       </c>
       <c r="D600" s="9">
-        <f t="shared" ref="D600:F600" si="114">D599/SQRT(4)</f>
+        <f t="shared" ref="D600:F600" si="121">D599/SQRT(4)</f>
         <v>1.9525624189766635</v>
       </c>
       <c r="E600" s="9">
-        <f t="shared" si="114"/>
+        <f t="shared" si="121"/>
         <v>1.9525624189766635</v>
       </c>
       <c r="F600" s="9">
-        <f t="shared" si="114"/>
+        <f t="shared" si="121"/>
         <v>1.9525624189766635</v>
       </c>
-    </row>
-    <row r="601" spans="1:10" s="8" customFormat="1"/>
-    <row r="602" spans="1:10" s="8" customFormat="1"/>
-    <row r="603" spans="1:10" s="7" customFormat="1"/>
-    <row r="604" spans="1:10" s="7" customFormat="1">
+      <c r="J600" s="7">
+        <f>J599/SQRT(5)</f>
+        <v>3.5168167424533223</v>
+      </c>
+      <c r="K600" s="12">
+        <f t="shared" ref="K600:N600" si="122">K599/SQRT(5)</f>
+        <v>3.5168167424533223</v>
+      </c>
+      <c r="L600" s="12">
+        <f t="shared" si="122"/>
+        <v>3.5168167424533223</v>
+      </c>
+      <c r="M600" s="12">
+        <f t="shared" si="122"/>
+        <v>3.5168167424533223</v>
+      </c>
+      <c r="N600" s="12">
+        <f t="shared" si="122"/>
+        <v>3.5168167424533223</v>
+      </c>
+    </row>
+    <row r="601" spans="1:14" s="8" customFormat="1"/>
+    <row r="602" spans="1:14" s="8" customFormat="1"/>
+    <row r="603" spans="1:14" s="7" customFormat="1"/>
+    <row r="604" spans="1:14" s="7" customFormat="1">
       <c r="A604" t="s">
         <v>47</v>
       </c>
@@ -14858,7 +15451,7 @@
       <c r="F604"/>
       <c r="G604"/>
     </row>
-    <row r="605" spans="1:10" s="7" customFormat="1">
+    <row r="605" spans="1:14" s="7" customFormat="1">
       <c r="A605" t="s">
         <v>74</v>
       </c>
@@ -14881,7 +15474,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="606" spans="1:10" s="7" customFormat="1">
+    <row r="606" spans="1:14" s="7" customFormat="1">
       <c r="A606" t="s">
         <v>33</v>
       </c>
@@ -14892,7 +15485,7 @@
       <c r="F606"/>
       <c r="G606"/>
     </row>
-    <row r="607" spans="1:10" s="7" customFormat="1">
+    <row r="607" spans="1:14" s="7" customFormat="1">
       <c r="A607" t="s">
         <v>34</v>
       </c>
@@ -14915,7 +15508,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="608" spans="1:10" s="7" customFormat="1">
+    <row r="608" spans="1:14" s="7" customFormat="1">
       <c r="A608" t="s">
         <v>114</v>
       </c>
@@ -14938,36 +15531,36 @@
         <v>600.5</v>
       </c>
     </row>
-    <row r="609" spans="1:7" s="7" customFormat="1">
+    <row r="609" spans="1:8" s="7" customFormat="1">
       <c r="A609" t="s">
         <v>115</v>
       </c>
       <c r="B609">
-        <f t="shared" ref="B609:G609" si="115">(B608-B607)*(B608-B607)</f>
+        <f t="shared" ref="B609:G609" si="123">(B608-B607)*(B608-B607)</f>
         <v>552.25</v>
       </c>
       <c r="C609" s="4">
-        <f t="shared" si="115"/>
+        <f t="shared" si="123"/>
         <v>0.25</v>
       </c>
       <c r="D609" s="4">
-        <f t="shared" si="115"/>
+        <f t="shared" si="123"/>
         <v>1640.25</v>
       </c>
       <c r="E609" s="4">
-        <f t="shared" si="115"/>
+        <f t="shared" si="123"/>
         <v>30.25</v>
       </c>
       <c r="F609" s="4">
-        <f t="shared" si="115"/>
+        <f t="shared" si="123"/>
         <v>30.25</v>
       </c>
       <c r="G609" s="4">
-        <f t="shared" si="115"/>
+        <f t="shared" si="123"/>
         <v>306.25</v>
       </c>
     </row>
-    <row r="610" spans="1:7" s="7" customFormat="1">
+    <row r="610" spans="1:8" s="7" customFormat="1">
       <c r="A610" t="s">
         <v>116</v>
       </c>
@@ -14990,39 +15583,39 @@
         <v>20.653893902442061</v>
       </c>
     </row>
-    <row r="611" spans="1:7" s="7" customFormat="1">
+    <row r="611" spans="1:8" s="7" customFormat="1">
       <c r="A611" t="s">
         <v>117</v>
       </c>
       <c r="B611">
-        <f t="shared" ref="B611:G611" si="116">B610/SQRT(6)</f>
+        <f t="shared" ref="B611:G611" si="124">B610/SQRT(6)</f>
         <v>8.4319168770939772</v>
       </c>
       <c r="C611" s="4">
-        <f t="shared" si="116"/>
+        <f t="shared" si="124"/>
         <v>8.4319168770939772</v>
       </c>
       <c r="D611" s="4">
-        <f t="shared" si="116"/>
+        <f t="shared" si="124"/>
         <v>8.4319168770939772</v>
       </c>
       <c r="E611" s="4">
-        <f t="shared" si="116"/>
+        <f t="shared" si="124"/>
         <v>8.4319168770939772</v>
       </c>
       <c r="F611" s="4">
-        <f t="shared" si="116"/>
+        <f t="shared" si="124"/>
         <v>8.4319168770939772</v>
       </c>
       <c r="G611" s="4">
-        <f t="shared" si="116"/>
+        <f t="shared" si="124"/>
         <v>8.4319168770939772</v>
       </c>
     </row>
-    <row r="612" spans="1:7" s="7" customFormat="1"/>
-    <row r="613" spans="1:7" s="7" customFormat="1"/>
-    <row r="614" spans="1:7" s="7" customFormat="1"/>
-    <row r="616" spans="1:7">
+    <row r="612" spans="1:8" s="7" customFormat="1"/>
+    <row r="613" spans="1:8" s="7" customFormat="1"/>
+    <row r="614" spans="1:8" s="7" customFormat="1"/>
+    <row r="616" spans="1:8">
       <c r="A616" t="s">
         <v>47</v>
       </c>
@@ -15030,7 +15623,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="617" spans="1:7">
+    <row r="617" spans="1:8">
       <c r="A617" t="s">
         <v>74</v>
       </c>
@@ -15043,13 +15636,19 @@
       <c r="D617">
         <v>100</v>
       </c>
-    </row>
-    <row r="618" spans="1:7">
+      <c r="G617">
+        <v>171</v>
+      </c>
+      <c r="H617">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="618" spans="1:8">
       <c r="A618" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="619" spans="1:7">
+    <row r="619" spans="1:8">
       <c r="A619" t="s">
         <v>49</v>
       </c>
@@ -15062,8 +15661,11 @@
       <c r="D619">
         <v>619</v>
       </c>
-    </row>
-    <row r="620" spans="1:7">
+      <c r="G619">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="620" spans="1:8">
       <c r="A620" t="s">
         <v>114</v>
       </c>
@@ -15077,7 +15679,7 @@
         <v>633.33333333333337</v>
       </c>
     </row>
-    <row r="621" spans="1:7">
+    <row r="621" spans="1:8">
       <c r="A621" t="s">
         <v>115</v>
       </c>
@@ -15086,15 +15688,15 @@
         <v>711.11111111110904</v>
       </c>
       <c r="C621" s="4">
-        <f t="shared" ref="C621:D621" si="117">(C620-C619)*(C620-C619)</f>
+        <f t="shared" ref="C621:D621" si="125">(C620-C619)*(C620-C619)</f>
         <v>152.11111111111205</v>
       </c>
       <c r="D621" s="4">
-        <f t="shared" si="117"/>
+        <f t="shared" si="125"/>
         <v>205.44444444444554</v>
       </c>
     </row>
-    <row r="622" spans="1:7">
+    <row r="622" spans="1:8">
       <c r="A622" t="s">
         <v>116</v>
       </c>
@@ -15108,7 +15710,7 @@
         <v>18.873850222522751</v>
       </c>
     </row>
-    <row r="623" spans="1:7">
+    <row r="623" spans="1:8">
       <c r="A623" t="s">
         <v>117</v>
       </c>
@@ -15117,15 +15719,15 @@
         <v>10.896822506618189</v>
       </c>
       <c r="C623" s="4">
-        <f t="shared" ref="C623:D623" si="118">C622/SQRT(3)</f>
+        <f t="shared" ref="C623:D623" si="126">C622/SQRT(3)</f>
         <v>10.896822506618189</v>
       </c>
       <c r="D623" s="4">
-        <f t="shared" si="118"/>
+        <f t="shared" si="126"/>
         <v>10.896822506618189</v>
       </c>
     </row>
-    <row r="624" spans="1:7">
+    <row r="624" spans="1:8">
       <c r="G624" s="7"/>
     </row>
     <row r="625" spans="1:17">
@@ -15149,6 +15751,12 @@
       <c r="D626">
         <v>128</v>
       </c>
+      <c r="E626">
+        <v>195</v>
+      </c>
+      <c r="F626">
+        <v>196</v>
+      </c>
     </row>
     <row r="627" spans="1:17">
       <c r="A627" t="s">
@@ -15169,19 +15777,31 @@
       <c r="D628">
         <v>619</v>
       </c>
+      <c r="E628">
+        <v>566</v>
+      </c>
+      <c r="F628">
+        <v>521</v>
+      </c>
     </row>
     <row r="629" spans="1:17">
       <c r="A629" t="s">
         <v>114</v>
       </c>
       <c r="B629">
-        <v>568</v>
+        <v>558.20000000000005</v>
       </c>
       <c r="C629">
-        <v>568</v>
+        <v>558.20000000000005</v>
       </c>
       <c r="D629">
-        <v>568</v>
+        <v>558.20000000000005</v>
+      </c>
+      <c r="E629">
+        <v>558.20000000000005</v>
+      </c>
+      <c r="F629">
+        <v>558.20000000000005</v>
       </c>
     </row>
     <row r="630" spans="1:17">
@@ -15190,29 +15810,43 @@
       </c>
       <c r="B630">
         <f>(B629-B628)*(B629-B628)</f>
-        <v>121</v>
-      </c>
-      <c r="C630" s="4">
-        <f t="shared" ref="C630:D630" si="119">(C629-C628)*(C629-C628)</f>
-        <v>3844</v>
-      </c>
-      <c r="D630" s="4">
-        <f t="shared" si="119"/>
-        <v>2601</v>
+        <v>432.63999999999811</v>
+      </c>
+      <c r="C630" s="12">
+        <f t="shared" ref="C630:F630" si="127">(C629-C628)*(C629-C628)</f>
+        <v>2724.8400000000047</v>
+      </c>
+      <c r="D630" s="12">
+        <f t="shared" si="127"/>
+        <v>3696.6399999999944</v>
+      </c>
+      <c r="E630" s="12">
+        <f t="shared" si="127"/>
+        <v>60.839999999999293</v>
+      </c>
+      <c r="F630" s="12">
+        <f t="shared" si="127"/>
+        <v>1383.8400000000033</v>
       </c>
     </row>
     <row r="631" spans="1:17">
       <c r="A631" t="s">
         <v>116</v>
       </c>
-      <c r="B631" s="4">
-        <v>46.783187863447985</v>
-      </c>
-      <c r="C631" s="4">
-        <v>46.783187863447985</v>
+      <c r="B631" s="12">
+        <v>40.740152184300932</v>
+      </c>
+      <c r="C631" s="12">
+        <v>40.740152184300932</v>
       </c>
       <c r="D631">
-        <v>46.783187863447985</v>
+        <v>40.740152184300932</v>
+      </c>
+      <c r="E631">
+        <v>40.740152184300932</v>
+      </c>
+      <c r="F631">
+        <v>40.740152184300932</v>
       </c>
     </row>
     <row r="632" spans="1:17">
@@ -15221,15 +15855,23 @@
       </c>
       <c r="B632">
         <f>B631/SQRT(3)</f>
-        <v>27.010286106510527</v>
-      </c>
-      <c r="C632" s="4">
-        <f t="shared" ref="C632:D632" si="120">C631/SQRT(3)</f>
-        <v>27.010286106510527</v>
-      </c>
-      <c r="D632" s="4">
-        <f t="shared" si="120"/>
-        <v>27.010286106510527</v>
+        <v>23.521337830432465</v>
+      </c>
+      <c r="C632" s="12">
+        <f t="shared" ref="C632:F632" si="128">C631/SQRT(3)</f>
+        <v>23.521337830432465</v>
+      </c>
+      <c r="D632" s="12">
+        <f t="shared" si="128"/>
+        <v>23.521337830432465</v>
+      </c>
+      <c r="E632" s="12">
+        <f t="shared" si="128"/>
+        <v>23.521337830432465</v>
+      </c>
+      <c r="F632" s="12">
+        <f t="shared" si="128"/>
+        <v>23.521337830432465</v>
       </c>
     </row>
     <row r="635" spans="1:17">
@@ -15420,27 +16062,27 @@
         <v>18.489999999999608</v>
       </c>
       <c r="C641">
-        <f t="shared" ref="C641:I641" si="121">(C639-C640)*(C639-C640)</f>
+        <f t="shared" ref="C641:I641" si="129">(C639-C640)*(C639-C640)</f>
         <v>1789.2899999999961</v>
       </c>
       <c r="E641">
-        <f t="shared" si="121"/>
+        <f t="shared" si="129"/>
         <v>53.289999999999338</v>
       </c>
       <c r="F641">
-        <f t="shared" si="121"/>
+        <f t="shared" si="129"/>
         <v>2735.2899999999954</v>
       </c>
       <c r="G641">
-        <f t="shared" si="121"/>
+        <f t="shared" si="129"/>
         <v>5.2899999999997904</v>
       </c>
       <c r="H641">
-        <f t="shared" si="121"/>
+        <f t="shared" si="129"/>
         <v>691.68999999999755</v>
       </c>
       <c r="I641">
-        <f t="shared" si="121"/>
+        <f t="shared" si="129"/>
         <v>1466.8899999999965</v>
       </c>
       <c r="L641">
@@ -15448,23 +16090,23 @@
         <v>441</v>
       </c>
       <c r="M641" s="5">
-        <f t="shared" ref="M641:Q641" si="122">(M640-M639)*(M640-M639)</f>
+        <f t="shared" ref="M641:Q641" si="130">(M640-M639)*(M640-M639)</f>
         <v>4</v>
       </c>
       <c r="N641" s="5">
-        <f t="shared" si="122"/>
+        <f t="shared" si="130"/>
         <v>100</v>
       </c>
       <c r="O641" s="5">
-        <f t="shared" si="122"/>
+        <f t="shared" si="130"/>
         <v>144</v>
       </c>
       <c r="P641" s="5">
-        <f t="shared" si="122"/>
+        <f t="shared" si="130"/>
         <v>16</v>
       </c>
       <c r="Q641" s="5">
-        <f t="shared" si="122"/>
+        <f t="shared" si="130"/>
         <v>49</v>
       </c>
     </row>
@@ -15521,27 +16163,27 @@
         <v>7.1138185241239524</v>
       </c>
       <c r="C643">
-        <f t="shared" ref="C643:I643" si="123">C642/SQRT(7)</f>
+        <f t="shared" ref="C643:I643" si="131">C642/SQRT(7)</f>
         <v>7.1138185241239524</v>
       </c>
       <c r="E643">
-        <f t="shared" si="123"/>
+        <f t="shared" si="131"/>
         <v>7.1138185241239524</v>
       </c>
       <c r="F643">
-        <f t="shared" si="123"/>
+        <f t="shared" si="131"/>
         <v>7.1138185241239524</v>
       </c>
       <c r="G643">
-        <f t="shared" si="123"/>
+        <f t="shared" si="131"/>
         <v>7.1138185241239524</v>
       </c>
       <c r="H643">
-        <f t="shared" si="123"/>
+        <f t="shared" si="131"/>
         <v>7.1138185241239524</v>
       </c>
       <c r="I643">
-        <f t="shared" si="123"/>
+        <f t="shared" si="131"/>
         <v>7.1138185241239524</v>
       </c>
       <c r="L643">
@@ -15549,23 +16191,23 @@
         <v>4.5765100725819936</v>
       </c>
       <c r="M643" s="5">
-        <f t="shared" ref="M643:Q643" si="124">M642/SQRT(6)</f>
+        <f t="shared" ref="M643:Q643" si="132">M642/SQRT(6)</f>
         <v>4.5765100725819936</v>
       </c>
       <c r="N643" s="5">
-        <f t="shared" si="124"/>
+        <f t="shared" si="132"/>
         <v>4.5765100725819936</v>
       </c>
       <c r="O643" s="5">
-        <f t="shared" si="124"/>
+        <f t="shared" si="132"/>
         <v>4.5765100725819936</v>
       </c>
       <c r="P643" s="5">
-        <f t="shared" si="124"/>
+        <f t="shared" si="132"/>
         <v>4.5765100725819936</v>
       </c>
       <c r="Q643" s="5">
-        <f t="shared" si="124"/>
+        <f t="shared" si="132"/>
         <v>4.5765100725819936</v>
       </c>
     </row>
@@ -15603,6 +16245,12 @@
       <c r="L646">
         <v>131</v>
       </c>
+      <c r="N646">
+        <v>193</v>
+      </c>
+      <c r="O646">
+        <v>194</v>
+      </c>
     </row>
     <row r="647" spans="1:17">
       <c r="A647" t="s">
@@ -15658,6 +16306,12 @@
       <c r="L648">
         <v>622</v>
       </c>
+      <c r="N648">
+        <v>588</v>
+      </c>
+      <c r="O648">
+        <v>569</v>
+      </c>
     </row>
     <row r="649" spans="1:17">
       <c r="A649" t="s">
@@ -15701,23 +16355,23 @@
         <v>230.02777777777663</v>
       </c>
       <c r="D650">
-        <f t="shared" ref="D650:H650" si="125">(D649-D648)*(D649-D648)</f>
+        <f t="shared" ref="D650:H650" si="133">(D649-D648)*(D649-D648)</f>
         <v>38.027777777781516</v>
       </c>
       <c r="E650">
-        <f t="shared" si="125"/>
+        <f t="shared" si="133"/>
         <v>220.02777777777891</v>
       </c>
       <c r="F650">
-        <f t="shared" si="125"/>
+        <f t="shared" si="133"/>
         <v>84.027777777777089</v>
       </c>
       <c r="G650">
-        <f t="shared" si="125"/>
+        <f t="shared" si="133"/>
         <v>3.3611111111112502</v>
       </c>
       <c r="H650">
-        <f t="shared" si="125"/>
+        <f t="shared" si="133"/>
         <v>191.36111111111217</v>
       </c>
       <c r="J650">
@@ -15725,11 +16379,11 @@
         <v>160.44444444444349</v>
       </c>
       <c r="K650" s="5">
-        <f t="shared" ref="K650:L650" si="126">(K649-K648)*(K649-K648)</f>
+        <f t="shared" ref="K650:L650" si="134">(K649-K648)*(K649-K648)</f>
         <v>215.11111111111001</v>
       </c>
       <c r="L650" s="5">
-        <f t="shared" si="126"/>
+        <f t="shared" si="134"/>
         <v>747.11111111111313</v>
       </c>
     </row>
@@ -15774,23 +16428,23 @@
         <v>4.6152926154173635</v>
       </c>
       <c r="D652">
-        <f t="shared" ref="D652:H652" si="127">D651/SQRT(6)</f>
+        <f t="shared" ref="D652:H652" si="135">D651/SQRT(6)</f>
         <v>4.6152926154173635</v>
       </c>
       <c r="E652">
-        <f t="shared" si="127"/>
+        <f t="shared" si="135"/>
         <v>4.6152926154173635</v>
       </c>
       <c r="F652">
-        <f t="shared" si="127"/>
+        <f t="shared" si="135"/>
         <v>4.6152926154173635</v>
       </c>
       <c r="G652">
-        <f t="shared" si="127"/>
+        <f t="shared" si="135"/>
         <v>4.6152926154173635</v>
       </c>
       <c r="H652">
-        <f t="shared" si="127"/>
+        <f t="shared" si="135"/>
         <v>4.6152926154173635</v>
       </c>
       <c r="J652">
@@ -15798,11 +16452,11 @@
         <v>11.168739442781391</v>
       </c>
       <c r="K652" s="5">
-        <f t="shared" ref="K652:L652" si="128">K651/SQRT(3)</f>
+        <f t="shared" ref="K652:L652" si="136">K651/SQRT(3)</f>
         <v>11.168739442781391</v>
       </c>
       <c r="L652" s="5">
-        <f t="shared" si="128"/>
+        <f t="shared" si="136"/>
         <v>11.168739442781391</v>
       </c>
     </row>
@@ -15837,6 +16491,12 @@
       <c r="K654">
         <v>86</v>
       </c>
+      <c r="M654">
+        <v>169</v>
+      </c>
+      <c r="N654">
+        <v>170</v>
+      </c>
     </row>
     <row r="655" spans="1:17">
       <c r="A655" t="s">
@@ -15897,6 +16557,12 @@
       <c r="K656">
         <v>710</v>
       </c>
+      <c r="M656">
+        <v>738</v>
+      </c>
+      <c r="N656">
+        <v>711</v>
+      </c>
     </row>
     <row r="657" spans="1:11">
       <c r="A657" t="s">
@@ -15939,23 +16605,23 @@
         <v>1.3611111111112879</v>
       </c>
       <c r="C658">
-        <f t="shared" ref="C658:G658" si="129">(C656-C657)*(C656-C657)</f>
+        <f t="shared" ref="C658:G658" si="137">(C656-C657)*(C656-C657)</f>
         <v>51.361111111112194</v>
       </c>
       <c r="D658">
-        <f t="shared" si="129"/>
+        <f t="shared" si="137"/>
         <v>2040.0277777777846</v>
       </c>
       <c r="E658">
-        <f t="shared" si="129"/>
+        <f t="shared" si="137"/>
         <v>84.027777777779164</v>
       </c>
       <c r="F658">
-        <f t="shared" si="129"/>
+        <f t="shared" si="137"/>
         <v>103.36111111111265</v>
       </c>
       <c r="G658">
-        <f t="shared" si="129"/>
+        <f t="shared" si="137"/>
         <v>5304.6944444444334</v>
       </c>
       <c r="I658">
@@ -15963,11 +16629,11 @@
         <v>1.7777777777778789</v>
       </c>
       <c r="J658">
-        <f t="shared" ref="J658:K658" si="130">(J656-J657)*(J656-J657)</f>
+        <f t="shared" ref="J658:K658" si="138">(J656-J657)*(J656-J657)</f>
         <v>53.777777777778333</v>
       </c>
       <c r="K658">
-        <f t="shared" si="130"/>
+        <f t="shared" si="138"/>
         <v>75.111111111110461</v>
       </c>
     </row>
@@ -16012,23 +16678,23 @@
         <v>14.515158105057445</v>
       </c>
       <c r="C660">
-        <f t="shared" ref="C660:G660" si="131">C659/SQRT(6)</f>
+        <f t="shared" ref="C660:G660" si="139">C659/SQRT(6)</f>
         <v>14.515158105057445</v>
       </c>
       <c r="D660">
-        <f t="shared" si="131"/>
+        <f t="shared" si="139"/>
         <v>14.515158105057445</v>
       </c>
       <c r="E660">
-        <f t="shared" si="131"/>
+        <f t="shared" si="139"/>
         <v>14.515158105057445</v>
       </c>
       <c r="F660">
-        <f t="shared" si="131"/>
+        <f t="shared" si="139"/>
         <v>14.515158105057445</v>
       </c>
       <c r="G660">
-        <f t="shared" si="131"/>
+        <f t="shared" si="139"/>
         <v>14.515158105057445</v>
       </c>
       <c r="I660">
@@ -16036,11 +16702,11 @@
         <v>3.8103173776627219</v>
       </c>
       <c r="J660">
-        <f t="shared" ref="J660:K660" si="132">J659/SQRT(3)</f>
+        <f t="shared" ref="J660:K660" si="140">J659/SQRT(3)</f>
         <v>3.8103173776627219</v>
       </c>
       <c r="K660">
-        <f t="shared" si="132"/>
+        <f t="shared" si="140"/>
         <v>3.8103173776627219</v>
       </c>
     </row>
@@ -16160,23 +16826,23 @@
         <v>0</v>
       </c>
       <c r="C668">
-        <f t="shared" ref="C668:G668" si="133">(C666-C667)*(C666-C667)</f>
+        <f t="shared" ref="C668:G668" si="141">(C666-C667)*(C666-C667)</f>
         <v>25</v>
       </c>
       <c r="D668">
-        <f t="shared" si="133"/>
+        <f t="shared" si="141"/>
         <v>16</v>
       </c>
       <c r="E668">
-        <f t="shared" si="133"/>
+        <f t="shared" si="141"/>
         <v>1</v>
       </c>
       <c r="F668">
-        <f t="shared" si="133"/>
+        <f t="shared" si="141"/>
         <v>169</v>
       </c>
       <c r="G668">
-        <f t="shared" si="133"/>
+        <f t="shared" si="141"/>
         <v>1024</v>
       </c>
       <c r="H668" s="5"/>
@@ -16214,23 +16880,23 @@
         <v>5.576920370269467</v>
       </c>
       <c r="C670">
-        <f t="shared" ref="C670:G670" si="134">C669/SQRT(7)</f>
+        <f t="shared" ref="C670:G670" si="142">C669/SQRT(7)</f>
         <v>5.576920370269467</v>
       </c>
       <c r="D670">
-        <f t="shared" si="134"/>
+        <f t="shared" si="142"/>
         <v>5.576920370269467</v>
       </c>
       <c r="E670">
-        <f t="shared" si="134"/>
+        <f t="shared" si="142"/>
         <v>5.576920370269467</v>
       </c>
       <c r="F670">
-        <f t="shared" si="134"/>
+        <f t="shared" si="142"/>
         <v>5.576920370269467</v>
       </c>
       <c r="G670">
-        <f t="shared" si="134"/>
+        <f t="shared" si="142"/>
         <v>5.576920370269467</v>
       </c>
       <c r="H670" s="5"/>
@@ -16361,31 +17027,31 @@
         <v>395.015625</v>
       </c>
       <c r="C677">
-        <f t="shared" ref="C677" si="135">(C675-C676)*(C675-C676)</f>
+        <f t="shared" ref="C677" si="143">(C675-C676)*(C675-C676)</f>
         <v>47.265625</v>
       </c>
       <c r="D677">
-        <f t="shared" ref="D677:I677" si="136">(D675-D676)*(D675-D676)</f>
+        <f t="shared" ref="D677:I677" si="144">(D675-D676)*(D675-D676)</f>
         <v>228.765625</v>
       </c>
       <c r="E677">
-        <f t="shared" si="136"/>
+        <f t="shared" si="144"/>
         <v>83.265625</v>
       </c>
       <c r="F677">
-        <f t="shared" si="136"/>
+        <f t="shared" si="144"/>
         <v>907.515625</v>
       </c>
       <c r="G677">
-        <f t="shared" si="136"/>
+        <f t="shared" si="144"/>
         <v>435.765625</v>
       </c>
       <c r="H677">
-        <f t="shared" si="136"/>
+        <f t="shared" si="144"/>
         <v>892.515625</v>
       </c>
       <c r="I677">
-        <f t="shared" si="136"/>
+        <f t="shared" si="144"/>
         <v>534.765625</v>
       </c>
     </row>
@@ -16427,31 +17093,31 @@
         <v>6.9968991147666424</v>
       </c>
       <c r="C679">
-        <f t="shared" ref="C679" si="137">C678/3</f>
+        <f t="shared" ref="C679" si="145">C678/3</f>
         <v>6.9968991147666424</v>
       </c>
       <c r="D679">
-        <f t="shared" ref="D679:I679" si="138">D678/3</f>
+        <f t="shared" ref="D679:I679" si="146">D678/3</f>
         <v>6.9968991147666424</v>
       </c>
       <c r="E679">
-        <f t="shared" si="138"/>
+        <f t="shared" si="146"/>
         <v>6.9968991147666424</v>
       </c>
       <c r="F679">
-        <f t="shared" si="138"/>
+        <f t="shared" si="146"/>
         <v>6.9968991147666424</v>
       </c>
       <c r="G679">
-        <f t="shared" si="138"/>
+        <f t="shared" si="146"/>
         <v>6.9968991147666424</v>
       </c>
       <c r="H679">
-        <f t="shared" si="138"/>
+        <f t="shared" si="146"/>
         <v>6.9968991147666424</v>
       </c>
       <c r="I679">
-        <f t="shared" si="138"/>
+        <f t="shared" si="146"/>
         <v>6.9968991147666424</v>
       </c>
     </row>
@@ -16602,27 +17268,27 @@
         <v>4980.326530612243</v>
       </c>
       <c r="C685">
-        <f t="shared" ref="C685:H685" si="139">(C683-C684)*(C683-C684)</f>
+        <f t="shared" ref="C685:H685" si="147">(C683-C684)*(C683-C684)</f>
         <v>31.040816326530432</v>
       </c>
       <c r="D685">
-        <f t="shared" si="139"/>
+        <f t="shared" si="147"/>
         <v>88.897959183673777</v>
       </c>
       <c r="E685">
-        <f t="shared" si="139"/>
+        <f t="shared" si="147"/>
         <v>41.326530612245108</v>
       </c>
       <c r="F685">
-        <f t="shared" si="139"/>
+        <f t="shared" si="147"/>
         <v>108.75510204081667</v>
       </c>
       <c r="G685">
-        <f t="shared" si="139"/>
+        <f t="shared" si="147"/>
         <v>133.89795918367309</v>
       </c>
       <c r="H685">
-        <f t="shared" si="139"/>
+        <f t="shared" si="147"/>
         <v>3773.469387755104</v>
       </c>
       <c r="J685">
@@ -16630,11 +17296,11 @@
         <v>32.111111111110681</v>
       </c>
       <c r="K685">
-        <f t="shared" ref="K685:L685" si="140">(K683-K684)*(K683-K684)</f>
+        <f t="shared" ref="K685:L685" si="148">(K683-K684)*(K683-K684)</f>
         <v>53.777777777778333</v>
       </c>
       <c r="L685">
-        <f t="shared" si="140"/>
+        <f t="shared" si="148"/>
         <v>2.7777777777776516</v>
       </c>
     </row>
@@ -16682,27 +17348,27 @@
         <v>10.081632653061222</v>
       </c>
       <c r="C687">
-        <f t="shared" ref="C687:H687" si="141">C686/SQRT(7)</f>
+        <f t="shared" ref="C687:H687" si="149">C686/SQRT(7)</f>
         <v>10.081632653061222</v>
       </c>
       <c r="D687">
-        <f t="shared" si="141"/>
+        <f t="shared" si="149"/>
         <v>10.081632653061222</v>
       </c>
       <c r="E687">
-        <f t="shared" si="141"/>
+        <f t="shared" si="149"/>
         <v>10.081632653061222</v>
       </c>
       <c r="F687">
-        <f t="shared" si="141"/>
+        <f t="shared" si="149"/>
         <v>10.081632653061222</v>
       </c>
       <c r="G687">
-        <f t="shared" si="141"/>
+        <f t="shared" si="149"/>
         <v>10.081632653061222</v>
       </c>
       <c r="H687">
-        <f t="shared" si="141"/>
+        <f t="shared" si="149"/>
         <v>10.081632653061222</v>
       </c>
       <c r="J687">
@@ -16710,11 +17376,11 @@
         <v>3.1387659759612303</v>
       </c>
       <c r="K687">
-        <f t="shared" ref="K687:L687" si="142">K686/SQRT(3)</f>
+        <f t="shared" ref="K687:L687" si="150">K686/SQRT(3)</f>
         <v>3.1387659759612303</v>
       </c>
       <c r="L687">
-        <f t="shared" si="142"/>
+        <f t="shared" si="150"/>
         <v>3.1387659759612303</v>
       </c>
     </row>
@@ -16806,15 +17472,15 @@
         <v>16</v>
       </c>
       <c r="C698">
-        <f t="shared" ref="C698:E698" si="143">(C696-C697)*(C696-C697)</f>
+        <f t="shared" ref="C698:E698" si="151">(C696-C697)*(C696-C697)</f>
         <v>16</v>
       </c>
       <c r="D698">
-        <f t="shared" si="143"/>
+        <f t="shared" si="151"/>
         <v>16</v>
       </c>
       <c r="E698">
-        <f t="shared" si="143"/>
+        <f t="shared" si="151"/>
         <v>16</v>
       </c>
     </row>
@@ -16844,15 +17510,15 @@
         <v>2</v>
       </c>
       <c r="C700">
-        <f t="shared" ref="C700:E700" si="144">C699/SQRT(4)</f>
+        <f t="shared" ref="C700:E700" si="152">C699/SQRT(4)</f>
         <v>2</v>
       </c>
       <c r="D700">
-        <f t="shared" si="144"/>
+        <f t="shared" si="152"/>
         <v>2</v>
       </c>
       <c r="E700">
-        <f t="shared" si="144"/>
+        <f t="shared" si="152"/>
         <v>2</v>
       </c>
     </row>
@@ -16921,11 +17587,11 @@
         <v>169</v>
       </c>
       <c r="C707">
-        <f t="shared" ref="C707:D707" si="145">(C705-C706)*(C705-C706)</f>
+        <f t="shared" ref="C707:D707" si="153">(C705-C706)*(C705-C706)</f>
         <v>49</v>
       </c>
       <c r="D707">
-        <f t="shared" si="145"/>
+        <f t="shared" si="153"/>
         <v>400</v>
       </c>
     </row>
@@ -16938,11 +17604,11 @@
         <v>14.352700094407323</v>
       </c>
       <c r="C708">
-        <f t="shared" ref="C708:D708" si="146">SQRT(206)</f>
+        <f t="shared" ref="C708:D708" si="154">SQRT(206)</f>
         <v>14.352700094407323</v>
       </c>
       <c r="D708">
-        <f t="shared" si="146"/>
+        <f t="shared" si="154"/>
         <v>14.352700094407323</v>
       </c>
     </row>
@@ -16955,11 +17621,11 @@
         <v>8.2865352631040352</v>
       </c>
       <c r="C709">
-        <f t="shared" ref="C709:D709" si="147">C708/SQRT(3)</f>
+        <f t="shared" ref="C709:D709" si="155">C708/SQRT(3)</f>
         <v>8.2865352631040352</v>
       </c>
       <c r="D709">
-        <f t="shared" si="147"/>
+        <f t="shared" si="155"/>
         <v>8.2865352631040352</v>
       </c>
     </row>
@@ -17022,11 +17688,11 @@
         <v>498.77777777777948</v>
       </c>
       <c r="C715">
-        <f t="shared" ref="C715:D715" si="148">(C713-C714)*(C713-C714)</f>
+        <f t="shared" ref="C715:D715" si="156">(C713-C714)*(C713-C714)</f>
         <v>2085.4444444444412</v>
       </c>
       <c r="D715">
-        <f t="shared" si="148"/>
+        <f t="shared" si="156"/>
         <v>544.44444444444616</v>
       </c>
     </row>
@@ -17053,11 +17719,11 @@
         <v>18.644828495581013</v>
       </c>
       <c r="C717">
-        <f t="shared" ref="C717:D717" si="149">C716/SQRT(3)</f>
+        <f t="shared" ref="C717:D717" si="157">C716/SQRT(3)</f>
         <v>18.644828495581013</v>
       </c>
       <c r="D717">
-        <f t="shared" si="149"/>
+        <f t="shared" si="157"/>
         <v>18.644828495581013</v>
       </c>
     </row>
@@ -17149,15 +17815,15 @@
         <v>10.5625</v>
       </c>
       <c r="C726">
-        <f t="shared" ref="C726:E726" si="150">(C724-C725)*(C724-C725)</f>
+        <f t="shared" ref="C726:E726" si="158">(C724-C725)*(C724-C725)</f>
         <v>248.0625</v>
       </c>
       <c r="D726">
-        <f t="shared" si="150"/>
+        <f t="shared" si="158"/>
         <v>27.5625</v>
       </c>
       <c r="E726">
-        <f t="shared" si="150"/>
+        <f t="shared" si="158"/>
         <v>52.5625</v>
       </c>
     </row>
@@ -17187,15 +17853,15 @@
         <v>4.6012905798264905</v>
       </c>
       <c r="C728">
-        <f t="shared" ref="C728:E728" si="151">C727/SQRT(4)</f>
+        <f t="shared" ref="C728:E728" si="159">C727/SQRT(4)</f>
         <v>4.6012905798264905</v>
       </c>
       <c r="D728">
-        <f t="shared" si="151"/>
+        <f t="shared" si="159"/>
         <v>4.6012905798264905</v>
       </c>
       <c r="E728">
-        <f t="shared" si="151"/>
+        <f t="shared" si="159"/>
         <v>4.6012905798264905</v>
       </c>
     </row>
@@ -17285,19 +17951,19 @@
         <v>353.43999999999829</v>
       </c>
       <c r="C735" s="5">
-        <f t="shared" ref="C735:F735" si="152">(C733-C734)*(C733-C734)</f>
+        <f t="shared" ref="C735:F735" si="160">(C733-C734)*(C733-C734)</f>
         <v>249.63999999999857</v>
       </c>
       <c r="D735" s="5">
-        <f t="shared" si="152"/>
+        <f t="shared" si="160"/>
         <v>46.239999999999384</v>
       </c>
       <c r="E735" s="5">
-        <f t="shared" si="152"/>
+        <f t="shared" si="160"/>
         <v>33.639999999999475</v>
       </c>
       <c r="F735" s="5">
-        <f t="shared" si="152"/>
+        <f t="shared" si="160"/>
         <v>2227.8400000000042</v>
       </c>
     </row>
@@ -17330,19 +17996,19 @@
         <v>10.790366073493521</v>
       </c>
       <c r="C737" s="5">
-        <f t="shared" ref="C737:F737" si="153">C736/SQRT(5)</f>
+        <f t="shared" ref="C737:F737" si="161">C736/SQRT(5)</f>
         <v>10.790366073493521</v>
       </c>
       <c r="D737" s="5">
-        <f t="shared" si="153"/>
+        <f t="shared" si="161"/>
         <v>10.790366073493521</v>
       </c>
       <c r="E737" s="5">
-        <f t="shared" si="153"/>
+        <f t="shared" si="161"/>
         <v>10.790366073493521</v>
       </c>
       <c r="F737" s="5">
-        <f t="shared" si="153"/>
+        <f t="shared" si="161"/>
         <v>10.790366073493521</v>
       </c>
     </row>
@@ -17424,19 +18090,19 @@
         <v>484</v>
       </c>
       <c r="C743">
-        <f t="shared" ref="C743:F743" si="154">(C741-C742)*(C741-C742)</f>
+        <f t="shared" ref="C743:F743" si="162">(C741-C742)*(C741-C742)</f>
         <v>169</v>
       </c>
       <c r="D743">
-        <f t="shared" si="154"/>
+        <f t="shared" si="162"/>
         <v>11236</v>
       </c>
       <c r="E743">
-        <f t="shared" si="154"/>
+        <f t="shared" si="162"/>
         <v>1296</v>
       </c>
       <c r="F743">
-        <f t="shared" si="154"/>
+        <f t="shared" si="162"/>
         <v>1225</v>
       </c>
     </row>
@@ -17469,19 +18135,19 @@
         <v>24.008331887076199</v>
       </c>
       <c r="C745">
-        <f t="shared" ref="C745:F745" si="155">C744/SQRT(5)</f>
+        <f t="shared" ref="C745:F745" si="163">C744/SQRT(5)</f>
         <v>24.008331887076199</v>
       </c>
       <c r="D745">
-        <f t="shared" si="155"/>
+        <f t="shared" si="163"/>
         <v>24.008331887076199</v>
       </c>
       <c r="E745">
-        <f t="shared" si="155"/>
+        <f t="shared" si="163"/>
         <v>24.008331887076199</v>
       </c>
       <c r="F745">
-        <f t="shared" si="155"/>
+        <f t="shared" si="163"/>
         <v>24.008331887076199</v>
       </c>
     </row>
@@ -17575,15 +18241,15 @@
         <v>7744</v>
       </c>
       <c r="C754">
-        <f t="shared" ref="C754:E754" si="156">(C752-C753)*(C752-C753)</f>
+        <f t="shared" ref="C754:E754" si="164">(C752-C753)*(C752-C753)</f>
         <v>1089</v>
       </c>
       <c r="D754">
-        <f t="shared" si="156"/>
+        <f t="shared" si="164"/>
         <v>0</v>
       </c>
       <c r="E754">
-        <f t="shared" si="156"/>
+        <f t="shared" si="164"/>
         <v>3025</v>
       </c>
     </row>
@@ -17613,15 +18279,15 @@
         <v>27.223611075682079</v>
       </c>
       <c r="C756">
-        <f t="shared" ref="C756:E756" si="157">C755/SQRT(4)</f>
+        <f t="shared" ref="C756:E756" si="165">C755/SQRT(4)</f>
         <v>27.223611075682079</v>
       </c>
       <c r="D756">
-        <f t="shared" si="157"/>
+        <f t="shared" si="165"/>
         <v>27.223611075682079</v>
       </c>
       <c r="E756">
-        <f t="shared" si="157"/>
+        <f t="shared" si="165"/>
         <v>27.223611075682079</v>
       </c>
     </row>
@@ -17702,15 +18368,15 @@
         <v>12.25</v>
       </c>
       <c r="C763">
-        <f t="shared" ref="C763:E763" si="158">(C761-C762)*(C761-C762)</f>
+        <f t="shared" ref="C763:E763" si="166">(C761-C762)*(C761-C762)</f>
         <v>182.25</v>
       </c>
       <c r="D763">
-        <f t="shared" si="158"/>
+        <f t="shared" si="166"/>
         <v>0.25</v>
       </c>
       <c r="E763">
-        <f t="shared" si="158"/>
+        <f t="shared" si="166"/>
         <v>90.25</v>
       </c>
     </row>
@@ -17740,15 +18406,15 @@
         <v>4.2204857540335334</v>
       </c>
       <c r="C765">
-        <f t="shared" ref="C765:E765" si="159">C764/SQRT(4)</f>
+        <f t="shared" ref="C765:E765" si="167">C764/SQRT(4)</f>
         <v>4.2204857540335334</v>
       </c>
       <c r="D765">
-        <f t="shared" si="159"/>
+        <f t="shared" si="167"/>
         <v>4.2204857540335334</v>
       </c>
       <c r="E765">
-        <f t="shared" si="159"/>
+        <f t="shared" si="167"/>
         <v>4.2204857540335334</v>
       </c>
     </row>
@@ -17850,11 +18516,11 @@
         <v>576</v>
       </c>
       <c r="C771">
-        <f t="shared" ref="C771:D771" si="160">(C769-C770)*(C769-C770)</f>
+        <f t="shared" ref="C771:D771" si="168">(C769-C770)*(C769-C770)</f>
         <v>324</v>
       </c>
       <c r="D771">
-        <f t="shared" si="160"/>
+        <f t="shared" si="168"/>
         <v>36</v>
       </c>
       <c r="F771">
@@ -17862,15 +18528,15 @@
         <v>20.25</v>
       </c>
       <c r="G771">
-        <f t="shared" ref="G771:I771" si="161">(G770-G769)*(G770-G769)</f>
+        <f t="shared" ref="G771:I771" si="169">(G770-G769)*(G770-G769)</f>
         <v>930.25</v>
       </c>
       <c r="H771">
-        <f t="shared" si="161"/>
+        <f t="shared" si="169"/>
         <v>650.25</v>
       </c>
       <c r="I771">
-        <f t="shared" si="161"/>
+        <f t="shared" si="169"/>
         <v>90.25</v>
       </c>
     </row>
@@ -17909,11 +18575,11 @@
         <v>10.198039027185571</v>
       </c>
       <c r="C773">
-        <f t="shared" ref="C773:D773" si="162">C772/SQRT(3)</f>
+        <f t="shared" ref="C773:D773" si="170">C772/SQRT(3)</f>
         <v>10.198039027185571</v>
       </c>
       <c r="D773">
-        <f t="shared" si="162"/>
+        <f t="shared" si="170"/>
         <v>10.198039027185571</v>
       </c>
       <c r="F773">
@@ -17921,15 +18587,15 @@
         <v>10.280442597476044</v>
       </c>
       <c r="G773">
-        <f t="shared" ref="G773:I773" si="163">G772/SQRT(4)</f>
+        <f t="shared" ref="G773:I773" si="171">G772/SQRT(4)</f>
         <v>10.280442597476044</v>
       </c>
       <c r="H773">
-        <f t="shared" si="163"/>
+        <f t="shared" si="171"/>
         <v>10.280442597476044</v>
       </c>
       <c r="I773">
-        <f t="shared" si="163"/>
+        <f t="shared" si="171"/>
         <v>10.280442597476044</v>
       </c>
     </row>
@@ -18709,17 +19375,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A415:B415"/>
-    <mergeCell ref="A435:B435"/>
-    <mergeCell ref="A425:B425"/>
-    <mergeCell ref="A485:B485"/>
-    <mergeCell ref="A495:B495"/>
     <mergeCell ref="A575:B575"/>
     <mergeCell ref="A585:B585"/>
     <mergeCell ref="A515:B515"/>
     <mergeCell ref="A525:B525"/>
     <mergeCell ref="A545:B545"/>
     <mergeCell ref="A555:B555"/>
+    <mergeCell ref="A415:B415"/>
+    <mergeCell ref="A435:B435"/>
+    <mergeCell ref="A425:B425"/>
+    <mergeCell ref="A485:B485"/>
+    <mergeCell ref="A495:B495"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/papers/async-re/data/raw_data.xlsx
+++ b/papers/async-re/data/raw_data.xlsx
@@ -826,7 +826,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="521">
+  <cellStyleXfs count="537">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1348,8 +1348,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1364,8 +1380,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="521">
+  <cellStyles count="537">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1626,6 +1644,14 @@
     <cellStyle name="Followed Hyperlink" xfId="516" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="518" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="520" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="522" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="524" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="526" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="528" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="530" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="532" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="534" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="536" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1886,6 +1912,14 @@
     <cellStyle name="Hyperlink" xfId="515" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="517" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="519" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="521" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="523" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="525" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="527" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="529" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="531" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="533" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="535" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2040,11 +2074,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="478005496"/>
-        <c:axId val="478012360"/>
+        <c:axId val="531428920"/>
+        <c:axId val="531434456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="478005496"/>
+        <c:axId val="531428920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2072,7 +2106,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="478012360"/>
+        <c:crossAx val="531434456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2080,7 +2114,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="478012360"/>
+        <c:axId val="531434456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2110,7 +2144,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="478005496"/>
+        <c:crossAx val="531428920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2238,11 +2272,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="478080472"/>
-        <c:axId val="478086056"/>
+        <c:axId val="531467816"/>
+        <c:axId val="531473400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="478080472"/>
+        <c:axId val="531467816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2270,7 +2304,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="478086056"/>
+        <c:crossAx val="531473400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2278,7 +2312,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="478086056"/>
+        <c:axId val="531473400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2308,7 +2342,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="478080472"/>
+        <c:crossAx val="531467816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2526,11 +2560,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="478121000"/>
-        <c:axId val="478126504"/>
+        <c:axId val="531508888"/>
+        <c:axId val="531514392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="478121000"/>
+        <c:axId val="531508888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2558,7 +2592,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="478126504"/>
+        <c:crossAx val="531514392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2566,7 +2600,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="478126504"/>
+        <c:axId val="531514392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2596,7 +2630,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="478121000"/>
+        <c:crossAx val="531508888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2737,11 +2771,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="498104968"/>
-        <c:axId val="498107752"/>
+        <c:axId val="531547864"/>
+        <c:axId val="531550648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="498104968"/>
+        <c:axId val="531547864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2750,7 +2784,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="498107752"/>
+        <c:crossAx val="531550648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2758,7 +2792,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="498107752"/>
+        <c:axId val="531550648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2788,7 +2822,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="498104968"/>
+        <c:crossAx val="531547864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2935,11 +2969,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="498141128"/>
-        <c:axId val="498146648"/>
+        <c:axId val="531584184"/>
+        <c:axId val="531589704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="498141128"/>
+        <c:axId val="531584184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2967,7 +3001,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="498146648"/>
+        <c:crossAx val="531589704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2975,7 +3009,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="498146648"/>
+        <c:axId val="531589704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3005,7 +3039,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="498141128"/>
+        <c:crossAx val="531584184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3157,11 +3191,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="498182136"/>
-        <c:axId val="498187656"/>
+        <c:axId val="531641576"/>
+        <c:axId val="531647096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="498182136"/>
+        <c:axId val="531641576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3189,7 +3223,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="498187656"/>
+        <c:crossAx val="531647096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3197,7 +3231,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="498187656"/>
+        <c:axId val="531647096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3227,7 +3261,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="498182136"/>
+        <c:crossAx val="531641576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3729,11 +3763,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="498271800"/>
-        <c:axId val="498274776"/>
+        <c:axId val="531732040"/>
+        <c:axId val="531735016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="498271800"/>
+        <c:axId val="531732040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3742,7 +3776,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="498274776"/>
+        <c:crossAx val="531735016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3750,7 +3784,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="498274776"/>
+        <c:axId val="531735016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3779,7 +3813,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="498271800"/>
+        <c:crossAx val="531732040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3991,11 +4025,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="498304824"/>
-        <c:axId val="498307800"/>
+        <c:axId val="531763560"/>
+        <c:axId val="531766536"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="498304824"/>
+        <c:axId val="531763560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4004,7 +4038,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="498307800"/>
+        <c:crossAx val="531766536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4012,7 +4046,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="498307800"/>
+        <c:axId val="531766536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4042,7 +4076,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="498304824"/>
+        <c:crossAx val="531763560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4284,11 +4318,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="498346312"/>
-        <c:axId val="498352328"/>
+        <c:axId val="531806024"/>
+        <c:axId val="531812040"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="498346312"/>
+        <c:axId val="531806024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4316,7 +4350,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="498352328"/>
+        <c:crossAx val="531812040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4324,7 +4358,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="498352328"/>
+        <c:axId val="531812040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4354,7 +4388,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="498346312"/>
+        <c:crossAx val="531806024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5069,10 +5103,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z814"/>
+  <dimension ref="A1:AA814"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A600" workbookViewId="0">
-      <selection activeCell="B632" sqref="B632:F632"/>
+    <sheetView tabSelected="1" topLeftCell="A530" workbookViewId="0">
+      <selection activeCell="J547" sqref="J547"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -11003,10 +11037,10 @@
       <c r="E414" s="6"/>
     </row>
     <row r="415" spans="1:5">
-      <c r="A415" s="13" t="s">
+      <c r="A415" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B415" s="13"/>
+      <c r="B415" s="15"/>
       <c r="D415" s="6"/>
       <c r="E415" s="6"/>
     </row>
@@ -11133,10 +11167,10 @@
       </c>
     </row>
     <row r="425" spans="1:14">
-      <c r="A425" s="13" t="s">
+      <c r="A425" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B425" s="13"/>
+      <c r="B425" s="15"/>
     </row>
     <row r="426" spans="1:14">
       <c r="A426" t="s">
@@ -11419,10 +11453,10 @@
       </c>
     </row>
     <row r="435" spans="1:14">
-      <c r="A435" s="13" t="s">
+      <c r="A435" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B435" s="13"/>
+      <c r="B435" s="15"/>
     </row>
     <row r="436" spans="1:14">
       <c r="A436" t="s">
@@ -12655,10 +12689,10 @@
       </c>
     </row>
     <row r="485" spans="1:14">
-      <c r="A485" s="13" t="s">
+      <c r="A485" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B485" s="13"/>
+      <c r="B485" s="15"/>
     </row>
     <row r="486" spans="1:14">
       <c r="A486" s="8" t="s">
@@ -12912,10 +12946,10 @@
       </c>
     </row>
     <row r="495" spans="1:14" s="7" customFormat="1">
-      <c r="A495" s="13" t="s">
+      <c r="A495" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B495" s="13"/>
+      <c r="B495" s="15"/>
     </row>
     <row r="496" spans="1:14" s="7" customFormat="1">
       <c r="A496" s="8" t="s">
@@ -13185,8 +13219,8 @@
         <v>1265</v>
       </c>
       <c r="J506" s="7">
-        <f>19*60+26</f>
-        <v>1166</v>
+        <f>19*60+26-217</f>
+        <v>949</v>
       </c>
     </row>
     <row r="507" spans="1:14" s="7" customFormat="1">
@@ -13326,10 +13360,10 @@
       </c>
     </row>
     <row r="515" spans="1:14" s="8" customFormat="1">
-      <c r="A515" s="13" t="s">
+      <c r="A515" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B515" s="13"/>
+      <c r="B515" s="15"/>
     </row>
     <row r="516" spans="1:14" s="8" customFormat="1">
       <c r="A516" s="8" t="s">
@@ -13575,10 +13609,10 @@
       </c>
     </row>
     <row r="525" spans="1:14" s="8" customFormat="1">
-      <c r="A525" s="13" t="s">
+      <c r="A525" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B525" s="13"/>
+      <c r="B525" s="15"/>
     </row>
     <row r="526" spans="1:14" s="8" customFormat="1">
       <c r="A526" s="8" t="s">
@@ -13700,7 +13734,7 @@
         <v>23.039999999999562</v>
       </c>
     </row>
-    <row r="529" spans="1:14" s="8" customFormat="1">
+    <row r="529" spans="1:27" s="8" customFormat="1">
       <c r="A529" s="8" t="s">
         <v>116</v>
       </c>
@@ -13735,7 +13769,7 @@
         <v>7.5206382707852661</v>
       </c>
     </row>
-    <row r="530" spans="1:14" s="8" customFormat="1">
+    <row r="530" spans="1:27" s="8" customFormat="1">
       <c r="A530" s="8" t="s">
         <v>117</v>
       </c>
@@ -13780,9 +13814,9 @@
         <v>3.3633316815324652</v>
       </c>
     </row>
-    <row r="531" spans="1:14" s="8" customFormat="1"/>
-    <row r="532" spans="1:14" s="8" customFormat="1"/>
-    <row r="533" spans="1:14" s="8" customFormat="1">
+    <row r="531" spans="1:27" s="8" customFormat="1"/>
+    <row r="532" spans="1:27" s="8" customFormat="1"/>
+    <row r="533" spans="1:27" s="8" customFormat="1">
       <c r="A533" s="8" t="s">
         <v>186</v>
       </c>
@@ -13790,7 +13824,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="534" spans="1:14" s="8" customFormat="1">
+    <row r="534" spans="1:27" s="8" customFormat="1">
       <c r="A534" s="8" t="s">
         <v>74</v>
       </c>
@@ -13825,12 +13859,12 @@
         <v>168</v>
       </c>
     </row>
-    <row r="535" spans="1:14" s="8" customFormat="1">
+    <row r="535" spans="1:27" s="8" customFormat="1">
       <c r="A535" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="536" spans="1:14" s="8" customFormat="1">
+    <row r="536" spans="1:27" s="8" customFormat="1">
       <c r="A536" s="8" t="s">
         <v>184</v>
       </c>
@@ -13875,7 +13909,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="537" spans="1:14" s="8" customFormat="1">
+    <row r="537" spans="1:27" s="8" customFormat="1">
       <c r="A537" s="8" t="s">
         <v>114</v>
       </c>
@@ -13910,7 +13944,7 @@
         <v>899.6</v>
       </c>
     </row>
-    <row r="538" spans="1:14" s="8" customFormat="1">
+    <row r="538" spans="1:27" s="8" customFormat="1">
       <c r="A538" s="8" t="s">
         <v>115</v>
       </c>
@@ -13955,7 +13989,7 @@
         <v>2872.9600000000023</v>
       </c>
     </row>
-    <row r="539" spans="1:14" s="8" customFormat="1">
+    <row r="539" spans="1:27" s="8" customFormat="1">
       <c r="A539" s="8" t="s">
         <v>116</v>
       </c>
@@ -13990,7 +14024,7 @@
         <v>71.404761745978817</v>
       </c>
     </row>
-    <row r="540" spans="1:14" s="8" customFormat="1">
+    <row r="540" spans="1:27" s="8" customFormat="1">
       <c r="A540" s="8" t="s">
         <v>117</v>
       </c>
@@ -14035,9 +14069,9 @@
         <v>31.933180236237039</v>
       </c>
     </row>
-    <row r="541" spans="1:14" s="8" customFormat="1"/>
-    <row r="542" spans="1:14" s="8" customFormat="1"/>
-    <row r="543" spans="1:14" s="8" customFormat="1">
+    <row r="541" spans="1:27" s="8" customFormat="1"/>
+    <row r="542" spans="1:27" s="8" customFormat="1"/>
+    <row r="543" spans="1:27" s="8" customFormat="1">
       <c r="A543" s="8" t="s">
         <v>38</v>
       </c>
@@ -14045,7 +14079,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="544" spans="1:14" s="8" customFormat="1">
+    <row r="544" spans="1:27" s="8" customFormat="1">
       <c r="A544" s="8" t="s">
         <v>74</v>
       </c>
@@ -14079,14 +14113,54 @@
       <c r="N544" s="11">
         <v>176</v>
       </c>
-    </row>
-    <row r="545" spans="1:14" s="8" customFormat="1">
-      <c r="A545" s="13" t="s">
+      <c r="Q544">
+        <v>197</v>
+      </c>
+      <c r="R544" s="13">
+        <v>199</v>
+      </c>
+      <c r="S544"/>
+      <c r="T544" s="13"/>
+      <c r="U544" s="13">
+        <v>201</v>
+      </c>
+      <c r="V544" s="13">
+        <v>202</v>
+      </c>
+      <c r="W544">
+        <v>203</v>
+      </c>
+      <c r="X544">
+        <v>204</v>
+      </c>
+      <c r="Y544">
+        <v>205</v>
+      </c>
+      <c r="Z544">
+        <v>206</v>
+      </c>
+      <c r="AA544">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="545" spans="1:27" s="8" customFormat="1">
+      <c r="A545" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B545" s="13"/>
-    </row>
-    <row r="546" spans="1:14" s="8" customFormat="1">
+      <c r="B545" s="15"/>
+      <c r="Q545"/>
+      <c r="R545"/>
+      <c r="S545"/>
+      <c r="T545"/>
+      <c r="U545"/>
+      <c r="V545"/>
+      <c r="W545"/>
+      <c r="X545"/>
+      <c r="Y545"/>
+      <c r="Z545"/>
+      <c r="AA545"/>
+    </row>
+    <row r="546" spans="1:27" s="8" customFormat="1">
       <c r="A546" s="8" t="s">
         <v>187</v>
       </c>
@@ -14122,8 +14196,35 @@
       <c r="N546" s="8">
         <v>563</v>
       </c>
-    </row>
-    <row r="547" spans="1:14" s="8" customFormat="1">
+      <c r="Q546">
+        <v>622</v>
+      </c>
+      <c r="R546">
+        <v>614</v>
+      </c>
+      <c r="S546"/>
+      <c r="T546"/>
+      <c r="U546">
+        <v>558</v>
+      </c>
+      <c r="V546">
+        <v>560</v>
+      </c>
+      <c r="W546">
+        <v>597</v>
+      </c>
+      <c r="X546">
+        <v>570</v>
+      </c>
+      <c r="Y546">
+        <v>580</v>
+      </c>
+      <c r="Z546">
+        <v>565</v>
+      </c>
+      <c r="AA546"/>
+    </row>
+    <row r="547" spans="1:27" s="8" customFormat="1">
       <c r="A547" s="8" t="s">
         <v>114</v>
       </c>
@@ -14158,7 +14259,7 @@
         <v>585.79999999999995</v>
       </c>
     </row>
-    <row r="548" spans="1:14" s="8" customFormat="1">
+    <row r="548" spans="1:27" s="8" customFormat="1">
       <c r="A548" s="8" t="s">
         <v>115</v>
       </c>
@@ -14203,7 +14304,7 @@
         <v>519.83999999999787</v>
       </c>
     </row>
-    <row r="549" spans="1:14" s="8" customFormat="1">
+    <row r="549" spans="1:27" s="8" customFormat="1">
       <c r="A549" s="8" t="s">
         <v>116</v>
       </c>
@@ -14238,7 +14339,7 @@
         <v>29.701178427799793</v>
       </c>
     </row>
-    <row r="550" spans="1:14" s="8" customFormat="1">
+    <row r="550" spans="1:27" s="8" customFormat="1">
       <c r="A550" s="8" t="s">
         <v>117</v>
       </c>
@@ -14283,9 +14384,9 @@
         <v>13.282770795282133</v>
       </c>
     </row>
-    <row r="551" spans="1:14" s="8" customFormat="1"/>
-    <row r="552" spans="1:14" s="8" customFormat="1"/>
-    <row r="553" spans="1:14" s="8" customFormat="1">
+    <row r="551" spans="1:27" s="8" customFormat="1"/>
+    <row r="552" spans="1:27" s="8" customFormat="1"/>
+    <row r="553" spans="1:27" s="8" customFormat="1">
       <c r="A553" s="8" t="s">
         <v>38</v>
       </c>
@@ -14293,7 +14394,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="554" spans="1:14" s="8" customFormat="1">
+    <row r="554" spans="1:27" s="8" customFormat="1">
       <c r="A554" s="8" t="s">
         <v>74</v>
       </c>
@@ -14331,13 +14432,13 @@
         <v>186</v>
       </c>
     </row>
-    <row r="555" spans="1:14" s="8" customFormat="1">
-      <c r="A555" s="13" t="s">
+    <row r="555" spans="1:27" s="8" customFormat="1">
+      <c r="A555" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B555" s="13"/>
-    </row>
-    <row r="556" spans="1:14" s="8" customFormat="1">
+      <c r="B555" s="15"/>
+    </row>
+    <row r="556" spans="1:27" s="8" customFormat="1">
       <c r="A556" s="8" t="s">
         <v>187</v>
       </c>
@@ -14375,7 +14476,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="557" spans="1:14" s="8" customFormat="1">
+    <row r="557" spans="1:27" s="8" customFormat="1">
       <c r="A557" s="8" t="s">
         <v>114</v>
       </c>
@@ -14413,7 +14514,7 @@
         <v>606.4</v>
       </c>
     </row>
-    <row r="558" spans="1:14" s="8" customFormat="1">
+    <row r="558" spans="1:27" s="8" customFormat="1">
       <c r="A558" s="8" t="s">
         <v>115</v>
       </c>
@@ -14462,7 +14563,7 @@
         <v>2745.7599999999975</v>
       </c>
     </row>
-    <row r="559" spans="1:14" s="8" customFormat="1">
+    <row r="559" spans="1:27" s="8" customFormat="1">
       <c r="A559" s="8" t="s">
         <v>116</v>
       </c>
@@ -14500,7 +14601,7 @@
         <v>34.296355491509587</v>
       </c>
     </row>
-    <row r="560" spans="1:14" s="8" customFormat="1">
+    <row r="560" spans="1:27" s="8" customFormat="1">
       <c r="A560" s="8" t="s">
         <v>117</v>
       </c>
@@ -14746,10 +14847,10 @@
       </c>
     </row>
     <row r="575" spans="1:14" s="8" customFormat="1">
-      <c r="A575" s="13" t="s">
+      <c r="A575" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B575" s="13"/>
+      <c r="B575" s="15"/>
     </row>
     <row r="576" spans="1:14" s="8" customFormat="1">
       <c r="A576" s="8" t="s">
@@ -14992,10 +15093,10 @@
       </c>
     </row>
     <row r="585" spans="1:14" s="8" customFormat="1">
-      <c r="A585" s="13" t="s">
+      <c r="A585" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B585" s="13"/>
+      <c r="B585" s="15"/>
     </row>
     <row r="586" spans="1:14" s="8" customFormat="1">
       <c r="A586" s="8" t="s">
@@ -15531,7 +15632,7 @@
         <v>600.5</v>
       </c>
     </row>
-    <row r="609" spans="1:8" s="7" customFormat="1">
+    <row r="609" spans="1:7" s="7" customFormat="1">
       <c r="A609" t="s">
         <v>115</v>
       </c>
@@ -15560,7 +15661,7 @@
         <v>306.25</v>
       </c>
     </row>
-    <row r="610" spans="1:8" s="7" customFormat="1">
+    <row r="610" spans="1:7" s="7" customFormat="1">
       <c r="A610" t="s">
         <v>116</v>
       </c>
@@ -15583,7 +15684,7 @@
         <v>20.653893902442061</v>
       </c>
     </row>
-    <row r="611" spans="1:8" s="7" customFormat="1">
+    <row r="611" spans="1:7" s="7" customFormat="1">
       <c r="A611" t="s">
         <v>117</v>
       </c>
@@ -15612,10 +15713,10 @@
         <v>8.4319168770939772</v>
       </c>
     </row>
-    <row r="612" spans="1:8" s="7" customFormat="1"/>
-    <row r="613" spans="1:8" s="7" customFormat="1"/>
-    <row r="614" spans="1:8" s="7" customFormat="1"/>
-    <row r="616" spans="1:8">
+    <row r="612" spans="1:7" s="7" customFormat="1"/>
+    <row r="613" spans="1:7" s="7" customFormat="1"/>
+    <row r="614" spans="1:7" s="7" customFormat="1"/>
+    <row r="616" spans="1:7">
       <c r="A616" t="s">
         <v>47</v>
       </c>
@@ -15623,7 +15724,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="617" spans="1:8">
+    <row r="617" spans="1:7">
       <c r="A617" t="s">
         <v>74</v>
       </c>
@@ -15639,16 +15740,13 @@
       <c r="G617">
         <v>171</v>
       </c>
-      <c r="H617">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="618" spans="1:8">
+    </row>
+    <row r="618" spans="1:7">
       <c r="A618" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="619" spans="1:8">
+    <row r="619" spans="1:7">
       <c r="A619" t="s">
         <v>49</v>
       </c>
@@ -15665,7 +15763,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="620" spans="1:8">
+    <row r="620" spans="1:7">
       <c r="A620" t="s">
         <v>114</v>
       </c>
@@ -15679,7 +15777,7 @@
         <v>633.33333333333337</v>
       </c>
     </row>
-    <row r="621" spans="1:8">
+    <row r="621" spans="1:7">
       <c r="A621" t="s">
         <v>115</v>
       </c>
@@ -15696,7 +15794,7 @@
         <v>205.44444444444554</v>
       </c>
     </row>
-    <row r="622" spans="1:8">
+    <row r="622" spans="1:7">
       <c r="A622" t="s">
         <v>116</v>
       </c>
@@ -15710,7 +15808,7 @@
         <v>18.873850222522751</v>
       </c>
     </row>
-    <row r="623" spans="1:8">
+    <row r="623" spans="1:7">
       <c r="A623" t="s">
         <v>117</v>
       </c>
@@ -15727,7 +15825,7 @@
         <v>10.896822506618189</v>
       </c>
     </row>
-    <row r="624" spans="1:8">
+    <row r="624" spans="1:7">
       <c r="G624" s="7"/>
     </row>
     <row r="625" spans="1:17">
@@ -15757,6 +15855,21 @@
       <c r="F626">
         <v>196</v>
       </c>
+      <c r="I626">
+        <v>208</v>
+      </c>
+      <c r="J626">
+        <v>209</v>
+      </c>
+      <c r="K626">
+        <v>210</v>
+      </c>
+      <c r="L626">
+        <v>211</v>
+      </c>
+      <c r="M626">
+        <v>212</v>
+      </c>
     </row>
     <row r="627" spans="1:17">
       <c r="A627" t="s">
@@ -15783,6 +15896,21 @@
       <c r="F628">
         <v>521</v>
       </c>
+      <c r="I628">
+        <v>570</v>
+      </c>
+      <c r="J628">
+        <v>559</v>
+      </c>
+      <c r="K628">
+        <v>578</v>
+      </c>
+      <c r="L628">
+        <v>570</v>
+      </c>
+      <c r="M628">
+        <v>571</v>
+      </c>
     </row>
     <row r="629" spans="1:17">
       <c r="A629" t="s">
@@ -15803,6 +15931,21 @@
       <c r="F629">
         <v>558.20000000000005</v>
       </c>
+      <c r="I629">
+        <v>569.6</v>
+      </c>
+      <c r="J629">
+        <v>569.6</v>
+      </c>
+      <c r="K629">
+        <v>569.6</v>
+      </c>
+      <c r="L629">
+        <v>569.6</v>
+      </c>
+      <c r="M629">
+        <v>569.6</v>
+      </c>
     </row>
     <row r="630" spans="1:17">
       <c r="A630" t="s">
@@ -15828,6 +15971,26 @@
         <f t="shared" si="127"/>
         <v>1383.8400000000033</v>
       </c>
+      <c r="I630">
+        <f>(I629-I628)*(I629-I628)</f>
+        <v>0.15999999999998182</v>
+      </c>
+      <c r="J630" s="14">
+        <f t="shared" ref="J630:M630" si="128">(J629-J628)*(J629-J628)</f>
+        <v>112.36000000000048</v>
+      </c>
+      <c r="K630" s="14">
+        <f t="shared" si="128"/>
+        <v>70.559999999999619</v>
+      </c>
+      <c r="L630" s="14">
+        <f t="shared" si="128"/>
+        <v>0.15999999999998182</v>
+      </c>
+      <c r="M630" s="14">
+        <f t="shared" si="128"/>
+        <v>1.9599999999999362</v>
+      </c>
     </row>
     <row r="631" spans="1:17">
       <c r="A631" t="s">
@@ -15848,6 +16011,21 @@
       <c r="F631">
         <v>40.740152184300932</v>
       </c>
+      <c r="I631" s="14">
+        <v>6.0860496218811759</v>
+      </c>
+      <c r="J631" s="14">
+        <v>6.0860496218811759</v>
+      </c>
+      <c r="K631">
+        <v>6.0860496218811759</v>
+      </c>
+      <c r="L631">
+        <v>6.0860496218811759</v>
+      </c>
+      <c r="M631">
+        <v>6.0860496218811759</v>
+      </c>
     </row>
     <row r="632" spans="1:17">
       <c r="A632" t="s">
@@ -15858,20 +16036,40 @@
         <v>23.521337830432465</v>
       </c>
       <c r="C632" s="12">
-        <f t="shared" ref="C632:F632" si="128">C631/SQRT(3)</f>
+        <f t="shared" ref="C632:F632" si="129">C631/SQRT(3)</f>
         <v>23.521337830432465</v>
       </c>
       <c r="D632" s="12">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>23.521337830432465</v>
       </c>
       <c r="E632" s="12">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>23.521337830432465</v>
       </c>
       <c r="F632" s="12">
-        <f t="shared" si="128"/>
+        <f t="shared" si="129"/>
         <v>23.521337830432465</v>
+      </c>
+      <c r="I632" s="14">
+        <f t="shared" ref="I632:M632" si="130">I631/SQRT(3)</f>
+        <v>3.5137823874945173</v>
+      </c>
+      <c r="J632" s="14">
+        <f t="shared" si="130"/>
+        <v>3.5137823874945173</v>
+      </c>
+      <c r="K632" s="14">
+        <f t="shared" si="130"/>
+        <v>3.5137823874945173</v>
+      </c>
+      <c r="L632" s="14">
+        <f t="shared" si="130"/>
+        <v>3.5137823874945173</v>
+      </c>
+      <c r="M632" s="14">
+        <f t="shared" si="130"/>
+        <v>3.5137823874945173</v>
       </c>
     </row>
     <row r="635" spans="1:17">
@@ -16062,27 +16260,27 @@
         <v>18.489999999999608</v>
       </c>
       <c r="C641">
-        <f t="shared" ref="C641:I641" si="129">(C639-C640)*(C639-C640)</f>
+        <f t="shared" ref="C641:I641" si="131">(C639-C640)*(C639-C640)</f>
         <v>1789.2899999999961</v>
       </c>
       <c r="E641">
-        <f t="shared" si="129"/>
+        <f t="shared" si="131"/>
         <v>53.289999999999338</v>
       </c>
       <c r="F641">
-        <f t="shared" si="129"/>
+        <f t="shared" si="131"/>
         <v>2735.2899999999954</v>
       </c>
       <c r="G641">
-        <f t="shared" si="129"/>
+        <f t="shared" si="131"/>
         <v>5.2899999999997904</v>
       </c>
       <c r="H641">
-        <f t="shared" si="129"/>
+        <f t="shared" si="131"/>
         <v>691.68999999999755</v>
       </c>
       <c r="I641">
-        <f t="shared" si="129"/>
+        <f t="shared" si="131"/>
         <v>1466.8899999999965</v>
       </c>
       <c r="L641">
@@ -16090,23 +16288,23 @@
         <v>441</v>
       </c>
       <c r="M641" s="5">
-        <f t="shared" ref="M641:Q641" si="130">(M640-M639)*(M640-M639)</f>
+        <f t="shared" ref="M641:Q641" si="132">(M640-M639)*(M640-M639)</f>
         <v>4</v>
       </c>
       <c r="N641" s="5">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>100</v>
       </c>
       <c r="O641" s="5">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>144</v>
       </c>
       <c r="P641" s="5">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>16</v>
       </c>
       <c r="Q641" s="5">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>49</v>
       </c>
     </row>
@@ -16163,27 +16361,27 @@
         <v>7.1138185241239524</v>
       </c>
       <c r="C643">
-        <f t="shared" ref="C643:I643" si="131">C642/SQRT(7)</f>
+        <f t="shared" ref="C643:I643" si="133">C642/SQRT(7)</f>
         <v>7.1138185241239524</v>
       </c>
       <c r="E643">
-        <f t="shared" si="131"/>
+        <f t="shared" si="133"/>
         <v>7.1138185241239524</v>
       </c>
       <c r="F643">
-        <f t="shared" si="131"/>
+        <f t="shared" si="133"/>
         <v>7.1138185241239524</v>
       </c>
       <c r="G643">
-        <f t="shared" si="131"/>
+        <f t="shared" si="133"/>
         <v>7.1138185241239524</v>
       </c>
       <c r="H643">
-        <f t="shared" si="131"/>
+        <f t="shared" si="133"/>
         <v>7.1138185241239524</v>
       </c>
       <c r="I643">
-        <f t="shared" si="131"/>
+        <f t="shared" si="133"/>
         <v>7.1138185241239524</v>
       </c>
       <c r="L643">
@@ -16191,23 +16389,23 @@
         <v>4.5765100725819936</v>
       </c>
       <c r="M643" s="5">
-        <f t="shared" ref="M643:Q643" si="132">M642/SQRT(6)</f>
+        <f t="shared" ref="M643:Q643" si="134">M642/SQRT(6)</f>
         <v>4.5765100725819936</v>
       </c>
       <c r="N643" s="5">
-        <f t="shared" si="132"/>
+        <f t="shared" si="134"/>
         <v>4.5765100725819936</v>
       </c>
       <c r="O643" s="5">
-        <f t="shared" si="132"/>
+        <f t="shared" si="134"/>
         <v>4.5765100725819936</v>
       </c>
       <c r="P643" s="5">
-        <f t="shared" si="132"/>
+        <f t="shared" si="134"/>
         <v>4.5765100725819936</v>
       </c>
       <c r="Q643" s="5">
-        <f t="shared" si="132"/>
+        <f t="shared" si="134"/>
         <v>4.5765100725819936</v>
       </c>
     </row>
@@ -16355,23 +16553,23 @@
         <v>230.02777777777663</v>
       </c>
       <c r="D650">
-        <f t="shared" ref="D650:H650" si="133">(D649-D648)*(D649-D648)</f>
+        <f t="shared" ref="D650:H650" si="135">(D649-D648)*(D649-D648)</f>
         <v>38.027777777781516</v>
       </c>
       <c r="E650">
-        <f t="shared" si="133"/>
+        <f t="shared" si="135"/>
         <v>220.02777777777891</v>
       </c>
       <c r="F650">
-        <f t="shared" si="133"/>
+        <f t="shared" si="135"/>
         <v>84.027777777777089</v>
       </c>
       <c r="G650">
-        <f t="shared" si="133"/>
+        <f t="shared" si="135"/>
         <v>3.3611111111112502</v>
       </c>
       <c r="H650">
-        <f t="shared" si="133"/>
+        <f t="shared" si="135"/>
         <v>191.36111111111217</v>
       </c>
       <c r="J650">
@@ -16379,11 +16577,11 @@
         <v>160.44444444444349</v>
       </c>
       <c r="K650" s="5">
-        <f t="shared" ref="K650:L650" si="134">(K649-K648)*(K649-K648)</f>
+        <f t="shared" ref="K650:L650" si="136">(K649-K648)*(K649-K648)</f>
         <v>215.11111111111001</v>
       </c>
       <c r="L650" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="136"/>
         <v>747.11111111111313</v>
       </c>
     </row>
@@ -16428,23 +16626,23 @@
         <v>4.6152926154173635</v>
       </c>
       <c r="D652">
-        <f t="shared" ref="D652:H652" si="135">D651/SQRT(6)</f>
+        <f t="shared" ref="D652:H652" si="137">D651/SQRT(6)</f>
         <v>4.6152926154173635</v>
       </c>
       <c r="E652">
-        <f t="shared" si="135"/>
+        <f t="shared" si="137"/>
         <v>4.6152926154173635</v>
       </c>
       <c r="F652">
-        <f t="shared" si="135"/>
+        <f t="shared" si="137"/>
         <v>4.6152926154173635</v>
       </c>
       <c r="G652">
-        <f t="shared" si="135"/>
+        <f t="shared" si="137"/>
         <v>4.6152926154173635</v>
       </c>
       <c r="H652">
-        <f t="shared" si="135"/>
+        <f t="shared" si="137"/>
         <v>4.6152926154173635</v>
       </c>
       <c r="J652">
@@ -16452,11 +16650,11 @@
         <v>11.168739442781391</v>
       </c>
       <c r="K652" s="5">
-        <f t="shared" ref="K652:L652" si="136">K651/SQRT(3)</f>
+        <f t="shared" ref="K652:L652" si="138">K651/SQRT(3)</f>
         <v>11.168739442781391</v>
       </c>
       <c r="L652" s="5">
-        <f t="shared" si="136"/>
+        <f t="shared" si="138"/>
         <v>11.168739442781391</v>
       </c>
     </row>
@@ -16605,23 +16803,23 @@
         <v>1.3611111111112879</v>
       </c>
       <c r="C658">
-        <f t="shared" ref="C658:G658" si="137">(C656-C657)*(C656-C657)</f>
+        <f t="shared" ref="C658:G658" si="139">(C656-C657)*(C656-C657)</f>
         <v>51.361111111112194</v>
       </c>
       <c r="D658">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>2040.0277777777846</v>
       </c>
       <c r="E658">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>84.027777777779164</v>
       </c>
       <c r="F658">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>103.36111111111265</v>
       </c>
       <c r="G658">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>5304.6944444444334</v>
       </c>
       <c r="I658">
@@ -16629,11 +16827,11 @@
         <v>1.7777777777778789</v>
       </c>
       <c r="J658">
-        <f t="shared" ref="J658:K658" si="138">(J656-J657)*(J656-J657)</f>
+        <f t="shared" ref="J658:K658" si="140">(J656-J657)*(J656-J657)</f>
         <v>53.777777777778333</v>
       </c>
       <c r="K658">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>75.111111111110461</v>
       </c>
     </row>
@@ -16678,23 +16876,23 @@
         <v>14.515158105057445</v>
       </c>
       <c r="C660">
-        <f t="shared" ref="C660:G660" si="139">C659/SQRT(6)</f>
+        <f t="shared" ref="C660:G660" si="141">C659/SQRT(6)</f>
         <v>14.515158105057445</v>
       </c>
       <c r="D660">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>14.515158105057445</v>
       </c>
       <c r="E660">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>14.515158105057445</v>
       </c>
       <c r="F660">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>14.515158105057445</v>
       </c>
       <c r="G660">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>14.515158105057445</v>
       </c>
       <c r="I660">
@@ -16702,11 +16900,11 @@
         <v>3.8103173776627219</v>
       </c>
       <c r="J660">
-        <f t="shared" ref="J660:K660" si="140">J659/SQRT(3)</f>
+        <f t="shared" ref="J660:K660" si="142">J659/SQRT(3)</f>
         <v>3.8103173776627219</v>
       </c>
       <c r="K660">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v>3.8103173776627219</v>
       </c>
     </row>
@@ -16826,23 +17024,23 @@
         <v>0</v>
       </c>
       <c r="C668">
-        <f t="shared" ref="C668:G668" si="141">(C666-C667)*(C666-C667)</f>
+        <f t="shared" ref="C668:G668" si="143">(C666-C667)*(C666-C667)</f>
         <v>25</v>
       </c>
       <c r="D668">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v>16</v>
       </c>
       <c r="E668">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v>1</v>
       </c>
       <c r="F668">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v>169</v>
       </c>
       <c r="G668">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v>1024</v>
       </c>
       <c r="H668" s="5"/>
@@ -16880,23 +17078,23 @@
         <v>5.576920370269467</v>
       </c>
       <c r="C670">
-        <f t="shared" ref="C670:G670" si="142">C669/SQRT(7)</f>
+        <f t="shared" ref="C670:G670" si="144">C669/SQRT(7)</f>
         <v>5.576920370269467</v>
       </c>
       <c r="D670">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v>5.576920370269467</v>
       </c>
       <c r="E670">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v>5.576920370269467</v>
       </c>
       <c r="F670">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v>5.576920370269467</v>
       </c>
       <c r="G670">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v>5.576920370269467</v>
       </c>
       <c r="H670" s="5"/>
@@ -17027,31 +17225,31 @@
         <v>395.015625</v>
       </c>
       <c r="C677">
-        <f t="shared" ref="C677" si="143">(C675-C676)*(C675-C676)</f>
+        <f t="shared" ref="C677" si="145">(C675-C676)*(C675-C676)</f>
         <v>47.265625</v>
       </c>
       <c r="D677">
-        <f t="shared" ref="D677:I677" si="144">(D675-D676)*(D675-D676)</f>
+        <f t="shared" ref="D677:I677" si="146">(D675-D676)*(D675-D676)</f>
         <v>228.765625</v>
       </c>
       <c r="E677">
-        <f t="shared" si="144"/>
+        <f t="shared" si="146"/>
         <v>83.265625</v>
       </c>
       <c r="F677">
-        <f t="shared" si="144"/>
+        <f t="shared" si="146"/>
         <v>907.515625</v>
       </c>
       <c r="G677">
-        <f t="shared" si="144"/>
+        <f t="shared" si="146"/>
         <v>435.765625</v>
       </c>
       <c r="H677">
-        <f t="shared" si="144"/>
+        <f t="shared" si="146"/>
         <v>892.515625</v>
       </c>
       <c r="I677">
-        <f t="shared" si="144"/>
+        <f t="shared" si="146"/>
         <v>534.765625</v>
       </c>
     </row>
@@ -17093,31 +17291,31 @@
         <v>6.9968991147666424</v>
       </c>
       <c r="C679">
-        <f t="shared" ref="C679" si="145">C678/3</f>
+        <f t="shared" ref="C679" si="147">C678/3</f>
         <v>6.9968991147666424</v>
       </c>
       <c r="D679">
-        <f t="shared" ref="D679:I679" si="146">D678/3</f>
+        <f t="shared" ref="D679:I679" si="148">D678/3</f>
         <v>6.9968991147666424</v>
       </c>
       <c r="E679">
-        <f t="shared" si="146"/>
+        <f t="shared" si="148"/>
         <v>6.9968991147666424</v>
       </c>
       <c r="F679">
-        <f t="shared" si="146"/>
+        <f t="shared" si="148"/>
         <v>6.9968991147666424</v>
       </c>
       <c r="G679">
-        <f t="shared" si="146"/>
+        <f t="shared" si="148"/>
         <v>6.9968991147666424</v>
       </c>
       <c r="H679">
-        <f t="shared" si="146"/>
+        <f t="shared" si="148"/>
         <v>6.9968991147666424</v>
       </c>
       <c r="I679">
-        <f t="shared" si="146"/>
+        <f t="shared" si="148"/>
         <v>6.9968991147666424</v>
       </c>
     </row>
@@ -17268,27 +17466,27 @@
         <v>4980.326530612243</v>
       </c>
       <c r="C685">
-        <f t="shared" ref="C685:H685" si="147">(C683-C684)*(C683-C684)</f>
+        <f t="shared" ref="C685:H685" si="149">(C683-C684)*(C683-C684)</f>
         <v>31.040816326530432</v>
       </c>
       <c r="D685">
-        <f t="shared" si="147"/>
+        <f t="shared" si="149"/>
         <v>88.897959183673777</v>
       </c>
       <c r="E685">
-        <f t="shared" si="147"/>
+        <f t="shared" si="149"/>
         <v>41.326530612245108</v>
       </c>
       <c r="F685">
-        <f t="shared" si="147"/>
+        <f t="shared" si="149"/>
         <v>108.75510204081667</v>
       </c>
       <c r="G685">
-        <f t="shared" si="147"/>
+        <f t="shared" si="149"/>
         <v>133.89795918367309</v>
       </c>
       <c r="H685">
-        <f t="shared" si="147"/>
+        <f t="shared" si="149"/>
         <v>3773.469387755104</v>
       </c>
       <c r="J685">
@@ -17296,11 +17494,11 @@
         <v>32.111111111110681</v>
       </c>
       <c r="K685">
-        <f t="shared" ref="K685:L685" si="148">(K683-K684)*(K683-K684)</f>
+        <f t="shared" ref="K685:L685" si="150">(K683-K684)*(K683-K684)</f>
         <v>53.777777777778333</v>
       </c>
       <c r="L685">
-        <f t="shared" si="148"/>
+        <f t="shared" si="150"/>
         <v>2.7777777777776516</v>
       </c>
     </row>
@@ -17348,27 +17546,27 @@
         <v>10.081632653061222</v>
       </c>
       <c r="C687">
-        <f t="shared" ref="C687:H687" si="149">C686/SQRT(7)</f>
+        <f t="shared" ref="C687:H687" si="151">C686/SQRT(7)</f>
         <v>10.081632653061222</v>
       </c>
       <c r="D687">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v>10.081632653061222</v>
       </c>
       <c r="E687">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v>10.081632653061222</v>
       </c>
       <c r="F687">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v>10.081632653061222</v>
       </c>
       <c r="G687">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v>10.081632653061222</v>
       </c>
       <c r="H687">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v>10.081632653061222</v>
       </c>
       <c r="J687">
@@ -17376,11 +17574,11 @@
         <v>3.1387659759612303</v>
       </c>
       <c r="K687">
-        <f t="shared" ref="K687:L687" si="150">K686/SQRT(3)</f>
+        <f t="shared" ref="K687:L687" si="152">K686/SQRT(3)</f>
         <v>3.1387659759612303</v>
       </c>
       <c r="L687">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>3.1387659759612303</v>
       </c>
     </row>
@@ -17472,15 +17670,15 @@
         <v>16</v>
       </c>
       <c r="C698">
-        <f t="shared" ref="C698:E698" si="151">(C696-C697)*(C696-C697)</f>
+        <f t="shared" ref="C698:E698" si="153">(C696-C697)*(C696-C697)</f>
         <v>16</v>
       </c>
       <c r="D698">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>16</v>
       </c>
       <c r="E698">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>16</v>
       </c>
     </row>
@@ -17510,15 +17708,15 @@
         <v>2</v>
       </c>
       <c r="C700">
-        <f t="shared" ref="C700:E700" si="152">C699/SQRT(4)</f>
+        <f t="shared" ref="C700:E700" si="154">C699/SQRT(4)</f>
         <v>2</v>
       </c>
       <c r="D700">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>2</v>
       </c>
       <c r="E700">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>2</v>
       </c>
     </row>
@@ -17587,11 +17785,11 @@
         <v>169</v>
       </c>
       <c r="C707">
-        <f t="shared" ref="C707:D707" si="153">(C705-C706)*(C705-C706)</f>
+        <f t="shared" ref="C707:D707" si="155">(C705-C706)*(C705-C706)</f>
         <v>49</v>
       </c>
       <c r="D707">
-        <f t="shared" si="153"/>
+        <f t="shared" si="155"/>
         <v>400</v>
       </c>
     </row>
@@ -17604,11 +17802,11 @@
         <v>14.352700094407323</v>
       </c>
       <c r="C708">
-        <f t="shared" ref="C708:D708" si="154">SQRT(206)</f>
+        <f t="shared" ref="C708:D708" si="156">SQRT(206)</f>
         <v>14.352700094407323</v>
       </c>
       <c r="D708">
-        <f t="shared" si="154"/>
+        <f t="shared" si="156"/>
         <v>14.352700094407323</v>
       </c>
     </row>
@@ -17621,11 +17819,11 @@
         <v>8.2865352631040352</v>
       </c>
       <c r="C709">
-        <f t="shared" ref="C709:D709" si="155">C708/SQRT(3)</f>
+        <f t="shared" ref="C709:D709" si="157">C708/SQRT(3)</f>
         <v>8.2865352631040352</v>
       </c>
       <c r="D709">
-        <f t="shared" si="155"/>
+        <f t="shared" si="157"/>
         <v>8.2865352631040352</v>
       </c>
     </row>
@@ -17688,11 +17886,11 @@
         <v>498.77777777777948</v>
       </c>
       <c r="C715">
-        <f t="shared" ref="C715:D715" si="156">(C713-C714)*(C713-C714)</f>
+        <f t="shared" ref="C715:D715" si="158">(C713-C714)*(C713-C714)</f>
         <v>2085.4444444444412</v>
       </c>
       <c r="D715">
-        <f t="shared" si="156"/>
+        <f t="shared" si="158"/>
         <v>544.44444444444616</v>
       </c>
     </row>
@@ -17719,11 +17917,11 @@
         <v>18.644828495581013</v>
       </c>
       <c r="C717">
-        <f t="shared" ref="C717:D717" si="157">C716/SQRT(3)</f>
+        <f t="shared" ref="C717:D717" si="159">C716/SQRT(3)</f>
         <v>18.644828495581013</v>
       </c>
       <c r="D717">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>18.644828495581013</v>
       </c>
     </row>
@@ -17815,15 +18013,15 @@
         <v>10.5625</v>
       </c>
       <c r="C726">
-        <f t="shared" ref="C726:E726" si="158">(C724-C725)*(C724-C725)</f>
+        <f t="shared" ref="C726:E726" si="160">(C724-C725)*(C724-C725)</f>
         <v>248.0625</v>
       </c>
       <c r="D726">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>27.5625</v>
       </c>
       <c r="E726">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>52.5625</v>
       </c>
     </row>
@@ -17853,15 +18051,15 @@
         <v>4.6012905798264905</v>
       </c>
       <c r="C728">
-        <f t="shared" ref="C728:E728" si="159">C727/SQRT(4)</f>
+        <f t="shared" ref="C728:E728" si="161">C727/SQRT(4)</f>
         <v>4.6012905798264905</v>
       </c>
       <c r="D728">
-        <f t="shared" si="159"/>
+        <f t="shared" si="161"/>
         <v>4.6012905798264905</v>
       </c>
       <c r="E728">
-        <f t="shared" si="159"/>
+        <f t="shared" si="161"/>
         <v>4.6012905798264905</v>
       </c>
     </row>
@@ -17951,19 +18149,19 @@
         <v>353.43999999999829</v>
       </c>
       <c r="C735" s="5">
-        <f t="shared" ref="C735:F735" si="160">(C733-C734)*(C733-C734)</f>
+        <f t="shared" ref="C735:F735" si="162">(C733-C734)*(C733-C734)</f>
         <v>249.63999999999857</v>
       </c>
       <c r="D735" s="5">
-        <f t="shared" si="160"/>
+        <f t="shared" si="162"/>
         <v>46.239999999999384</v>
       </c>
       <c r="E735" s="5">
-        <f t="shared" si="160"/>
+        <f t="shared" si="162"/>
         <v>33.639999999999475</v>
       </c>
       <c r="F735" s="5">
-        <f t="shared" si="160"/>
+        <f t="shared" si="162"/>
         <v>2227.8400000000042</v>
       </c>
     </row>
@@ -17996,19 +18194,19 @@
         <v>10.790366073493521</v>
       </c>
       <c r="C737" s="5">
-        <f t="shared" ref="C737:F737" si="161">C736/SQRT(5)</f>
+        <f t="shared" ref="C737:F737" si="163">C736/SQRT(5)</f>
         <v>10.790366073493521</v>
       </c>
       <c r="D737" s="5">
-        <f t="shared" si="161"/>
+        <f t="shared" si="163"/>
         <v>10.790366073493521</v>
       </c>
       <c r="E737" s="5">
-        <f t="shared" si="161"/>
+        <f t="shared" si="163"/>
         <v>10.790366073493521</v>
       </c>
       <c r="F737" s="5">
-        <f t="shared" si="161"/>
+        <f t="shared" si="163"/>
         <v>10.790366073493521</v>
       </c>
     </row>
@@ -18090,19 +18288,19 @@
         <v>484</v>
       </c>
       <c r="C743">
-        <f t="shared" ref="C743:F743" si="162">(C741-C742)*(C741-C742)</f>
+        <f t="shared" ref="C743:F743" si="164">(C741-C742)*(C741-C742)</f>
         <v>169</v>
       </c>
       <c r="D743">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>11236</v>
       </c>
       <c r="E743">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>1296</v>
       </c>
       <c r="F743">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>1225</v>
       </c>
     </row>
@@ -18135,19 +18333,19 @@
         <v>24.008331887076199</v>
       </c>
       <c r="C745">
-        <f t="shared" ref="C745:F745" si="163">C744/SQRT(5)</f>
+        <f t="shared" ref="C745:F745" si="165">C744/SQRT(5)</f>
         <v>24.008331887076199</v>
       </c>
       <c r="D745">
-        <f t="shared" si="163"/>
+        <f t="shared" si="165"/>
         <v>24.008331887076199</v>
       </c>
       <c r="E745">
-        <f t="shared" si="163"/>
+        <f t="shared" si="165"/>
         <v>24.008331887076199</v>
       </c>
       <c r="F745">
-        <f t="shared" si="163"/>
+        <f t="shared" si="165"/>
         <v>24.008331887076199</v>
       </c>
     </row>
@@ -18241,15 +18439,15 @@
         <v>7744</v>
       </c>
       <c r="C754">
-        <f t="shared" ref="C754:E754" si="164">(C752-C753)*(C752-C753)</f>
+        <f t="shared" ref="C754:E754" si="166">(C752-C753)*(C752-C753)</f>
         <v>1089</v>
       </c>
       <c r="D754">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>0</v>
       </c>
       <c r="E754">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>3025</v>
       </c>
     </row>
@@ -18279,15 +18477,15 @@
         <v>27.223611075682079</v>
       </c>
       <c r="C756">
-        <f t="shared" ref="C756:E756" si="165">C755/SQRT(4)</f>
+        <f t="shared" ref="C756:E756" si="167">C755/SQRT(4)</f>
         <v>27.223611075682079</v>
       </c>
       <c r="D756">
-        <f t="shared" si="165"/>
+        <f t="shared" si="167"/>
         <v>27.223611075682079</v>
       </c>
       <c r="E756">
-        <f t="shared" si="165"/>
+        <f t="shared" si="167"/>
         <v>27.223611075682079</v>
       </c>
     </row>
@@ -18368,15 +18566,15 @@
         <v>12.25</v>
       </c>
       <c r="C763">
-        <f t="shared" ref="C763:E763" si="166">(C761-C762)*(C761-C762)</f>
+        <f t="shared" ref="C763:E763" si="168">(C761-C762)*(C761-C762)</f>
         <v>182.25</v>
       </c>
       <c r="D763">
-        <f t="shared" si="166"/>
+        <f t="shared" si="168"/>
         <v>0.25</v>
       </c>
       <c r="E763">
-        <f t="shared" si="166"/>
+        <f t="shared" si="168"/>
         <v>90.25</v>
       </c>
     </row>
@@ -18406,15 +18604,15 @@
         <v>4.2204857540335334</v>
       </c>
       <c r="C765">
-        <f t="shared" ref="C765:E765" si="167">C764/SQRT(4)</f>
+        <f t="shared" ref="C765:E765" si="169">C764/SQRT(4)</f>
         <v>4.2204857540335334</v>
       </c>
       <c r="D765">
-        <f t="shared" si="167"/>
+        <f t="shared" si="169"/>
         <v>4.2204857540335334</v>
       </c>
       <c r="E765">
-        <f t="shared" si="167"/>
+        <f t="shared" si="169"/>
         <v>4.2204857540335334</v>
       </c>
     </row>
@@ -18516,11 +18714,11 @@
         <v>576</v>
       </c>
       <c r="C771">
-        <f t="shared" ref="C771:D771" si="168">(C769-C770)*(C769-C770)</f>
+        <f t="shared" ref="C771:D771" si="170">(C769-C770)*(C769-C770)</f>
         <v>324</v>
       </c>
       <c r="D771">
-        <f t="shared" si="168"/>
+        <f t="shared" si="170"/>
         <v>36</v>
       </c>
       <c r="F771">
@@ -18528,15 +18726,15 @@
         <v>20.25</v>
       </c>
       <c r="G771">
-        <f t="shared" ref="G771:I771" si="169">(G770-G769)*(G770-G769)</f>
+        <f t="shared" ref="G771:I771" si="171">(G770-G769)*(G770-G769)</f>
         <v>930.25</v>
       </c>
       <c r="H771">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>650.25</v>
       </c>
       <c r="I771">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>90.25</v>
       </c>
     </row>
@@ -18575,11 +18773,11 @@
         <v>10.198039027185571</v>
       </c>
       <c r="C773">
-        <f t="shared" ref="C773:D773" si="170">C772/SQRT(3)</f>
+        <f t="shared" ref="C773:D773" si="172">C772/SQRT(3)</f>
         <v>10.198039027185571</v>
       </c>
       <c r="D773">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>10.198039027185571</v>
       </c>
       <c r="F773">
@@ -18587,15 +18785,15 @@
         <v>10.280442597476044</v>
       </c>
       <c r="G773">
-        <f t="shared" ref="G773:I773" si="171">G772/SQRT(4)</f>
+        <f t="shared" ref="G773:I773" si="173">G772/SQRT(4)</f>
         <v>10.280442597476044</v>
       </c>
       <c r="H773">
-        <f t="shared" si="171"/>
+        <f t="shared" si="173"/>
         <v>10.280442597476044</v>
       </c>
       <c r="I773">
-        <f t="shared" si="171"/>
+        <f t="shared" si="173"/>
         <v>10.280442597476044</v>
       </c>
     </row>
@@ -19375,17 +19573,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A415:B415"/>
+    <mergeCell ref="A435:B435"/>
+    <mergeCell ref="A425:B425"/>
+    <mergeCell ref="A485:B485"/>
+    <mergeCell ref="A495:B495"/>
     <mergeCell ref="A575:B575"/>
     <mergeCell ref="A585:B585"/>
     <mergeCell ref="A515:B515"/>
     <mergeCell ref="A525:B525"/>
     <mergeCell ref="A545:B545"/>
     <mergeCell ref="A555:B555"/>
-    <mergeCell ref="A415:B415"/>
-    <mergeCell ref="A435:B435"/>
-    <mergeCell ref="A425:B425"/>
-    <mergeCell ref="A485:B485"/>
-    <mergeCell ref="A495:B495"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/papers/async-re/data/raw_data.xlsx
+++ b/papers/async-re/data/raw_data.xlsx
@@ -826,7 +826,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="537">
+  <cellStyleXfs count="653">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1364,8 +1364,124 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1382,8 +1498,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="537">
+  <cellStyles count="653">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1652,6 +1769,64 @@
     <cellStyle name="Followed Hyperlink" xfId="532" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="534" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="536" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="538" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="540" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="542" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="544" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="546" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="548" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="550" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="552" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="554" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="556" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="558" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="560" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="562" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="564" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="566" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="568" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="570" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="572" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="574" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="576" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="578" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="580" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="582" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="584" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="586" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="588" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="590" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="592" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="594" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="596" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="598" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="600" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="602" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="604" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="606" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="608" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="610" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="612" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="614" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="616" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="618" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="620" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="622" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="624" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="626" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="628" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="630" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="632" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="634" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="636" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="638" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="640" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="642" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="644" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="646" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="648" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="650" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="652" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1920,6 +2095,64 @@
     <cellStyle name="Hyperlink" xfId="531" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="533" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="535" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="537" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="539" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="541" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="543" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="545" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="547" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="549" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="551" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="553" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="555" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="557" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="559" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="561" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="563" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="565" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="567" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="569" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="571" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="573" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="575" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="577" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="579" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="581" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="583" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="585" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="587" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="589" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="591" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="593" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="595" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="597" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="599" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="601" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="603" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="605" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="607" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="609" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="611" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="613" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="615" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="617" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="619" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="621" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="623" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="625" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="627" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="629" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="631" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="633" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="635" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="637" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="639" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="641" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="643" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="645" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="647" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="649" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="651" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2074,11 +2307,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="531428920"/>
-        <c:axId val="531434456"/>
+        <c:axId val="463658584"/>
+        <c:axId val="465217704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="531428920"/>
+        <c:axId val="463658584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2106,7 +2339,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="531434456"/>
+        <c:crossAx val="465217704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2114,7 +2347,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="531434456"/>
+        <c:axId val="465217704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2144,7 +2377,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="531428920"/>
+        <c:crossAx val="463658584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2272,11 +2505,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="531467816"/>
-        <c:axId val="531473400"/>
+        <c:axId val="464573960"/>
+        <c:axId val="464579512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="531467816"/>
+        <c:axId val="464573960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2304,7 +2537,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="531473400"/>
+        <c:crossAx val="464579512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2312,7 +2545,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="531473400"/>
+        <c:axId val="464579512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2342,7 +2575,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="531467816"/>
+        <c:crossAx val="464573960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2560,11 +2793,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="531508888"/>
-        <c:axId val="531514392"/>
+        <c:axId val="463921304"/>
+        <c:axId val="463926824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="531508888"/>
+        <c:axId val="463921304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2592,7 +2825,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="531514392"/>
+        <c:crossAx val="463926824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2600,7 +2833,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="531514392"/>
+        <c:axId val="463926824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2630,7 +2863,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="531508888"/>
+        <c:crossAx val="463921304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2771,11 +3004,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="531547864"/>
-        <c:axId val="531550648"/>
+        <c:axId val="463654616"/>
+        <c:axId val="525526568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="531547864"/>
+        <c:axId val="463654616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2784,7 +3017,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="531550648"/>
+        <c:crossAx val="525526568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2792,7 +3025,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="531550648"/>
+        <c:axId val="525526568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2822,7 +3055,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="531547864"/>
+        <c:crossAx val="463654616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2969,11 +3202,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="531584184"/>
-        <c:axId val="531589704"/>
+        <c:axId val="527143288"/>
+        <c:axId val="527153176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="531584184"/>
+        <c:axId val="527143288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3001,7 +3234,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="531589704"/>
+        <c:crossAx val="527153176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3009,7 +3242,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="531589704"/>
+        <c:axId val="527153176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3039,7 +3272,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="531584184"/>
+        <c:crossAx val="527143288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3191,11 +3424,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="531641576"/>
-        <c:axId val="531647096"/>
+        <c:axId val="465104024"/>
+        <c:axId val="465109512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="531641576"/>
+        <c:axId val="465104024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3223,7 +3456,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="531647096"/>
+        <c:crossAx val="465109512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3231,7 +3464,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="531647096"/>
+        <c:axId val="465109512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3261,7 +3494,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="531641576"/>
+        <c:crossAx val="465104024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3763,11 +3996,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="531732040"/>
-        <c:axId val="531735016"/>
+        <c:axId val="465027576"/>
+        <c:axId val="465157208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="531732040"/>
+        <c:axId val="465027576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3776,7 +4009,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="531735016"/>
+        <c:crossAx val="465157208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3784,7 +4017,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="531735016"/>
+        <c:axId val="465157208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3813,7 +4046,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="531732040"/>
+        <c:crossAx val="465027576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4025,11 +4258,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="531763560"/>
-        <c:axId val="531766536"/>
+        <c:axId val="465386360"/>
+        <c:axId val="465400056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="531763560"/>
+        <c:axId val="465386360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4038,7 +4271,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="531766536"/>
+        <c:crossAx val="465400056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4046,7 +4279,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="531766536"/>
+        <c:axId val="465400056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4076,7 +4309,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="531763560"/>
+        <c:crossAx val="465386360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4318,11 +4551,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="531806024"/>
-        <c:axId val="531812040"/>
+        <c:axId val="524636392"/>
+        <c:axId val="524642376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="531806024"/>
+        <c:axId val="524636392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4350,7 +4583,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="531812040"/>
+        <c:crossAx val="524642376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4358,7 +4591,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="531812040"/>
+        <c:axId val="524642376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4388,7 +4621,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="531806024"/>
+        <c:crossAx val="524636392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5103,10 +5336,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA814"/>
+  <dimension ref="A1:Z814"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A530" workbookViewId="0">
-      <selection activeCell="J547" sqref="J547"/>
+    <sheetView tabSelected="1" topLeftCell="A544" workbookViewId="0">
+      <selection activeCell="G628" sqref="G628"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -8470,6 +8703,9 @@
       <c r="A255" t="s">
         <v>69</v>
       </c>
+      <c r="F255">
+        <v>201</v>
+      </c>
     </row>
     <row r="256" spans="1:8">
       <c r="A256" t="s">
@@ -8490,6 +8726,9 @@
       <c r="E256">
         <v>1121</v>
       </c>
+      <c r="F256">
+        <v>1217</v>
+      </c>
     </row>
     <row r="257" spans="1:12">
       <c r="A257" t="s">
@@ -11037,10 +11276,10 @@
       <c r="E414" s="6"/>
     </row>
     <row r="415" spans="1:5">
-      <c r="A415" s="15" t="s">
+      <c r="A415" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B415" s="15"/>
+      <c r="B415" s="16"/>
       <c r="D415" s="6"/>
       <c r="E415" s="6"/>
     </row>
@@ -11167,10 +11406,10 @@
       </c>
     </row>
     <row r="425" spans="1:14">
-      <c r="A425" s="15" t="s">
+      <c r="A425" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B425" s="15"/>
+      <c r="B425" s="16"/>
     </row>
     <row r="426" spans="1:14">
       <c r="A426" t="s">
@@ -11453,10 +11692,10 @@
       </c>
     </row>
     <row r="435" spans="1:14">
-      <c r="A435" s="15" t="s">
+      <c r="A435" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B435" s="15"/>
+      <c r="B435" s="16"/>
     </row>
     <row r="436" spans="1:14">
       <c r="A436" t="s">
@@ -11709,22 +11948,19 @@
         <v>159</v>
       </c>
       <c r="E444">
+        <v>190</v>
+      </c>
+      <c r="H444">
+        <v>161</v>
+      </c>
+      <c r="I444">
         <v>160</v>
-      </c>
-      <c r="F444">
-        <v>161</v>
-      </c>
-      <c r="J444">
-        <v>190</v>
       </c>
     </row>
     <row r="445" spans="1:14">
       <c r="A445" t="s">
         <v>33</v>
       </c>
-      <c r="J445">
-        <v>634</v>
-      </c>
     </row>
     <row r="446" spans="1:14">
       <c r="A446" t="s">
@@ -11739,11 +11975,14 @@
       <c r="D446" s="6">
         <v>652</v>
       </c>
-      <c r="E446" s="6">
+      <c r="E446">
+        <v>634</v>
+      </c>
+      <c r="H446">
+        <v>701</v>
+      </c>
+      <c r="I446" s="6">
         <v>694</v>
-      </c>
-      <c r="F446">
-        <v>701</v>
       </c>
     </row>
     <row r="447" spans="1:14">
@@ -11751,19 +11990,16 @@
         <v>114</v>
       </c>
       <c r="B447">
-        <v>662.6</v>
+        <v>638</v>
       </c>
       <c r="C447">
-        <v>662.6</v>
+        <v>638</v>
       </c>
       <c r="D447" s="6">
-        <v>662.6</v>
+        <v>638</v>
       </c>
       <c r="E447" s="6">
-        <v>662.6</v>
-      </c>
-      <c r="F447">
-        <v>662.6</v>
+        <v>638</v>
       </c>
     </row>
     <row r="448" spans="1:14">
@@ -11772,43 +12008,37 @@
       </c>
       <c r="B448">
         <f>(B447-B446)*(B447-B446)</f>
-        <v>2560.3600000000024</v>
-      </c>
-      <c r="C448" s="9">
-        <f t="shared" ref="C448:F448" si="66">(C447-C446)*(C447-C446)</f>
-        <v>73.960000000000392</v>
-      </c>
-      <c r="D448" s="9">
+        <v>676</v>
+      </c>
+      <c r="C448" s="15">
+        <f t="shared" ref="C448:E448" si="66">(C447-C446)*(C447-C446)</f>
+        <v>256</v>
+      </c>
+      <c r="D448" s="15">
         <f t="shared" si="66"/>
-        <v>112.36000000000048</v>
-      </c>
-      <c r="E448" s="9">
+        <v>196</v>
+      </c>
+      <c r="E448" s="15">
         <f t="shared" si="66"/>
-        <v>985.95999999999856</v>
-      </c>
-      <c r="F448" s="9">
-        <f t="shared" si="66"/>
-        <v>1474.5599999999984</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F448" s="9"/>
     </row>
     <row r="449" spans="1:14">
       <c r="A449" t="s">
         <v>116</v>
       </c>
-      <c r="B449" s="9">
-        <v>32.271349522447927</v>
-      </c>
-      <c r="C449" s="9">
-        <v>32.271349522447927</v>
+      <c r="B449" s="15">
+        <v>16.911534525287763</v>
+      </c>
+      <c r="C449" s="15">
+        <v>16.911534525287763</v>
       </c>
       <c r="D449" s="6">
-        <v>32.271349522447927</v>
+        <v>16.911534525287763</v>
       </c>
       <c r="E449" s="6">
-        <v>32.271349522447927</v>
-      </c>
-      <c r="F449">
-        <v>32.271349522447927</v>
+        <v>16.911534525287763</v>
       </c>
     </row>
     <row r="450" spans="1:14">
@@ -11816,25 +12046,22 @@
         <v>117</v>
       </c>
       <c r="B450">
-        <f>B449/SQRT(5)</f>
-        <v>14.432186251569787</v>
-      </c>
-      <c r="C450" s="9">
-        <f t="shared" ref="C450:F450" si="67">C449/SQRT(5)</f>
-        <v>14.432186251569787</v>
-      </c>
-      <c r="D450" s="9">
+        <f>B449/SQRT(4)</f>
+        <v>8.4557672626438816</v>
+      </c>
+      <c r="C450" s="15">
+        <f t="shared" ref="C450:E450" si="67">C449/SQRT(4)</f>
+        <v>8.4557672626438816</v>
+      </c>
+      <c r="D450" s="15">
         <f t="shared" si="67"/>
-        <v>14.432186251569787</v>
-      </c>
-      <c r="E450" s="9">
+        <v>8.4557672626438816</v>
+      </c>
+      <c r="E450" s="15">
         <f t="shared" si="67"/>
-        <v>14.432186251569787</v>
-      </c>
-      <c r="F450" s="9">
-        <f t="shared" si="67"/>
-        <v>14.432186251569787</v>
-      </c>
+        <v>8.4557672626438816</v>
+      </c>
+      <c r="F450" s="9"/>
     </row>
     <row r="454" spans="1:14">
       <c r="A454" t="s">
@@ -12689,10 +12916,10 @@
       </c>
     </row>
     <row r="485" spans="1:14">
-      <c r="A485" s="15" t="s">
+      <c r="A485" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B485" s="15"/>
+      <c r="B485" s="16"/>
     </row>
     <row r="486" spans="1:14">
       <c r="A486" s="8" t="s">
@@ -12946,10 +13173,10 @@
       </c>
     </row>
     <row r="495" spans="1:14" s="7" customFormat="1">
-      <c r="A495" s="15" t="s">
+      <c r="A495" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B495" s="15"/>
+      <c r="B495" s="16"/>
     </row>
     <row r="496" spans="1:14" s="7" customFormat="1">
       <c r="A496" s="8" t="s">
@@ -13188,6 +13415,15 @@
       <c r="J504" s="7">
         <v>164</v>
       </c>
+      <c r="K504" s="7">
+        <v>173</v>
+      </c>
+      <c r="L504" s="7">
+        <v>174</v>
+      </c>
+      <c r="M504">
+        <v>172</v>
+      </c>
     </row>
     <row r="505" spans="1:14" s="7" customFormat="1">
       <c r="A505" s="8" t="s">
@@ -13222,6 +13458,18 @@
         <f>19*60+26-217</f>
         <v>949</v>
       </c>
+      <c r="K506" s="7">
+        <f>19*60+30-217</f>
+        <v>953</v>
+      </c>
+      <c r="L506" s="7">
+        <f>18*60+13-217</f>
+        <v>876</v>
+      </c>
+      <c r="M506" s="7">
+        <f>19*60+23-217</f>
+        <v>946</v>
+      </c>
     </row>
     <row r="507" spans="1:14" s="7" customFormat="1">
       <c r="A507" s="8" t="s">
@@ -13243,6 +13491,18 @@
       <c r="F507" s="7">
         <v>1230.2</v>
       </c>
+      <c r="J507" s="7">
+        <v>931</v>
+      </c>
+      <c r="K507" s="7">
+        <v>931</v>
+      </c>
+      <c r="L507" s="7">
+        <v>931</v>
+      </c>
+      <c r="M507" s="7">
+        <v>931</v>
+      </c>
     </row>
     <row r="508" spans="1:14" s="7" customFormat="1">
       <c r="A508" s="8" t="s">
@@ -13268,6 +13528,22 @@
         <f t="shared" si="87"/>
         <v>1211.0399999999968</v>
       </c>
+      <c r="J508" s="15">
+        <f t="shared" ref="J508:M508" si="88">(J507-J506)*(J507-J506)</f>
+        <v>324</v>
+      </c>
+      <c r="K508" s="15">
+        <f t="shared" si="88"/>
+        <v>484</v>
+      </c>
+      <c r="L508" s="15">
+        <f t="shared" si="88"/>
+        <v>3025</v>
+      </c>
+      <c r="M508" s="15">
+        <f t="shared" si="88"/>
+        <v>225</v>
+      </c>
     </row>
     <row r="509" spans="1:14" s="7" customFormat="1">
       <c r="A509" s="8" t="s">
@@ -13288,6 +13564,18 @@
       <c r="F509" s="7">
         <v>83.002168646367295</v>
       </c>
+      <c r="J509" s="15">
+        <v>31.851216617265973</v>
+      </c>
+      <c r="K509" s="15">
+        <v>31.851216617265973</v>
+      </c>
+      <c r="L509" s="7">
+        <v>31.851216617265973</v>
+      </c>
+      <c r="M509" s="7">
+        <v>31.851216617265973</v>
+      </c>
     </row>
     <row r="510" spans="1:14" s="7" customFormat="1">
       <c r="A510" s="8" t="s">
@@ -13298,20 +13586,36 @@
         <v>37.119698274635795</v>
       </c>
       <c r="C510" s="9">
-        <f t="shared" ref="C510:F510" si="88">C509/SQRT(5)</f>
+        <f t="shared" ref="C510:F510" si="89">C509/SQRT(5)</f>
         <v>37.119698274635795</v>
       </c>
       <c r="D510" s="9">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>37.119698274635795</v>
       </c>
       <c r="E510" s="9">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>37.119698274635795</v>
       </c>
       <c r="F510" s="9">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>37.119698274635795</v>
+      </c>
+      <c r="J510" s="15">
+        <f>J509/SQRT(4)</f>
+        <v>15.925608308632986</v>
+      </c>
+      <c r="K510" s="15">
+        <f t="shared" ref="K510:M510" si="90">K509/SQRT(4)</f>
+        <v>15.925608308632986</v>
+      </c>
+      <c r="L510" s="15">
+        <f t="shared" si="90"/>
+        <v>15.925608308632986</v>
+      </c>
+      <c r="M510" s="15">
+        <f t="shared" si="90"/>
+        <v>15.925608308632986</v>
       </c>
     </row>
     <row r="511" spans="1:14" s="7" customFormat="1"/>
@@ -13360,10 +13664,10 @@
       </c>
     </row>
     <row r="515" spans="1:14" s="8" customFormat="1">
-      <c r="A515" s="15" t="s">
+      <c r="A515" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B515" s="15"/>
+      <c r="B515" s="16"/>
     </row>
     <row r="516" spans="1:14" s="8" customFormat="1">
       <c r="A516" s="8" t="s">
@@ -13447,39 +13751,39 @@
         <v>282.23999999999847</v>
       </c>
       <c r="C518" s="9">
-        <f t="shared" ref="C518:F518" si="89">(C517-C516)*(C517-C516)</f>
+        <f t="shared" ref="C518:F518" si="91">(C517-C516)*(C517-C516)</f>
         <v>7.839999999999745</v>
       </c>
       <c r="D518" s="9">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>125.44000000000102</v>
       </c>
       <c r="E518" s="9">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>1.4400000000001092</v>
       </c>
       <c r="F518" s="9">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>51.840000000000657</v>
       </c>
       <c r="J518" s="11">
-        <f t="shared" ref="J518:N518" si="90">(J517-J516)*(J517-J516)</f>
+        <f t="shared" ref="J518:N518" si="92">(J517-J516)*(J517-J516)</f>
         <v>7.839999999999745</v>
       </c>
       <c r="K518" s="11">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>46.239999999999384</v>
       </c>
       <c r="L518" s="11">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>3.2399999999998363</v>
       </c>
       <c r="M518" s="11">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>4.0000000000018188E-2</v>
       </c>
       <c r="N518" s="11">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>125.44000000000102</v>
       </c>
     </row>
@@ -13527,19 +13831,19 @@
         <v>4.3303579528717941</v>
       </c>
       <c r="C520" s="9">
-        <f t="shared" ref="C520:F520" si="91">C519/SQRT(5)</f>
+        <f t="shared" ref="C520:F520" si="93">C519/SQRT(5)</f>
         <v>4.3303579528717941</v>
       </c>
       <c r="D520" s="9">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>4.3303579528717941</v>
       </c>
       <c r="E520" s="9">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>4.3303579528717941</v>
       </c>
       <c r="F520" s="9">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>4.3303579528717941</v>
       </c>
       <c r="J520" s="8">
@@ -13547,19 +13851,19 @@
         <v>2.7040710049848915</v>
       </c>
       <c r="K520" s="11">
-        <f t="shared" ref="K520:N520" si="92">K519/SQRT(5)</f>
+        <f t="shared" ref="K520:N520" si="94">K519/SQRT(5)</f>
         <v>2.7040710049848915</v>
       </c>
       <c r="L520" s="11">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>2.7040710049848915</v>
       </c>
       <c r="M520" s="11">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>2.7040710049848915</v>
       </c>
       <c r="N520" s="11">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>2.7040710049848915</v>
       </c>
     </row>
@@ -13609,10 +13913,10 @@
       </c>
     </row>
     <row r="525" spans="1:14" s="8" customFormat="1">
-      <c r="A525" s="15" t="s">
+      <c r="A525" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B525" s="15"/>
+      <c r="B525" s="16"/>
     </row>
     <row r="526" spans="1:14" s="8" customFormat="1">
       <c r="A526" s="8" t="s">
@@ -13698,43 +14002,43 @@
         <v>1.4400000000001092</v>
       </c>
       <c r="C528" s="9">
-        <f t="shared" ref="C528:F528" si="93">(C527-C526)*(C527-C526)</f>
+        <f t="shared" ref="C528:F528" si="95">(C527-C526)*(C527-C526)</f>
         <v>912.04000000000269</v>
       </c>
       <c r="D528" s="9">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>3226.2399999999948</v>
       </c>
       <c r="E528" s="9">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>17.640000000000381</v>
       </c>
       <c r="F528" s="9">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>449.44000000000193</v>
       </c>
       <c r="J528" s="11">
-        <f t="shared" ref="J528:N528" si="94">(J527-J526)*(J527-J526)</f>
+        <f t="shared" ref="J528:N528" si="96">(J527-J526)*(J527-J526)</f>
         <v>201.64000000000129</v>
       </c>
       <c r="K528" s="11">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>1.4400000000001092</v>
       </c>
       <c r="L528" s="11">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>23.039999999999562</v>
       </c>
       <c r="M528" s="11">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>33.639999999999475</v>
       </c>
       <c r="N528" s="11">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>23.039999999999562</v>
       </c>
     </row>
-    <row r="529" spans="1:27" s="8" customFormat="1">
+    <row r="529" spans="1:25" s="8" customFormat="1">
       <c r="A529" s="8" t="s">
         <v>116</v>
       </c>
@@ -13769,7 +14073,7 @@
         <v>7.5206382707852661</v>
       </c>
     </row>
-    <row r="530" spans="1:27" s="8" customFormat="1">
+    <row r="530" spans="1:25" s="8" customFormat="1">
       <c r="A530" s="8" t="s">
         <v>117</v>
       </c>
@@ -13778,19 +14082,19 @@
         <v>13.574682316724763</v>
       </c>
       <c r="C530" s="9">
-        <f t="shared" ref="C530:F530" si="95">C529/SQRT(5)</f>
+        <f t="shared" ref="C530:F530" si="97">C529/SQRT(5)</f>
         <v>13.574682316724763</v>
       </c>
       <c r="D530" s="9">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>13.574682316724763</v>
       </c>
       <c r="E530" s="9">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>13.574682316724763</v>
       </c>
       <c r="F530" s="9">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>13.574682316724763</v>
       </c>
       <c r="J530" s="8">
@@ -13798,25 +14102,25 @@
         <v>3.3633316815324652</v>
       </c>
       <c r="K530" s="11">
-        <f t="shared" ref="K530:N530" si="96">K529/SQRT(5)</f>
+        <f t="shared" ref="K530:N530" si="98">K529/SQRT(5)</f>
         <v>3.3633316815324652</v>
       </c>
       <c r="L530" s="11">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>3.3633316815324652</v>
       </c>
       <c r="M530" s="11">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>3.3633316815324652</v>
       </c>
       <c r="N530" s="11">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>3.3633316815324652</v>
       </c>
     </row>
-    <row r="531" spans="1:27" s="8" customFormat="1"/>
-    <row r="532" spans="1:27" s="8" customFormat="1"/>
-    <row r="533" spans="1:27" s="8" customFormat="1">
+    <row r="531" spans="1:25" s="8" customFormat="1"/>
+    <row r="532" spans="1:25" s="8" customFormat="1"/>
+    <row r="533" spans="1:25" s="8" customFormat="1">
       <c r="A533" s="8" t="s">
         <v>186</v>
       </c>
@@ -13824,7 +14128,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="534" spans="1:27" s="8" customFormat="1">
+    <row r="534" spans="1:25" s="8" customFormat="1">
       <c r="A534" s="8" t="s">
         <v>74</v>
       </c>
@@ -13859,12 +14163,12 @@
         <v>168</v>
       </c>
     </row>
-    <row r="535" spans="1:27" s="8" customFormat="1">
+    <row r="535" spans="1:25" s="8" customFormat="1">
       <c r="A535" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="536" spans="1:27" s="8" customFormat="1">
+    <row r="536" spans="1:25" s="8" customFormat="1">
       <c r="A536" s="8" t="s">
         <v>184</v>
       </c>
@@ -13909,7 +14213,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="537" spans="1:27" s="8" customFormat="1">
+    <row r="537" spans="1:25" s="8" customFormat="1">
       <c r="A537" s="8" t="s">
         <v>114</v>
       </c>
@@ -13944,7 +14248,7 @@
         <v>899.6</v>
       </c>
     </row>
-    <row r="538" spans="1:27" s="8" customFormat="1">
+    <row r="538" spans="1:25" s="8" customFormat="1">
       <c r="A538" s="8" t="s">
         <v>115</v>
       </c>
@@ -13953,19 +14257,19 @@
         <v>1632.1600000000074</v>
       </c>
       <c r="C538" s="9">
-        <f t="shared" ref="C538:F538" si="97">(C537-C536)*(C537-C536)</f>
+        <f t="shared" ref="C538:F538" si="99">(C537-C536)*(C537-C536)</f>
         <v>213.15999999999735</v>
       </c>
       <c r="D538" s="9">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>1797.7600000000077</v>
       </c>
       <c r="E538" s="9">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>707.55999999999517</v>
       </c>
       <c r="F538" s="9">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>1730.5599999999924</v>
       </c>
       <c r="J538" s="8">
@@ -13973,23 +14277,23 @@
         <v>8911.3599999999951</v>
       </c>
       <c r="K538" s="12">
-        <f t="shared" ref="K538:N538" si="98">(K537-K536)*(K537-K536)</f>
+        <f t="shared" ref="K538:N538" si="100">(K537-K536)*(K537-K536)</f>
         <v>6304.359999999996</v>
       </c>
       <c r="L538" s="12">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>2560.3600000000024</v>
       </c>
       <c r="M538" s="12">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>4844.1600000000035</v>
       </c>
       <c r="N538" s="12">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>2872.9600000000023</v>
       </c>
     </row>
-    <row r="539" spans="1:27" s="8" customFormat="1">
+    <row r="539" spans="1:25" s="8" customFormat="1">
       <c r="A539" s="8" t="s">
         <v>116</v>
       </c>
@@ -14024,7 +14328,7 @@
         <v>71.404761745978817</v>
       </c>
     </row>
-    <row r="540" spans="1:27" s="8" customFormat="1">
+    <row r="540" spans="1:25" s="8" customFormat="1">
       <c r="A540" s="8" t="s">
         <v>117</v>
       </c>
@@ -14033,19 +14337,19 @@
         <v>15.596409843294065</v>
       </c>
       <c r="C540" s="9">
-        <f t="shared" ref="C540:F540" si="99">C539/SQRT(5)</f>
+        <f t="shared" ref="C540:F540" si="101">C539/SQRT(5)</f>
         <v>15.596409843294065</v>
       </c>
       <c r="D540" s="9">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>15.596409843294065</v>
       </c>
       <c r="E540" s="9">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>15.596409843294065</v>
       </c>
       <c r="F540" s="9">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>15.596409843294065</v>
       </c>
       <c r="J540" s="8">
@@ -14053,25 +14357,25 @@
         <v>31.933180236237039</v>
       </c>
       <c r="K540" s="12">
-        <f t="shared" ref="K540:N540" si="100">K539/SQRT(5)</f>
+        <f t="shared" ref="K540:N540" si="102">K539/SQRT(5)</f>
         <v>31.933180236237039</v>
       </c>
       <c r="L540" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>31.933180236237039</v>
       </c>
       <c r="M540" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>31.933180236237039</v>
       </c>
       <c r="N540" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>31.933180236237039</v>
       </c>
     </row>
-    <row r="541" spans="1:27" s="8" customFormat="1"/>
-    <row r="542" spans="1:27" s="8" customFormat="1"/>
-    <row r="543" spans="1:27" s="8" customFormat="1">
+    <row r="541" spans="1:25" s="8" customFormat="1"/>
+    <row r="542" spans="1:25" s="8" customFormat="1"/>
+    <row r="543" spans="1:25" s="8" customFormat="1">
       <c r="A543" s="8" t="s">
         <v>38</v>
       </c>
@@ -14079,7 +14383,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="544" spans="1:27" s="8" customFormat="1">
+    <row r="544" spans="1:25" s="8" customFormat="1">
       <c r="A544" s="8" t="s">
         <v>74</v>
       </c>
@@ -14113,41 +14417,47 @@
       <c r="N544" s="11">
         <v>176</v>
       </c>
-      <c r="Q544">
+      <c r="O544">
         <v>197</v>
       </c>
+      <c r="P544" s="13">
+        <v>199</v>
+      </c>
+      <c r="Q544" s="13">
+        <v>201</v>
+      </c>
       <c r="R544" s="13">
-        <v>199</v>
-      </c>
-      <c r="S544"/>
-      <c r="T544" s="13"/>
-      <c r="U544" s="13">
-        <v>201</v>
-      </c>
-      <c r="V544" s="13">
         <v>202</v>
       </c>
+      <c r="S544">
+        <v>203</v>
+      </c>
+      <c r="T544">
+        <v>204</v>
+      </c>
+      <c r="U544">
+        <v>205</v>
+      </c>
+      <c r="V544">
+        <v>206</v>
+      </c>
       <c r="W544">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="X544">
-        <v>204</v>
-      </c>
-      <c r="Y544">
-        <v>205</v>
-      </c>
-      <c r="Z544">
-        <v>206</v>
-      </c>
-      <c r="AA544">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="545" spans="1:27" s="8" customFormat="1">
-      <c r="A545" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y544" s="13">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="545" spans="1:23" s="8" customFormat="1">
+      <c r="A545" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B545" s="15"/>
+      <c r="B545" s="16"/>
+      <c r="O545"/>
+      <c r="P545"/>
       <c r="Q545"/>
       <c r="R545"/>
       <c r="S545"/>
@@ -14155,12 +14465,8 @@
       <c r="U545"/>
       <c r="V545"/>
       <c r="W545"/>
-      <c r="X545"/>
-      <c r="Y545"/>
-      <c r="Z545"/>
-      <c r="AA545"/>
-    </row>
-    <row r="546" spans="1:27" s="8" customFormat="1">
+    </row>
+    <row r="546" spans="1:23" s="8" customFormat="1">
       <c r="A546" s="8" t="s">
         <v>187</v>
       </c>
@@ -14196,35 +14502,35 @@
       <c r="N546" s="8">
         <v>563</v>
       </c>
+      <c r="O546">
+        <v>622</v>
+      </c>
+      <c r="P546">
+        <v>614</v>
+      </c>
       <c r="Q546">
-        <v>622</v>
+        <v>558</v>
       </c>
       <c r="R546">
-        <v>614</v>
-      </c>
-      <c r="S546"/>
-      <c r="T546"/>
+        <v>560</v>
+      </c>
+      <c r="S546">
+        <v>597</v>
+      </c>
+      <c r="T546">
+        <v>570</v>
+      </c>
       <c r="U546">
-        <v>558</v>
+        <v>580</v>
       </c>
       <c r="V546">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="W546">
-        <v>597</v>
-      </c>
-      <c r="X546">
         <v>570</v>
       </c>
-      <c r="Y546">
-        <v>580</v>
-      </c>
-      <c r="Z546">
-        <v>565</v>
-      </c>
-      <c r="AA546"/>
-    </row>
-    <row r="547" spans="1:27" s="8" customFormat="1">
+    </row>
+    <row r="547" spans="1:23" s="8" customFormat="1">
       <c r="A547" s="8" t="s">
         <v>114</v>
       </c>
@@ -14244,22 +14550,49 @@
         <v>604.4</v>
       </c>
       <c r="J547" s="8">
-        <v>585.79999999999995</v>
+        <v>583.21428571428567</v>
       </c>
       <c r="K547" s="8">
-        <v>585.79999999999995</v>
+        <v>583.21428571428567</v>
       </c>
       <c r="L547" s="8">
-        <v>585.79999999999995</v>
+        <v>583.21428571428567</v>
       </c>
       <c r="M547" s="8">
-        <v>585.79999999999995</v>
+        <v>583.21428571428567</v>
       </c>
       <c r="N547" s="8">
-        <v>585.79999999999995</v>
-      </c>
-    </row>
-    <row r="548" spans="1:27" s="8" customFormat="1">
+        <v>583.21428571428567</v>
+      </c>
+      <c r="O547" s="8">
+        <v>583.21428571428567</v>
+      </c>
+      <c r="P547" s="8">
+        <v>583.21428571428567</v>
+      </c>
+      <c r="Q547" s="8">
+        <v>583.21428571428567</v>
+      </c>
+      <c r="R547" s="8">
+        <v>583.21428571428567</v>
+      </c>
+      <c r="S547" s="8">
+        <v>583.21428571428567</v>
+      </c>
+      <c r="T547" s="8">
+        <v>583.21428571428567</v>
+      </c>
+      <c r="U547" s="8">
+        <v>583.21428571428567</v>
+      </c>
+      <c r="V547" s="8">
+        <v>583.21428571428567</v>
+      </c>
+      <c r="W547" s="8">
+        <v>583.21428571428567</v>
+      </c>
+    </row>
+    <row r="548" spans="1:23" s="8" customFormat="1">
       <c r="A548" s="8" t="s">
         <v>115</v>
       </c>
@@ -14268,43 +14601,79 @@
         <v>501.75999999999897</v>
       </c>
       <c r="C548" s="9">
-        <f t="shared" ref="C548:F548" si="101">(C547-C546)*(C547-C546)</f>
+        <f t="shared" ref="C548:F548" si="103">(C547-C546)*(C547-C546)</f>
         <v>5867.5600000000031</v>
       </c>
       <c r="D548" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>645.15999999999883</v>
       </c>
       <c r="E548" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>207.35999999999933</v>
       </c>
       <c r="F548" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>207.35999999999933</v>
       </c>
       <c r="J548" s="11">
-        <f t="shared" ref="J548:N548" si="102">(J547-J546)*(J547-J546)</f>
-        <v>829.43999999999733</v>
-      </c>
-      <c r="K548" s="11">
-        <f t="shared" si="102"/>
-        <v>1169.6400000000031</v>
-      </c>
-      <c r="L548" s="11">
-        <f t="shared" si="102"/>
-        <v>432.63999999999811</v>
-      </c>
-      <c r="M548" s="11">
-        <f t="shared" si="102"/>
-        <v>1459.2400000000034</v>
-      </c>
-      <c r="N548" s="11">
-        <f t="shared" si="102"/>
-        <v>519.83999999999787</v>
-      </c>
-    </row>
-    <row r="549" spans="1:27" s="8" customFormat="1">
+        <f t="shared" ref="J548:W548" si="104">(J547-J546)*(J547-J546)</f>
+        <v>687.18877551020148</v>
+      </c>
+      <c r="K548" s="15">
+        <f t="shared" si="104"/>
+        <v>1353.1887755102077</v>
+      </c>
+      <c r="L548" s="15">
+        <f t="shared" si="104"/>
+        <v>331.76020408163089</v>
+      </c>
+      <c r="M548" s="15">
+        <f t="shared" si="104"/>
+        <v>1663.4744897959224</v>
+      </c>
+      <c r="N548" s="15">
+        <f t="shared" si="104"/>
+        <v>408.61734693877355</v>
+      </c>
+      <c r="O548" s="15">
+        <f t="shared" si="104"/>
+        <v>1504.3316326530651</v>
+      </c>
+      <c r="P548" s="15">
+        <f t="shared" si="104"/>
+        <v>947.76020408163561</v>
+      </c>
+      <c r="Q548" s="15">
+        <f t="shared" si="104"/>
+        <v>635.76020408163015</v>
+      </c>
+      <c r="R548" s="15">
+        <f t="shared" si="104"/>
+        <v>538.90306122448749</v>
+      </c>
+      <c r="S548" s="15">
+        <f t="shared" si="104"/>
+        <v>190.04591836734829</v>
+      </c>
+      <c r="T548" s="15">
+        <f t="shared" si="104"/>
+        <v>174.61734693877423</v>
+      </c>
+      <c r="U548" s="15">
+        <f t="shared" si="104"/>
+        <v>10.331632653060911</v>
+      </c>
+      <c r="V548" s="15">
+        <f t="shared" si="104"/>
+        <v>331.76020408163089</v>
+      </c>
+      <c r="W548" s="15">
+        <f t="shared" si="104"/>
+        <v>174.61734693877423</v>
+      </c>
+    </row>
+    <row r="549" spans="1:23" s="8" customFormat="1">
       <c r="A549" s="8" t="s">
         <v>116</v>
       </c>
@@ -14323,23 +14692,50 @@
       <c r="F549" s="8">
         <v>38.546595180378773</v>
       </c>
-      <c r="J549" s="11">
-        <v>29.701178427799793</v>
-      </c>
-      <c r="K549" s="11">
-        <v>29.701178427799793</v>
+      <c r="J549" s="15">
+        <v>25.287429320368904</v>
+      </c>
+      <c r="K549" s="15">
+        <v>25.287429320368904</v>
       </c>
       <c r="L549" s="8">
-        <v>29.701178427799793</v>
+        <v>25.287429320368904</v>
       </c>
       <c r="M549" s="8">
-        <v>29.701178427799793</v>
+        <v>25.287429320368904</v>
       </c>
       <c r="N549" s="8">
-        <v>29.701178427799793</v>
-      </c>
-    </row>
-    <row r="550" spans="1:27" s="8" customFormat="1">
+        <v>25.287429320368904</v>
+      </c>
+      <c r="O549" s="8">
+        <v>25.287429320368904</v>
+      </c>
+      <c r="P549" s="8">
+        <v>25.287429320368904</v>
+      </c>
+      <c r="Q549" s="8">
+        <v>25.287429320368904</v>
+      </c>
+      <c r="R549" s="8">
+        <v>25.287429320368904</v>
+      </c>
+      <c r="S549" s="8">
+        <v>25.287429320368904</v>
+      </c>
+      <c r="T549" s="8">
+        <v>25.287429320368904</v>
+      </c>
+      <c r="U549" s="8">
+        <v>25.287429320368904</v>
+      </c>
+      <c r="V549" s="8">
+        <v>25.287429320368904</v>
+      </c>
+      <c r="W549" s="8">
+        <v>25.287429320368904</v>
+      </c>
+    </row>
+    <row r="550" spans="1:23" s="8" customFormat="1">
       <c r="A550" s="8" t="s">
         <v>117</v>
       </c>
@@ -14348,45 +14744,81 @@
         <v>17.238561424898538</v>
       </c>
       <c r="C550" s="9">
-        <f t="shared" ref="C550:F550" si="103">C549/SQRT(5)</f>
+        <f t="shared" ref="C550:F550" si="105">C549/SQRT(5)</f>
         <v>17.238561424898538</v>
       </c>
       <c r="D550" s="9">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>17.238561424898538</v>
       </c>
       <c r="E550" s="9">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>17.238561424898538</v>
       </c>
       <c r="F550" s="9">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>17.238561424898538</v>
       </c>
       <c r="J550" s="8">
-        <f>J549/SQRT(5)</f>
-        <v>13.282770795282133</v>
-      </c>
-      <c r="K550" s="11">
-        <f t="shared" ref="K550:N550" si="104">K549/SQRT(5)</f>
-        <v>13.282770795282133</v>
-      </c>
-      <c r="L550" s="11">
-        <f t="shared" si="104"/>
-        <v>13.282770795282133</v>
-      </c>
-      <c r="M550" s="11">
-        <f t="shared" si="104"/>
-        <v>13.282770795282133</v>
-      </c>
-      <c r="N550" s="11">
-        <f t="shared" si="104"/>
-        <v>13.282770795282133</v>
-      </c>
-    </row>
-    <row r="551" spans="1:27" s="8" customFormat="1"/>
-    <row r="552" spans="1:27" s="8" customFormat="1"/>
-    <row r="553" spans="1:27" s="8" customFormat="1">
+        <f>J549/SQRT(14)</f>
+        <v>6.7583497649344473</v>
+      </c>
+      <c r="K550" s="15">
+        <f t="shared" ref="K550:W550" si="106">K549/SQRT(14)</f>
+        <v>6.7583497649344473</v>
+      </c>
+      <c r="L550" s="15">
+        <f t="shared" si="106"/>
+        <v>6.7583497649344473</v>
+      </c>
+      <c r="M550" s="15">
+        <f t="shared" si="106"/>
+        <v>6.7583497649344473</v>
+      </c>
+      <c r="N550" s="15">
+        <f t="shared" si="106"/>
+        <v>6.7583497649344473</v>
+      </c>
+      <c r="O550" s="15">
+        <f t="shared" si="106"/>
+        <v>6.7583497649344473</v>
+      </c>
+      <c r="P550" s="15">
+        <f t="shared" si="106"/>
+        <v>6.7583497649344473</v>
+      </c>
+      <c r="Q550" s="15">
+        <f t="shared" si="106"/>
+        <v>6.7583497649344473</v>
+      </c>
+      <c r="R550" s="15">
+        <f t="shared" si="106"/>
+        <v>6.7583497649344473</v>
+      </c>
+      <c r="S550" s="15">
+        <f t="shared" si="106"/>
+        <v>6.7583497649344473</v>
+      </c>
+      <c r="T550" s="15">
+        <f t="shared" si="106"/>
+        <v>6.7583497649344473</v>
+      </c>
+      <c r="U550" s="15">
+        <f t="shared" si="106"/>
+        <v>6.7583497649344473</v>
+      </c>
+      <c r="V550" s="15">
+        <f t="shared" si="106"/>
+        <v>6.7583497649344473</v>
+      </c>
+      <c r="W550" s="15">
+        <f t="shared" si="106"/>
+        <v>6.7583497649344473</v>
+      </c>
+    </row>
+    <row r="551" spans="1:23" s="8" customFormat="1"/>
+    <row r="552" spans="1:23" s="8" customFormat="1"/>
+    <row r="553" spans="1:23" s="8" customFormat="1">
       <c r="A553" s="8" t="s">
         <v>38</v>
       </c>
@@ -14394,7 +14826,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="554" spans="1:27" s="8" customFormat="1">
+    <row r="554" spans="1:23" s="8" customFormat="1">
       <c r="A554" s="8" t="s">
         <v>74</v>
       </c>
@@ -14432,13 +14864,13 @@
         <v>186</v>
       </c>
     </row>
-    <row r="555" spans="1:27" s="8" customFormat="1">
-      <c r="A555" s="15" t="s">
+    <row r="555" spans="1:23" s="8" customFormat="1">
+      <c r="A555" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B555" s="15"/>
-    </row>
-    <row r="556" spans="1:27" s="8" customFormat="1">
+      <c r="B555" s="16"/>
+    </row>
+    <row r="556" spans="1:23" s="8" customFormat="1">
       <c r="A556" s="8" t="s">
         <v>187</v>
       </c>
@@ -14476,7 +14908,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="557" spans="1:27" s="8" customFormat="1">
+    <row r="557" spans="1:23" s="8" customFormat="1">
       <c r="A557" s="8" t="s">
         <v>114</v>
       </c>
@@ -14514,7 +14946,7 @@
         <v>606.4</v>
       </c>
     </row>
-    <row r="558" spans="1:27" s="8" customFormat="1">
+    <row r="558" spans="1:23" s="8" customFormat="1">
       <c r="A558" s="8" t="s">
         <v>115</v>
       </c>
@@ -14523,47 +14955,47 @@
         <v>205.44444444444554</v>
       </c>
       <c r="C558" s="9">
-        <f t="shared" ref="C558:G558" si="105">(C557-C556)*(C557-C556)</f>
+        <f t="shared" ref="C558:G558" si="107">(C557-C556)*(C557-C556)</f>
         <v>32.111111111110681</v>
       </c>
       <c r="D558" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>11.111111111111363</v>
       </c>
       <c r="E558" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>5.4444444444446214</v>
       </c>
       <c r="F558" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>312.11111111110978</v>
       </c>
       <c r="G558" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>11.111111111111363</v>
       </c>
       <c r="J558" s="11">
-        <f t="shared" ref="J558:N558" si="106">(J557-J556)*(J557-J556)</f>
+        <f t="shared" ref="J558:N558" si="108">(J557-J556)*(J557-J556)</f>
         <v>184.9600000000006</v>
       </c>
       <c r="K558" s="12">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>605.16000000000111</v>
       </c>
       <c r="L558" s="12">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>696.95999999999879</v>
       </c>
       <c r="M558" s="12">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>1648.3600000000019</v>
       </c>
       <c r="N558" s="12">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>2745.7599999999975</v>
       </c>
     </row>
-    <row r="559" spans="1:27" s="8" customFormat="1">
+    <row r="559" spans="1:23" s="8" customFormat="1">
       <c r="A559" s="8" t="s">
         <v>116</v>
       </c>
@@ -14601,7 +15033,7 @@
         <v>34.296355491509587</v>
       </c>
     </row>
-    <row r="560" spans="1:27" s="8" customFormat="1">
+    <row r="560" spans="1:23" s="8" customFormat="1">
       <c r="A560" s="8" t="s">
         <v>117</v>
       </c>
@@ -14610,23 +15042,23 @@
         <v>4.0046269535422443</v>
       </c>
       <c r="C560" s="9">
-        <f t="shared" ref="C560:G560" si="107">C559/SQRT(6)</f>
+        <f t="shared" ref="C560:G560" si="109">C559/SQRT(6)</f>
         <v>4.0046269535422443</v>
       </c>
       <c r="D560" s="9">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>4.0046269535422443</v>
       </c>
       <c r="E560" s="9">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>4.0046269535422443</v>
       </c>
       <c r="F560" s="9">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>4.0046269535422443</v>
       </c>
       <c r="G560" s="9">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>4.0046269535422443</v>
       </c>
       <c r="J560" s="8">
@@ -14634,19 +15066,19 @@
         <v>19.801010075246161</v>
       </c>
       <c r="K560" s="12">
-        <f t="shared" ref="K560:N560" si="108">K559/SQRT(3)</f>
+        <f t="shared" ref="K560:N560" si="110">K559/SQRT(3)</f>
         <v>19.801010075246161</v>
       </c>
       <c r="L560" s="12">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>19.801010075246161</v>
       </c>
       <c r="M560" s="12">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>19.801010075246161</v>
       </c>
       <c r="N560" s="12">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>19.801010075246161</v>
       </c>
     </row>
@@ -14682,6 +15114,12 @@
       <c r="J564" s="8">
         <v>189</v>
       </c>
+      <c r="K564" s="8">
+        <v>214</v>
+      </c>
+      <c r="L564" s="8">
+        <v>215</v>
+      </c>
     </row>
     <row r="565" spans="1:14" s="8" customFormat="1">
       <c r="A565" s="8" t="s">
@@ -14710,6 +15148,12 @@
       <c r="J566" s="8">
         <v>616</v>
       </c>
+      <c r="K566" s="8">
+        <v>590</v>
+      </c>
+      <c r="L566" s="8">
+        <v>619</v>
+      </c>
     </row>
     <row r="567" spans="1:14" s="8" customFormat="1">
       <c r="A567" s="8" t="s">
@@ -14730,6 +15174,15 @@
       <c r="F567" s="8">
         <v>650.20000000000005</v>
       </c>
+      <c r="J567" s="8">
+        <v>608.33333333333337</v>
+      </c>
+      <c r="K567" s="8">
+        <v>608.33333333333337</v>
+      </c>
+      <c r="L567" s="8">
+        <v>608.33333333333337</v>
+      </c>
     </row>
     <row r="568" spans="1:14" s="8" customFormat="1">
       <c r="A568" s="8" t="s">
@@ -14740,20 +15193,32 @@
         <v>4.0000000000018188E-2</v>
       </c>
       <c r="C568" s="9">
-        <f t="shared" ref="C568:F568" si="109">(C567-C566)*(C567-C566)</f>
+        <f t="shared" ref="C568:F568" si="111">(C567-C566)*(C567-C566)</f>
         <v>4.8400000000001997</v>
       </c>
       <c r="D568" s="9">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>4.8400000000001997</v>
       </c>
       <c r="E568" s="9">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>96.039999999999111</v>
       </c>
       <c r="F568" s="9">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>27.040000000000472</v>
+      </c>
+      <c r="J568" s="15">
+        <f t="shared" ref="J568:L568" si="112">(J567-J566)*(J567-J566)</f>
+        <v>58.777777777777196</v>
+      </c>
+      <c r="K568" s="15">
+        <f t="shared" si="112"/>
+        <v>336.11111111111251</v>
+      </c>
+      <c r="L568" s="15">
+        <f t="shared" si="112"/>
+        <v>113.77777777777698</v>
       </c>
     </row>
     <row r="569" spans="1:14" s="8" customFormat="1">
@@ -14775,6 +15240,15 @@
       <c r="F569" s="8">
         <v>5.1536394906900505</v>
       </c>
+      <c r="J569" s="15">
+        <v>13.021349989749741</v>
+      </c>
+      <c r="K569" s="15">
+        <v>13.021349989749741</v>
+      </c>
+      <c r="L569" s="8">
+        <v>13.021349989749741</v>
+      </c>
     </row>
     <row r="570" spans="1:14" s="8" customFormat="1">
       <c r="A570" s="8" t="s">
@@ -14785,20 +15259,32 @@
         <v>2.3047776465420693</v>
       </c>
       <c r="C570" s="9">
-        <f t="shared" ref="C570:F570" si="110">C569/SQRT(5)</f>
+        <f t="shared" ref="C570:F570" si="113">C569/SQRT(5)</f>
         <v>2.3047776465420693</v>
       </c>
       <c r="D570" s="9">
-        <f t="shared" si="110"/>
+        <f t="shared" si="113"/>
         <v>2.3047776465420693</v>
       </c>
       <c r="E570" s="9">
-        <f t="shared" si="110"/>
+        <f t="shared" si="113"/>
         <v>2.3047776465420693</v>
       </c>
       <c r="F570" s="9">
-        <f t="shared" si="110"/>
+        <f t="shared" si="113"/>
         <v>2.3047776465420693</v>
+      </c>
+      <c r="J570" s="8">
+        <f>J569/SQRT(3)</f>
+        <v>7.5178799217943437</v>
+      </c>
+      <c r="K570" s="15">
+        <f t="shared" ref="K570:L570" si="114">K569/SQRT(3)</f>
+        <v>7.5178799217943437</v>
+      </c>
+      <c r="L570" s="15">
+        <f t="shared" si="114"/>
+        <v>7.5178799217943437</v>
       </c>
     </row>
     <row r="571" spans="1:14" s="8" customFormat="1"/>
@@ -14847,10 +15333,10 @@
       </c>
     </row>
     <row r="575" spans="1:14" s="8" customFormat="1">
-      <c r="A575" s="15" t="s">
+      <c r="A575" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B575" s="15"/>
+      <c r="B575" s="16"/>
     </row>
     <row r="576" spans="1:14" s="8" customFormat="1">
       <c r="A576" s="8" t="s">
@@ -14931,39 +15417,39 @@
         <v>2.5600000000000729</v>
       </c>
       <c r="C578" s="9">
-        <f t="shared" ref="C578:F578" si="111">(C577-C576)*(C577-C576)</f>
+        <f t="shared" ref="C578:F578" si="115">(C577-C576)*(C577-C576)</f>
         <v>54.759999999999664</v>
       </c>
       <c r="D578" s="9">
-        <f t="shared" si="111"/>
+        <f t="shared" si="115"/>
         <v>54.759999999999664</v>
       </c>
       <c r="E578" s="9">
-        <f t="shared" si="111"/>
+        <f t="shared" si="115"/>
         <v>184.9600000000006</v>
       </c>
       <c r="F578" s="9">
-        <f t="shared" si="111"/>
+        <f t="shared" si="115"/>
         <v>0.15999999999998182</v>
       </c>
       <c r="J578" s="11">
-        <f t="shared" ref="J578:N578" si="112">(J577-J576)*(J577-J576)</f>
+        <f t="shared" ref="J578:N578" si="116">(J577-J576)*(J577-J576)</f>
         <v>196</v>
       </c>
       <c r="K578" s="11">
-        <f t="shared" si="112"/>
+        <f t="shared" si="116"/>
         <v>289</v>
       </c>
       <c r="L578" s="11">
-        <f t="shared" si="112"/>
+        <f t="shared" si="116"/>
         <v>169</v>
       </c>
       <c r="M578" s="11">
-        <f t="shared" si="112"/>
+        <f t="shared" si="116"/>
         <v>625</v>
       </c>
       <c r="N578" s="11">
-        <f t="shared" si="112"/>
+        <f t="shared" si="116"/>
         <v>49</v>
       </c>
     </row>
@@ -15011,19 +15497,19 @@
         <v>3.4478979103215917</v>
       </c>
       <c r="C580" s="9">
-        <f t="shared" ref="C580:F580" si="113">C579/SQRT(5)</f>
+        <f t="shared" ref="C580:F580" si="117">C579/SQRT(5)</f>
         <v>3.4478979103215917</v>
       </c>
       <c r="D580" s="9">
-        <f t="shared" si="113"/>
+        <f t="shared" si="117"/>
         <v>3.4478979103215917</v>
       </c>
       <c r="E580" s="9">
-        <f t="shared" si="113"/>
+        <f t="shared" si="117"/>
         <v>3.4478979103215917</v>
       </c>
       <c r="F580" s="9">
-        <f t="shared" si="113"/>
+        <f t="shared" si="117"/>
         <v>3.4478979103215917</v>
       </c>
       <c r="J580" s="8">
@@ -15031,19 +15517,19 @@
         <v>7.2883468633154385</v>
       </c>
       <c r="K580" s="11">
-        <f t="shared" ref="K580:N580" si="114">K579/SQRT(5)</f>
+        <f t="shared" ref="K580:N580" si="118">K579/SQRT(5)</f>
         <v>7.2883468633154385</v>
       </c>
       <c r="L580" s="11">
-        <f t="shared" si="114"/>
+        <f t="shared" si="118"/>
         <v>7.2883468633154385</v>
       </c>
       <c r="M580" s="11">
-        <f t="shared" si="114"/>
+        <f t="shared" si="118"/>
         <v>7.2883468633154385</v>
       </c>
       <c r="N580" s="11">
-        <f t="shared" si="114"/>
+        <f t="shared" si="118"/>
         <v>7.2883468633154385</v>
       </c>
     </row>
@@ -15093,10 +15579,10 @@
       </c>
     </row>
     <row r="585" spans="1:14" s="8" customFormat="1">
-      <c r="A585" s="15" t="s">
+      <c r="A585" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B585" s="15"/>
+      <c r="B585" s="16"/>
     </row>
     <row r="586" spans="1:14" s="8" customFormat="1">
       <c r="A586" s="8" t="s">
@@ -15177,39 +15663,39 @@
         <v>96.039999999999111</v>
       </c>
       <c r="C588" s="9">
-        <f t="shared" ref="C588:F588" si="115">(C587-C586)*(C587-C586)</f>
+        <f t="shared" ref="C588:F588" si="119">(C587-C586)*(C587-C586)</f>
         <v>190.43999999999875</v>
       </c>
       <c r="D588" s="9">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>408.04000000000184</v>
       </c>
       <c r="E588" s="9">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>116.63999999999902</v>
       </c>
       <c r="F588" s="9">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>201.64000000000129</v>
       </c>
       <c r="J588" s="11">
-        <f t="shared" ref="J588:N588" si="116">(J587-J586)*(J587-J586)</f>
+        <f t="shared" ref="J588:N588" si="120">(J587-J586)*(J587-J586)</f>
         <v>19.3599999999998</v>
       </c>
       <c r="K588" s="11">
-        <f t="shared" si="116"/>
+        <f t="shared" si="120"/>
         <v>129.95999999999947</v>
       </c>
       <c r="L588" s="11">
-        <f t="shared" si="116"/>
+        <f t="shared" si="120"/>
         <v>243.3600000000007</v>
       </c>
       <c r="M588" s="11">
-        <f t="shared" si="116"/>
+        <f t="shared" si="120"/>
         <v>466.56000000000097</v>
       </c>
       <c r="N588" s="11">
-        <f t="shared" si="116"/>
+        <f t="shared" si="120"/>
         <v>457.95999999999901</v>
       </c>
     </row>
@@ -15257,19 +15743,19 @@
         <v>6.3649037698931465</v>
       </c>
       <c r="C590" s="9">
-        <f t="shared" ref="C590:F590" si="117">C589/SQRT(5)</f>
+        <f t="shared" ref="C590:F590" si="121">C589/SQRT(5)</f>
         <v>6.3649037698931465</v>
       </c>
       <c r="D590" s="9">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>6.3649037698931465</v>
       </c>
       <c r="E590" s="9">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>6.3649037698931465</v>
       </c>
       <c r="F590" s="9">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>6.3649037698931465</v>
       </c>
       <c r="J590" s="8">
@@ -15277,19 +15763,19 @@
         <v>7.2586500122267905</v>
       </c>
       <c r="K590" s="11">
-        <f t="shared" ref="K590:N590" si="118">K589/SQRT(5)</f>
+        <f t="shared" ref="K590:N590" si="122">K589/SQRT(5)</f>
         <v>7.2586500122267905</v>
       </c>
       <c r="L590" s="11">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>7.2586500122267905</v>
       </c>
       <c r="M590" s="11">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>7.2586500122267905</v>
       </c>
       <c r="N590" s="11">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>7.2586500122267905</v>
       </c>
     </row>
@@ -15429,35 +15915,35 @@
         <v>6.25</v>
       </c>
       <c r="D598" s="9">
-        <f t="shared" ref="D598:F598" si="119">(D597-D596)*(D597-D596)</f>
+        <f t="shared" ref="D598:F598" si="123">(D597-D596)*(D597-D596)</f>
         <v>42.25</v>
       </c>
       <c r="E598" s="9">
-        <f t="shared" si="119"/>
+        <f t="shared" si="123"/>
         <v>12.25</v>
       </c>
       <c r="F598" s="9">
-        <f t="shared" si="119"/>
+        <f t="shared" si="123"/>
         <v>0.25</v>
       </c>
       <c r="J598" s="12">
-        <f t="shared" ref="J598:N598" si="120">(J597-J596)*(J597-J596)</f>
+        <f t="shared" ref="J598:N598" si="124">(J597-J596)*(J597-J596)</f>
         <v>92.160000000000437</v>
       </c>
       <c r="K598" s="12">
-        <f t="shared" si="120"/>
+        <f t="shared" si="124"/>
         <v>179.55999999999938</v>
       </c>
       <c r="L598" s="12">
-        <f t="shared" si="120"/>
+        <f t="shared" si="124"/>
         <v>0.3600000000000273</v>
       </c>
       <c r="M598" s="12">
-        <f t="shared" si="120"/>
+        <f t="shared" si="124"/>
         <v>31.360000000000255</v>
       </c>
       <c r="N598" s="12">
-        <f t="shared" si="120"/>
+        <f t="shared" si="124"/>
         <v>5.7599999999998905</v>
       </c>
     </row>
@@ -15504,15 +15990,15 @@
         <v>1.9525624189766635</v>
       </c>
       <c r="D600" s="9">
-        <f t="shared" ref="D600:F600" si="121">D599/SQRT(4)</f>
+        <f t="shared" ref="D600:F600" si="125">D599/SQRT(4)</f>
         <v>1.9525624189766635</v>
       </c>
       <c r="E600" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="125"/>
         <v>1.9525624189766635</v>
       </c>
       <c r="F600" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="125"/>
         <v>1.9525624189766635</v>
       </c>
       <c r="J600" s="7">
@@ -15520,19 +16006,19 @@
         <v>3.5168167424533223</v>
       </c>
       <c r="K600" s="12">
-        <f t="shared" ref="K600:N600" si="122">K599/SQRT(5)</f>
+        <f t="shared" ref="K600:N600" si="126">K599/SQRT(5)</f>
         <v>3.5168167424533223</v>
       </c>
       <c r="L600" s="12">
-        <f t="shared" si="122"/>
+        <f t="shared" si="126"/>
         <v>3.5168167424533223</v>
       </c>
       <c r="M600" s="12">
-        <f t="shared" si="122"/>
+        <f t="shared" si="126"/>
         <v>3.5168167424533223</v>
       </c>
       <c r="N600" s="12">
-        <f t="shared" si="122"/>
+        <f t="shared" si="126"/>
         <v>3.5168167424533223</v>
       </c>
     </row>
@@ -15637,27 +16123,27 @@
         <v>115</v>
       </c>
       <c r="B609">
-        <f t="shared" ref="B609:G609" si="123">(B608-B607)*(B608-B607)</f>
+        <f t="shared" ref="B609:G609" si="127">(B608-B607)*(B608-B607)</f>
         <v>552.25</v>
       </c>
       <c r="C609" s="4">
-        <f t="shared" si="123"/>
+        <f t="shared" si="127"/>
         <v>0.25</v>
       </c>
       <c r="D609" s="4">
-        <f t="shared" si="123"/>
+        <f t="shared" si="127"/>
         <v>1640.25</v>
       </c>
       <c r="E609" s="4">
-        <f t="shared" si="123"/>
+        <f t="shared" si="127"/>
         <v>30.25</v>
       </c>
       <c r="F609" s="4">
-        <f t="shared" si="123"/>
+        <f t="shared" si="127"/>
         <v>30.25</v>
       </c>
       <c r="G609" s="4">
-        <f t="shared" si="123"/>
+        <f t="shared" si="127"/>
         <v>306.25</v>
       </c>
     </row>
@@ -15689,27 +16175,27 @@
         <v>117</v>
       </c>
       <c r="B611">
-        <f t="shared" ref="B611:G611" si="124">B610/SQRT(6)</f>
+        <f t="shared" ref="B611:G611" si="128">B610/SQRT(6)</f>
         <v>8.4319168770939772</v>
       </c>
       <c r="C611" s="4">
-        <f t="shared" si="124"/>
+        <f t="shared" si="128"/>
         <v>8.4319168770939772</v>
       </c>
       <c r="D611" s="4">
-        <f t="shared" si="124"/>
+        <f t="shared" si="128"/>
         <v>8.4319168770939772</v>
       </c>
       <c r="E611" s="4">
-        <f t="shared" si="124"/>
+        <f t="shared" si="128"/>
         <v>8.4319168770939772</v>
       </c>
       <c r="F611" s="4">
-        <f t="shared" si="124"/>
+        <f t="shared" si="128"/>
         <v>8.4319168770939772</v>
       </c>
       <c r="G611" s="4">
-        <f t="shared" si="124"/>
+        <f t="shared" si="128"/>
         <v>8.4319168770939772</v>
       </c>
     </row>
@@ -15737,7 +16223,7 @@
       <c r="D617">
         <v>100</v>
       </c>
-      <c r="G617">
+      <c r="E617">
         <v>171</v>
       </c>
     </row>
@@ -15759,7 +16245,7 @@
       <c r="D619">
         <v>619</v>
       </c>
-      <c r="G619">
+      <c r="E619">
         <v>672</v>
       </c>
     </row>
@@ -15768,13 +16254,16 @@
         <v>114</v>
       </c>
       <c r="B620">
-        <v>633.33333333333337</v>
+        <v>643</v>
       </c>
       <c r="C620">
-        <v>633.33333333333337</v>
+        <v>643</v>
       </c>
       <c r="D620">
-        <v>633.33333333333337</v>
+        <v>643</v>
+      </c>
+      <c r="E620" s="15">
+        <v>643</v>
       </c>
     </row>
     <row r="621" spans="1:7">
@@ -15783,29 +16272,36 @@
       </c>
       <c r="B621">
         <f>(B620-B619)*(B620-B619)</f>
-        <v>711.11111111110904</v>
+        <v>289</v>
       </c>
       <c r="C621" s="4">
-        <f t="shared" ref="C621:D621" si="125">(C620-C619)*(C620-C619)</f>
-        <v>152.11111111111205</v>
+        <f t="shared" ref="C621:E621" si="129">(C620-C619)*(C620-C619)</f>
+        <v>484</v>
       </c>
       <c r="D621" s="4">
-        <f t="shared" si="125"/>
-        <v>205.44444444444554</v>
+        <f t="shared" si="129"/>
+        <v>576</v>
+      </c>
+      <c r="E621" s="15">
+        <f t="shared" si="129"/>
+        <v>841</v>
       </c>
     </row>
     <row r="622" spans="1:7">
       <c r="A622" t="s">
         <v>116</v>
       </c>
-      <c r="B622" s="4">
-        <v>18.873850222522751</v>
-      </c>
-      <c r="C622" s="4">
-        <v>18.873850222522751</v>
-      </c>
-      <c r="D622">
-        <v>18.873850222522751</v>
+      <c r="B622" s="15">
+        <v>23.398717913595181</v>
+      </c>
+      <c r="C622" s="15">
+        <v>23.398717913595181</v>
+      </c>
+      <c r="D622" s="15">
+        <v>23.398717913595181</v>
+      </c>
+      <c r="E622" s="15">
+        <v>23.398717913595181</v>
       </c>
     </row>
     <row r="623" spans="1:7">
@@ -15813,16 +16309,20 @@
         <v>117</v>
       </c>
       <c r="B623">
-        <f>B622/SQRT(3)</f>
-        <v>10.896822506618189</v>
-      </c>
-      <c r="C623" s="4">
-        <f t="shared" ref="C623:D623" si="126">C622/SQRT(3)</f>
-        <v>10.896822506618189</v>
-      </c>
-      <c r="D623" s="4">
-        <f t="shared" si="126"/>
-        <v>10.896822506618189</v>
+        <f>B622/SQRT(4)</f>
+        <v>11.699358956797591</v>
+      </c>
+      <c r="C623" s="15">
+        <f t="shared" ref="C623:E623" si="130">C622/SQRT(4)</f>
+        <v>11.699358956797591</v>
+      </c>
+      <c r="D623" s="15">
+        <f t="shared" si="130"/>
+        <v>11.699358956797591</v>
+      </c>
+      <c r="E623" s="15">
+        <f t="shared" si="130"/>
+        <v>11.699358956797591</v>
       </c>
     </row>
     <row r="624" spans="1:7">
@@ -15956,19 +16456,19 @@
         <v>432.63999999999811</v>
       </c>
       <c r="C630" s="12">
-        <f t="shared" ref="C630:F630" si="127">(C629-C628)*(C629-C628)</f>
+        <f t="shared" ref="C630:F630" si="131">(C629-C628)*(C629-C628)</f>
         <v>2724.8400000000047</v>
       </c>
       <c r="D630" s="12">
-        <f t="shared" si="127"/>
+        <f t="shared" si="131"/>
         <v>3696.6399999999944</v>
       </c>
       <c r="E630" s="12">
-        <f t="shared" si="127"/>
+        <f t="shared" si="131"/>
         <v>60.839999999999293</v>
       </c>
       <c r="F630" s="12">
-        <f t="shared" si="127"/>
+        <f t="shared" si="131"/>
         <v>1383.8400000000033</v>
       </c>
       <c r="I630">
@@ -15976,19 +16476,19 @@
         <v>0.15999999999998182</v>
       </c>
       <c r="J630" s="14">
-        <f t="shared" ref="J630:M630" si="128">(J629-J628)*(J629-J628)</f>
+        <f t="shared" ref="J630:M630" si="132">(J629-J628)*(J629-J628)</f>
         <v>112.36000000000048</v>
       </c>
       <c r="K630" s="14">
-        <f t="shared" si="128"/>
+        <f t="shared" si="132"/>
         <v>70.559999999999619</v>
       </c>
       <c r="L630" s="14">
-        <f t="shared" si="128"/>
+        <f t="shared" si="132"/>
         <v>0.15999999999998182</v>
       </c>
       <c r="M630" s="14">
-        <f t="shared" si="128"/>
+        <f t="shared" si="132"/>
         <v>1.9599999999999362</v>
       </c>
     </row>
@@ -16036,39 +16536,39 @@
         <v>23.521337830432465</v>
       </c>
       <c r="C632" s="12">
-        <f t="shared" ref="C632:F632" si="129">C631/SQRT(3)</f>
+        <f t="shared" ref="C632:F632" si="133">C631/SQRT(3)</f>
         <v>23.521337830432465</v>
       </c>
       <c r="D632" s="12">
-        <f t="shared" si="129"/>
+        <f t="shared" si="133"/>
         <v>23.521337830432465</v>
       </c>
       <c r="E632" s="12">
-        <f t="shared" si="129"/>
+        <f t="shared" si="133"/>
         <v>23.521337830432465</v>
       </c>
       <c r="F632" s="12">
-        <f t="shared" si="129"/>
+        <f t="shared" si="133"/>
         <v>23.521337830432465</v>
       </c>
       <c r="I632" s="14">
-        <f t="shared" ref="I632:M632" si="130">I631/SQRT(3)</f>
+        <f t="shared" ref="I632:M632" si="134">I631/SQRT(3)</f>
         <v>3.5137823874945173</v>
       </c>
       <c r="J632" s="14">
-        <f t="shared" si="130"/>
+        <f t="shared" si="134"/>
         <v>3.5137823874945173</v>
       </c>
       <c r="K632" s="14">
-        <f t="shared" si="130"/>
+        <f t="shared" si="134"/>
         <v>3.5137823874945173</v>
       </c>
       <c r="L632" s="14">
-        <f t="shared" si="130"/>
+        <f t="shared" si="134"/>
         <v>3.5137823874945173</v>
       </c>
       <c r="M632" s="14">
-        <f t="shared" si="130"/>
+        <f t="shared" si="134"/>
         <v>3.5137823874945173</v>
       </c>
     </row>
@@ -16260,27 +16760,27 @@
         <v>18.489999999999608</v>
       </c>
       <c r="C641">
-        <f t="shared" ref="C641:I641" si="131">(C639-C640)*(C639-C640)</f>
+        <f t="shared" ref="C641:I641" si="135">(C639-C640)*(C639-C640)</f>
         <v>1789.2899999999961</v>
       </c>
       <c r="E641">
-        <f t="shared" si="131"/>
+        <f t="shared" si="135"/>
         <v>53.289999999999338</v>
       </c>
       <c r="F641">
-        <f t="shared" si="131"/>
+        <f t="shared" si="135"/>
         <v>2735.2899999999954</v>
       </c>
       <c r="G641">
-        <f t="shared" si="131"/>
+        <f t="shared" si="135"/>
         <v>5.2899999999997904</v>
       </c>
       <c r="H641">
-        <f t="shared" si="131"/>
+        <f t="shared" si="135"/>
         <v>691.68999999999755</v>
       </c>
       <c r="I641">
-        <f t="shared" si="131"/>
+        <f t="shared" si="135"/>
         <v>1466.8899999999965</v>
       </c>
       <c r="L641">
@@ -16288,23 +16788,23 @@
         <v>441</v>
       </c>
       <c r="M641" s="5">
-        <f t="shared" ref="M641:Q641" si="132">(M640-M639)*(M640-M639)</f>
+        <f t="shared" ref="M641:Q641" si="136">(M640-M639)*(M640-M639)</f>
         <v>4</v>
       </c>
       <c r="N641" s="5">
-        <f t="shared" si="132"/>
+        <f t="shared" si="136"/>
         <v>100</v>
       </c>
       <c r="O641" s="5">
-        <f t="shared" si="132"/>
+        <f t="shared" si="136"/>
         <v>144</v>
       </c>
       <c r="P641" s="5">
-        <f t="shared" si="132"/>
+        <f t="shared" si="136"/>
         <v>16</v>
       </c>
       <c r="Q641" s="5">
-        <f t="shared" si="132"/>
+        <f t="shared" si="136"/>
         <v>49</v>
       </c>
     </row>
@@ -16361,27 +16861,27 @@
         <v>7.1138185241239524</v>
       </c>
       <c r="C643">
-        <f t="shared" ref="C643:I643" si="133">C642/SQRT(7)</f>
+        <f t="shared" ref="C643:I643" si="137">C642/SQRT(7)</f>
         <v>7.1138185241239524</v>
       </c>
       <c r="E643">
-        <f t="shared" si="133"/>
+        <f t="shared" si="137"/>
         <v>7.1138185241239524</v>
       </c>
       <c r="F643">
-        <f t="shared" si="133"/>
+        <f t="shared" si="137"/>
         <v>7.1138185241239524</v>
       </c>
       <c r="G643">
-        <f t="shared" si="133"/>
+        <f t="shared" si="137"/>
         <v>7.1138185241239524</v>
       </c>
       <c r="H643">
-        <f t="shared" si="133"/>
+        <f t="shared" si="137"/>
         <v>7.1138185241239524</v>
       </c>
       <c r="I643">
-        <f t="shared" si="133"/>
+        <f t="shared" si="137"/>
         <v>7.1138185241239524</v>
       </c>
       <c r="L643">
@@ -16389,23 +16889,23 @@
         <v>4.5765100725819936</v>
       </c>
       <c r="M643" s="5">
-        <f t="shared" ref="M643:Q643" si="134">M642/SQRT(6)</f>
+        <f t="shared" ref="M643:Q643" si="138">M642/SQRT(6)</f>
         <v>4.5765100725819936</v>
       </c>
       <c r="N643" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="138"/>
         <v>4.5765100725819936</v>
       </c>
       <c r="O643" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="138"/>
         <v>4.5765100725819936</v>
       </c>
       <c r="P643" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="138"/>
         <v>4.5765100725819936</v>
       </c>
       <c r="Q643" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="138"/>
         <v>4.5765100725819936</v>
       </c>
     </row>
@@ -16443,10 +16943,10 @@
       <c r="L646">
         <v>131</v>
       </c>
+      <c r="M646">
+        <v>193</v>
+      </c>
       <c r="N646">
-        <v>193</v>
-      </c>
-      <c r="O646">
         <v>194</v>
       </c>
     </row>
@@ -16504,10 +17004,10 @@
       <c r="L648">
         <v>622</v>
       </c>
+      <c r="M648">
+        <v>588</v>
+      </c>
       <c r="N648">
-        <v>588</v>
-      </c>
-      <c r="O648">
         <v>569</v>
       </c>
     </row>
@@ -16535,13 +17035,19 @@
         <v>641.16666666666663</v>
       </c>
       <c r="J649">
-        <v>594.66666666666663</v>
+        <v>588.20000000000005</v>
       </c>
       <c r="K649">
-        <v>594.66666666666663</v>
+        <v>588.20000000000005</v>
       </c>
       <c r="L649">
-        <v>594.66666666666663</v>
+        <v>588.20000000000005</v>
+      </c>
+      <c r="M649">
+        <v>588.20000000000005</v>
+      </c>
+      <c r="N649">
+        <v>588.20000000000005</v>
       </c>
     </row>
     <row r="650" spans="1:17">
@@ -16553,36 +17059,44 @@
         <v>230.02777777777663</v>
       </c>
       <c r="D650">
-        <f t="shared" ref="D650:H650" si="135">(D649-D648)*(D649-D648)</f>
+        <f t="shared" ref="D650:H650" si="139">(D649-D648)*(D649-D648)</f>
         <v>38.027777777781516</v>
       </c>
       <c r="E650">
-        <f t="shared" si="135"/>
+        <f t="shared" si="139"/>
         <v>220.02777777777891</v>
       </c>
       <c r="F650">
-        <f t="shared" si="135"/>
+        <f t="shared" si="139"/>
         <v>84.027777777777089</v>
       </c>
       <c r="G650">
-        <f t="shared" si="135"/>
+        <f t="shared" si="139"/>
         <v>3.3611111111112502</v>
       </c>
       <c r="H650">
-        <f t="shared" si="135"/>
+        <f t="shared" si="139"/>
         <v>191.36111111111217</v>
       </c>
       <c r="J650">
         <f>(J649-J648)*(J649-J648)</f>
-        <v>160.44444444444349</v>
-      </c>
-      <c r="K650" s="5">
-        <f t="shared" ref="K650:L650" si="136">(K649-K648)*(K649-K648)</f>
-        <v>215.11111111111001</v>
-      </c>
-      <c r="L650" s="5">
-        <f t="shared" si="136"/>
-        <v>747.11111111111313</v>
+        <v>38.440000000000566</v>
+      </c>
+      <c r="K650" s="15">
+        <f t="shared" ref="K650:N650" si="140">(K649-K648)*(K649-K648)</f>
+        <v>67.240000000000748</v>
+      </c>
+      <c r="L650" s="15">
+        <f t="shared" si="140"/>
+        <v>1142.4399999999969</v>
+      </c>
+      <c r="M650" s="15">
+        <f t="shared" si="140"/>
+        <v>4.0000000000018188E-2</v>
+      </c>
+      <c r="N650" s="15">
+        <f t="shared" si="140"/>
+        <v>368.64000000000175</v>
       </c>
     </row>
     <row r="651" spans="1:17">
@@ -16607,14 +17121,20 @@
       <c r="H651">
         <v>11.305111921407779</v>
       </c>
-      <c r="J651" s="5">
-        <v>19.344824171395878</v>
-      </c>
-      <c r="K651" s="5">
-        <v>19.344824171395878</v>
+      <c r="J651" s="15">
+        <v>17.982213434391216</v>
+      </c>
+      <c r="K651" s="15">
+        <v>17.982213434391216</v>
       </c>
       <c r="L651">
-        <v>19.344824171395878</v>
+        <v>17.982213434391216</v>
+      </c>
+      <c r="M651">
+        <v>17.982213434391216</v>
+      </c>
+      <c r="N651">
+        <v>17.982213434391216</v>
       </c>
     </row>
     <row r="652" spans="1:17">
@@ -16626,36 +17146,44 @@
         <v>4.6152926154173635</v>
       </c>
       <c r="D652">
-        <f t="shared" ref="D652:H652" si="137">D651/SQRT(6)</f>
+        <f t="shared" ref="D652:H652" si="141">D651/SQRT(6)</f>
         <v>4.6152926154173635</v>
       </c>
       <c r="E652">
-        <f t="shared" si="137"/>
+        <f t="shared" si="141"/>
         <v>4.6152926154173635</v>
       </c>
       <c r="F652">
-        <f t="shared" si="137"/>
+        <f t="shared" si="141"/>
         <v>4.6152926154173635</v>
       </c>
       <c r="G652">
-        <f t="shared" si="137"/>
+        <f t="shared" si="141"/>
         <v>4.6152926154173635</v>
       </c>
       <c r="H652">
-        <f t="shared" si="137"/>
+        <f t="shared" si="141"/>
         <v>4.6152926154173635</v>
       </c>
       <c r="J652">
-        <f>J651/SQRT(3)</f>
-        <v>11.168739442781391</v>
-      </c>
-      <c r="K652" s="5">
-        <f t="shared" ref="K652:L652" si="138">K651/SQRT(3)</f>
-        <v>11.168739442781391</v>
-      </c>
-      <c r="L652" s="5">
-        <f t="shared" si="138"/>
-        <v>11.168739442781391</v>
+        <f>J651/SQRT(5)</f>
+        <v>8.0418903250417415</v>
+      </c>
+      <c r="K652" s="15">
+        <f t="shared" ref="K652:N652" si="142">K651/SQRT(5)</f>
+        <v>8.0418903250417415</v>
+      </c>
+      <c r="L652" s="15">
+        <f t="shared" si="142"/>
+        <v>8.0418903250417415</v>
+      </c>
+      <c r="M652" s="15">
+        <f t="shared" si="142"/>
+        <v>8.0418903250417415</v>
+      </c>
+      <c r="N652" s="15">
+        <f t="shared" si="142"/>
+        <v>8.0418903250417415</v>
       </c>
     </row>
     <row r="654" spans="1:17">
@@ -16689,10 +17217,10 @@
       <c r="K654">
         <v>86</v>
       </c>
+      <c r="L654">
+        <v>169</v>
+      </c>
       <c r="M654">
-        <v>169</v>
-      </c>
-      <c r="N654">
         <v>170</v>
       </c>
     </row>
@@ -16755,14 +17283,14 @@
       <c r="K656">
         <v>710</v>
       </c>
+      <c r="L656">
+        <v>738</v>
+      </c>
       <c r="M656">
-        <v>738</v>
-      </c>
-      <c r="N656">
         <v>711</v>
       </c>
     </row>
-    <row r="657" spans="1:11">
+    <row r="657" spans="1:13">
       <c r="A657" t="s">
         <v>114</v>
       </c>
@@ -16785,16 +17313,22 @@
         <v>1179.8333333333333</v>
       </c>
       <c r="I657">
-        <v>718.66666666666663</v>
+        <v>721</v>
       </c>
       <c r="J657">
-        <v>718.66666666666663</v>
+        <v>721</v>
       </c>
       <c r="K657">
-        <v>718.66666666666663</v>
-      </c>
-    </row>
-    <row r="658" spans="1:11">
+        <v>721</v>
+      </c>
+      <c r="L657">
+        <v>721</v>
+      </c>
+      <c r="M657">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="658" spans="1:13">
       <c r="A658" t="s">
         <v>115</v>
       </c>
@@ -16803,39 +17337,47 @@
         <v>1.3611111111112879</v>
       </c>
       <c r="C658">
-        <f t="shared" ref="C658:G658" si="139">(C656-C657)*(C656-C657)</f>
+        <f t="shared" ref="C658:G658" si="143">(C656-C657)*(C656-C657)</f>
         <v>51.361111111112194</v>
       </c>
       <c r="D658">
-        <f t="shared" si="139"/>
+        <f t="shared" si="143"/>
         <v>2040.0277777777846</v>
       </c>
       <c r="E658">
-        <f t="shared" si="139"/>
+        <f t="shared" si="143"/>
         <v>84.027777777779164</v>
       </c>
       <c r="F658">
-        <f t="shared" si="139"/>
+        <f t="shared" si="143"/>
         <v>103.36111111111265</v>
       </c>
       <c r="G658">
-        <f t="shared" si="139"/>
+        <f t="shared" si="143"/>
         <v>5304.6944444444334</v>
       </c>
       <c r="I658">
         <f>(I656-I657)*(I656-I657)</f>
-        <v>1.7777777777778789</v>
-      </c>
-      <c r="J658">
-        <f t="shared" ref="J658:K658" si="140">(J656-J657)*(J656-J657)</f>
-        <v>53.777777777778333</v>
-      </c>
-      <c r="K658">
-        <f t="shared" si="140"/>
-        <v>75.111111111110461</v>
-      </c>
-    </row>
-    <row r="659" spans="1:11">
+        <v>1</v>
+      </c>
+      <c r="J658" s="15">
+        <f t="shared" ref="J658:M658" si="144">(J656-J657)*(J656-J657)</f>
+        <v>25</v>
+      </c>
+      <c r="K658" s="15">
+        <f t="shared" si="144"/>
+        <v>121</v>
+      </c>
+      <c r="L658" s="15">
+        <f t="shared" si="144"/>
+        <v>289</v>
+      </c>
+      <c r="M658" s="15">
+        <f t="shared" si="144"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="659" spans="1:13">
       <c r="A659" t="s">
         <v>116</v>
       </c>
@@ -16857,17 +17399,23 @@
       <c r="G659">
         <v>35.55473089321432</v>
       </c>
-      <c r="I659">
-        <v>6.5996632910744442</v>
-      </c>
-      <c r="J659">
-        <v>6.5996632910744442</v>
+      <c r="I659" s="15">
+        <v>10.353743284435827</v>
+      </c>
+      <c r="J659" s="15">
+        <v>10.353743284435827</v>
       </c>
       <c r="K659">
-        <v>6.5996632910744442</v>
-      </c>
-    </row>
-    <row r="660" spans="1:11">
+        <v>10.353743284435827</v>
+      </c>
+      <c r="L659">
+        <v>10.353743284435827</v>
+      </c>
+      <c r="M659">
+        <v>10.353743284435827</v>
+      </c>
+    </row>
+    <row r="660" spans="1:13">
       <c r="A660" t="s">
         <v>117</v>
       </c>
@@ -16876,39 +17424,47 @@
         <v>14.515158105057445</v>
       </c>
       <c r="C660">
-        <f t="shared" ref="C660:G660" si="141">C659/SQRT(6)</f>
+        <f t="shared" ref="C660:G660" si="145">C659/SQRT(6)</f>
         <v>14.515158105057445</v>
       </c>
       <c r="D660">
-        <f t="shared" si="141"/>
+        <f t="shared" si="145"/>
         <v>14.515158105057445</v>
       </c>
       <c r="E660">
-        <f t="shared" si="141"/>
+        <f t="shared" si="145"/>
         <v>14.515158105057445</v>
       </c>
       <c r="F660">
-        <f t="shared" si="141"/>
+        <f t="shared" si="145"/>
         <v>14.515158105057445</v>
       </c>
       <c r="G660">
-        <f t="shared" si="141"/>
+        <f t="shared" si="145"/>
         <v>14.515158105057445</v>
       </c>
       <c r="I660">
-        <f>I659/SQRT(3)</f>
-        <v>3.8103173776627219</v>
-      </c>
-      <c r="J660">
-        <f t="shared" ref="J660:K660" si="142">J659/SQRT(3)</f>
-        <v>3.8103173776627219</v>
-      </c>
-      <c r="K660">
-        <f t="shared" si="142"/>
-        <v>3.8103173776627219</v>
-      </c>
-    </row>
-    <row r="662" spans="1:11">
+        <f>I659/SQRT(5)</f>
+        <v>4.6303347611160897</v>
+      </c>
+      <c r="J660" s="15">
+        <f t="shared" ref="J660:M660" si="146">J659/SQRT(5)</f>
+        <v>4.6303347611160897</v>
+      </c>
+      <c r="K660" s="15">
+        <f t="shared" si="146"/>
+        <v>4.6303347611160897</v>
+      </c>
+      <c r="L660" s="15">
+        <f t="shared" si="146"/>
+        <v>4.6303347611160897</v>
+      </c>
+      <c r="M660" s="15">
+        <f t="shared" si="146"/>
+        <v>4.6303347611160897</v>
+      </c>
+    </row>
+    <row r="662" spans="1:13">
       <c r="A662" t="s">
         <v>162</v>
       </c>
@@ -16919,7 +17475,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="664" spans="1:11">
+    <row r="664" spans="1:13">
       <c r="A664" t="s">
         <v>163</v>
       </c>
@@ -16943,7 +17499,7 @@
       </c>
       <c r="H664" s="5"/>
     </row>
-    <row r="665" spans="1:11">
+    <row r="665" spans="1:13">
       <c r="A665" t="s">
         <v>53</v>
       </c>
@@ -16967,7 +17523,7 @@
       </c>
       <c r="H665" s="5"/>
     </row>
-    <row r="666" spans="1:11">
+    <row r="666" spans="1:13">
       <c r="A666" t="s">
         <v>22</v>
       </c>
@@ -16991,7 +17547,7 @@
       </c>
       <c r="H666" s="5"/>
     </row>
-    <row r="667" spans="1:11">
+    <row r="667" spans="1:13">
       <c r="A667" t="s">
         <v>171</v>
       </c>
@@ -17015,7 +17571,7 @@
       </c>
       <c r="H667" s="5"/>
     </row>
-    <row r="668" spans="1:11">
+    <row r="668" spans="1:13">
       <c r="A668" t="s">
         <v>85</v>
       </c>
@@ -17024,28 +17580,28 @@
         <v>0</v>
       </c>
       <c r="C668">
-        <f t="shared" ref="C668:G668" si="143">(C666-C667)*(C666-C667)</f>
+        <f t="shared" ref="C668:G668" si="147">(C666-C667)*(C666-C667)</f>
         <v>25</v>
       </c>
       <c r="D668">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>16</v>
       </c>
       <c r="E668">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>1</v>
       </c>
       <c r="F668">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>169</v>
       </c>
       <c r="G668">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>1024</v>
       </c>
       <c r="H668" s="5"/>
     </row>
-    <row r="669" spans="1:11">
+    <row r="669" spans="1:13">
       <c r="A669" t="s">
         <v>28</v>
       </c>
@@ -17069,7 +17625,7 @@
       </c>
       <c r="H669" s="5"/>
     </row>
-    <row r="670" spans="1:11">
+    <row r="670" spans="1:13">
       <c r="A670" t="s">
         <v>173</v>
       </c>
@@ -17078,23 +17634,23 @@
         <v>5.576920370269467</v>
       </c>
       <c r="C670">
-        <f t="shared" ref="C670:G670" si="144">C669/SQRT(7)</f>
+        <f t="shared" ref="C670:G670" si="148">C669/SQRT(7)</f>
         <v>5.576920370269467</v>
       </c>
       <c r="D670">
-        <f t="shared" si="144"/>
+        <f t="shared" si="148"/>
         <v>5.576920370269467</v>
       </c>
       <c r="E670">
-        <f t="shared" si="144"/>
+        <f t="shared" si="148"/>
         <v>5.576920370269467</v>
       </c>
       <c r="F670">
-        <f t="shared" si="144"/>
+        <f t="shared" si="148"/>
         <v>5.576920370269467</v>
       </c>
       <c r="G670">
-        <f t="shared" si="144"/>
+        <f t="shared" si="148"/>
         <v>5.576920370269467</v>
       </c>
       <c r="H670" s="5"/>
@@ -17225,31 +17781,31 @@
         <v>395.015625</v>
       </c>
       <c r="C677">
-        <f t="shared" ref="C677" si="145">(C675-C676)*(C675-C676)</f>
+        <f t="shared" ref="C677" si="149">(C675-C676)*(C675-C676)</f>
         <v>47.265625</v>
       </c>
       <c r="D677">
-        <f t="shared" ref="D677:I677" si="146">(D675-D676)*(D675-D676)</f>
+        <f t="shared" ref="D677:I677" si="150">(D675-D676)*(D675-D676)</f>
         <v>228.765625</v>
       </c>
       <c r="E677">
-        <f t="shared" si="146"/>
+        <f t="shared" si="150"/>
         <v>83.265625</v>
       </c>
       <c r="F677">
-        <f t="shared" si="146"/>
+        <f t="shared" si="150"/>
         <v>907.515625</v>
       </c>
       <c r="G677">
-        <f t="shared" si="146"/>
+        <f t="shared" si="150"/>
         <v>435.765625</v>
       </c>
       <c r="H677">
-        <f t="shared" si="146"/>
+        <f t="shared" si="150"/>
         <v>892.515625</v>
       </c>
       <c r="I677">
-        <f t="shared" si="146"/>
+        <f t="shared" si="150"/>
         <v>534.765625</v>
       </c>
     </row>
@@ -17291,31 +17847,31 @@
         <v>6.9968991147666424</v>
       </c>
       <c r="C679">
-        <f t="shared" ref="C679" si="147">C678/3</f>
+        <f t="shared" ref="C679" si="151">C678/3</f>
         <v>6.9968991147666424</v>
       </c>
       <c r="D679">
-        <f t="shared" ref="D679:I679" si="148">D678/3</f>
+        <f t="shared" ref="D679:I679" si="152">D678/3</f>
         <v>6.9968991147666424</v>
       </c>
       <c r="E679">
-        <f t="shared" si="148"/>
+        <f t="shared" si="152"/>
         <v>6.9968991147666424</v>
       </c>
       <c r="F679">
-        <f t="shared" si="148"/>
+        <f t="shared" si="152"/>
         <v>6.9968991147666424</v>
       </c>
       <c r="G679">
-        <f t="shared" si="148"/>
+        <f t="shared" si="152"/>
         <v>6.9968991147666424</v>
       </c>
       <c r="H679">
-        <f t="shared" si="148"/>
+        <f t="shared" si="152"/>
         <v>6.9968991147666424</v>
       </c>
       <c r="I679">
-        <f t="shared" si="148"/>
+        <f t="shared" si="152"/>
         <v>6.9968991147666424</v>
       </c>
     </row>
@@ -17466,27 +18022,27 @@
         <v>4980.326530612243</v>
       </c>
       <c r="C685">
-        <f t="shared" ref="C685:H685" si="149">(C683-C684)*(C683-C684)</f>
+        <f t="shared" ref="C685:H685" si="153">(C683-C684)*(C683-C684)</f>
         <v>31.040816326530432</v>
       </c>
       <c r="D685">
-        <f t="shared" si="149"/>
+        <f t="shared" si="153"/>
         <v>88.897959183673777</v>
       </c>
       <c r="E685">
-        <f t="shared" si="149"/>
+        <f t="shared" si="153"/>
         <v>41.326530612245108</v>
       </c>
       <c r="F685">
-        <f t="shared" si="149"/>
+        <f t="shared" si="153"/>
         <v>108.75510204081667</v>
       </c>
       <c r="G685">
-        <f t="shared" si="149"/>
+        <f t="shared" si="153"/>
         <v>133.89795918367309</v>
       </c>
       <c r="H685">
-        <f t="shared" si="149"/>
+        <f t="shared" si="153"/>
         <v>3773.469387755104</v>
       </c>
       <c r="J685">
@@ -17494,11 +18050,11 @@
         <v>32.111111111110681</v>
       </c>
       <c r="K685">
-        <f t="shared" ref="K685:L685" si="150">(K683-K684)*(K683-K684)</f>
+        <f t="shared" ref="K685:L685" si="154">(K683-K684)*(K683-K684)</f>
         <v>53.777777777778333</v>
       </c>
       <c r="L685">
-        <f t="shared" si="150"/>
+        <f t="shared" si="154"/>
         <v>2.7777777777776516</v>
       </c>
     </row>
@@ -17546,27 +18102,27 @@
         <v>10.081632653061222</v>
       </c>
       <c r="C687">
-        <f t="shared" ref="C687:H687" si="151">C686/SQRT(7)</f>
+        <f t="shared" ref="C687:H687" si="155">C686/SQRT(7)</f>
         <v>10.081632653061222</v>
       </c>
       <c r="D687">
-        <f t="shared" si="151"/>
+        <f t="shared" si="155"/>
         <v>10.081632653061222</v>
       </c>
       <c r="E687">
-        <f t="shared" si="151"/>
+        <f t="shared" si="155"/>
         <v>10.081632653061222</v>
       </c>
       <c r="F687">
-        <f t="shared" si="151"/>
+        <f t="shared" si="155"/>
         <v>10.081632653061222</v>
       </c>
       <c r="G687">
-        <f t="shared" si="151"/>
+        <f t="shared" si="155"/>
         <v>10.081632653061222</v>
       </c>
       <c r="H687">
-        <f t="shared" si="151"/>
+        <f t="shared" si="155"/>
         <v>10.081632653061222</v>
       </c>
       <c r="J687">
@@ -17574,11 +18130,11 @@
         <v>3.1387659759612303</v>
       </c>
       <c r="K687">
-        <f t="shared" ref="K687:L687" si="152">K686/SQRT(3)</f>
+        <f t="shared" ref="K687:L687" si="156">K686/SQRT(3)</f>
         <v>3.1387659759612303</v>
       </c>
       <c r="L687">
-        <f t="shared" si="152"/>
+        <f t="shared" si="156"/>
         <v>3.1387659759612303</v>
       </c>
     </row>
@@ -17670,15 +18226,15 @@
         <v>16</v>
       </c>
       <c r="C698">
-        <f t="shared" ref="C698:E698" si="153">(C696-C697)*(C696-C697)</f>
+        <f t="shared" ref="C698:E698" si="157">(C696-C697)*(C696-C697)</f>
         <v>16</v>
       </c>
       <c r="D698">
-        <f t="shared" si="153"/>
+        <f t="shared" si="157"/>
         <v>16</v>
       </c>
       <c r="E698">
-        <f t="shared" si="153"/>
+        <f t="shared" si="157"/>
         <v>16</v>
       </c>
     </row>
@@ -17708,15 +18264,15 @@
         <v>2</v>
       </c>
       <c r="C700">
-        <f t="shared" ref="C700:E700" si="154">C699/SQRT(4)</f>
+        <f t="shared" ref="C700:E700" si="158">C699/SQRT(4)</f>
         <v>2</v>
       </c>
       <c r="D700">
-        <f t="shared" si="154"/>
+        <f t="shared" si="158"/>
         <v>2</v>
       </c>
       <c r="E700">
-        <f t="shared" si="154"/>
+        <f t="shared" si="158"/>
         <v>2</v>
       </c>
     </row>
@@ -17785,11 +18341,11 @@
         <v>169</v>
       </c>
       <c r="C707">
-        <f t="shared" ref="C707:D707" si="155">(C705-C706)*(C705-C706)</f>
+        <f t="shared" ref="C707:D707" si="159">(C705-C706)*(C705-C706)</f>
         <v>49</v>
       </c>
       <c r="D707">
-        <f t="shared" si="155"/>
+        <f t="shared" si="159"/>
         <v>400</v>
       </c>
     </row>
@@ -17802,11 +18358,11 @@
         <v>14.352700094407323</v>
       </c>
       <c r="C708">
-        <f t="shared" ref="C708:D708" si="156">SQRT(206)</f>
+        <f t="shared" ref="C708:D708" si="160">SQRT(206)</f>
         <v>14.352700094407323</v>
       </c>
       <c r="D708">
-        <f t="shared" si="156"/>
+        <f t="shared" si="160"/>
         <v>14.352700094407323</v>
       </c>
     </row>
@@ -17819,11 +18375,11 @@
         <v>8.2865352631040352</v>
       </c>
       <c r="C709">
-        <f t="shared" ref="C709:D709" si="157">C708/SQRT(3)</f>
+        <f t="shared" ref="C709:D709" si="161">C708/SQRT(3)</f>
         <v>8.2865352631040352</v>
       </c>
       <c r="D709">
-        <f t="shared" si="157"/>
+        <f t="shared" si="161"/>
         <v>8.2865352631040352</v>
       </c>
     </row>
@@ -17886,11 +18442,11 @@
         <v>498.77777777777948</v>
       </c>
       <c r="C715">
-        <f t="shared" ref="C715:D715" si="158">(C713-C714)*(C713-C714)</f>
+        <f t="shared" ref="C715:D715" si="162">(C713-C714)*(C713-C714)</f>
         <v>2085.4444444444412</v>
       </c>
       <c r="D715">
-        <f t="shared" si="158"/>
+        <f t="shared" si="162"/>
         <v>544.44444444444616</v>
       </c>
     </row>
@@ -17917,11 +18473,11 @@
         <v>18.644828495581013</v>
       </c>
       <c r="C717">
-        <f t="shared" ref="C717:D717" si="159">C716/SQRT(3)</f>
+        <f t="shared" ref="C717:D717" si="163">C716/SQRT(3)</f>
         <v>18.644828495581013</v>
       </c>
       <c r="D717">
-        <f t="shared" si="159"/>
+        <f t="shared" si="163"/>
         <v>18.644828495581013</v>
       </c>
     </row>
@@ -18013,15 +18569,15 @@
         <v>10.5625</v>
       </c>
       <c r="C726">
-        <f t="shared" ref="C726:E726" si="160">(C724-C725)*(C724-C725)</f>
+        <f t="shared" ref="C726:E726" si="164">(C724-C725)*(C724-C725)</f>
         <v>248.0625</v>
       </c>
       <c r="D726">
-        <f t="shared" si="160"/>
+        <f t="shared" si="164"/>
         <v>27.5625</v>
       </c>
       <c r="E726">
-        <f t="shared" si="160"/>
+        <f t="shared" si="164"/>
         <v>52.5625</v>
       </c>
     </row>
@@ -18051,15 +18607,15 @@
         <v>4.6012905798264905</v>
       </c>
       <c r="C728">
-        <f t="shared" ref="C728:E728" si="161">C727/SQRT(4)</f>
+        <f t="shared" ref="C728:E728" si="165">C727/SQRT(4)</f>
         <v>4.6012905798264905</v>
       </c>
       <c r="D728">
-        <f t="shared" si="161"/>
+        <f t="shared" si="165"/>
         <v>4.6012905798264905</v>
       </c>
       <c r="E728">
-        <f t="shared" si="161"/>
+        <f t="shared" si="165"/>
         <v>4.6012905798264905</v>
       </c>
     </row>
@@ -18149,19 +18705,19 @@
         <v>353.43999999999829</v>
       </c>
       <c r="C735" s="5">
-        <f t="shared" ref="C735:F735" si="162">(C733-C734)*(C733-C734)</f>
+        <f t="shared" ref="C735:F735" si="166">(C733-C734)*(C733-C734)</f>
         <v>249.63999999999857</v>
       </c>
       <c r="D735" s="5">
-        <f t="shared" si="162"/>
+        <f t="shared" si="166"/>
         <v>46.239999999999384</v>
       </c>
       <c r="E735" s="5">
-        <f t="shared" si="162"/>
+        <f t="shared" si="166"/>
         <v>33.639999999999475</v>
       </c>
       <c r="F735" s="5">
-        <f t="shared" si="162"/>
+        <f t="shared" si="166"/>
         <v>2227.8400000000042</v>
       </c>
     </row>
@@ -18194,19 +18750,19 @@
         <v>10.790366073493521</v>
       </c>
       <c r="C737" s="5">
-        <f t="shared" ref="C737:F737" si="163">C736/SQRT(5)</f>
+        <f t="shared" ref="C737:F737" si="167">C736/SQRT(5)</f>
         <v>10.790366073493521</v>
       </c>
       <c r="D737" s="5">
-        <f t="shared" si="163"/>
+        <f t="shared" si="167"/>
         <v>10.790366073493521</v>
       </c>
       <c r="E737" s="5">
-        <f t="shared" si="163"/>
+        <f t="shared" si="167"/>
         <v>10.790366073493521</v>
       </c>
       <c r="F737" s="5">
-        <f t="shared" si="163"/>
+        <f t="shared" si="167"/>
         <v>10.790366073493521</v>
       </c>
     </row>
@@ -18288,19 +18844,19 @@
         <v>484</v>
       </c>
       <c r="C743">
-        <f t="shared" ref="C743:F743" si="164">(C741-C742)*(C741-C742)</f>
+        <f t="shared" ref="C743:F743" si="168">(C741-C742)*(C741-C742)</f>
         <v>169</v>
       </c>
       <c r="D743">
-        <f t="shared" si="164"/>
+        <f t="shared" si="168"/>
         <v>11236</v>
       </c>
       <c r="E743">
-        <f t="shared" si="164"/>
+        <f t="shared" si="168"/>
         <v>1296</v>
       </c>
       <c r="F743">
-        <f t="shared" si="164"/>
+        <f t="shared" si="168"/>
         <v>1225</v>
       </c>
     </row>
@@ -18333,19 +18889,19 @@
         <v>24.008331887076199</v>
       </c>
       <c r="C745">
-        <f t="shared" ref="C745:F745" si="165">C744/SQRT(5)</f>
+        <f t="shared" ref="C745:F745" si="169">C744/SQRT(5)</f>
         <v>24.008331887076199</v>
       </c>
       <c r="D745">
-        <f t="shared" si="165"/>
+        <f t="shared" si="169"/>
         <v>24.008331887076199</v>
       </c>
       <c r="E745">
-        <f t="shared" si="165"/>
+        <f t="shared" si="169"/>
         <v>24.008331887076199</v>
       </c>
       <c r="F745">
-        <f t="shared" si="165"/>
+        <f t="shared" si="169"/>
         <v>24.008331887076199</v>
       </c>
     </row>
@@ -18439,15 +18995,15 @@
         <v>7744</v>
       </c>
       <c r="C754">
-        <f t="shared" ref="C754:E754" si="166">(C752-C753)*(C752-C753)</f>
+        <f t="shared" ref="C754:E754" si="170">(C752-C753)*(C752-C753)</f>
         <v>1089</v>
       </c>
       <c r="D754">
-        <f t="shared" si="166"/>
+        <f t="shared" si="170"/>
         <v>0</v>
       </c>
       <c r="E754">
-        <f t="shared" si="166"/>
+        <f t="shared" si="170"/>
         <v>3025</v>
       </c>
     </row>
@@ -18477,15 +19033,15 @@
         <v>27.223611075682079</v>
       </c>
       <c r="C756">
-        <f t="shared" ref="C756:E756" si="167">C755/SQRT(4)</f>
+        <f t="shared" ref="C756:E756" si="171">C755/SQRT(4)</f>
         <v>27.223611075682079</v>
       </c>
       <c r="D756">
-        <f t="shared" si="167"/>
+        <f t="shared" si="171"/>
         <v>27.223611075682079</v>
       </c>
       <c r="E756">
-        <f t="shared" si="167"/>
+        <f t="shared" si="171"/>
         <v>27.223611075682079</v>
       </c>
     </row>
@@ -18566,15 +19122,15 @@
         <v>12.25</v>
       </c>
       <c r="C763">
-        <f t="shared" ref="C763:E763" si="168">(C761-C762)*(C761-C762)</f>
+        <f t="shared" ref="C763:E763" si="172">(C761-C762)*(C761-C762)</f>
         <v>182.25</v>
       </c>
       <c r="D763">
-        <f t="shared" si="168"/>
+        <f t="shared" si="172"/>
         <v>0.25</v>
       </c>
       <c r="E763">
-        <f t="shared" si="168"/>
+        <f t="shared" si="172"/>
         <v>90.25</v>
       </c>
     </row>
@@ -18604,15 +19160,15 @@
         <v>4.2204857540335334</v>
       </c>
       <c r="C765">
-        <f t="shared" ref="C765:E765" si="169">C764/SQRT(4)</f>
+        <f t="shared" ref="C765:E765" si="173">C764/SQRT(4)</f>
         <v>4.2204857540335334</v>
       </c>
       <c r="D765">
-        <f t="shared" si="169"/>
+        <f t="shared" si="173"/>
         <v>4.2204857540335334</v>
       </c>
       <c r="E765">
-        <f t="shared" si="169"/>
+        <f t="shared" si="173"/>
         <v>4.2204857540335334</v>
       </c>
     </row>
@@ -18714,11 +19270,11 @@
         <v>576</v>
       </c>
       <c r="C771">
-        <f t="shared" ref="C771:D771" si="170">(C769-C770)*(C769-C770)</f>
+        <f t="shared" ref="C771:D771" si="174">(C769-C770)*(C769-C770)</f>
         <v>324</v>
       </c>
       <c r="D771">
-        <f t="shared" si="170"/>
+        <f t="shared" si="174"/>
         <v>36</v>
       </c>
       <c r="F771">
@@ -18726,15 +19282,15 @@
         <v>20.25</v>
       </c>
       <c r="G771">
-        <f t="shared" ref="G771:I771" si="171">(G770-G769)*(G770-G769)</f>
+        <f t="shared" ref="G771:I771" si="175">(G770-G769)*(G770-G769)</f>
         <v>930.25</v>
       </c>
       <c r="H771">
-        <f t="shared" si="171"/>
+        <f t="shared" si="175"/>
         <v>650.25</v>
       </c>
       <c r="I771">
-        <f t="shared" si="171"/>
+        <f t="shared" si="175"/>
         <v>90.25</v>
       </c>
     </row>
@@ -18773,11 +19329,11 @@
         <v>10.198039027185571</v>
       </c>
       <c r="C773">
-        <f t="shared" ref="C773:D773" si="172">C772/SQRT(3)</f>
+        <f t="shared" ref="C773:D773" si="176">C772/SQRT(3)</f>
         <v>10.198039027185571</v>
       </c>
       <c r="D773">
-        <f t="shared" si="172"/>
+        <f t="shared" si="176"/>
         <v>10.198039027185571</v>
       </c>
       <c r="F773">
@@ -18785,15 +19341,15 @@
         <v>10.280442597476044</v>
       </c>
       <c r="G773">
-        <f t="shared" ref="G773:I773" si="173">G772/SQRT(4)</f>
+        <f t="shared" ref="G773:I773" si="177">G772/SQRT(4)</f>
         <v>10.280442597476044</v>
       </c>
       <c r="H773">
-        <f t="shared" si="173"/>
+        <f t="shared" si="177"/>
         <v>10.280442597476044</v>
       </c>
       <c r="I773">
-        <f t="shared" si="173"/>
+        <f t="shared" si="177"/>
         <v>10.280442597476044</v>
       </c>
     </row>

--- a/papers/async-re/data/raw_data.xlsx
+++ b/papers/async-re/data/raw_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20515"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="260" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -826,7 +826,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="653">
+  <cellStyleXfs count="707">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1480,8 +1480,62 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1499,8 +1553,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="653">
+  <cellStyles count="707">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1827,6 +1883,33 @@
     <cellStyle name="Followed Hyperlink" xfId="648" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="650" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="652" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="654" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="656" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="658" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="660" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="662" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="664" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="666" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="668" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="670" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="672" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="674" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="676" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="678" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="680" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="682" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="684" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="686" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="688" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="690" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="692" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="694" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="696" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="698" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="700" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="702" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="704" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="706" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2153,6 +2236,33 @@
     <cellStyle name="Hyperlink" xfId="647" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="649" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="651" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="653" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="655" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="657" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="659" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="661" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="663" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="665" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="667" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="669" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="671" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="673" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="675" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="677" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="679" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="681" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="683" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="685" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="687" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="689" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="691" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="693" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="695" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="697" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="699" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="701" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="703" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="705" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2307,11 +2417,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="463658584"/>
-        <c:axId val="465217704"/>
+        <c:axId val="535453960"/>
+        <c:axId val="424684840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="463658584"/>
+        <c:axId val="535453960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2339,7 +2449,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="465217704"/>
+        <c:crossAx val="424684840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2347,7 +2457,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="465217704"/>
+        <c:axId val="424684840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2377,7 +2487,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="463658584"/>
+        <c:crossAx val="535453960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2505,11 +2615,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="464573960"/>
-        <c:axId val="464579512"/>
+        <c:axId val="426358440"/>
+        <c:axId val="433744328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="464573960"/>
+        <c:axId val="426358440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2537,7 +2647,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="464579512"/>
+        <c:crossAx val="433744328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2545,7 +2655,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="464579512"/>
+        <c:axId val="433744328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2575,7 +2685,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="464573960"/>
+        <c:crossAx val="426358440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2793,11 +2903,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="463921304"/>
-        <c:axId val="463926824"/>
+        <c:axId val="426448520"/>
+        <c:axId val="529460792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="463921304"/>
+        <c:axId val="426448520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2825,7 +2935,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="463926824"/>
+        <c:crossAx val="529460792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2833,7 +2943,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="463926824"/>
+        <c:axId val="529460792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2863,7 +2973,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="463921304"/>
+        <c:crossAx val="426448520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3004,11 +3114,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="463654616"/>
-        <c:axId val="525526568"/>
+        <c:axId val="427080376"/>
+        <c:axId val="529611528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="463654616"/>
+        <c:axId val="427080376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3017,7 +3127,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="525526568"/>
+        <c:crossAx val="529611528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3025,7 +3135,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="525526568"/>
+        <c:axId val="529611528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3055,7 +3165,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="463654616"/>
+        <c:crossAx val="427080376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3202,11 +3312,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="527143288"/>
-        <c:axId val="527153176"/>
+        <c:axId val="528331544"/>
+        <c:axId val="535584312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="527143288"/>
+        <c:axId val="528331544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3234,7 +3344,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="527153176"/>
+        <c:crossAx val="535584312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3242,7 +3352,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="527153176"/>
+        <c:axId val="535584312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3272,7 +3382,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="527143288"/>
+        <c:crossAx val="528331544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3424,11 +3534,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="465104024"/>
-        <c:axId val="465109512"/>
+        <c:axId val="424787320"/>
+        <c:axId val="426408136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="465104024"/>
+        <c:axId val="424787320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3456,7 +3566,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="465109512"/>
+        <c:crossAx val="426408136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3464,7 +3574,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="465109512"/>
+        <c:axId val="426408136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3494,7 +3604,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="465104024"/>
+        <c:crossAx val="424787320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3996,11 +4106,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="465027576"/>
-        <c:axId val="465157208"/>
+        <c:axId val="528153096"/>
+        <c:axId val="531489032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="465027576"/>
+        <c:axId val="528153096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4009,7 +4119,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="465157208"/>
+        <c:crossAx val="531489032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4017,7 +4127,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="465157208"/>
+        <c:axId val="531489032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4046,7 +4156,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="465027576"/>
+        <c:crossAx val="528153096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4258,11 +4368,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="465386360"/>
-        <c:axId val="465400056"/>
+        <c:axId val="529972264"/>
+        <c:axId val="411151848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="465386360"/>
+        <c:axId val="529972264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4271,7 +4381,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="465400056"/>
+        <c:crossAx val="411151848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4279,7 +4389,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="465400056"/>
+        <c:axId val="411151848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4309,7 +4419,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="465386360"/>
+        <c:crossAx val="529972264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4551,11 +4661,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="524636392"/>
-        <c:axId val="524642376"/>
+        <c:axId val="529617320"/>
+        <c:axId val="529797272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="524636392"/>
+        <c:axId val="529617320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4583,7 +4693,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="524642376"/>
+        <c:crossAx val="529797272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4591,7 +4701,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="524642376"/>
+        <c:axId val="529797272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4621,7 +4731,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="524636392"/>
+        <c:crossAx val="529617320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5338,8 +5448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z814"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A544" workbookViewId="0">
-      <selection activeCell="G628" sqref="G628"/>
+    <sheetView tabSelected="1" topLeftCell="A462" workbookViewId="0">
+      <selection activeCell="J466" sqref="J466"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -11276,10 +11386,10 @@
       <c r="E414" s="6"/>
     </row>
     <row r="415" spans="1:5">
-      <c r="A415" s="16" t="s">
+      <c r="A415" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B415" s="16"/>
+      <c r="B415" s="18"/>
       <c r="D415" s="6"/>
       <c r="E415" s="6"/>
     </row>
@@ -11406,10 +11516,10 @@
       </c>
     </row>
     <row r="425" spans="1:14">
-      <c r="A425" s="16" t="s">
+      <c r="A425" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B425" s="16"/>
+      <c r="B425" s="18"/>
     </row>
     <row r="426" spans="1:14">
       <c r="A426" t="s">
@@ -11692,10 +11802,10 @@
       </c>
     </row>
     <row r="435" spans="1:14">
-      <c r="A435" s="16" t="s">
+      <c r="A435" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B435" s="16"/>
+      <c r="B435" s="18"/>
     </row>
     <row r="436" spans="1:14">
       <c r="A436" t="s">
@@ -12916,34 +13026,34 @@
       </c>
     </row>
     <row r="485" spans="1:14">
-      <c r="A485" s="16" t="s">
+      <c r="A485" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B485" s="16"/>
+      <c r="B485" s="18"/>
     </row>
     <row r="486" spans="1:14">
       <c r="A486" s="8" t="s">
         <v>184</v>
       </c>
       <c r="B486" s="8">
-        <f>12*60+36-49</f>
-        <v>707</v>
+        <f>12*60+36</f>
+        <v>756</v>
       </c>
       <c r="C486">
-        <f>13*60+16-49</f>
-        <v>747</v>
+        <f>13*60+16</f>
+        <v>796</v>
       </c>
       <c r="D486">
-        <f>13*60+17-49</f>
-        <v>748</v>
+        <f>13*60+17</f>
+        <v>797</v>
       </c>
       <c r="E486">
-        <f>13*60+10-49</f>
-        <v>741</v>
+        <f>13*60+10</f>
+        <v>790</v>
       </c>
       <c r="F486">
-        <f>14*60+50-49</f>
-        <v>841</v>
+        <f>14*60+50</f>
+        <v>890</v>
       </c>
       <c r="J486">
         <v>614</v>
@@ -13002,23 +13112,23 @@
       </c>
       <c r="B488" s="8">
         <f>(B487-B486)*(B487-B486)</f>
-        <v>2480.0399999999954</v>
+        <v>0.63999999999992729</v>
       </c>
       <c r="C488" s="9">
         <f t="shared" ref="C488:F488" si="79">(C487-C486)*(C487-C486)</f>
-        <v>96.039999999999111</v>
+        <v>1536.6400000000035</v>
       </c>
       <c r="D488" s="9">
         <f t="shared" si="79"/>
-        <v>77.439999999999202</v>
+        <v>1616.0400000000036</v>
       </c>
       <c r="E488" s="9">
         <f t="shared" si="79"/>
-        <v>249.63999999999857</v>
+        <v>1102.240000000003</v>
       </c>
       <c r="F488" s="9">
         <f t="shared" si="79"/>
-        <v>7089.6400000000076</v>
+        <v>17742.240000000013</v>
       </c>
       <c r="J488" s="11">
         <f t="shared" ref="J488:N488" si="80">(J487-J486)*(J487-J486)</f>
@@ -13173,33 +13283,33 @@
       </c>
     </row>
     <row r="495" spans="1:14" s="7" customFormat="1">
-      <c r="A495" s="16" t="s">
+      <c r="A495" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B495" s="16"/>
+      <c r="B495" s="18"/>
     </row>
     <row r="496" spans="1:14" s="7" customFormat="1">
       <c r="A496" s="8" t="s">
         <v>184</v>
       </c>
       <c r="B496" s="8">
-        <f>16*60+1-105</f>
-        <v>856</v>
+        <f>16*60+1</f>
+        <v>961</v>
       </c>
       <c r="C496" s="7">
-        <f>18*60+21-105</f>
-        <v>996</v>
+        <f>18*60+21</f>
+        <v>1101</v>
       </c>
       <c r="D496" s="7">
-        <f>17*60+4-105</f>
-        <v>919</v>
+        <f>17*60+4</f>
+        <v>1024</v>
       </c>
       <c r="E496" s="7">
         <v>918</v>
       </c>
       <c r="F496" s="7">
-        <f>16*60+38-105</f>
-        <v>893</v>
+        <f>16*60+38</f>
+        <v>998</v>
       </c>
       <c r="J496" s="7">
         <v>663</v>
@@ -13258,15 +13368,15 @@
       </c>
       <c r="B498" s="8">
         <f>(B497-B496)*(B497-B496)</f>
-        <v>3648.1599999999971</v>
+        <v>1989.1600000000021</v>
       </c>
       <c r="C498" s="9">
         <f t="shared" ref="C498:F498" si="83">(C497-C496)*(C497-C496)</f>
-        <v>6336.1600000000035</v>
+        <v>34077.160000000011</v>
       </c>
       <c r="D498" s="9">
         <f t="shared" si="83"/>
-        <v>6.7600000000001179</v>
+        <v>11577.760000000006</v>
       </c>
       <c r="E498" s="9">
         <f t="shared" si="83"/>
@@ -13274,7 +13384,7 @@
       </c>
       <c r="F498" s="9">
         <f t="shared" si="83"/>
-        <v>547.55999999999892</v>
+        <v>6658.560000000004</v>
       </c>
       <c r="J498" s="12">
         <f t="shared" ref="J498:N498" si="84">(J497-J496)*(J497-J496)</f>
@@ -13620,7 +13730,7 @@
     </row>
     <row r="511" spans="1:14" s="7" customFormat="1"/>
     <row r="512" spans="1:14" s="7" customFormat="1"/>
-    <row r="513" spans="1:14" s="8" customFormat="1">
+    <row r="513" spans="1:22" s="8" customFormat="1">
       <c r="A513" s="8" t="s">
         <v>186</v>
       </c>
@@ -13628,7 +13738,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="514" spans="1:14" s="8" customFormat="1">
+    <row r="514" spans="1:22" s="8" customFormat="1">
       <c r="A514" s="8" t="s">
         <v>74</v>
       </c>
@@ -13663,13 +13773,13 @@
         <v>147</v>
       </c>
     </row>
-    <row r="515" spans="1:14" s="8" customFormat="1">
-      <c r="A515" s="16" t="s">
+    <row r="515" spans="1:22" s="8" customFormat="1">
+      <c r="A515" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B515" s="16"/>
-    </row>
-    <row r="516" spans="1:14" s="8" customFormat="1">
+      <c r="B515" s="18"/>
+    </row>
+    <row r="516" spans="1:22" s="8" customFormat="1">
       <c r="A516" s="8" t="s">
         <v>184</v>
       </c>
@@ -13707,7 +13817,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="517" spans="1:14" s="8" customFormat="1">
+    <row r="517" spans="1:22" s="8" customFormat="1">
       <c r="A517" s="8" t="s">
         <v>114</v>
       </c>
@@ -13742,7 +13852,7 @@
         <v>623.20000000000005</v>
       </c>
     </row>
-    <row r="518" spans="1:14" s="8" customFormat="1">
+    <row r="518" spans="1:22" s="8" customFormat="1">
       <c r="A518" s="8" t="s">
         <v>115</v>
       </c>
@@ -13787,7 +13897,7 @@
         <v>125.44000000000102</v>
       </c>
     </row>
-    <row r="519" spans="1:14" s="8" customFormat="1">
+    <row r="519" spans="1:22" s="8" customFormat="1">
       <c r="A519" s="8" t="s">
         <v>116</v>
       </c>
@@ -13822,7 +13932,7 @@
         <v>6.0464865831323902</v>
       </c>
     </row>
-    <row r="520" spans="1:14" s="8" customFormat="1">
+    <row r="520" spans="1:22" s="8" customFormat="1">
       <c r="A520" s="8" t="s">
         <v>117</v>
       </c>
@@ -13867,9 +13977,9 @@
         <v>2.7040710049848915</v>
       </c>
     </row>
-    <row r="521" spans="1:14" s="8" customFormat="1"/>
-    <row r="522" spans="1:14" s="8" customFormat="1"/>
-    <row r="523" spans="1:14" s="8" customFormat="1">
+    <row r="521" spans="1:22" s="8" customFormat="1"/>
+    <row r="522" spans="1:22" s="8" customFormat="1"/>
+    <row r="523" spans="1:22" s="8" customFormat="1">
       <c r="A523" s="8" t="s">
         <v>186</v>
       </c>
@@ -13877,7 +13987,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="524" spans="1:14" s="8" customFormat="1">
+    <row r="524" spans="1:22" s="8" customFormat="1">
       <c r="A524" s="8" t="s">
         <v>74</v>
       </c>
@@ -13911,14 +14021,32 @@
       <c r="N524" s="11">
         <v>157</v>
       </c>
-    </row>
-    <row r="525" spans="1:14" s="8" customFormat="1">
-      <c r="A525" s="16" t="s">
+      <c r="Q524" s="8">
+        <v>179</v>
+      </c>
+      <c r="R524" s="16">
+        <v>180</v>
+      </c>
+      <c r="S524" s="16">
+        <v>181</v>
+      </c>
+      <c r="T524" s="16">
+        <v>182</v>
+      </c>
+      <c r="U524" s="16">
+        <v>183</v>
+      </c>
+      <c r="V524" s="8">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="525" spans="1:22" s="8" customFormat="1">
+      <c r="A525" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B525" s="16"/>
-    </row>
-    <row r="526" spans="1:14" s="8" customFormat="1">
+      <c r="B525" s="18"/>
+    </row>
+    <row r="526" spans="1:22" s="8" customFormat="1">
       <c r="A526" s="8" t="s">
         <v>184</v>
       </c>
@@ -13957,8 +14085,28 @@
       <c r="N526" s="8">
         <v>637</v>
       </c>
-    </row>
-    <row r="527" spans="1:14" s="8" customFormat="1">
+      <c r="Q526" s="8">
+        <f>670</f>
+        <v>670</v>
+      </c>
+      <c r="R526" s="8">
+        <v>659</v>
+      </c>
+      <c r="S526" s="8">
+        <f>11*60+43</f>
+        <v>703</v>
+      </c>
+      <c r="T526" s="8">
+        <v>699</v>
+      </c>
+      <c r="U526" s="8">
+        <v>702</v>
+      </c>
+      <c r="V526" s="8">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="527" spans="1:22" s="8" customFormat="1">
       <c r="A527" s="8" t="s">
         <v>114</v>
       </c>
@@ -13992,8 +14140,26 @@
       <c r="N527" s="8">
         <v>641.79999999999995</v>
       </c>
-    </row>
-    <row r="528" spans="1:14" s="8" customFormat="1">
+      <c r="Q527" s="8">
+        <v>690.83333333333337</v>
+      </c>
+      <c r="R527" s="17">
+        <v>690.83333333333337</v>
+      </c>
+      <c r="S527" s="17">
+        <v>690.83333333333337</v>
+      </c>
+      <c r="T527" s="17">
+        <v>690.83333333333337</v>
+      </c>
+      <c r="U527" s="17">
+        <v>690.83333333333337</v>
+      </c>
+      <c r="V527" s="17">
+        <v>690.83333333333337</v>
+      </c>
+    </row>
+    <row r="528" spans="1:22" s="8" customFormat="1">
       <c r="A528" s="8" t="s">
         <v>115</v>
       </c>
@@ -14037,6 +14203,30 @@
         <f t="shared" si="96"/>
         <v>23.039999999999562</v>
       </c>
+      <c r="Q528" s="17">
+        <f t="shared" ref="Q528:V528" si="97">(Q527-Q526)*(Q527-Q526)</f>
+        <v>434.02777777777936</v>
+      </c>
+      <c r="R528" s="17">
+        <f t="shared" si="97"/>
+        <v>1013.3611111111135</v>
+      </c>
+      <c r="S528" s="17">
+        <f t="shared" si="97"/>
+        <v>148.02777777777686</v>
+      </c>
+      <c r="T528" s="17">
+        <f t="shared" si="97"/>
+        <v>66.694444444443832</v>
+      </c>
+      <c r="U528" s="17">
+        <f t="shared" si="97"/>
+        <v>124.6944444444436</v>
+      </c>
+      <c r="V528" s="17">
+        <f t="shared" si="97"/>
+        <v>448.02777777777618</v>
+      </c>
     </row>
     <row r="529" spans="1:25" s="8" customFormat="1">
       <c r="A529" s="8" t="s">
@@ -14072,6 +14262,24 @@
       <c r="N529" s="8">
         <v>7.5206382707852661</v>
       </c>
+      <c r="Q529" s="17">
+        <v>19.299539430313413</v>
+      </c>
+      <c r="R529" s="17">
+        <v>19.299539430313413</v>
+      </c>
+      <c r="S529" s="8">
+        <v>19.299539430313413</v>
+      </c>
+      <c r="T529" s="8">
+        <v>19.299539430313413</v>
+      </c>
+      <c r="U529" s="8">
+        <v>19.299539430313413</v>
+      </c>
+      <c r="V529" s="8">
+        <v>19.299539430313413</v>
+      </c>
     </row>
     <row r="530" spans="1:25" s="8" customFormat="1">
       <c r="A530" s="8" t="s">
@@ -14082,19 +14290,19 @@
         <v>13.574682316724763</v>
       </c>
       <c r="C530" s="9">
-        <f t="shared" ref="C530:F530" si="97">C529/SQRT(5)</f>
+        <f t="shared" ref="C530:F530" si="98">C529/SQRT(5)</f>
         <v>13.574682316724763</v>
       </c>
       <c r="D530" s="9">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>13.574682316724763</v>
       </c>
       <c r="E530" s="9">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>13.574682316724763</v>
       </c>
       <c r="F530" s="9">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>13.574682316724763</v>
       </c>
       <c r="J530" s="8">
@@ -14102,20 +14310,44 @@
         <v>3.3633316815324652</v>
       </c>
       <c r="K530" s="11">
-        <f t="shared" ref="K530:N530" si="98">K529/SQRT(5)</f>
+        <f t="shared" ref="K530:N530" si="99">K529/SQRT(5)</f>
         <v>3.3633316815324652</v>
       </c>
       <c r="L530" s="11">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>3.3633316815324652</v>
       </c>
       <c r="M530" s="11">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>3.3633316815324652</v>
       </c>
       <c r="N530" s="11">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>3.3633316815324652</v>
+      </c>
+      <c r="Q530" s="17">
+        <f>Q529/SQRT(6)</f>
+        <v>7.8790039791653683</v>
+      </c>
+      <c r="R530" s="17">
+        <f t="shared" ref="R530:V530" si="100">R529/SQRT(6)</f>
+        <v>7.8790039791653683</v>
+      </c>
+      <c r="S530" s="17">
+        <f t="shared" si="100"/>
+        <v>7.8790039791653683</v>
+      </c>
+      <c r="T530" s="17">
+        <f t="shared" si="100"/>
+        <v>7.8790039791653683</v>
+      </c>
+      <c r="U530" s="17">
+        <f t="shared" si="100"/>
+        <v>7.8790039791653683</v>
+      </c>
+      <c r="V530" s="17">
+        <f t="shared" si="100"/>
+        <v>7.8790039791653683</v>
       </c>
     </row>
     <row r="531" spans="1:25" s="8" customFormat="1"/>
@@ -14162,6 +14394,21 @@
       <c r="N534" s="8">
         <v>168</v>
       </c>
+      <c r="Q534" s="8">
+        <v>185</v>
+      </c>
+      <c r="R534" s="8">
+        <v>186</v>
+      </c>
+      <c r="S534" s="8">
+        <v>187</v>
+      </c>
+      <c r="T534" s="8">
+        <v>188</v>
+      </c>
+      <c r="U534" s="8">
+        <v>189</v>
+      </c>
     </row>
     <row r="535" spans="1:25" s="8" customFormat="1">
       <c r="A535" s="8" t="s">
@@ -14212,6 +14459,26 @@
         <f>14*60+6</f>
         <v>846</v>
       </c>
+      <c r="Q536" s="8">
+        <f>15*60+43</f>
+        <v>943</v>
+      </c>
+      <c r="R536" s="8">
+        <f>947</f>
+        <v>947</v>
+      </c>
+      <c r="S536" s="8">
+        <f>16*60+25</f>
+        <v>985</v>
+      </c>
+      <c r="T536" s="8">
+        <f>17*60+17</f>
+        <v>1037</v>
+      </c>
+      <c r="U536" s="8">
+        <f>17*60+10</f>
+        <v>1030</v>
+      </c>
     </row>
     <row r="537" spans="1:25" s="8" customFormat="1">
       <c r="A537" s="8" t="s">
@@ -14247,6 +14514,21 @@
       <c r="N537" s="8">
         <v>899.6</v>
       </c>
+      <c r="Q537" s="8">
+        <v>988.4</v>
+      </c>
+      <c r="R537" s="8">
+        <v>988.4</v>
+      </c>
+      <c r="S537" s="8">
+        <v>988.4</v>
+      </c>
+      <c r="T537" s="8">
+        <v>988.4</v>
+      </c>
+      <c r="U537" s="8">
+        <v>988.4</v>
+      </c>
     </row>
     <row r="538" spans="1:25" s="8" customFormat="1">
       <c r="A538" s="8" t="s">
@@ -14257,19 +14539,19 @@
         <v>1632.1600000000074</v>
       </c>
       <c r="C538" s="9">
-        <f t="shared" ref="C538:F538" si="99">(C537-C536)*(C537-C536)</f>
+        <f t="shared" ref="C538:F538" si="101">(C537-C536)*(C537-C536)</f>
         <v>213.15999999999735</v>
       </c>
       <c r="D538" s="9">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>1797.7600000000077</v>
       </c>
       <c r="E538" s="9">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>707.55999999999517</v>
       </c>
       <c r="F538" s="9">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>1730.5599999999924</v>
       </c>
       <c r="J538" s="8">
@@ -14277,20 +14559,40 @@
         <v>8911.3599999999951</v>
       </c>
       <c r="K538" s="12">
-        <f t="shared" ref="K538:N538" si="100">(K537-K536)*(K537-K536)</f>
+        <f t="shared" ref="K538:N538" si="102">(K537-K536)*(K537-K536)</f>
         <v>6304.359999999996</v>
       </c>
       <c r="L538" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>2560.3600000000024</v>
       </c>
       <c r="M538" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>4844.1600000000035</v>
       </c>
       <c r="N538" s="12">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>2872.9600000000023</v>
+      </c>
+      <c r="Q538" s="17">
+        <f t="shared" ref="Q538:U538" si="103">(Q537-Q536)*(Q537-Q536)</f>
+        <v>2061.159999999998</v>
+      </c>
+      <c r="R538" s="17">
+        <f t="shared" si="103"/>
+        <v>1713.9599999999982</v>
+      </c>
+      <c r="S538" s="17">
+        <f t="shared" si="103"/>
+        <v>11.559999999999846</v>
+      </c>
+      <c r="T538" s="17">
+        <f t="shared" si="103"/>
+        <v>2361.9600000000023</v>
+      </c>
+      <c r="U538" s="17">
+        <f t="shared" si="103"/>
+        <v>1730.560000000002</v>
       </c>
     </row>
     <row r="539" spans="1:25" s="8" customFormat="1">
@@ -14327,6 +14629,21 @@
       <c r="N539" s="8">
         <v>71.404761745978817</v>
       </c>
+      <c r="Q539" s="17">
+        <v>39.69685126052191</v>
+      </c>
+      <c r="R539" s="17">
+        <v>39.69685126052191</v>
+      </c>
+      <c r="S539" s="8">
+        <v>39.69685126052191</v>
+      </c>
+      <c r="T539" s="8">
+        <v>39.69685126052191</v>
+      </c>
+      <c r="U539" s="8">
+        <v>39.69685126052191</v>
+      </c>
     </row>
     <row r="540" spans="1:25" s="8" customFormat="1">
       <c r="A540" s="8" t="s">
@@ -14337,19 +14654,19 @@
         <v>15.596409843294065</v>
       </c>
       <c r="C540" s="9">
-        <f t="shared" ref="C540:F540" si="101">C539/SQRT(5)</f>
+        <f t="shared" ref="C540:F540" si="104">C539/SQRT(5)</f>
         <v>15.596409843294065</v>
       </c>
       <c r="D540" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="104"/>
         <v>15.596409843294065</v>
       </c>
       <c r="E540" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="104"/>
         <v>15.596409843294065</v>
       </c>
       <c r="F540" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="104"/>
         <v>15.596409843294065</v>
       </c>
       <c r="J540" s="8">
@@ -14357,20 +14674,40 @@
         <v>31.933180236237039</v>
       </c>
       <c r="K540" s="12">
-        <f t="shared" ref="K540:N540" si="102">K539/SQRT(5)</f>
+        <f t="shared" ref="K540:N540" si="105">K539/SQRT(5)</f>
         <v>31.933180236237039</v>
       </c>
       <c r="L540" s="12">
-        <f t="shared" si="102"/>
+        <f t="shared" si="105"/>
         <v>31.933180236237039</v>
       </c>
       <c r="M540" s="12">
-        <f t="shared" si="102"/>
+        <f t="shared" si="105"/>
         <v>31.933180236237039</v>
       </c>
       <c r="N540" s="12">
-        <f t="shared" si="102"/>
+        <f t="shared" si="105"/>
         <v>31.933180236237039</v>
+      </c>
+      <c r="Q540" s="17">
+        <f t="shared" ref="Q540:U540" si="106">Q539/SQRT(5)</f>
+        <v>17.752971582245038</v>
+      </c>
+      <c r="R540" s="17">
+        <f t="shared" si="106"/>
+        <v>17.752971582245038</v>
+      </c>
+      <c r="S540" s="17">
+        <f t="shared" si="106"/>
+        <v>17.752971582245038</v>
+      </c>
+      <c r="T540" s="17">
+        <f t="shared" si="106"/>
+        <v>17.752971582245038</v>
+      </c>
+      <c r="U540" s="17">
+        <f t="shared" si="106"/>
+        <v>17.752971582245038</v>
       </c>
     </row>
     <row r="541" spans="1:25" s="8" customFormat="1"/>
@@ -14452,10 +14789,10 @@
       </c>
     </row>
     <row r="545" spans="1:23" s="8" customFormat="1">
-      <c r="A545" s="16" t="s">
+      <c r="A545" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B545" s="16"/>
+      <c r="B545" s="18"/>
       <c r="O545"/>
       <c r="P545"/>
       <c r="Q545"/>
@@ -14601,75 +14938,75 @@
         <v>501.75999999999897</v>
       </c>
       <c r="C548" s="9">
-        <f t="shared" ref="C548:F548" si="103">(C547-C546)*(C547-C546)</f>
+        <f t="shared" ref="C548:F548" si="107">(C547-C546)*(C547-C546)</f>
         <v>5867.5600000000031</v>
       </c>
       <c r="D548" s="9">
-        <f t="shared" si="103"/>
+        <f t="shared" si="107"/>
         <v>645.15999999999883</v>
       </c>
       <c r="E548" s="9">
-        <f t="shared" si="103"/>
+        <f t="shared" si="107"/>
         <v>207.35999999999933</v>
       </c>
       <c r="F548" s="9">
-        <f t="shared" si="103"/>
+        <f t="shared" si="107"/>
         <v>207.35999999999933</v>
       </c>
       <c r="J548" s="11">
-        <f t="shared" ref="J548:W548" si="104">(J547-J546)*(J547-J546)</f>
+        <f t="shared" ref="J548:W548" si="108">(J547-J546)*(J547-J546)</f>
         <v>687.18877551020148</v>
       </c>
       <c r="K548" s="15">
-        <f t="shared" si="104"/>
+        <f t="shared" si="108"/>
         <v>1353.1887755102077</v>
       </c>
       <c r="L548" s="15">
-        <f t="shared" si="104"/>
+        <f t="shared" si="108"/>
         <v>331.76020408163089</v>
       </c>
       <c r="M548" s="15">
-        <f t="shared" si="104"/>
+        <f t="shared" si="108"/>
         <v>1663.4744897959224</v>
       </c>
       <c r="N548" s="15">
-        <f t="shared" si="104"/>
+        <f t="shared" si="108"/>
         <v>408.61734693877355</v>
       </c>
       <c r="O548" s="15">
-        <f t="shared" si="104"/>
+        <f t="shared" si="108"/>
         <v>1504.3316326530651</v>
       </c>
       <c r="P548" s="15">
-        <f t="shared" si="104"/>
+        <f t="shared" si="108"/>
         <v>947.76020408163561</v>
       </c>
       <c r="Q548" s="15">
-        <f t="shared" si="104"/>
+        <f t="shared" si="108"/>
         <v>635.76020408163015</v>
       </c>
       <c r="R548" s="15">
-        <f t="shared" si="104"/>
+        <f t="shared" si="108"/>
         <v>538.90306122448749</v>
       </c>
       <c r="S548" s="15">
-        <f t="shared" si="104"/>
+        <f t="shared" si="108"/>
         <v>190.04591836734829</v>
       </c>
       <c r="T548" s="15">
-        <f t="shared" si="104"/>
+        <f t="shared" si="108"/>
         <v>174.61734693877423</v>
       </c>
       <c r="U548" s="15">
-        <f t="shared" si="104"/>
+        <f t="shared" si="108"/>
         <v>10.331632653060911</v>
       </c>
       <c r="V548" s="15">
-        <f t="shared" si="104"/>
+        <f t="shared" si="108"/>
         <v>331.76020408163089</v>
       </c>
       <c r="W548" s="15">
-        <f t="shared" si="104"/>
+        <f t="shared" si="108"/>
         <v>174.61734693877423</v>
       </c>
     </row>
@@ -14744,19 +15081,19 @@
         <v>17.238561424898538</v>
       </c>
       <c r="C550" s="9">
-        <f t="shared" ref="C550:F550" si="105">C549/SQRT(5)</f>
+        <f t="shared" ref="C550:F550" si="109">C549/SQRT(5)</f>
         <v>17.238561424898538</v>
       </c>
       <c r="D550" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>17.238561424898538</v>
       </c>
       <c r="E550" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>17.238561424898538</v>
       </c>
       <c r="F550" s="9">
-        <f t="shared" si="105"/>
+        <f t="shared" si="109"/>
         <v>17.238561424898538</v>
       </c>
       <c r="J550" s="8">
@@ -14764,55 +15101,55 @@
         <v>6.7583497649344473</v>
       </c>
       <c r="K550" s="15">
-        <f t="shared" ref="K550:W550" si="106">K549/SQRT(14)</f>
+        <f t="shared" ref="K550:W550" si="110">K549/SQRT(14)</f>
         <v>6.7583497649344473</v>
       </c>
       <c r="L550" s="15">
-        <f t="shared" si="106"/>
+        <f t="shared" si="110"/>
         <v>6.7583497649344473</v>
       </c>
       <c r="M550" s="15">
-        <f t="shared" si="106"/>
+        <f t="shared" si="110"/>
         <v>6.7583497649344473</v>
       </c>
       <c r="N550" s="15">
-        <f t="shared" si="106"/>
+        <f t="shared" si="110"/>
         <v>6.7583497649344473</v>
       </c>
       <c r="O550" s="15">
-        <f t="shared" si="106"/>
+        <f t="shared" si="110"/>
         <v>6.7583497649344473</v>
       </c>
       <c r="P550" s="15">
-        <f t="shared" si="106"/>
+        <f t="shared" si="110"/>
         <v>6.7583497649344473</v>
       </c>
       <c r="Q550" s="15">
-        <f t="shared" si="106"/>
+        <f t="shared" si="110"/>
         <v>6.7583497649344473</v>
       </c>
       <c r="R550" s="15">
-        <f t="shared" si="106"/>
+        <f t="shared" si="110"/>
         <v>6.7583497649344473</v>
       </c>
       <c r="S550" s="15">
-        <f t="shared" si="106"/>
+        <f t="shared" si="110"/>
         <v>6.7583497649344473</v>
       </c>
       <c r="T550" s="15">
-        <f t="shared" si="106"/>
+        <f t="shared" si="110"/>
         <v>6.7583497649344473</v>
       </c>
       <c r="U550" s="15">
-        <f t="shared" si="106"/>
+        <f t="shared" si="110"/>
         <v>6.7583497649344473</v>
       </c>
       <c r="V550" s="15">
-        <f t="shared" si="106"/>
+        <f t="shared" si="110"/>
         <v>6.7583497649344473</v>
       </c>
       <c r="W550" s="15">
-        <f t="shared" si="106"/>
+        <f t="shared" si="110"/>
         <v>6.7583497649344473</v>
       </c>
     </row>
@@ -14865,10 +15202,10 @@
       </c>
     </row>
     <row r="555" spans="1:23" s="8" customFormat="1">
-      <c r="A555" s="16" t="s">
+      <c r="A555" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B555" s="16"/>
+      <c r="B555" s="18"/>
     </row>
     <row r="556" spans="1:23" s="8" customFormat="1">
       <c r="A556" s="8" t="s">
@@ -14955,43 +15292,43 @@
         <v>205.44444444444554</v>
       </c>
       <c r="C558" s="9">
-        <f t="shared" ref="C558:G558" si="107">(C557-C556)*(C557-C556)</f>
+        <f t="shared" ref="C558:G558" si="111">(C557-C556)*(C557-C556)</f>
         <v>32.111111111110681</v>
       </c>
       <c r="D558" s="9">
-        <f t="shared" si="107"/>
+        <f t="shared" si="111"/>
         <v>11.111111111111363</v>
       </c>
       <c r="E558" s="9">
-        <f t="shared" si="107"/>
+        <f t="shared" si="111"/>
         <v>5.4444444444446214</v>
       </c>
       <c r="F558" s="9">
-        <f t="shared" si="107"/>
+        <f t="shared" si="111"/>
         <v>312.11111111110978</v>
       </c>
       <c r="G558" s="9">
-        <f t="shared" si="107"/>
+        <f t="shared" si="111"/>
         <v>11.111111111111363</v>
       </c>
       <c r="J558" s="11">
-        <f t="shared" ref="J558:N558" si="108">(J557-J556)*(J557-J556)</f>
+        <f t="shared" ref="J558:N558" si="112">(J557-J556)*(J557-J556)</f>
         <v>184.9600000000006</v>
       </c>
       <c r="K558" s="12">
-        <f t="shared" si="108"/>
+        <f t="shared" si="112"/>
         <v>605.16000000000111</v>
       </c>
       <c r="L558" s="12">
-        <f t="shared" si="108"/>
+        <f t="shared" si="112"/>
         <v>696.95999999999879</v>
       </c>
       <c r="M558" s="12">
-        <f t="shared" si="108"/>
+        <f t="shared" si="112"/>
         <v>1648.3600000000019</v>
       </c>
       <c r="N558" s="12">
-        <f t="shared" si="108"/>
+        <f t="shared" si="112"/>
         <v>2745.7599999999975</v>
       </c>
     </row>
@@ -15042,23 +15379,23 @@
         <v>4.0046269535422443</v>
       </c>
       <c r="C560" s="9">
-        <f t="shared" ref="C560:G560" si="109">C559/SQRT(6)</f>
+        <f t="shared" ref="C560:G560" si="113">C559/SQRT(6)</f>
         <v>4.0046269535422443</v>
       </c>
       <c r="D560" s="9">
-        <f t="shared" si="109"/>
+        <f t="shared" si="113"/>
         <v>4.0046269535422443</v>
       </c>
       <c r="E560" s="9">
-        <f t="shared" si="109"/>
+        <f t="shared" si="113"/>
         <v>4.0046269535422443</v>
       </c>
       <c r="F560" s="9">
-        <f t="shared" si="109"/>
+        <f t="shared" si="113"/>
         <v>4.0046269535422443</v>
       </c>
       <c r="G560" s="9">
-        <f t="shared" si="109"/>
+        <f t="shared" si="113"/>
         <v>4.0046269535422443</v>
       </c>
       <c r="J560" s="8">
@@ -15066,19 +15403,19 @@
         <v>19.801010075246161</v>
       </c>
       <c r="K560" s="12">
-        <f t="shared" ref="K560:N560" si="110">K559/SQRT(3)</f>
+        <f t="shared" ref="K560:N560" si="114">K559/SQRT(3)</f>
         <v>19.801010075246161</v>
       </c>
       <c r="L560" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="114"/>
         <v>19.801010075246161</v>
       </c>
       <c r="M560" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="114"/>
         <v>19.801010075246161</v>
       </c>
       <c r="N560" s="12">
-        <f t="shared" si="110"/>
+        <f t="shared" si="114"/>
         <v>19.801010075246161</v>
       </c>
     </row>
@@ -15193,31 +15530,31 @@
         <v>4.0000000000018188E-2</v>
       </c>
       <c r="C568" s="9">
-        <f t="shared" ref="C568:F568" si="111">(C567-C566)*(C567-C566)</f>
+        <f t="shared" ref="C568:F568" si="115">(C567-C566)*(C567-C566)</f>
         <v>4.8400000000001997</v>
       </c>
       <c r="D568" s="9">
-        <f t="shared" si="111"/>
+        <f t="shared" si="115"/>
         <v>4.8400000000001997</v>
       </c>
       <c r="E568" s="9">
-        <f t="shared" si="111"/>
+        <f t="shared" si="115"/>
         <v>96.039999999999111</v>
       </c>
       <c r="F568" s="9">
-        <f t="shared" si="111"/>
+        <f t="shared" si="115"/>
         <v>27.040000000000472</v>
       </c>
       <c r="J568" s="15">
-        <f t="shared" ref="J568:L568" si="112">(J567-J566)*(J567-J566)</f>
+        <f t="shared" ref="J568:L568" si="116">(J567-J566)*(J567-J566)</f>
         <v>58.777777777777196</v>
       </c>
       <c r="K568" s="15">
-        <f t="shared" si="112"/>
+        <f t="shared" si="116"/>
         <v>336.11111111111251</v>
       </c>
       <c r="L568" s="15">
-        <f t="shared" si="112"/>
+        <f t="shared" si="116"/>
         <v>113.77777777777698</v>
       </c>
     </row>
@@ -15259,19 +15596,19 @@
         <v>2.3047776465420693</v>
       </c>
       <c r="C570" s="9">
-        <f t="shared" ref="C570:F570" si="113">C569/SQRT(5)</f>
+        <f t="shared" ref="C570:F570" si="117">C569/SQRT(5)</f>
         <v>2.3047776465420693</v>
       </c>
       <c r="D570" s="9">
-        <f t="shared" si="113"/>
+        <f t="shared" si="117"/>
         <v>2.3047776465420693</v>
       </c>
       <c r="E570" s="9">
-        <f t="shared" si="113"/>
+        <f t="shared" si="117"/>
         <v>2.3047776465420693</v>
       </c>
       <c r="F570" s="9">
-        <f t="shared" si="113"/>
+        <f t="shared" si="117"/>
         <v>2.3047776465420693</v>
       </c>
       <c r="J570" s="8">
@@ -15279,11 +15616,11 @@
         <v>7.5178799217943437</v>
       </c>
       <c r="K570" s="15">
-        <f t="shared" ref="K570:L570" si="114">K569/SQRT(3)</f>
+        <f t="shared" ref="K570:L570" si="118">K569/SQRT(3)</f>
         <v>7.5178799217943437</v>
       </c>
       <c r="L570" s="15">
-        <f t="shared" si="114"/>
+        <f t="shared" si="118"/>
         <v>7.5178799217943437</v>
       </c>
     </row>
@@ -15333,10 +15670,10 @@
       </c>
     </row>
     <row r="575" spans="1:14" s="8" customFormat="1">
-      <c r="A575" s="16" t="s">
+      <c r="A575" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B575" s="16"/>
+      <c r="B575" s="18"/>
     </row>
     <row r="576" spans="1:14" s="8" customFormat="1">
       <c r="A576" s="8" t="s">
@@ -15417,39 +15754,39 @@
         <v>2.5600000000000729</v>
       </c>
       <c r="C578" s="9">
-        <f t="shared" ref="C578:F578" si="115">(C577-C576)*(C577-C576)</f>
+        <f t="shared" ref="C578:F578" si="119">(C577-C576)*(C577-C576)</f>
         <v>54.759999999999664</v>
       </c>
       <c r="D578" s="9">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>54.759999999999664</v>
       </c>
       <c r="E578" s="9">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>184.9600000000006</v>
       </c>
       <c r="F578" s="9">
-        <f t="shared" si="115"/>
+        <f t="shared" si="119"/>
         <v>0.15999999999998182</v>
       </c>
       <c r="J578" s="11">
-        <f t="shared" ref="J578:N578" si="116">(J577-J576)*(J577-J576)</f>
+        <f t="shared" ref="J578:N578" si="120">(J577-J576)*(J577-J576)</f>
         <v>196</v>
       </c>
       <c r="K578" s="11">
-        <f t="shared" si="116"/>
+        <f t="shared" si="120"/>
         <v>289</v>
       </c>
       <c r="L578" s="11">
-        <f t="shared" si="116"/>
+        <f t="shared" si="120"/>
         <v>169</v>
       </c>
       <c r="M578" s="11">
-        <f t="shared" si="116"/>
+        <f t="shared" si="120"/>
         <v>625</v>
       </c>
       <c r="N578" s="11">
-        <f t="shared" si="116"/>
+        <f t="shared" si="120"/>
         <v>49</v>
       </c>
     </row>
@@ -15497,19 +15834,19 @@
         <v>3.4478979103215917</v>
       </c>
       <c r="C580" s="9">
-        <f t="shared" ref="C580:F580" si="117">C579/SQRT(5)</f>
+        <f t="shared" ref="C580:F580" si="121">C579/SQRT(5)</f>
         <v>3.4478979103215917</v>
       </c>
       <c r="D580" s="9">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>3.4478979103215917</v>
       </c>
       <c r="E580" s="9">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>3.4478979103215917</v>
       </c>
       <c r="F580" s="9">
-        <f t="shared" si="117"/>
+        <f t="shared" si="121"/>
         <v>3.4478979103215917</v>
       </c>
       <c r="J580" s="8">
@@ -15517,19 +15854,19 @@
         <v>7.2883468633154385</v>
       </c>
       <c r="K580" s="11">
-        <f t="shared" ref="K580:N580" si="118">K579/SQRT(5)</f>
+        <f t="shared" ref="K580:N580" si="122">K579/SQRT(5)</f>
         <v>7.2883468633154385</v>
       </c>
       <c r="L580" s="11">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>7.2883468633154385</v>
       </c>
       <c r="M580" s="11">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>7.2883468633154385</v>
       </c>
       <c r="N580" s="11">
-        <f t="shared" si="118"/>
+        <f t="shared" si="122"/>
         <v>7.2883468633154385</v>
       </c>
     </row>
@@ -15579,10 +15916,10 @@
       </c>
     </row>
     <row r="585" spans="1:14" s="8" customFormat="1">
-      <c r="A585" s="16" t="s">
+      <c r="A585" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B585" s="16"/>
+      <c r="B585" s="18"/>
     </row>
     <row r="586" spans="1:14" s="8" customFormat="1">
       <c r="A586" s="8" t="s">
@@ -15663,39 +16000,39 @@
         <v>96.039999999999111</v>
       </c>
       <c r="C588" s="9">
-        <f t="shared" ref="C588:F588" si="119">(C587-C586)*(C587-C586)</f>
+        <f t="shared" ref="C588:F588" si="123">(C587-C586)*(C587-C586)</f>
         <v>190.43999999999875</v>
       </c>
       <c r="D588" s="9">
-        <f t="shared" si="119"/>
+        <f t="shared" si="123"/>
         <v>408.04000000000184</v>
       </c>
       <c r="E588" s="9">
-        <f t="shared" si="119"/>
+        <f t="shared" si="123"/>
         <v>116.63999999999902</v>
       </c>
       <c r="F588" s="9">
-        <f t="shared" si="119"/>
+        <f t="shared" si="123"/>
         <v>201.64000000000129</v>
       </c>
       <c r="J588" s="11">
-        <f t="shared" ref="J588:N588" si="120">(J587-J586)*(J587-J586)</f>
+        <f t="shared" ref="J588:N588" si="124">(J587-J586)*(J587-J586)</f>
         <v>19.3599999999998</v>
       </c>
       <c r="K588" s="11">
-        <f t="shared" si="120"/>
+        <f t="shared" si="124"/>
         <v>129.95999999999947</v>
       </c>
       <c r="L588" s="11">
-        <f t="shared" si="120"/>
+        <f t="shared" si="124"/>
         <v>243.3600000000007</v>
       </c>
       <c r="M588" s="11">
-        <f t="shared" si="120"/>
+        <f t="shared" si="124"/>
         <v>466.56000000000097</v>
       </c>
       <c r="N588" s="11">
-        <f t="shared" si="120"/>
+        <f t="shared" si="124"/>
         <v>457.95999999999901</v>
       </c>
     </row>
@@ -15743,19 +16080,19 @@
         <v>6.3649037698931465</v>
       </c>
       <c r="C590" s="9">
-        <f t="shared" ref="C590:F590" si="121">C589/SQRT(5)</f>
+        <f t="shared" ref="C590:F590" si="125">C589/SQRT(5)</f>
         <v>6.3649037698931465</v>
       </c>
       <c r="D590" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="125"/>
         <v>6.3649037698931465</v>
       </c>
       <c r="E590" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="125"/>
         <v>6.3649037698931465</v>
       </c>
       <c r="F590" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="125"/>
         <v>6.3649037698931465</v>
       </c>
       <c r="J590" s="8">
@@ -15763,19 +16100,19 @@
         <v>7.2586500122267905</v>
       </c>
       <c r="K590" s="11">
-        <f t="shared" ref="K590:N590" si="122">K589/SQRT(5)</f>
+        <f t="shared" ref="K590:N590" si="126">K589/SQRT(5)</f>
         <v>7.2586500122267905</v>
       </c>
       <c r="L590" s="11">
-        <f t="shared" si="122"/>
+        <f t="shared" si="126"/>
         <v>7.2586500122267905</v>
       </c>
       <c r="M590" s="11">
-        <f t="shared" si="122"/>
+        <f t="shared" si="126"/>
         <v>7.2586500122267905</v>
       </c>
       <c r="N590" s="11">
-        <f t="shared" si="122"/>
+        <f t="shared" si="126"/>
         <v>7.2586500122267905</v>
       </c>
     </row>
@@ -15915,35 +16252,35 @@
         <v>6.25</v>
       </c>
       <c r="D598" s="9">
-        <f t="shared" ref="D598:F598" si="123">(D597-D596)*(D597-D596)</f>
+        <f t="shared" ref="D598:F598" si="127">(D597-D596)*(D597-D596)</f>
         <v>42.25</v>
       </c>
       <c r="E598" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="127"/>
         <v>12.25</v>
       </c>
       <c r="F598" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="127"/>
         <v>0.25</v>
       </c>
       <c r="J598" s="12">
-        <f t="shared" ref="J598:N598" si="124">(J597-J596)*(J597-J596)</f>
+        <f t="shared" ref="J598:N598" si="128">(J597-J596)*(J597-J596)</f>
         <v>92.160000000000437</v>
       </c>
       <c r="K598" s="12">
-        <f t="shared" si="124"/>
+        <f t="shared" si="128"/>
         <v>179.55999999999938</v>
       </c>
       <c r="L598" s="12">
-        <f t="shared" si="124"/>
+        <f t="shared" si="128"/>
         <v>0.3600000000000273</v>
       </c>
       <c r="M598" s="12">
-        <f t="shared" si="124"/>
+        <f t="shared" si="128"/>
         <v>31.360000000000255</v>
       </c>
       <c r="N598" s="12">
-        <f t="shared" si="124"/>
+        <f t="shared" si="128"/>
         <v>5.7599999999998905</v>
       </c>
     </row>
@@ -15990,15 +16327,15 @@
         <v>1.9525624189766635</v>
       </c>
       <c r="D600" s="9">
-        <f t="shared" ref="D600:F600" si="125">D599/SQRT(4)</f>
+        <f t="shared" ref="D600:F600" si="129">D599/SQRT(4)</f>
         <v>1.9525624189766635</v>
       </c>
       <c r="E600" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="129"/>
         <v>1.9525624189766635</v>
       </c>
       <c r="F600" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="129"/>
         <v>1.9525624189766635</v>
       </c>
       <c r="J600" s="7">
@@ -16006,19 +16343,19 @@
         <v>3.5168167424533223</v>
       </c>
       <c r="K600" s="12">
-        <f t="shared" ref="K600:N600" si="126">K599/SQRT(5)</f>
+        <f t="shared" ref="K600:N600" si="130">K599/SQRT(5)</f>
         <v>3.5168167424533223</v>
       </c>
       <c r="L600" s="12">
-        <f t="shared" si="126"/>
+        <f t="shared" si="130"/>
         <v>3.5168167424533223</v>
       </c>
       <c r="M600" s="12">
-        <f t="shared" si="126"/>
+        <f t="shared" si="130"/>
         <v>3.5168167424533223</v>
       </c>
       <c r="N600" s="12">
-        <f t="shared" si="126"/>
+        <f t="shared" si="130"/>
         <v>3.5168167424533223</v>
       </c>
     </row>
@@ -16123,27 +16460,27 @@
         <v>115</v>
       </c>
       <c r="B609">
-        <f t="shared" ref="B609:G609" si="127">(B608-B607)*(B608-B607)</f>
+        <f t="shared" ref="B609:G609" si="131">(B608-B607)*(B608-B607)</f>
         <v>552.25</v>
       </c>
       <c r="C609" s="4">
-        <f t="shared" si="127"/>
+        <f t="shared" si="131"/>
         <v>0.25</v>
       </c>
       <c r="D609" s="4">
-        <f t="shared" si="127"/>
+        <f t="shared" si="131"/>
         <v>1640.25</v>
       </c>
       <c r="E609" s="4">
-        <f t="shared" si="127"/>
+        <f t="shared" si="131"/>
         <v>30.25</v>
       </c>
       <c r="F609" s="4">
-        <f t="shared" si="127"/>
+        <f t="shared" si="131"/>
         <v>30.25</v>
       </c>
       <c r="G609" s="4">
-        <f t="shared" si="127"/>
+        <f t="shared" si="131"/>
         <v>306.25</v>
       </c>
     </row>
@@ -16175,27 +16512,27 @@
         <v>117</v>
       </c>
       <c r="B611">
-        <f t="shared" ref="B611:G611" si="128">B610/SQRT(6)</f>
+        <f t="shared" ref="B611:G611" si="132">B610/SQRT(6)</f>
         <v>8.4319168770939772</v>
       </c>
       <c r="C611" s="4">
-        <f t="shared" si="128"/>
+        <f t="shared" si="132"/>
         <v>8.4319168770939772</v>
       </c>
       <c r="D611" s="4">
-        <f t="shared" si="128"/>
+        <f t="shared" si="132"/>
         <v>8.4319168770939772</v>
       </c>
       <c r="E611" s="4">
-        <f t="shared" si="128"/>
+        <f t="shared" si="132"/>
         <v>8.4319168770939772</v>
       </c>
       <c r="F611" s="4">
-        <f t="shared" si="128"/>
+        <f t="shared" si="132"/>
         <v>8.4319168770939772</v>
       </c>
       <c r="G611" s="4">
-        <f t="shared" si="128"/>
+        <f t="shared" si="132"/>
         <v>8.4319168770939772</v>
       </c>
     </row>
@@ -16275,15 +16612,15 @@
         <v>289</v>
       </c>
       <c r="C621" s="4">
-        <f t="shared" ref="C621:E621" si="129">(C620-C619)*(C620-C619)</f>
+        <f t="shared" ref="C621:E621" si="133">(C620-C619)*(C620-C619)</f>
         <v>484</v>
       </c>
       <c r="D621" s="4">
-        <f t="shared" si="129"/>
+        <f t="shared" si="133"/>
         <v>576</v>
       </c>
       <c r="E621" s="15">
-        <f t="shared" si="129"/>
+        <f t="shared" si="133"/>
         <v>841</v>
       </c>
     </row>
@@ -16313,15 +16650,15 @@
         <v>11.699358956797591</v>
       </c>
       <c r="C623" s="15">
-        <f t="shared" ref="C623:E623" si="130">C622/SQRT(4)</f>
+        <f t="shared" ref="C623:E623" si="134">C622/SQRT(4)</f>
         <v>11.699358956797591</v>
       </c>
       <c r="D623" s="15">
-        <f t="shared" si="130"/>
+        <f t="shared" si="134"/>
         <v>11.699358956797591</v>
       </c>
       <c r="E623" s="15">
-        <f t="shared" si="130"/>
+        <f t="shared" si="134"/>
         <v>11.699358956797591</v>
       </c>
     </row>
@@ -16456,19 +16793,19 @@
         <v>432.63999999999811</v>
       </c>
       <c r="C630" s="12">
-        <f t="shared" ref="C630:F630" si="131">(C629-C628)*(C629-C628)</f>
+        <f t="shared" ref="C630:F630" si="135">(C629-C628)*(C629-C628)</f>
         <v>2724.8400000000047</v>
       </c>
       <c r="D630" s="12">
-        <f t="shared" si="131"/>
+        <f t="shared" si="135"/>
         <v>3696.6399999999944</v>
       </c>
       <c r="E630" s="12">
-        <f t="shared" si="131"/>
+        <f t="shared" si="135"/>
         <v>60.839999999999293</v>
       </c>
       <c r="F630" s="12">
-        <f t="shared" si="131"/>
+        <f t="shared" si="135"/>
         <v>1383.8400000000033</v>
       </c>
       <c r="I630">
@@ -16476,19 +16813,19 @@
         <v>0.15999999999998182</v>
       </c>
       <c r="J630" s="14">
-        <f t="shared" ref="J630:M630" si="132">(J629-J628)*(J629-J628)</f>
+        <f t="shared" ref="J630:M630" si="136">(J629-J628)*(J629-J628)</f>
         <v>112.36000000000048</v>
       </c>
       <c r="K630" s="14">
-        <f t="shared" si="132"/>
+        <f t="shared" si="136"/>
         <v>70.559999999999619</v>
       </c>
       <c r="L630" s="14">
-        <f t="shared" si="132"/>
+        <f t="shared" si="136"/>
         <v>0.15999999999998182</v>
       </c>
       <c r="M630" s="14">
-        <f t="shared" si="132"/>
+        <f t="shared" si="136"/>
         <v>1.9599999999999362</v>
       </c>
     </row>
@@ -16536,39 +16873,39 @@
         <v>23.521337830432465</v>
       </c>
       <c r="C632" s="12">
-        <f t="shared" ref="C632:F632" si="133">C631/SQRT(3)</f>
+        <f t="shared" ref="C632:F632" si="137">C631/SQRT(3)</f>
         <v>23.521337830432465</v>
       </c>
       <c r="D632" s="12">
-        <f t="shared" si="133"/>
+        <f t="shared" si="137"/>
         <v>23.521337830432465</v>
       </c>
       <c r="E632" s="12">
-        <f t="shared" si="133"/>
+        <f t="shared" si="137"/>
         <v>23.521337830432465</v>
       </c>
       <c r="F632" s="12">
-        <f t="shared" si="133"/>
+        <f t="shared" si="137"/>
         <v>23.521337830432465</v>
       </c>
       <c r="I632" s="14">
-        <f t="shared" ref="I632:M632" si="134">I631/SQRT(3)</f>
+        <f t="shared" ref="I632:M632" si="138">I631/SQRT(3)</f>
         <v>3.5137823874945173</v>
       </c>
       <c r="J632" s="14">
-        <f t="shared" si="134"/>
+        <f t="shared" si="138"/>
         <v>3.5137823874945173</v>
       </c>
       <c r="K632" s="14">
-        <f t="shared" si="134"/>
+        <f t="shared" si="138"/>
         <v>3.5137823874945173</v>
       </c>
       <c r="L632" s="14">
-        <f t="shared" si="134"/>
+        <f t="shared" si="138"/>
         <v>3.5137823874945173</v>
       </c>
       <c r="M632" s="14">
-        <f t="shared" si="134"/>
+        <f t="shared" si="138"/>
         <v>3.5137823874945173</v>
       </c>
     </row>
@@ -16760,27 +17097,27 @@
         <v>18.489999999999608</v>
       </c>
       <c r="C641">
-        <f t="shared" ref="C641:I641" si="135">(C639-C640)*(C639-C640)</f>
+        <f t="shared" ref="C641:I641" si="139">(C639-C640)*(C639-C640)</f>
         <v>1789.2899999999961</v>
       </c>
       <c r="E641">
-        <f t="shared" si="135"/>
+        <f t="shared" si="139"/>
         <v>53.289999999999338</v>
       </c>
       <c r="F641">
-        <f t="shared" si="135"/>
+        <f t="shared" si="139"/>
         <v>2735.2899999999954</v>
       </c>
       <c r="G641">
-        <f t="shared" si="135"/>
+        <f t="shared" si="139"/>
         <v>5.2899999999997904</v>
       </c>
       <c r="H641">
-        <f t="shared" si="135"/>
+        <f t="shared" si="139"/>
         <v>691.68999999999755</v>
       </c>
       <c r="I641">
-        <f t="shared" si="135"/>
+        <f t="shared" si="139"/>
         <v>1466.8899999999965</v>
       </c>
       <c r="L641">
@@ -16788,23 +17125,23 @@
         <v>441</v>
       </c>
       <c r="M641" s="5">
-        <f t="shared" ref="M641:Q641" si="136">(M640-M639)*(M640-M639)</f>
+        <f t="shared" ref="M641:Q641" si="140">(M640-M639)*(M640-M639)</f>
         <v>4</v>
       </c>
       <c r="N641" s="5">
-        <f t="shared" si="136"/>
+        <f t="shared" si="140"/>
         <v>100</v>
       </c>
       <c r="O641" s="5">
-        <f t="shared" si="136"/>
+        <f t="shared" si="140"/>
         <v>144</v>
       </c>
       <c r="P641" s="5">
-        <f t="shared" si="136"/>
+        <f t="shared" si="140"/>
         <v>16</v>
       </c>
       <c r="Q641" s="5">
-        <f t="shared" si="136"/>
+        <f t="shared" si="140"/>
         <v>49</v>
       </c>
     </row>
@@ -16861,27 +17198,27 @@
         <v>7.1138185241239524</v>
       </c>
       <c r="C643">
-        <f t="shared" ref="C643:I643" si="137">C642/SQRT(7)</f>
+        <f t="shared" ref="C643:I643" si="141">C642/SQRT(7)</f>
         <v>7.1138185241239524</v>
       </c>
       <c r="E643">
-        <f t="shared" si="137"/>
+        <f t="shared" si="141"/>
         <v>7.1138185241239524</v>
       </c>
       <c r="F643">
-        <f t="shared" si="137"/>
+        <f t="shared" si="141"/>
         <v>7.1138185241239524</v>
       </c>
       <c r="G643">
-        <f t="shared" si="137"/>
+        <f t="shared" si="141"/>
         <v>7.1138185241239524</v>
       </c>
       <c r="H643">
-        <f t="shared" si="137"/>
+        <f t="shared" si="141"/>
         <v>7.1138185241239524</v>
       </c>
       <c r="I643">
-        <f t="shared" si="137"/>
+        <f t="shared" si="141"/>
         <v>7.1138185241239524</v>
       </c>
       <c r="L643">
@@ -16889,23 +17226,23 @@
         <v>4.5765100725819936</v>
       </c>
       <c r="M643" s="5">
-        <f t="shared" ref="M643:Q643" si="138">M642/SQRT(6)</f>
+        <f t="shared" ref="M643:Q643" si="142">M642/SQRT(6)</f>
         <v>4.5765100725819936</v>
       </c>
       <c r="N643" s="5">
-        <f t="shared" si="138"/>
+        <f t="shared" si="142"/>
         <v>4.5765100725819936</v>
       </c>
       <c r="O643" s="5">
-        <f t="shared" si="138"/>
+        <f t="shared" si="142"/>
         <v>4.5765100725819936</v>
       </c>
       <c r="P643" s="5">
-        <f t="shared" si="138"/>
+        <f t="shared" si="142"/>
         <v>4.5765100725819936</v>
       </c>
       <c r="Q643" s="5">
-        <f t="shared" si="138"/>
+        <f t="shared" si="142"/>
         <v>4.5765100725819936</v>
       </c>
     </row>
@@ -17059,23 +17396,23 @@
         <v>230.02777777777663</v>
       </c>
       <c r="D650">
-        <f t="shared" ref="D650:H650" si="139">(D649-D648)*(D649-D648)</f>
+        <f t="shared" ref="D650:H650" si="143">(D649-D648)*(D649-D648)</f>
         <v>38.027777777781516</v>
       </c>
       <c r="E650">
-        <f t="shared" si="139"/>
+        <f t="shared" si="143"/>
         <v>220.02777777777891</v>
       </c>
       <c r="F650">
-        <f t="shared" si="139"/>
+        <f t="shared" si="143"/>
         <v>84.027777777777089</v>
       </c>
       <c r="G650">
-        <f t="shared" si="139"/>
+        <f t="shared" si="143"/>
         <v>3.3611111111112502</v>
       </c>
       <c r="H650">
-        <f t="shared" si="139"/>
+        <f t="shared" si="143"/>
         <v>191.36111111111217</v>
       </c>
       <c r="J650">
@@ -17083,19 +17420,19 @@
         <v>38.440000000000566</v>
       </c>
       <c r="K650" s="15">
-        <f t="shared" ref="K650:N650" si="140">(K649-K648)*(K649-K648)</f>
+        <f t="shared" ref="K650:N650" si="144">(K649-K648)*(K649-K648)</f>
         <v>67.240000000000748</v>
       </c>
       <c r="L650" s="15">
-        <f t="shared" si="140"/>
+        <f t="shared" si="144"/>
         <v>1142.4399999999969</v>
       </c>
       <c r="M650" s="15">
-        <f t="shared" si="140"/>
+        <f t="shared" si="144"/>
         <v>4.0000000000018188E-2</v>
       </c>
       <c r="N650" s="15">
-        <f t="shared" si="140"/>
+        <f t="shared" si="144"/>
         <v>368.64000000000175</v>
       </c>
     </row>
@@ -17146,23 +17483,23 @@
         <v>4.6152926154173635</v>
       </c>
       <c r="D652">
-        <f t="shared" ref="D652:H652" si="141">D651/SQRT(6)</f>
+        <f t="shared" ref="D652:H652" si="145">D651/SQRT(6)</f>
         <v>4.6152926154173635</v>
       </c>
       <c r="E652">
-        <f t="shared" si="141"/>
+        <f t="shared" si="145"/>
         <v>4.6152926154173635</v>
       </c>
       <c r="F652">
-        <f t="shared" si="141"/>
+        <f t="shared" si="145"/>
         <v>4.6152926154173635</v>
       </c>
       <c r="G652">
-        <f t="shared" si="141"/>
+        <f t="shared" si="145"/>
         <v>4.6152926154173635</v>
       </c>
       <c r="H652">
-        <f t="shared" si="141"/>
+        <f t="shared" si="145"/>
         <v>4.6152926154173635</v>
       </c>
       <c r="J652">
@@ -17170,19 +17507,19 @@
         <v>8.0418903250417415</v>
       </c>
       <c r="K652" s="15">
-        <f t="shared" ref="K652:N652" si="142">K651/SQRT(5)</f>
+        <f t="shared" ref="K652:N652" si="146">K651/SQRT(5)</f>
         <v>8.0418903250417415</v>
       </c>
       <c r="L652" s="15">
-        <f t="shared" si="142"/>
+        <f t="shared" si="146"/>
         <v>8.0418903250417415</v>
       </c>
       <c r="M652" s="15">
-        <f t="shared" si="142"/>
+        <f t="shared" si="146"/>
         <v>8.0418903250417415</v>
       </c>
       <c r="N652" s="15">
-        <f t="shared" si="142"/>
+        <f t="shared" si="146"/>
         <v>8.0418903250417415</v>
       </c>
     </row>
@@ -17337,23 +17674,23 @@
         <v>1.3611111111112879</v>
       </c>
       <c r="C658">
-        <f t="shared" ref="C658:G658" si="143">(C656-C657)*(C656-C657)</f>
+        <f t="shared" ref="C658:G658" si="147">(C656-C657)*(C656-C657)</f>
         <v>51.361111111112194</v>
       </c>
       <c r="D658">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>2040.0277777777846</v>
       </c>
       <c r="E658">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>84.027777777779164</v>
       </c>
       <c r="F658">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>103.36111111111265</v>
       </c>
       <c r="G658">
-        <f t="shared" si="143"/>
+        <f t="shared" si="147"/>
         <v>5304.6944444444334</v>
       </c>
       <c r="I658">
@@ -17361,19 +17698,19 @@
         <v>1</v>
       </c>
       <c r="J658" s="15">
-        <f t="shared" ref="J658:M658" si="144">(J656-J657)*(J656-J657)</f>
+        <f t="shared" ref="J658:M658" si="148">(J656-J657)*(J656-J657)</f>
         <v>25</v>
       </c>
       <c r="K658" s="15">
-        <f t="shared" si="144"/>
+        <f t="shared" si="148"/>
         <v>121</v>
       </c>
       <c r="L658" s="15">
-        <f t="shared" si="144"/>
+        <f t="shared" si="148"/>
         <v>289</v>
       </c>
       <c r="M658" s="15">
-        <f t="shared" si="144"/>
+        <f t="shared" si="148"/>
         <v>100</v>
       </c>
     </row>
@@ -17424,23 +17761,23 @@
         <v>14.515158105057445</v>
       </c>
       <c r="C660">
-        <f t="shared" ref="C660:G660" si="145">C659/SQRT(6)</f>
+        <f t="shared" ref="C660:G660" si="149">C659/SQRT(6)</f>
         <v>14.515158105057445</v>
       </c>
       <c r="D660">
-        <f t="shared" si="145"/>
+        <f t="shared" si="149"/>
         <v>14.515158105057445</v>
       </c>
       <c r="E660">
-        <f t="shared" si="145"/>
+        <f t="shared" si="149"/>
         <v>14.515158105057445</v>
       </c>
       <c r="F660">
-        <f t="shared" si="145"/>
+        <f t="shared" si="149"/>
         <v>14.515158105057445</v>
       </c>
       <c r="G660">
-        <f t="shared" si="145"/>
+        <f t="shared" si="149"/>
         <v>14.515158105057445</v>
       </c>
       <c r="I660">
@@ -17448,19 +17785,19 @@
         <v>4.6303347611160897</v>
       </c>
       <c r="J660" s="15">
-        <f t="shared" ref="J660:M660" si="146">J659/SQRT(5)</f>
+        <f t="shared" ref="J660:M660" si="150">J659/SQRT(5)</f>
         <v>4.6303347611160897</v>
       </c>
       <c r="K660" s="15">
-        <f t="shared" si="146"/>
+        <f t="shared" si="150"/>
         <v>4.6303347611160897</v>
       </c>
       <c r="L660" s="15">
-        <f t="shared" si="146"/>
+        <f t="shared" si="150"/>
         <v>4.6303347611160897</v>
       </c>
       <c r="M660" s="15">
-        <f t="shared" si="146"/>
+        <f t="shared" si="150"/>
         <v>4.6303347611160897</v>
       </c>
     </row>
@@ -17580,23 +17917,23 @@
         <v>0</v>
       </c>
       <c r="C668">
-        <f t="shared" ref="C668:G668" si="147">(C666-C667)*(C666-C667)</f>
+        <f t="shared" ref="C668:G668" si="151">(C666-C667)*(C666-C667)</f>
         <v>25</v>
       </c>
       <c r="D668">
-        <f t="shared" si="147"/>
+        <f t="shared" si="151"/>
         <v>16</v>
       </c>
       <c r="E668">
-        <f t="shared" si="147"/>
+        <f t="shared" si="151"/>
         <v>1</v>
       </c>
       <c r="F668">
-        <f t="shared" si="147"/>
+        <f t="shared" si="151"/>
         <v>169</v>
       </c>
       <c r="G668">
-        <f t="shared" si="147"/>
+        <f t="shared" si="151"/>
         <v>1024</v>
       </c>
       <c r="H668" s="5"/>
@@ -17634,23 +17971,23 @@
         <v>5.576920370269467</v>
       </c>
       <c r="C670">
-        <f t="shared" ref="C670:G670" si="148">C669/SQRT(7)</f>
+        <f t="shared" ref="C670:G670" si="152">C669/SQRT(7)</f>
         <v>5.576920370269467</v>
       </c>
       <c r="D670">
-        <f t="shared" si="148"/>
+        <f t="shared" si="152"/>
         <v>5.576920370269467</v>
       </c>
       <c r="E670">
-        <f t="shared" si="148"/>
+        <f t="shared" si="152"/>
         <v>5.576920370269467</v>
       </c>
       <c r="F670">
-        <f t="shared" si="148"/>
+        <f t="shared" si="152"/>
         <v>5.576920370269467</v>
       </c>
       <c r="G670">
-        <f t="shared" si="148"/>
+        <f t="shared" si="152"/>
         <v>5.576920370269467</v>
       </c>
       <c r="H670" s="5"/>
@@ -17781,31 +18118,31 @@
         <v>395.015625</v>
       </c>
       <c r="C677">
-        <f t="shared" ref="C677" si="149">(C675-C676)*(C675-C676)</f>
+        <f t="shared" ref="C677" si="153">(C675-C676)*(C675-C676)</f>
         <v>47.265625</v>
       </c>
       <c r="D677">
-        <f t="shared" ref="D677:I677" si="150">(D675-D676)*(D675-D676)</f>
+        <f t="shared" ref="D677:I677" si="154">(D675-D676)*(D675-D676)</f>
         <v>228.765625</v>
       </c>
       <c r="E677">
-        <f t="shared" si="150"/>
+        <f t="shared" si="154"/>
         <v>83.265625</v>
       </c>
       <c r="F677">
-        <f t="shared" si="150"/>
+        <f t="shared" si="154"/>
         <v>907.515625</v>
       </c>
       <c r="G677">
-        <f t="shared" si="150"/>
+        <f t="shared" si="154"/>
         <v>435.765625</v>
       </c>
       <c r="H677">
-        <f t="shared" si="150"/>
+        <f t="shared" si="154"/>
         <v>892.515625</v>
       </c>
       <c r="I677">
-        <f t="shared" si="150"/>
+        <f t="shared" si="154"/>
         <v>534.765625</v>
       </c>
     </row>
@@ -17847,31 +18184,31 @@
         <v>6.9968991147666424</v>
       </c>
       <c r="C679">
-        <f t="shared" ref="C679" si="151">C678/3</f>
+        <f t="shared" ref="C679" si="155">C678/3</f>
         <v>6.9968991147666424</v>
       </c>
       <c r="D679">
-        <f t="shared" ref="D679:I679" si="152">D678/3</f>
+        <f t="shared" ref="D679:I679" si="156">D678/3</f>
         <v>6.9968991147666424</v>
       </c>
       <c r="E679">
-        <f t="shared" si="152"/>
+        <f t="shared" si="156"/>
         <v>6.9968991147666424</v>
       </c>
       <c r="F679">
-        <f t="shared" si="152"/>
+        <f t="shared" si="156"/>
         <v>6.9968991147666424</v>
       </c>
       <c r="G679">
-        <f t="shared" si="152"/>
+        <f t="shared" si="156"/>
         <v>6.9968991147666424</v>
       </c>
       <c r="H679">
-        <f t="shared" si="152"/>
+        <f t="shared" si="156"/>
         <v>6.9968991147666424</v>
       </c>
       <c r="I679">
-        <f t="shared" si="152"/>
+        <f t="shared" si="156"/>
         <v>6.9968991147666424</v>
       </c>
     </row>
@@ -18022,27 +18359,27 @@
         <v>4980.326530612243</v>
       </c>
       <c r="C685">
-        <f t="shared" ref="C685:H685" si="153">(C683-C684)*(C683-C684)</f>
+        <f t="shared" ref="C685:H685" si="157">(C683-C684)*(C683-C684)</f>
         <v>31.040816326530432</v>
       </c>
       <c r="D685">
-        <f t="shared" si="153"/>
+        <f t="shared" si="157"/>
         <v>88.897959183673777</v>
       </c>
       <c r="E685">
-        <f t="shared" si="153"/>
+        <f t="shared" si="157"/>
         <v>41.326530612245108</v>
       </c>
       <c r="F685">
-        <f t="shared" si="153"/>
+        <f t="shared" si="157"/>
         <v>108.75510204081667</v>
       </c>
       <c r="G685">
-        <f t="shared" si="153"/>
+        <f t="shared" si="157"/>
         <v>133.89795918367309</v>
       </c>
       <c r="H685">
-        <f t="shared" si="153"/>
+        <f t="shared" si="157"/>
         <v>3773.469387755104</v>
       </c>
       <c r="J685">
@@ -18050,11 +18387,11 @@
         <v>32.111111111110681</v>
       </c>
       <c r="K685">
-        <f t="shared" ref="K685:L685" si="154">(K683-K684)*(K683-K684)</f>
+        <f t="shared" ref="K685:L685" si="158">(K683-K684)*(K683-K684)</f>
         <v>53.777777777778333</v>
       </c>
       <c r="L685">
-        <f t="shared" si="154"/>
+        <f t="shared" si="158"/>
         <v>2.7777777777776516</v>
       </c>
     </row>
@@ -18102,27 +18439,27 @@
         <v>10.081632653061222</v>
       </c>
       <c r="C687">
-        <f t="shared" ref="C687:H687" si="155">C686/SQRT(7)</f>
+        <f t="shared" ref="C687:H687" si="159">C686/SQRT(7)</f>
         <v>10.081632653061222</v>
       </c>
       <c r="D687">
-        <f t="shared" si="155"/>
+        <f t="shared" si="159"/>
         <v>10.081632653061222</v>
       </c>
       <c r="E687">
-        <f t="shared" si="155"/>
+        <f t="shared" si="159"/>
         <v>10.081632653061222</v>
       </c>
       <c r="F687">
-        <f t="shared" si="155"/>
+        <f t="shared" si="159"/>
         <v>10.081632653061222</v>
       </c>
       <c r="G687">
-        <f t="shared" si="155"/>
+        <f t="shared" si="159"/>
         <v>10.081632653061222</v>
       </c>
       <c r="H687">
-        <f t="shared" si="155"/>
+        <f t="shared" si="159"/>
         <v>10.081632653061222</v>
       </c>
       <c r="J687">
@@ -18130,15 +18467,15 @@
         <v>3.1387659759612303</v>
       </c>
       <c r="K687">
-        <f t="shared" ref="K687:L687" si="156">K686/SQRT(3)</f>
+        <f t="shared" ref="K687:L687" si="160">K686/SQRT(3)</f>
         <v>3.1387659759612303</v>
       </c>
       <c r="L687">
-        <f t="shared" si="156"/>
+        <f t="shared" si="160"/>
         <v>3.1387659759612303</v>
       </c>
     </row>
-    <row r="692" spans="1:6">
+    <row r="692" spans="1:12">
       <c r="A692" t="s">
         <v>109</v>
       </c>
@@ -18149,7 +18486,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="694" spans="1:6">
+    <row r="694" spans="1:12">
       <c r="A694" t="s">
         <v>163</v>
       </c>
@@ -18165,8 +18502,23 @@
       <c r="E694">
         <v>110</v>
       </c>
-    </row>
-    <row r="695" spans="1:6">
+      <c r="H694">
+        <v>202</v>
+      </c>
+      <c r="I694">
+        <v>203</v>
+      </c>
+      <c r="J694">
+        <v>204</v>
+      </c>
+      <c r="K694">
+        <v>205</v>
+      </c>
+      <c r="L694">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="695" spans="1:12">
       <c r="A695" t="s">
         <v>53</v>
       </c>
@@ -18183,7 +18535,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="696" spans="1:6">
+    <row r="696" spans="1:12">
       <c r="A696" t="s">
         <v>118</v>
       </c>
@@ -18199,8 +18551,23 @@
       <c r="E696">
         <v>639</v>
       </c>
-    </row>
-    <row r="697" spans="1:6">
+      <c r="H696">
+        <v>654</v>
+      </c>
+      <c r="I696">
+        <v>653</v>
+      </c>
+      <c r="J696">
+        <v>660</v>
+      </c>
+      <c r="K696">
+        <v>645</v>
+      </c>
+      <c r="L696">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="697" spans="1:12">
       <c r="A697" t="s">
         <v>139</v>
       </c>
@@ -18216,8 +18583,23 @@
       <c r="E697">
         <v>635</v>
       </c>
-    </row>
-    <row r="698" spans="1:6">
+      <c r="H697">
+        <v>652.6</v>
+      </c>
+      <c r="I697">
+        <v>652.6</v>
+      </c>
+      <c r="J697">
+        <v>652.6</v>
+      </c>
+      <c r="K697">
+        <v>652.6</v>
+      </c>
+      <c r="L697">
+        <v>652.6</v>
+      </c>
+    </row>
+    <row r="698" spans="1:12">
       <c r="A698" t="s">
         <v>140</v>
       </c>
@@ -18226,19 +18608,39 @@
         <v>16</v>
       </c>
       <c r="C698">
-        <f t="shared" ref="C698:E698" si="157">(C696-C697)*(C696-C697)</f>
+        <f t="shared" ref="C698:E698" si="161">(C696-C697)*(C696-C697)</f>
         <v>16</v>
       </c>
       <c r="D698">
-        <f t="shared" si="157"/>
+        <f t="shared" si="161"/>
         <v>16</v>
       </c>
       <c r="E698">
-        <f t="shared" si="157"/>
+        <f t="shared" si="161"/>
         <v>16</v>
       </c>
-    </row>
-    <row r="699" spans="1:6">
+      <c r="H698" s="17">
+        <f t="shared" ref="H698:L698" si="162">(H696-H697)*(H696-H697)</f>
+        <v>1.9599999999999362</v>
+      </c>
+      <c r="I698" s="17">
+        <f t="shared" si="162"/>
+        <v>0.15999999999998182</v>
+      </c>
+      <c r="J698" s="17">
+        <f t="shared" si="162"/>
+        <v>54.759999999999664</v>
+      </c>
+      <c r="K698" s="17">
+        <f t="shared" si="162"/>
+        <v>57.760000000000346</v>
+      </c>
+      <c r="L698" s="17">
+        <f t="shared" si="162"/>
+        <v>2.5600000000000729</v>
+      </c>
+    </row>
+    <row r="699" spans="1:12">
       <c r="A699" t="s">
         <v>141</v>
       </c>
@@ -18254,8 +18656,23 @@
       <c r="E699">
         <v>4</v>
       </c>
-    </row>
-    <row r="700" spans="1:6">
+      <c r="H699" s="17">
+        <v>4.8414873747640819</v>
+      </c>
+      <c r="I699" s="17">
+        <v>4.8414873747640819</v>
+      </c>
+      <c r="J699" s="17">
+        <v>4.8414873747640819</v>
+      </c>
+      <c r="K699" s="17">
+        <v>4.8414873747640819</v>
+      </c>
+      <c r="L699" s="17">
+        <v>4.8414873747640819</v>
+      </c>
+    </row>
+    <row r="700" spans="1:12">
       <c r="A700" t="s">
         <v>142</v>
       </c>
@@ -18264,19 +18681,39 @@
         <v>2</v>
       </c>
       <c r="C700">
-        <f t="shared" ref="C700:E700" si="158">C699/SQRT(4)</f>
+        <f t="shared" ref="C700:E700" si="163">C699/SQRT(4)</f>
         <v>2</v>
       </c>
       <c r="D700">
-        <f t="shared" si="158"/>
+        <f t="shared" si="163"/>
         <v>2</v>
       </c>
       <c r="E700">
-        <f t="shared" si="158"/>
+        <f t="shared" si="163"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="703" spans="1:6">
+      <c r="H700" s="17">
+        <f>H699/SQRT(5)</f>
+        <v>2.1651789764358971</v>
+      </c>
+      <c r="I700" s="17">
+        <f t="shared" ref="I700:L700" si="164">I699/SQRT(5)</f>
+        <v>2.1651789764358971</v>
+      </c>
+      <c r="J700" s="17">
+        <f t="shared" si="164"/>
+        <v>2.1651789764358971</v>
+      </c>
+      <c r="K700" s="17">
+        <f t="shared" si="164"/>
+        <v>2.1651789764358971</v>
+      </c>
+      <c r="L700" s="17">
+        <f t="shared" si="164"/>
+        <v>2.1651789764358971</v>
+      </c>
+    </row>
+    <row r="703" spans="1:12">
       <c r="A703" t="s">
         <v>163</v>
       </c>
@@ -18290,7 +18727,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="704" spans="1:6">
+    <row r="704" spans="1:12">
       <c r="A704" t="s">
         <v>130</v>
       </c>
@@ -18304,7 +18741,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="705" spans="1:6">
+    <row r="705" spans="1:11">
       <c r="A705" t="s">
         <v>52</v>
       </c>
@@ -18318,7 +18755,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="706" spans="1:6">
+    <row r="706" spans="1:11">
       <c r="A706" t="s">
         <v>114</v>
       </c>
@@ -18332,7 +18769,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="707" spans="1:6">
+    <row r="707" spans="1:11">
       <c r="A707" t="s">
         <v>115</v>
       </c>
@@ -18341,15 +18778,15 @@
         <v>169</v>
       </c>
       <c r="C707">
-        <f t="shared" ref="C707:D707" si="159">(C705-C706)*(C705-C706)</f>
+        <f t="shared" ref="C707:D707" si="165">(C705-C706)*(C705-C706)</f>
         <v>49</v>
       </c>
       <c r="D707">
-        <f t="shared" si="159"/>
+        <f t="shared" si="165"/>
         <v>400</v>
       </c>
     </row>
-    <row r="708" spans="1:6">
+    <row r="708" spans="1:11">
       <c r="A708" t="s">
         <v>116</v>
       </c>
@@ -18358,15 +18795,15 @@
         <v>14.352700094407323</v>
       </c>
       <c r="C708">
-        <f t="shared" ref="C708:D708" si="160">SQRT(206)</f>
+        <f t="shared" ref="C708:D708" si="166">SQRT(206)</f>
         <v>14.352700094407323</v>
       </c>
       <c r="D708">
-        <f t="shared" si="160"/>
+        <f t="shared" si="166"/>
         <v>14.352700094407323</v>
       </c>
     </row>
-    <row r="709" spans="1:6">
+    <row r="709" spans="1:11">
       <c r="A709" t="s">
         <v>117</v>
       </c>
@@ -18375,15 +18812,15 @@
         <v>8.2865352631040352</v>
       </c>
       <c r="C709">
-        <f t="shared" ref="C709:D709" si="161">C708/SQRT(3)</f>
+        <f t="shared" ref="C709:D709" si="167">C708/SQRT(3)</f>
         <v>8.2865352631040352</v>
       </c>
       <c r="D709">
-        <f t="shared" si="161"/>
+        <f t="shared" si="167"/>
         <v>8.2865352631040352</v>
       </c>
     </row>
-    <row r="711" spans="1:6">
+    <row r="711" spans="1:11">
       <c r="A711" t="s">
         <v>163</v>
       </c>
@@ -18396,13 +18833,28 @@
       <c r="D711">
         <v>80</v>
       </c>
-    </row>
-    <row r="712" spans="1:6">
+      <c r="G711">
+        <v>176</v>
+      </c>
+      <c r="H711">
+        <v>177</v>
+      </c>
+      <c r="I711">
+        <v>178</v>
+      </c>
+      <c r="J711">
+        <v>190</v>
+      </c>
+      <c r="K711">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="712" spans="1:11">
       <c r="A712" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="713" spans="1:6">
+    <row r="713" spans="1:11">
       <c r="A713" t="s">
         <v>73</v>
       </c>
@@ -18418,8 +18870,28 @@
         <f>14*60+16</f>
         <v>856</v>
       </c>
-    </row>
-    <row r="714" spans="1:6">
+      <c r="G713">
+        <f>16*60+24</f>
+        <v>984</v>
+      </c>
+      <c r="H713">
+        <f>18*60+31</f>
+        <v>1111</v>
+      </c>
+      <c r="I713">
+        <f>16*60+22</f>
+        <v>982</v>
+      </c>
+      <c r="J713">
+        <f>16*60+37</f>
+        <v>997</v>
+      </c>
+      <c r="K713">
+        <f>16*60+54</f>
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="714" spans="1:11">
       <c r="A714" t="s">
         <v>114</v>
       </c>
@@ -18432,8 +18904,23 @@
       <c r="D714">
         <v>879.33333333333337</v>
       </c>
-    </row>
-    <row r="715" spans="1:6">
+      <c r="G714">
+        <v>1017.6</v>
+      </c>
+      <c r="H714">
+        <v>1017.6</v>
+      </c>
+      <c r="I714">
+        <v>1017.6</v>
+      </c>
+      <c r="J714">
+        <v>1017.6</v>
+      </c>
+      <c r="K714">
+        <v>1017.6</v>
+      </c>
+    </row>
+    <row r="715" spans="1:11">
       <c r="A715" t="s">
         <v>115</v>
       </c>
@@ -18442,15 +18929,35 @@
         <v>498.77777777777948</v>
       </c>
       <c r="C715">
-        <f t="shared" ref="C715:D715" si="162">(C713-C714)*(C713-C714)</f>
+        <f t="shared" ref="C715:D715" si="168">(C713-C714)*(C713-C714)</f>
         <v>2085.4444444444412</v>
       </c>
       <c r="D715">
-        <f t="shared" si="162"/>
+        <f t="shared" si="168"/>
         <v>544.44444444444616</v>
       </c>
-    </row>
-    <row r="716" spans="1:6">
+      <c r="G715" s="17">
+        <f t="shared" ref="G715:K715" si="169">(G713-G714)*(G713-G714)</f>
+        <v>1128.9600000000016</v>
+      </c>
+      <c r="H715" s="17">
+        <f t="shared" si="169"/>
+        <v>8723.5599999999959</v>
+      </c>
+      <c r="I715" s="17">
+        <f t="shared" si="169"/>
+        <v>1267.3600000000017</v>
+      </c>
+      <c r="J715" s="17">
+        <f t="shared" si="169"/>
+        <v>424.36000000000092</v>
+      </c>
+      <c r="K715" s="17">
+        <f t="shared" si="169"/>
+        <v>12.960000000000164</v>
+      </c>
+    </row>
+    <row r="716" spans="1:11">
       <c r="A716" t="s">
         <v>116</v>
       </c>
@@ -18463,8 +18970,23 @@
       <c r="D716">
         <v>32.293790252754306</v>
       </c>
-    </row>
-    <row r="717" spans="1:6">
+      <c r="G716" s="17">
+        <v>48.077437535708995</v>
+      </c>
+      <c r="H716" s="17">
+        <v>48.077437535708995</v>
+      </c>
+      <c r="I716">
+        <v>48.077437535708995</v>
+      </c>
+      <c r="J716">
+        <v>48.077437535708995</v>
+      </c>
+      <c r="K716">
+        <v>48.077437535708995</v>
+      </c>
+    </row>
+    <row r="717" spans="1:11">
       <c r="A717" t="s">
         <v>117</v>
       </c>
@@ -18473,15 +18995,35 @@
         <v>18.644828495581013</v>
       </c>
       <c r="C717">
-        <f t="shared" ref="C717:D717" si="163">C716/SQRT(3)</f>
+        <f t="shared" ref="C717:D717" si="170">C716/SQRT(3)</f>
         <v>18.644828495581013</v>
       </c>
       <c r="D717">
-        <f t="shared" si="163"/>
+        <f t="shared" si="170"/>
         <v>18.644828495581013</v>
       </c>
-    </row>
-    <row r="720" spans="1:6">
+      <c r="G717" s="17">
+        <f>G716/SQRT(5)</f>
+        <v>21.500883702769055</v>
+      </c>
+      <c r="H717" s="17">
+        <f t="shared" ref="H717:K717" si="171">H716/SQRT(5)</f>
+        <v>21.500883702769055</v>
+      </c>
+      <c r="I717" s="17">
+        <f t="shared" si="171"/>
+        <v>21.500883702769055</v>
+      </c>
+      <c r="J717" s="17">
+        <f t="shared" si="171"/>
+        <v>21.500883702769055</v>
+      </c>
+      <c r="K717" s="17">
+        <f t="shared" si="171"/>
+        <v>21.500883702769055</v>
+      </c>
+    </row>
+    <row r="720" spans="1:11">
       <c r="A720" t="s">
         <v>126</v>
       </c>
@@ -18569,15 +19111,15 @@
         <v>10.5625</v>
       </c>
       <c r="C726">
-        <f t="shared" ref="C726:E726" si="164">(C724-C725)*(C724-C725)</f>
+        <f t="shared" ref="C726:E726" si="172">(C724-C725)*(C724-C725)</f>
         <v>248.0625</v>
       </c>
       <c r="D726">
-        <f t="shared" si="164"/>
+        <f t="shared" si="172"/>
         <v>27.5625</v>
       </c>
       <c r="E726">
-        <f t="shared" si="164"/>
+        <f t="shared" si="172"/>
         <v>52.5625</v>
       </c>
     </row>
@@ -18607,15 +19149,15 @@
         <v>4.6012905798264905</v>
       </c>
       <c r="C728">
-        <f t="shared" ref="C728:E728" si="165">C727/SQRT(4)</f>
+        <f t="shared" ref="C728:E728" si="173">C727/SQRT(4)</f>
         <v>4.6012905798264905</v>
       </c>
       <c r="D728">
-        <f t="shared" si="165"/>
+        <f t="shared" si="173"/>
         <v>4.6012905798264905</v>
       </c>
       <c r="E728">
-        <f t="shared" si="165"/>
+        <f t="shared" si="173"/>
         <v>4.6012905798264905</v>
       </c>
     </row>
@@ -18705,19 +19247,19 @@
         <v>353.43999999999829</v>
       </c>
       <c r="C735" s="5">
-        <f t="shared" ref="C735:F735" si="166">(C733-C734)*(C733-C734)</f>
+        <f t="shared" ref="C735:F735" si="174">(C733-C734)*(C733-C734)</f>
         <v>249.63999999999857</v>
       </c>
       <c r="D735" s="5">
-        <f t="shared" si="166"/>
+        <f t="shared" si="174"/>
         <v>46.239999999999384</v>
       </c>
       <c r="E735" s="5">
-        <f t="shared" si="166"/>
+        <f t="shared" si="174"/>
         <v>33.639999999999475</v>
       </c>
       <c r="F735" s="5">
-        <f t="shared" si="166"/>
+        <f t="shared" si="174"/>
         <v>2227.8400000000042</v>
       </c>
     </row>
@@ -18750,19 +19292,19 @@
         <v>10.790366073493521</v>
       </c>
       <c r="C737" s="5">
-        <f t="shared" ref="C737:F737" si="167">C736/SQRT(5)</f>
+        <f t="shared" ref="C737:F737" si="175">C736/SQRT(5)</f>
         <v>10.790366073493521</v>
       </c>
       <c r="D737" s="5">
-        <f t="shared" si="167"/>
+        <f t="shared" si="175"/>
         <v>10.790366073493521</v>
       </c>
       <c r="E737" s="5">
-        <f t="shared" si="167"/>
+        <f t="shared" si="175"/>
         <v>10.790366073493521</v>
       </c>
       <c r="F737" s="5">
-        <f t="shared" si="167"/>
+        <f t="shared" si="175"/>
         <v>10.790366073493521</v>
       </c>
     </row>
@@ -18844,19 +19386,19 @@
         <v>484</v>
       </c>
       <c r="C743">
-        <f t="shared" ref="C743:F743" si="168">(C741-C742)*(C741-C742)</f>
+        <f t="shared" ref="C743:F743" si="176">(C741-C742)*(C741-C742)</f>
         <v>169</v>
       </c>
       <c r="D743">
-        <f t="shared" si="168"/>
+        <f t="shared" si="176"/>
         <v>11236</v>
       </c>
       <c r="E743">
-        <f t="shared" si="168"/>
+        <f t="shared" si="176"/>
         <v>1296</v>
       </c>
       <c r="F743">
-        <f t="shared" si="168"/>
+        <f t="shared" si="176"/>
         <v>1225</v>
       </c>
     </row>
@@ -18889,19 +19431,19 @@
         <v>24.008331887076199</v>
       </c>
       <c r="C745">
-        <f t="shared" ref="C745:F745" si="169">C744/SQRT(5)</f>
+        <f t="shared" ref="C745:F745" si="177">C744/SQRT(5)</f>
         <v>24.008331887076199</v>
       </c>
       <c r="D745">
-        <f t="shared" si="169"/>
+        <f t="shared" si="177"/>
         <v>24.008331887076199</v>
       </c>
       <c r="E745">
-        <f t="shared" si="169"/>
+        <f t="shared" si="177"/>
         <v>24.008331887076199</v>
       </c>
       <c r="F745">
-        <f t="shared" si="169"/>
+        <f t="shared" si="177"/>
         <v>24.008331887076199</v>
       </c>
     </row>
@@ -18995,15 +19537,15 @@
         <v>7744</v>
       </c>
       <c r="C754">
-        <f t="shared" ref="C754:E754" si="170">(C752-C753)*(C752-C753)</f>
+        <f t="shared" ref="C754:E754" si="178">(C752-C753)*(C752-C753)</f>
         <v>1089</v>
       </c>
       <c r="D754">
-        <f t="shared" si="170"/>
+        <f t="shared" si="178"/>
         <v>0</v>
       </c>
       <c r="E754">
-        <f t="shared" si="170"/>
+        <f t="shared" si="178"/>
         <v>3025</v>
       </c>
     </row>
@@ -19033,15 +19575,15 @@
         <v>27.223611075682079</v>
       </c>
       <c r="C756">
-        <f t="shared" ref="C756:E756" si="171">C755/SQRT(4)</f>
+        <f t="shared" ref="C756:E756" si="179">C755/SQRT(4)</f>
         <v>27.223611075682079</v>
       </c>
       <c r="D756">
-        <f t="shared" si="171"/>
+        <f t="shared" si="179"/>
         <v>27.223611075682079</v>
       </c>
       <c r="E756">
-        <f t="shared" si="171"/>
+        <f t="shared" si="179"/>
         <v>27.223611075682079</v>
       </c>
     </row>
@@ -19122,15 +19664,15 @@
         <v>12.25</v>
       </c>
       <c r="C763">
-        <f t="shared" ref="C763:E763" si="172">(C761-C762)*(C761-C762)</f>
+        <f t="shared" ref="C763:E763" si="180">(C761-C762)*(C761-C762)</f>
         <v>182.25</v>
       </c>
       <c r="D763">
-        <f t="shared" si="172"/>
+        <f t="shared" si="180"/>
         <v>0.25</v>
       </c>
       <c r="E763">
-        <f t="shared" si="172"/>
+        <f t="shared" si="180"/>
         <v>90.25</v>
       </c>
     </row>
@@ -19160,15 +19702,15 @@
         <v>4.2204857540335334</v>
       </c>
       <c r="C765">
-        <f t="shared" ref="C765:E765" si="173">C764/SQRT(4)</f>
+        <f t="shared" ref="C765:E765" si="181">C764/SQRT(4)</f>
         <v>4.2204857540335334</v>
       </c>
       <c r="D765">
-        <f t="shared" si="173"/>
+        <f t="shared" si="181"/>
         <v>4.2204857540335334</v>
       </c>
       <c r="E765">
-        <f t="shared" si="173"/>
+        <f t="shared" si="181"/>
         <v>4.2204857540335334</v>
       </c>
     </row>
@@ -19270,11 +19812,11 @@
         <v>576</v>
       </c>
       <c r="C771">
-        <f t="shared" ref="C771:D771" si="174">(C769-C770)*(C769-C770)</f>
+        <f t="shared" ref="C771:D771" si="182">(C769-C770)*(C769-C770)</f>
         <v>324</v>
       </c>
       <c r="D771">
-        <f t="shared" si="174"/>
+        <f t="shared" si="182"/>
         <v>36</v>
       </c>
       <c r="F771">
@@ -19282,15 +19824,15 @@
         <v>20.25</v>
       </c>
       <c r="G771">
-        <f t="shared" ref="G771:I771" si="175">(G770-G769)*(G770-G769)</f>
+        <f t="shared" ref="G771:I771" si="183">(G770-G769)*(G770-G769)</f>
         <v>930.25</v>
       </c>
       <c r="H771">
-        <f t="shared" si="175"/>
+        <f t="shared" si="183"/>
         <v>650.25</v>
       </c>
       <c r="I771">
-        <f t="shared" si="175"/>
+        <f t="shared" si="183"/>
         <v>90.25</v>
       </c>
     </row>
@@ -19329,11 +19871,11 @@
         <v>10.198039027185571</v>
       </c>
       <c r="C773">
-        <f t="shared" ref="C773:D773" si="176">C772/SQRT(3)</f>
+        <f t="shared" ref="C773:D773" si="184">C772/SQRT(3)</f>
         <v>10.198039027185571</v>
       </c>
       <c r="D773">
-        <f t="shared" si="176"/>
+        <f t="shared" si="184"/>
         <v>10.198039027185571</v>
       </c>
       <c r="F773">
@@ -19341,15 +19883,15 @@
         <v>10.280442597476044</v>
       </c>
       <c r="G773">
-        <f t="shared" ref="G773:I773" si="177">G772/SQRT(4)</f>
+        <f t="shared" ref="G773:I773" si="185">G772/SQRT(4)</f>
         <v>10.280442597476044</v>
       </c>
       <c r="H773">
-        <f t="shared" si="177"/>
+        <f t="shared" si="185"/>
         <v>10.280442597476044</v>
       </c>
       <c r="I773">
-        <f t="shared" si="177"/>
+        <f t="shared" si="185"/>
         <v>10.280442597476044</v>
       </c>
     </row>

--- a/papers/async-re/data/raw_data.xlsx
+++ b/papers/async-re/data/raw_data.xlsx
@@ -826,7 +826,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="707">
+  <cellStyleXfs count="771">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1534,8 +1534,72 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1555,8 +1619,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="707">
+  <cellStyles count="771">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1910,6 +1976,38 @@
     <cellStyle name="Followed Hyperlink" xfId="702" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="704" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="706" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="708" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="710" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="712" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="714" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="716" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="718" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="720" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="722" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="724" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="726" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="728" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="730" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="732" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="734" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="736" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="738" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="740" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="742" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="744" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="746" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="748" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="750" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="752" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="754" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="756" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="758" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="760" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="762" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="764" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="766" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="768" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="770" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2263,6 +2361,38 @@
     <cellStyle name="Hyperlink" xfId="701" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="703" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="705" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="707" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="709" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="711" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="713" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="715" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="717" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="719" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="721" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="723" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="725" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="727" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="729" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="731" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="733" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="735" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="737" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="739" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="741" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="743" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="745" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="747" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="749" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="751" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="753" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="755" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="757" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="759" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="761" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="763" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="765" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="767" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="769" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2417,11 +2547,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="535453960"/>
-        <c:axId val="424684840"/>
+        <c:axId val="383375608"/>
+        <c:axId val="433236648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="535453960"/>
+        <c:axId val="383375608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2449,7 +2579,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="424684840"/>
+        <c:crossAx val="433236648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2457,7 +2587,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="424684840"/>
+        <c:axId val="433236648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2487,7 +2617,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="535453960"/>
+        <c:crossAx val="383375608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2539,7 +2669,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2615,11 +2744,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="426358440"/>
-        <c:axId val="433744328"/>
+        <c:axId val="422293304"/>
+        <c:axId val="422205976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="426358440"/>
+        <c:axId val="422293304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2641,13 +2770,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="433744328"/>
+        <c:crossAx val="422205976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2655,7 +2783,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="433744328"/>
+        <c:axId val="422205976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2678,21 +2806,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="426358440"/>
+        <c:crossAx val="422293304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2737,7 +2863,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2903,11 +3028,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="426448520"/>
-        <c:axId val="529460792"/>
+        <c:axId val="493891960"/>
+        <c:axId val="491914904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="426448520"/>
+        <c:axId val="493891960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2929,13 +3054,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="529460792"/>
+        <c:crossAx val="491914904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2943,7 +3067,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="529460792"/>
+        <c:axId val="491914904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2966,21 +3090,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="426448520"/>
+        <c:crossAx val="493891960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3023,7 +3145,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -3034,7 +3155,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -3045,7 +3165,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -3114,11 +3233,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="427080376"/>
-        <c:axId val="529611528"/>
+        <c:axId val="403793496"/>
+        <c:axId val="463554904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="427080376"/>
+        <c:axId val="403793496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3127,7 +3246,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="529611528"/>
+        <c:crossAx val="463554904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3135,7 +3254,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="529611528"/>
+        <c:axId val="463554904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3158,14 +3277,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="427080376"/>
+        <c:crossAx val="403793496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3212,7 +3330,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3229,7 +3346,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -3240,7 +3356,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -3251,7 +3366,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -3312,11 +3426,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="528331544"/>
-        <c:axId val="535584312"/>
+        <c:axId val="430911560"/>
+        <c:axId val="430685240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="528331544"/>
+        <c:axId val="430911560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3338,13 +3452,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="535584312"/>
+        <c:crossAx val="430685240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3352,7 +3465,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="535584312"/>
+        <c:axId val="430685240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3375,21 +3488,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="528331544"/>
+        <c:crossAx val="430911560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3434,7 +3545,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3451,7 +3561,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -3462,7 +3571,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -3473,7 +3581,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -3534,11 +3641,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="424787320"/>
-        <c:axId val="426408136"/>
+        <c:axId val="403936280"/>
+        <c:axId val="421908728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="424787320"/>
+        <c:axId val="403936280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3560,13 +3667,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="426408136"/>
+        <c:crossAx val="421908728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3574,7 +3680,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="426408136"/>
+        <c:axId val="421908728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3597,21 +3703,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="424787320"/>
+        <c:crossAx val="403936280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3657,7 +3761,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -3668,7 +3771,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -3679,7 +3781,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -3747,7 +3848,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -3758,7 +3858,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -3769,7 +3868,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -3837,7 +3935,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -3848,7 +3945,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -3859,7 +3955,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -3927,7 +4022,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -3938,7 +4032,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -3949,7 +4042,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4017,7 +4109,6 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
-              <c:layout/>
               <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4028,7 +4119,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
-              <c:layout/>
               <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4039,7 +4129,6 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
-              <c:layout/>
               <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
@@ -4106,11 +4195,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="528153096"/>
-        <c:axId val="531489032"/>
+        <c:axId val="468453672"/>
+        <c:axId val="493818824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="528153096"/>
+        <c:axId val="468453672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4119,7 +4208,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="531489032"/>
+        <c:crossAx val="493818824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4127,7 +4216,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="531489032"/>
+        <c:axId val="493818824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4149,21 +4238,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="528153096"/>
+        <c:crossAx val="468453672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4368,11 +4455,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="529972264"/>
-        <c:axId val="411151848"/>
+        <c:axId val="479180664"/>
+        <c:axId val="421889496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="529972264"/>
+        <c:axId val="479180664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4381,7 +4468,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="411151848"/>
+        <c:crossAx val="421889496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4389,7 +4476,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="411151848"/>
+        <c:axId val="421889496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4419,7 +4506,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="529972264"/>
+        <c:crossAx val="479180664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4471,7 +4558,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4661,11 +4747,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="529617320"/>
-        <c:axId val="529797272"/>
+        <c:axId val="463903992"/>
+        <c:axId val="428296696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="529617320"/>
+        <c:axId val="463903992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4687,13 +4773,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="529797272"/>
+        <c:crossAx val="428296696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4701,7 +4786,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="529797272"/>
+        <c:axId val="428296696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4724,21 +4809,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="529617320"/>
+        <c:crossAx val="463903992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5448,8 +5531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z814"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A462" workbookViewId="0">
-      <selection activeCell="J466" sqref="J466"/>
+    <sheetView tabSelected="1" topLeftCell="A291" workbookViewId="0">
+      <selection activeCell="A302" sqref="A302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -8326,6 +8409,17 @@
         <v>134</v>
       </c>
     </row>
+    <row r="218" spans="1:9">
+      <c r="F218">
+        <v>207</v>
+      </c>
+      <c r="G218">
+        <v>208</v>
+      </c>
+      <c r="H218">
+        <v>209</v>
+      </c>
+    </row>
     <row r="219" spans="1:9">
       <c r="A219" t="s">
         <v>22</v>
@@ -8342,22 +8436,42 @@
       <c r="E219" s="6">
         <v>834</v>
       </c>
+      <c r="F219">
+        <f>14*60+17</f>
+        <v>857</v>
+      </c>
+      <c r="G219">
+        <v>859</v>
+      </c>
+      <c r="H219">
+        <f>12*60+19</f>
+        <v>739</v>
+      </c>
     </row>
     <row r="220" spans="1:9">
       <c r="A220" t="s">
         <v>26</v>
       </c>
       <c r="B220">
-        <v>813.5</v>
+        <v>815.57142857142856</v>
       </c>
       <c r="C220">
-        <v>813.5</v>
+        <v>815.57142857142856</v>
       </c>
       <c r="D220" s="6">
-        <v>813.5</v>
+        <v>815.57142857142856</v>
       </c>
       <c r="E220" s="6">
-        <v>813.5</v>
+        <v>815.57142857142856</v>
+      </c>
+      <c r="F220">
+        <v>815.57142857142856</v>
+      </c>
+      <c r="G220">
+        <v>815.57142857142856</v>
+      </c>
+      <c r="H220">
+        <v>815.57142857142856</v>
       </c>
     </row>
     <row r="221" spans="1:9">
@@ -8366,36 +8480,57 @@
       </c>
       <c r="B221">
         <f>(B219-B220)*(B219-B220)</f>
-        <v>812.25</v>
+        <v>934.61224489795813</v>
       </c>
       <c r="C221">
         <f>(C219-C220)*(C219-C220)</f>
-        <v>90.25</v>
+        <v>55.183673469387998</v>
       </c>
       <c r="D221" s="6">
         <f>(D219-D220)*(D219-D220)</f>
-        <v>2.25</v>
+        <v>12.75510204081621</v>
       </c>
       <c r="E221" s="6">
         <f>(E219-E220)*(E219-E220)</f>
-        <v>420.25</v>
+        <v>339.61224489795978</v>
+      </c>
+      <c r="F221" s="18">
+        <f t="shared" ref="F221:H221" si="32">(F219-F220)*(F219-F220)</f>
+        <v>1716.3265306122462</v>
+      </c>
+      <c r="G221" s="18">
+        <f t="shared" si="32"/>
+        <v>1886.040816326532</v>
+      </c>
+      <c r="H221" s="18">
+        <f t="shared" si="32"/>
+        <v>5863.1836734693852</v>
       </c>
     </row>
     <row r="222" spans="1:9">
       <c r="A222" t="s">
         <v>28</v>
       </c>
-      <c r="B222" s="6">
-        <v>18.200274723201296</v>
-      </c>
-      <c r="C222" s="6">
-        <v>18.200274723201296</v>
+      <c r="B222" s="18">
+        <v>39.293246031264324</v>
+      </c>
+      <c r="C222" s="18">
+        <v>39.293246031264324</v>
       </c>
       <c r="D222" s="6">
-        <v>18.200274723201296</v>
+        <v>39.293246031264324</v>
       </c>
       <c r="E222" s="6">
-        <v>18.200274723201296</v>
+        <v>39.293246031264324</v>
+      </c>
+      <c r="F222">
+        <v>39.293246031264324</v>
+      </c>
+      <c r="G222">
+        <v>39.293246031264324</v>
+      </c>
+      <c r="H222">
+        <v>39.293246031264324</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -8403,23 +8538,46 @@
         <v>105</v>
       </c>
       <c r="B223">
-        <f>B222/SQRT(4)</f>
-        <v>9.1001373616006482</v>
-      </c>
-      <c r="C223" s="6">
-        <f t="shared" ref="C223:E223" si="32">C222/SQRT(4)</f>
-        <v>9.1001373616006482</v>
-      </c>
-      <c r="D223" s="6">
-        <f t="shared" si="32"/>
-        <v>9.1001373616006482</v>
-      </c>
-      <c r="E223" s="6">
-        <f t="shared" si="32"/>
-        <v>9.1001373616006482</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5">
+        <f>B222/SQRT(7)</f>
+        <v>14.851451029028729</v>
+      </c>
+      <c r="C223" s="18">
+        <f t="shared" ref="C223:H223" si="33">C222/SQRT(7)</f>
+        <v>14.851451029028729</v>
+      </c>
+      <c r="D223" s="18">
+        <f t="shared" si="33"/>
+        <v>14.851451029028729</v>
+      </c>
+      <c r="E223" s="18">
+        <f t="shared" si="33"/>
+        <v>14.851451029028729</v>
+      </c>
+      <c r="F223" s="18">
+        <f t="shared" si="33"/>
+        <v>14.851451029028729</v>
+      </c>
+      <c r="G223" s="18">
+        <f t="shared" si="33"/>
+        <v>14.851451029028729</v>
+      </c>
+      <c r="H223" s="18">
+        <f t="shared" si="33"/>
+        <v>14.851451029028729</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
+      <c r="F225">
+        <v>216</v>
+      </c>
+      <c r="G225">
+        <v>217</v>
+      </c>
+      <c r="H225">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
       <c r="A226" t="s">
         <v>23</v>
       </c>
@@ -8435,85 +8593,143 @@
       <c r="E226">
         <v>640</v>
       </c>
-    </row>
-    <row r="227" spans="1:5">
+      <c r="F226">
+        <v>650</v>
+      </c>
+      <c r="G226">
+        <v>640</v>
+      </c>
+      <c r="H226">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
       <c r="A227" t="s">
         <v>106</v>
       </c>
       <c r="B227">
-        <f>SUM(B226:E226)/4</f>
-        <v>641.75</v>
+        <v>642</v>
       </c>
       <c r="C227">
-        <v>641.75</v>
+        <v>642</v>
       </c>
       <c r="D227">
-        <v>641.75</v>
+        <v>642</v>
       </c>
       <c r="E227">
-        <v>641.75</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5">
+        <v>642</v>
+      </c>
+      <c r="F227">
+        <v>642</v>
+      </c>
+      <c r="G227">
+        <v>642</v>
+      </c>
+      <c r="H227">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
       <c r="A228" t="s">
         <v>107</v>
       </c>
       <c r="B228">
         <f>(B226-B227)*(B226-B227)</f>
-        <v>68.0625</v>
-      </c>
-      <c r="C228">
-        <f>(C226-C227)*(C226-C227)</f>
-        <v>14.0625</v>
-      </c>
-      <c r="D228">
-        <f t="shared" ref="D228:E228" si="33">(D226-D227)*(D226-D227)</f>
-        <v>7.5625</v>
-      </c>
-      <c r="E228">
-        <f t="shared" si="33"/>
-        <v>3.0625</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5">
+        <v>64</v>
+      </c>
+      <c r="C228" s="18">
+        <f t="shared" ref="C228:H228" si="34">(C226-C227)*(C226-C227)</f>
+        <v>16</v>
+      </c>
+      <c r="D228" s="18">
+        <f t="shared" si="34"/>
+        <v>9</v>
+      </c>
+      <c r="E228" s="18">
+        <f t="shared" si="34"/>
+        <v>4</v>
+      </c>
+      <c r="F228" s="18">
+        <f t="shared" si="34"/>
+        <v>64</v>
+      </c>
+      <c r="G228" s="18">
+        <f t="shared" si="34"/>
+        <v>4</v>
+      </c>
+      <c r="H228" s="18">
+        <f t="shared" si="34"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
       <c r="A229" t="s">
         <v>108</v>
       </c>
-      <c r="B229">
-        <v>4.815340071064556</v>
-      </c>
-      <c r="C229">
-        <v>4.815340071064556</v>
+      <c r="B229" s="18">
+        <v>5.1547481579053471</v>
+      </c>
+      <c r="C229" s="18">
+        <v>5.1547481579053471</v>
       </c>
       <c r="D229">
-        <v>4.815340071064556</v>
+        <v>5.1547481579053471</v>
       </c>
       <c r="E229">
-        <v>4.815340071064556</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5">
+        <v>5.1547481579053471</v>
+      </c>
+      <c r="F229">
+        <v>5.1547481579053471</v>
+      </c>
+      <c r="G229">
+        <v>5.1547481579053471</v>
+      </c>
+      <c r="H229">
+        <v>5.1547481579053471</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
       <c r="A230" t="s">
         <v>105</v>
       </c>
       <c r="B230">
-        <f>B229/SQRT(4)</f>
-        <v>2.407670035532278</v>
-      </c>
-      <c r="C230">
-        <f t="shared" ref="C230:E230" si="34">C229/SQRT(4)</f>
-        <v>2.407670035532278</v>
-      </c>
-      <c r="D230">
-        <f t="shared" si="34"/>
-        <v>2.407670035532278</v>
-      </c>
-      <c r="E230">
-        <f t="shared" si="34"/>
-        <v>2.407670035532278</v>
-      </c>
-    </row>
-    <row r="233" spans="1:5">
+        <f>B229/SQRT(7)</f>
+        <v>1.9483116709979793</v>
+      </c>
+      <c r="C230" s="18">
+        <f t="shared" ref="C230:H230" si="35">C229/SQRT(7)</f>
+        <v>1.9483116709979793</v>
+      </c>
+      <c r="D230" s="18">
+        <f t="shared" si="35"/>
+        <v>1.9483116709979793</v>
+      </c>
+      <c r="E230" s="18">
+        <f t="shared" si="35"/>
+        <v>1.9483116709979793</v>
+      </c>
+      <c r="F230" s="18">
+        <f t="shared" si="35"/>
+        <v>1.9483116709979793</v>
+      </c>
+      <c r="G230" s="18">
+        <f t="shared" si="35"/>
+        <v>1.9483116709979793</v>
+      </c>
+      <c r="H230" s="18">
+        <f t="shared" si="35"/>
+        <v>1.9483116709979793</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
+      <c r="F232">
+        <v>192</v>
+      </c>
+      <c r="G232">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
       <c r="A233" t="s">
         <v>24</v>
       </c>
@@ -8531,81 +8747,117 @@
       <c r="E233" s="6">
         <v>1034</v>
       </c>
-    </row>
-    <row r="234" spans="1:5">
+      <c r="F233">
+        <f>1160-217</f>
+        <v>943</v>
+      </c>
+      <c r="G233">
+        <f>1189-217</f>
+        <v>972</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
       <c r="A234" t="s">
         <v>26</v>
       </c>
       <c r="B234">
-        <v>1033.75</v>
+        <v>1008.3333333333334</v>
       </c>
       <c r="C234">
-        <v>1033.75</v>
+        <v>1008.3333333333334</v>
       </c>
       <c r="D234" s="6">
-        <v>1033.75</v>
+        <v>1008.3333333333334</v>
       </c>
       <c r="E234" s="6">
-        <v>1033.75</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5">
+        <v>1008.3333333333334</v>
+      </c>
+      <c r="F234">
+        <v>1008.3333333333334</v>
+      </c>
+      <c r="G234">
+        <v>1008.3333333333334</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
       <c r="A235" t="s">
         <v>27</v>
       </c>
       <c r="B235">
         <f>(B233-B234)*(B233-B234)</f>
-        <v>1463.0625</v>
-      </c>
-      <c r="C235">
-        <f>(C233-C234)*(C233-C234)</f>
-        <v>3451.5625</v>
-      </c>
-      <c r="D235" s="6">
-        <f>(D233-D234)*(D233-D234)</f>
-        <v>410.0625</v>
-      </c>
-      <c r="E235" s="6">
-        <f>(E233-E234)*(E233-E234)</f>
-        <v>6.25E-2</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5">
+        <v>4053.4444444444398</v>
+      </c>
+      <c r="C235" s="18">
+        <f t="shared" ref="C235:G235" si="36">(C233-C234)*(C233-C234)</f>
+        <v>1111.1111111111136</v>
+      </c>
+      <c r="D235" s="18">
+        <f t="shared" si="36"/>
+        <v>2085.4444444444412</v>
+      </c>
+      <c r="E235" s="18">
+        <f t="shared" si="36"/>
+        <v>658.77777777777578</v>
+      </c>
+      <c r="F235" s="18">
+        <f t="shared" si="36"/>
+        <v>4268.4444444444498</v>
+      </c>
+      <c r="G235" s="18">
+        <f t="shared" si="36"/>
+        <v>1320.1111111111138</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
       <c r="A236" t="s">
         <v>108</v>
       </c>
-      <c r="B236" s="6">
-        <v>36.485442302375887</v>
-      </c>
-      <c r="C236">
-        <v>36.485442302375887</v>
+      <c r="B236" s="18">
+        <v>47.429479815359088</v>
+      </c>
+      <c r="C236" s="18">
+        <v>47.429479815359088</v>
       </c>
       <c r="D236" s="6">
-        <v>36.485442302375887</v>
+        <v>47.429479815359088</v>
       </c>
       <c r="E236" s="6">
-        <v>36.485442302375887</v>
-      </c>
-    </row>
-    <row r="237" spans="1:5">
+        <v>47.429479815359088</v>
+      </c>
+      <c r="F236">
+        <v>47.429479815359088</v>
+      </c>
+      <c r="G236">
+        <v>47.429479815359088</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
       <c r="A237" t="s">
         <v>54</v>
       </c>
       <c r="B237">
-        <f>B236/SQRT(4)</f>
-        <v>18.242721151187943</v>
-      </c>
-      <c r="C237" s="6">
-        <f t="shared" ref="C237:E237" si="35">C236/SQRT(4)</f>
-        <v>18.242721151187943</v>
-      </c>
-      <c r="D237" s="6">
-        <f t="shared" si="35"/>
-        <v>18.242721151187943</v>
-      </c>
-      <c r="E237" s="6">
-        <f t="shared" si="35"/>
-        <v>18.242721151187943</v>
+        <f>B236/SQRT(6)</f>
+        <v>19.363004052210645</v>
+      </c>
+      <c r="C237" s="18">
+        <f t="shared" ref="C237:G237" si="37">C236/SQRT(6)</f>
+        <v>19.363004052210645</v>
+      </c>
+      <c r="D237" s="18">
+        <f t="shared" si="37"/>
+        <v>19.363004052210645</v>
+      </c>
+      <c r="E237" s="18">
+        <f t="shared" si="37"/>
+        <v>19.363004052210645</v>
+      </c>
+      <c r="F237" s="18">
+        <f t="shared" si="37"/>
+        <v>19.363004052210645</v>
+      </c>
+      <c r="G237" s="18">
+        <f t="shared" si="37"/>
+        <v>19.363004052210645</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -8623,6 +8875,9 @@
       <c r="D242">
         <v>125</v>
       </c>
+      <c r="E242">
+        <v>219</v>
+      </c>
       <c r="H242" s="1" t="s">
         <v>161</v>
       </c>
@@ -8640,6 +8895,9 @@
       <c r="D243">
         <v>658</v>
       </c>
+      <c r="E243">
+        <v>667</v>
+      </c>
       <c r="H243" s="2" t="s">
         <v>17</v>
       </c>
@@ -8649,13 +8907,16 @@
         <v>106</v>
       </c>
       <c r="B244">
-        <v>659.66666666666663</v>
+        <v>661.5</v>
       </c>
       <c r="C244">
-        <v>659.66666666666663</v>
+        <v>661.5</v>
       </c>
       <c r="D244">
-        <v>659.66666666666663</v>
+        <v>661.5</v>
+      </c>
+      <c r="E244">
+        <v>661.5</v>
       </c>
       <c r="H244" s="3" t="s">
         <v>123</v>
@@ -8667,29 +8928,36 @@
       </c>
       <c r="B245">
         <f>(B244-B243)*(B244-B243)</f>
-        <v>0.11111111111113638</v>
-      </c>
-      <c r="C245">
-        <f t="shared" ref="C245:D245" si="36">(C244-C243)*(C244-C243)</f>
-        <v>1.7777777777778789</v>
-      </c>
-      <c r="D245">
-        <f t="shared" si="36"/>
-        <v>2.7777777777776516</v>
+        <v>2.25</v>
+      </c>
+      <c r="C245" s="18">
+        <f t="shared" ref="C245:E245" si="38">(C244-C243)*(C244-C243)</f>
+        <v>0.25</v>
+      </c>
+      <c r="D245" s="18">
+        <f t="shared" si="38"/>
+        <v>12.25</v>
+      </c>
+      <c r="E245" s="18">
+        <f t="shared" si="38"/>
+        <v>30.25</v>
       </c>
     </row>
     <row r="246" spans="1:8">
       <c r="A246" t="s">
         <v>108</v>
       </c>
-      <c r="B246">
-        <v>1.247219128924647</v>
-      </c>
-      <c r="C246">
-        <v>1.247219128924647</v>
+      <c r="B246" s="18">
+        <v>3.3541019662496847</v>
+      </c>
+      <c r="C246" s="18">
+        <v>3.3541019662496847</v>
       </c>
       <c r="D246">
-        <v>1.247219128924647</v>
+        <v>3.3541019662496847</v>
+      </c>
+      <c r="E246">
+        <v>3.3541019662496847</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -8697,16 +8965,20 @@
         <v>105</v>
       </c>
       <c r="B247">
-        <f>B246/SQRT(3)</f>
-        <v>0.72008229982309557</v>
-      </c>
-      <c r="C247">
-        <f t="shared" ref="C247:D247" si="37">C246/SQRT(3)</f>
-        <v>0.72008229982309557</v>
-      </c>
-      <c r="D247">
-        <f t="shared" si="37"/>
-        <v>0.72008229982309557</v>
+        <f>B246/SQRT(4)</f>
+        <v>1.6770509831248424</v>
+      </c>
+      <c r="C247" s="18">
+        <f t="shared" ref="C247:E247" si="39">C246/SQRT(4)</f>
+        <v>1.6770509831248424</v>
+      </c>
+      <c r="D247" s="18">
+        <f t="shared" si="39"/>
+        <v>1.6770509831248424</v>
+      </c>
+      <c r="E247" s="18">
+        <f t="shared" si="39"/>
+        <v>1.6770509831248424</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -8725,6 +8997,9 @@
       <c r="E248">
         <v>98</v>
       </c>
+      <c r="F248">
+        <v>194</v>
+      </c>
     </row>
     <row r="249" spans="1:8">
       <c r="A249" t="s">
@@ -8746,19 +9021,26 @@
         <f>1746-64*7</f>
         <v>1298</v>
       </c>
+      <c r="F249">
+        <f>1895-64*7</f>
+        <v>1447</v>
+      </c>
     </row>
     <row r="250" spans="1:8">
       <c r="A250" t="s">
         <v>171</v>
       </c>
       <c r="C250">
-        <v>1389</v>
+        <v>1403.5</v>
       </c>
       <c r="D250">
-        <v>1389</v>
+        <v>1403.5</v>
       </c>
       <c r="E250">
-        <v>1389</v>
+        <v>1403.5</v>
+      </c>
+      <c r="F250">
+        <v>1403.5</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -8767,29 +9049,36 @@
       </c>
       <c r="C251">
         <f>(C250-C249)*(C250-C249)</f>
-        <v>1089</v>
-      </c>
-      <c r="D251">
-        <f t="shared" ref="D251:E251" si="38">(D250-D249)*(D250-D249)</f>
-        <v>15376</v>
-      </c>
-      <c r="E251">
-        <f t="shared" si="38"/>
-        <v>8281</v>
+        <v>2256.25</v>
+      </c>
+      <c r="D251" s="18">
+        <f t="shared" ref="D251:F251" si="40">(D250-D249)*(D250-D249)</f>
+        <v>11990.25</v>
+      </c>
+      <c r="E251" s="18">
+        <f t="shared" si="40"/>
+        <v>11130.25</v>
+      </c>
+      <c r="F251" s="18">
+        <f t="shared" si="40"/>
+        <v>1892.25</v>
       </c>
     </row>
     <row r="252" spans="1:8">
       <c r="A252" t="s">
         <v>169</v>
       </c>
-      <c r="C252">
-        <v>90.822170567910703</v>
-      </c>
-      <c r="D252">
-        <v>90.822170567910703</v>
+      <c r="C252" s="18">
+        <v>82.566639752384262</v>
+      </c>
+      <c r="D252" s="18">
+        <v>82.566639752384262</v>
       </c>
       <c r="E252">
-        <v>90.822170567910703</v>
+        <v>82.566639752384262</v>
+      </c>
+      <c r="F252">
+        <v>82.566639752384262</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -8797,16 +9086,20 @@
         <v>173</v>
       </c>
       <c r="C253">
-        <f>C252/SQRT(3)</f>
-        <v>52.436204625769356</v>
-      </c>
-      <c r="D253">
-        <f t="shared" ref="D253:E253" si="39">D252/SQRT(3)</f>
-        <v>52.436204625769356</v>
-      </c>
-      <c r="E253">
-        <f t="shared" si="39"/>
-        <v>52.436204625769356</v>
+        <f>C252/SQRT(4)</f>
+        <v>41.283319876192131</v>
+      </c>
+      <c r="D253" s="18">
+        <f t="shared" ref="D253:F253" si="41">D252/SQRT(4)</f>
+        <v>41.283319876192131</v>
+      </c>
+      <c r="E253" s="18">
+        <f t="shared" si="41"/>
+        <v>41.283319876192131</v>
+      </c>
+      <c r="F253" s="18">
+        <f t="shared" si="41"/>
+        <v>41.283319876192131</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -8816,6 +9109,9 @@
       <c r="F255">
         <v>201</v>
       </c>
+      <c r="G255">
+        <v>210</v>
+      </c>
     </row>
     <row r="256" spans="1:8">
       <c r="A256" t="s">
@@ -8839,22 +9135,32 @@
       <c r="F256">
         <v>1217</v>
       </c>
+      <c r="G256">
+        <f>19*60+15</f>
+        <v>1155</v>
+      </c>
     </row>
     <row r="257" spans="1:12">
       <c r="A257" t="s">
         <v>171</v>
       </c>
       <c r="B257">
-        <v>1097.5</v>
+        <v>1127</v>
       </c>
       <c r="C257">
-        <v>1097.5</v>
+        <v>1127</v>
       </c>
       <c r="D257">
-        <v>1097.5</v>
+        <v>1127</v>
       </c>
       <c r="E257">
-        <v>1097.5</v>
+        <v>1127</v>
+      </c>
+      <c r="F257">
+        <v>1127</v>
+      </c>
+      <c r="G257">
+        <v>1127</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -8863,36 +9169,50 @@
       </c>
       <c r="B258">
         <f>(B256-B257)*(B256-B257)</f>
-        <v>306.25</v>
-      </c>
-      <c r="C258">
-        <f t="shared" ref="C258:E258" si="40">(C256-C257)*(C256-C257)</f>
-        <v>4422.25</v>
-      </c>
-      <c r="D258">
-        <f t="shared" si="40"/>
-        <v>650.25</v>
-      </c>
-      <c r="E258">
-        <f t="shared" si="40"/>
-        <v>552.25</v>
+        <v>144</v>
+      </c>
+      <c r="C258" s="18">
+        <f t="shared" ref="C258:G258" si="42">(C256-C257)*(C256-C257)</f>
+        <v>9216</v>
+      </c>
+      <c r="D258" s="18">
+        <f t="shared" si="42"/>
+        <v>16</v>
+      </c>
+      <c r="E258" s="18">
+        <f t="shared" si="42"/>
+        <v>36</v>
+      </c>
+      <c r="F258" s="18">
+        <f t="shared" si="42"/>
+        <v>8100</v>
+      </c>
+      <c r="G258" s="18">
+        <f t="shared" si="42"/>
+        <v>784</v>
       </c>
     </row>
     <row r="259" spans="1:12">
       <c r="A259" t="s">
         <v>169</v>
       </c>
-      <c r="B259">
-        <v>38.50649295898031</v>
-      </c>
-      <c r="C259">
-        <v>38.50649295898031</v>
+      <c r="B259" s="18">
+        <v>55.220769039676853</v>
+      </c>
+      <c r="C259" s="18">
+        <v>55.220769039676853</v>
       </c>
       <c r="D259">
-        <v>38.50649295898031</v>
+        <v>55.220769039676853</v>
       </c>
       <c r="E259">
-        <v>38.50649295898031</v>
+        <v>55.220769039676853</v>
+      </c>
+      <c r="F259">
+        <v>55.220769039676853</v>
+      </c>
+      <c r="G259">
+        <v>55.220769039676853</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -8900,20 +9220,28 @@
         <v>173</v>
       </c>
       <c r="B260">
-        <f>B259/SQRT(4)</f>
-        <v>19.253246479490155</v>
-      </c>
-      <c r="C260">
-        <f t="shared" ref="C260:E260" si="41">C259/SQRT(4)</f>
-        <v>19.253246479490155</v>
-      </c>
-      <c r="D260">
-        <f t="shared" si="41"/>
-        <v>19.253246479490155</v>
-      </c>
-      <c r="E260">
-        <f t="shared" si="41"/>
-        <v>19.253246479490155</v>
+        <f>B259/SQRT(6)</f>
+        <v>22.543784558547891</v>
+      </c>
+      <c r="C260" s="18">
+        <f t="shared" ref="C260:G260" si="43">C259/SQRT(6)</f>
+        <v>22.543784558547891</v>
+      </c>
+      <c r="D260" s="18">
+        <f t="shared" si="43"/>
+        <v>22.543784558547891</v>
+      </c>
+      <c r="E260" s="18">
+        <f t="shared" si="43"/>
+        <v>22.543784558547891</v>
+      </c>
+      <c r="F260" s="18">
+        <f t="shared" si="43"/>
+        <v>22.543784558547891</v>
+      </c>
+      <c r="G260" s="18">
+        <f t="shared" si="43"/>
+        <v>22.543784558547891</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -9044,15 +9372,15 @@
         <v>110.25</v>
       </c>
       <c r="J273">
-        <f t="shared" ref="J273:L273" si="42">(J272-J271)*(J272-J271)</f>
+        <f t="shared" ref="J273:L273" si="44">(J272-J271)*(J272-J271)</f>
         <v>182.25</v>
       </c>
       <c r="K273">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>506.25</v>
       </c>
       <c r="L273">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>380.25</v>
       </c>
     </row>
@@ -9082,15 +9410,15 @@
         <v>8.5841423566946986</v>
       </c>
       <c r="J275">
-        <f t="shared" ref="J275:L275" si="43">J274/SQRT(4)</f>
+        <f t="shared" ref="J275:L275" si="45">J274/SQRT(4)</f>
         <v>8.5841423566946986</v>
       </c>
       <c r="K275">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>8.5841423566946986</v>
       </c>
       <c r="L275">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>8.5841423566946986</v>
       </c>
     </row>
@@ -9273,7 +9601,7 @@
         <v>1296</v>
       </c>
       <c r="F296">
-        <f t="shared" ref="F296" si="44">(F295-F294)*(F295-F294)</f>
+        <f t="shared" ref="F296" si="46">(F295-F294)*(F295-F294)</f>
         <v>1296</v>
       </c>
     </row>
@@ -9301,6 +9629,9 @@
         <v>25.45584412271571</v>
       </c>
     </row>
+    <row r="301" spans="1:6" s="19" customFormat="1">
+      <c r="A301"/>
+    </row>
     <row r="306" spans="1:6">
       <c r="A306" s="1" t="s">
         <v>77</v>
@@ -9834,39 +10165,39 @@
         <v>262553.76000000007</v>
       </c>
       <c r="C346">
-        <f t="shared" ref="C346:K346" si="45">(C344-C345)*(C344-C345)</f>
+        <f t="shared" ref="C346:K346" si="47">(C344-C345)*(C344-C345)</f>
         <v>60319.359999999957</v>
       </c>
       <c r="D346">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>37869.159999999967</v>
       </c>
       <c r="E346">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>501.76000000000408</v>
       </c>
       <c r="F346">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>66873.959999999948</v>
       </c>
       <c r="G346">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>26699.56000000003</v>
       </c>
       <c r="H346">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>52716.15999999996</v>
       </c>
       <c r="I346">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>14786.559999999978</v>
       </c>
       <c r="J346">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>138830.75999999992</v>
       </c>
       <c r="K346">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>524755.3600000001</v>
       </c>
       <c r="O346">
@@ -9874,39 +10205,39 @@
         <v>37519.690000000017</v>
       </c>
       <c r="P346">
-        <f t="shared" ref="P346:X346" si="46">(P344-P345)*(P344-P345)</f>
+        <f t="shared" ref="P346:X346" si="48">(P344-P345)*(P344-P345)</f>
         <v>12387.68999999999</v>
       </c>
       <c r="Q346">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>5083.6899999999932</v>
       </c>
       <c r="R346">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>39.689999999999429</v>
       </c>
       <c r="S346">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>9662.8899999999903</v>
       </c>
       <c r="T346">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>14089.690000000011</v>
       </c>
       <c r="U346">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>13064.489999999989</v>
       </c>
       <c r="V346">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>161.29000000000116</v>
       </c>
       <c r="W346">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>52120.889999999978</v>
       </c>
       <c r="X346">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>92842.090000000026</v>
       </c>
     </row>
@@ -9984,39 +10315,39 @@
         <v>108.89932965817557</v>
       </c>
       <c r="C348">
-        <f t="shared" ref="C348:K348" si="47">C347/SQRT(10)</f>
+        <f t="shared" ref="C348:K348" si="49">C347/SQRT(10)</f>
         <v>108.89932965817557</v>
       </c>
       <c r="D348">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>108.89932965817557</v>
       </c>
       <c r="E348">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>108.89932965817557</v>
       </c>
       <c r="F348">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>108.89932965817557</v>
       </c>
       <c r="G348">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>108.89932965817557</v>
       </c>
       <c r="H348">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>108.89932965817557</v>
       </c>
       <c r="I348">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>108.89932965817557</v>
       </c>
       <c r="J348">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>108.89932965817557</v>
       </c>
       <c r="K348">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>108.89932965817557</v>
       </c>
       <c r="O348">
@@ -10024,39 +10355,39 @@
         <v>48.679780196710006</v>
       </c>
       <c r="P348">
-        <f t="shared" ref="P348:X348" si="48">P347/SQRT(10)</f>
+        <f t="shared" ref="P348:X348" si="50">P347/SQRT(10)</f>
         <v>48.679780196710006</v>
       </c>
       <c r="Q348">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>48.679780196710006</v>
       </c>
       <c r="R348">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>48.679780196710006</v>
       </c>
       <c r="S348">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>48.679780196710006</v>
       </c>
       <c r="T348">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>48.679780196710006</v>
       </c>
       <c r="U348">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>48.679780196710006</v>
       </c>
       <c r="V348">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>48.679780196710006</v>
       </c>
       <c r="W348">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>48.679780196710006</v>
       </c>
       <c r="X348">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>48.679780196710006</v>
       </c>
     </row>
@@ -10302,47 +10633,47 @@
         <v>819175.84027777787</v>
       </c>
       <c r="C353">
-        <f t="shared" ref="C353:M353" si="49">(C351-C352)*(C351-C352)</f>
+        <f t="shared" ref="C353:M353" si="51">(C351-C352)*(C351-C352)</f>
         <v>236277.00694444447</v>
       </c>
       <c r="D353">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>8085.006944444438</v>
       </c>
       <c r="E353">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>47052.840277777759</v>
       </c>
       <c r="F353">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>41175.173611111095</v>
       </c>
       <c r="G353">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>258.67361111111234</v>
       </c>
       <c r="H353">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>41990.840277777759</v>
       </c>
       <c r="I353">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>39966.673611111095</v>
       </c>
       <c r="J353">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>39567.840277777759</v>
       </c>
       <c r="K353">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>51491.173611111095</v>
       </c>
       <c r="L353">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>222.50694444444332</v>
       </c>
       <c r="M353">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>2695.3402777777737</v>
       </c>
       <c r="O353">
@@ -10350,47 +10681,47 @@
         <v>74847.840277777766</v>
       </c>
       <c r="P353">
-        <f t="shared" ref="P353:Z353" si="50">(P351-P352)*(P351-P352)</f>
+        <f t="shared" ref="P353:Z353" si="52">(P351-P352)*(P351-P352)</f>
         <v>61297.506944444438</v>
       </c>
       <c r="Q353">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>2541.8402777777796</v>
       </c>
       <c r="R353">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>9883.673611111115</v>
       </c>
       <c r="S353">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>6149.173611111114</v>
       </c>
       <c r="T353">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>17578.340277777774</v>
       </c>
       <c r="U353">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>14022.506944444449</v>
       </c>
       <c r="V353">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>6628.673611111114</v>
       </c>
       <c r="W353">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>12863.340277777783</v>
       </c>
       <c r="X353">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>15981.173611111117</v>
       </c>
       <c r="Y353">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>275.00694444444383</v>
       </c>
       <c r="Z353">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>5.8402777777778692</v>
       </c>
     </row>
@@ -10480,47 +10811,47 @@
         <v>96.030916486807996</v>
       </c>
       <c r="C355">
-        <f t="shared" ref="C355:M355" si="51">C354/SQRT(12)</f>
+        <f t="shared" ref="C355:M355" si="53">C354/SQRT(12)</f>
         <v>96.030916486807996</v>
       </c>
       <c r="D355">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>96.030916486807996</v>
       </c>
       <c r="E355">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>96.030916486807996</v>
       </c>
       <c r="F355">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>96.030916486807996</v>
       </c>
       <c r="G355">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>96.030916486807996</v>
       </c>
       <c r="H355">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>96.030916486807996</v>
       </c>
       <c r="I355">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>96.030916486807996</v>
       </c>
       <c r="J355">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>96.030916486807996</v>
       </c>
       <c r="K355">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>96.030916486807996</v>
       </c>
       <c r="L355">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>96.030916486807996</v>
       </c>
       <c r="M355">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>96.030916486807996</v>
       </c>
       <c r="O355">
@@ -10528,47 +10859,47 @@
         <v>39.270687812875103</v>
       </c>
       <c r="P355">
-        <f t="shared" ref="P355:Z355" si="52">P354/SQRT(12)</f>
+        <f t="shared" ref="P355:Z355" si="54">P354/SQRT(12)</f>
         <v>39.270687812875103</v>
       </c>
       <c r="Q355">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>39.270687812875103</v>
       </c>
       <c r="R355">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>39.270687812875103</v>
       </c>
       <c r="S355">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>39.270687812875103</v>
       </c>
       <c r="T355">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>39.270687812875103</v>
       </c>
       <c r="U355">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>39.270687812875103</v>
       </c>
       <c r="V355">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>39.270687812875103</v>
       </c>
       <c r="W355">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>39.270687812875103</v>
       </c>
       <c r="X355">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>39.270687812875103</v>
       </c>
       <c r="Y355">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>39.270687812875103</v>
       </c>
       <c r="Z355">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>39.270687812875103</v>
       </c>
     </row>
@@ -10810,47 +11141,47 @@
         <v>8464</v>
       </c>
       <c r="C360">
-        <f t="shared" ref="C360:M360" si="53">(C358-C359)*(C358-C359)</f>
+        <f t="shared" ref="C360:M360" si="55">(C358-C359)*(C358-C359)</f>
         <v>17161</v>
       </c>
       <c r="D360">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>3721</v>
       </c>
       <c r="E360">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>3721</v>
       </c>
       <c r="F360">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>6400</v>
       </c>
       <c r="G360">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>297025</v>
       </c>
       <c r="H360">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>14641</v>
       </c>
       <c r="I360">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>3721</v>
       </c>
       <c r="J360">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>6561</v>
       </c>
       <c r="K360">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>961</v>
       </c>
       <c r="L360">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>3600</v>
       </c>
       <c r="M360">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>4900</v>
       </c>
       <c r="O360">
@@ -10858,47 +11189,47 @@
         <v>4511.361111111114</v>
       </c>
       <c r="P360">
-        <f t="shared" ref="P360:Z360" si="54">(P358-P359)*(P358-P359)</f>
+        <f t="shared" ref="P360:Z360" si="56">(P358-P359)*(P358-P359)</f>
         <v>7424.694444444448</v>
       </c>
       <c r="Q360">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>261.36111111111171</v>
       </c>
       <c r="R360">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>1308.0277777777792</v>
       </c>
       <c r="S360">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>3154.6944444444466</v>
       </c>
       <c r="T360">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>71200.027777777766</v>
       </c>
       <c r="U360">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>8993.3611111111077</v>
       </c>
       <c r="V360">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>2224.6944444444462</v>
       </c>
       <c r="W360">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>4511.361111111114</v>
       </c>
       <c r="X360">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>4203.3611111111086</v>
       </c>
       <c r="Y360">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>633.36111111111211</v>
       </c>
       <c r="Z360">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>633.36111111111211</v>
       </c>
     </row>
@@ -10988,47 +11319,47 @@
         <v>50.749657907987697</v>
       </c>
       <c r="C362">
-        <f t="shared" ref="C362:M362" si="55">C361/SQRT(12)</f>
+        <f t="shared" ref="C362:M362" si="57">C361/SQRT(12)</f>
         <v>50.749657907987697</v>
       </c>
       <c r="D362">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>50.749657907987697</v>
       </c>
       <c r="E362">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>50.749657907987697</v>
       </c>
       <c r="F362">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>50.749657907987697</v>
       </c>
       <c r="G362">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>50.749657907987697</v>
       </c>
       <c r="H362">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>50.749657907987697</v>
       </c>
       <c r="I362">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>50.749657907987697</v>
       </c>
       <c r="J362">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>50.749657907987697</v>
       </c>
       <c r="K362">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>50.749657907987697</v>
       </c>
       <c r="L362">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>50.749657907987697</v>
       </c>
       <c r="M362">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>50.749657907987697</v>
       </c>
       <c r="O362">
@@ -11036,47 +11367,47 @@
         <v>27.520152548565139</v>
       </c>
       <c r="P362">
-        <f t="shared" ref="P362:Z362" si="56">P361/SQRT(12)</f>
+        <f t="shared" ref="P362:Z362" si="58">P361/SQRT(12)</f>
         <v>27.520152548565139</v>
       </c>
       <c r="Q362">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>27.520152548565139</v>
       </c>
       <c r="R362">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>27.520152548565139</v>
       </c>
       <c r="S362">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>27.520152548565139</v>
       </c>
       <c r="T362">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>27.520152548565139</v>
       </c>
       <c r="U362">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>27.520152548565139</v>
       </c>
       <c r="V362">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>27.520152548565139</v>
       </c>
       <c r="W362">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>27.520152548565139</v>
       </c>
       <c r="X362">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>27.520152548565139</v>
       </c>
       <c r="Y362">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>27.520152548565139</v>
       </c>
       <c r="Z362">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>27.520152548565139</v>
       </c>
     </row>
@@ -11219,7 +11550,7 @@
         <v>0.5625</v>
       </c>
       <c r="C399">
-        <f t="shared" ref="C399:E399" si="57">(C398-C397)*(C398-C397)</f>
+        <f t="shared" ref="C399:E399" si="59">(C398-C397)*(C398-C397)</f>
         <v>3.0625</v>
       </c>
       <c r="D399" s="6">
@@ -11227,7 +11558,7 @@
         <v>10.5625</v>
       </c>
       <c r="E399" s="6">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.5625</v>
       </c>
     </row>
@@ -11257,15 +11588,15 @@
         <v>0.96014321848357598</v>
       </c>
       <c r="C401" s="6">
-        <f t="shared" ref="C401:E401" si="58">C400/2</f>
+        <f t="shared" ref="C401:E401" si="60">C400/2</f>
         <v>0.96014321848357598</v>
       </c>
       <c r="D401" s="6">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0.96014321848357598</v>
       </c>
       <c r="E401" s="6">
-        <f t="shared" si="58"/>
+        <f t="shared" si="60"/>
         <v>0.96014321848357598</v>
       </c>
     </row>
@@ -11386,10 +11717,10 @@
       <c r="E414" s="6"/>
     </row>
     <row r="415" spans="1:5">
-      <c r="A415" s="18" t="s">
+      <c r="A415" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B415" s="18"/>
+      <c r="B415" s="20"/>
       <c r="D415" s="6"/>
       <c r="E415" s="6"/>
     </row>
@@ -11516,10 +11847,10 @@
       </c>
     </row>
     <row r="425" spans="1:14">
-      <c r="A425" s="18" t="s">
+      <c r="A425" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B425" s="18"/>
+      <c r="B425" s="20"/>
     </row>
     <row r="426" spans="1:14">
       <c r="A426" t="s">
@@ -11618,43 +11949,43 @@
         <v>8.1632653061226339</v>
       </c>
       <c r="D428" s="9">
-        <f t="shared" ref="D428:N428" si="59">(D427-D426)*(D427-D426)</f>
+        <f t="shared" ref="D428:N428" si="61">(D427-D426)*(D427-D426)</f>
         <v>0.73469387755107607</v>
       </c>
       <c r="E428" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>2.0408163265296844E-2</v>
       </c>
       <c r="F428" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>102.87755102040751</v>
       </c>
       <c r="G428" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0.73469387755107607</v>
       </c>
       <c r="H428" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>172.73469387755017</v>
       </c>
       <c r="J428" s="11">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>7.839999999999745</v>
       </c>
       <c r="K428" s="11">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>10.240000000000292</v>
       </c>
       <c r="L428" s="11">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>4.0000000000018188E-2</v>
       </c>
       <c r="M428" s="11">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>0.63999999999992729</v>
       </c>
       <c r="N428" s="11">
-        <f t="shared" si="59"/>
+        <f t="shared" si="61"/>
         <v>4.0000000000018188E-2</v>
       </c>
     </row>
@@ -11708,27 +12039,27 @@
         <v>3.616450912312537</v>
       </c>
       <c r="C430" s="9">
-        <f t="shared" ref="C430:H430" si="60">C429/SQRT(7)</f>
+        <f t="shared" ref="C430:H430" si="62">C429/SQRT(7)</f>
         <v>3.616450912312537</v>
       </c>
       <c r="D430" s="9">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>3.616450912312537</v>
       </c>
       <c r="E430" s="9">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>3.616450912312537</v>
       </c>
       <c r="F430" s="9">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>3.616450912312537</v>
       </c>
       <c r="G430" s="9">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>3.616450912312537</v>
       </c>
       <c r="H430" s="9">
-        <f t="shared" si="60"/>
+        <f t="shared" si="62"/>
         <v>3.616450912312537</v>
       </c>
       <c r="J430">
@@ -11736,19 +12067,19 @@
         <v>0.86717933554715187</v>
       </c>
       <c r="K430" s="11">
-        <f t="shared" ref="K430:N430" si="61">K429/SQRT(5)</f>
+        <f t="shared" ref="K430:N430" si="63">K429/SQRT(5)</f>
         <v>0.86717933554715187</v>
       </c>
       <c r="L430" s="11">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0.86717933554715187</v>
       </c>
       <c r="M430" s="11">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0.86717933554715187</v>
       </c>
       <c r="N430" s="11">
-        <f t="shared" si="61"/>
+        <f t="shared" si="63"/>
         <v>0.86717933554715187</v>
       </c>
     </row>
@@ -11802,10 +12133,10 @@
       </c>
     </row>
     <row r="435" spans="1:14">
-      <c r="A435" s="18" t="s">
+      <c r="A435" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B435" s="18"/>
+      <c r="B435" s="20"/>
     </row>
     <row r="436" spans="1:14">
       <c r="A436" t="s">
@@ -11902,43 +12233,43 @@
         <v>1347.9387755102005</v>
       </c>
       <c r="D438" s="9">
-        <f t="shared" ref="D438:H438" si="62">(D437-D436)*(D437-D436)</f>
+        <f t="shared" ref="D438:H438" si="64">(D437-D436)*(D437-D436)</f>
         <v>246.93877551020256</v>
       </c>
       <c r="E438" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>313.79591836734522</v>
       </c>
       <c r="F438" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>453.08163265306331</v>
       </c>
       <c r="G438" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>1245.0816326530646</v>
       </c>
       <c r="H438" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="64"/>
         <v>515.93877551020182</v>
       </c>
       <c r="J438" s="11">
-        <f t="shared" ref="J438:N438" si="63">(J437-J436)*(J437-J436)</f>
+        <f t="shared" ref="J438:N438" si="65">(J437-J436)*(J437-J436)</f>
         <v>33.639999999999475</v>
       </c>
       <c r="K438" s="11">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>3.2399999999998363</v>
       </c>
       <c r="L438" s="11">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>10.240000000000292</v>
       </c>
       <c r="M438" s="11">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>10.240000000000292</v>
       </c>
       <c r="N438" s="11">
-        <f t="shared" si="63"/>
+        <f t="shared" si="65"/>
         <v>1.4400000000001092</v>
       </c>
     </row>
@@ -11992,27 +12323,27 @@
         <v>10.53606882834794</v>
       </c>
       <c r="C440" s="9">
-        <f t="shared" ref="C440:H440" si="64">C439/SQRT(7)</f>
+        <f t="shared" ref="C440:H440" si="66">C439/SQRT(7)</f>
         <v>10.53606882834794</v>
       </c>
       <c r="D440" s="9">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>10.53606882834794</v>
       </c>
       <c r="E440" s="9">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>10.53606882834794</v>
       </c>
       <c r="F440" s="9">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>10.53606882834794</v>
       </c>
       <c r="G440" s="9">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>10.53606882834794</v>
       </c>
       <c r="H440" s="9">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>10.53606882834794</v>
       </c>
       <c r="J440">
@@ -12020,19 +12351,19 @@
         <v>1.5336231610144653</v>
       </c>
       <c r="K440" s="11">
-        <f t="shared" ref="K440:N440" si="65">K439/SQRT(5)</f>
+        <f t="shared" ref="K440:N440" si="67">K439/SQRT(5)</f>
         <v>1.5336231610144653</v>
       </c>
       <c r="L440" s="11">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>1.5336231610144653</v>
       </c>
       <c r="M440" s="11">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>1.5336231610144653</v>
       </c>
       <c r="N440" s="11">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>1.5336231610144653</v>
       </c>
     </row>
@@ -12121,15 +12452,15 @@
         <v>676</v>
       </c>
       <c r="C448" s="15">
-        <f t="shared" ref="C448:E448" si="66">(C447-C446)*(C447-C446)</f>
+        <f t="shared" ref="C448:E448" si="68">(C447-C446)*(C447-C446)</f>
         <v>256</v>
       </c>
       <c r="D448" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>196</v>
       </c>
       <c r="E448" s="15">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>16</v>
       </c>
       <c r="F448" s="9"/>
@@ -12160,15 +12491,15 @@
         <v>8.4557672626438816</v>
       </c>
       <c r="C450" s="15">
-        <f t="shared" ref="C450:E450" si="67">C449/SQRT(4)</f>
+        <f t="shared" ref="C450:E450" si="69">C449/SQRT(4)</f>
         <v>8.4557672626438816</v>
       </c>
       <c r="D450" s="15">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>8.4557672626438816</v>
       </c>
       <c r="E450" s="15">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>8.4557672626438816</v>
       </c>
       <c r="F450" s="9"/>
@@ -12322,43 +12653,43 @@
         <v>393.36111111111262</v>
       </c>
       <c r="D459" s="9">
-        <f t="shared" ref="D459:N459" si="68">(D458-D457)*(D458-D457)</f>
+        <f t="shared" ref="D459:N459" si="70">(D458-D457)*(D458-D457)</f>
         <v>3268.0277777777733</v>
       </c>
       <c r="E459" s="9">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>10.027777777777537</v>
       </c>
       <c r="F459" s="9">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>148.02777777777686</v>
       </c>
       <c r="G459" s="9">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>536.69444444444264</v>
       </c>
       <c r="H459" s="9">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>14.694444444444734</v>
       </c>
       <c r="J459" s="11">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>249.63999999999857</v>
       </c>
       <c r="K459" s="11">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>14.439999999999655</v>
       </c>
       <c r="L459" s="11">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>51.840000000000657</v>
       </c>
       <c r="M459" s="11">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0.63999999999992729</v>
       </c>
       <c r="N459" s="11">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>174.2400000000012</v>
       </c>
     </row>
@@ -12412,27 +12743,27 @@
         <v>6.0617959690483136</v>
       </c>
       <c r="C461" s="10">
-        <f t="shared" ref="C461:H461" si="69">C460/SQRT(6)</f>
+        <f t="shared" ref="C461:H461" si="71">C460/SQRT(6)</f>
         <v>6.0617959690483136</v>
       </c>
       <c r="D461" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>6.0617959690483136</v>
       </c>
       <c r="E461" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>6.0617959690483136</v>
       </c>
       <c r="F461" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>6.0617959690483136</v>
       </c>
       <c r="G461" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>6.0617959690483136</v>
       </c>
       <c r="H461" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>6.0617959690483136</v>
       </c>
       <c r="J461">
@@ -12440,19 +12771,19 @@
         <v>4.4308012819353566</v>
       </c>
       <c r="K461" s="11">
-        <f t="shared" ref="K461:N461" si="70">K460/SQRT(5)</f>
+        <f t="shared" ref="K461:N461" si="72">K460/SQRT(5)</f>
         <v>4.4308012819353566</v>
       </c>
       <c r="L461" s="11">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>4.4308012819353566</v>
       </c>
       <c r="M461" s="11">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>4.4308012819353566</v>
       </c>
       <c r="N461" s="11">
-        <f t="shared" si="70"/>
+        <f t="shared" si="72"/>
         <v>4.4308012819353566</v>
       </c>
     </row>
@@ -12605,43 +12936,43 @@
         <v>26.694444444444052</v>
       </c>
       <c r="D468" s="9">
-        <f t="shared" ref="D468:N468" si="71">(D467-D466)*(D467-D466)</f>
+        <f t="shared" ref="D468:N468" si="73">(D467-D466)*(D467-D466)</f>
         <v>250.69444444444565</v>
       </c>
       <c r="E468" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>831.36111111111325</v>
       </c>
       <c r="F468" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>1.3611111111110228</v>
       </c>
       <c r="G468" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>84.027777777777089</v>
       </c>
       <c r="H468" s="9">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>1285.7346938775534</v>
       </c>
       <c r="J468" s="11">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="K468" s="11">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>36</v>
       </c>
       <c r="L468" s="11">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>1</v>
       </c>
       <c r="M468" s="11">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>16</v>
       </c>
       <c r="N468" s="11">
-        <f t="shared" si="71"/>
+        <f t="shared" si="73"/>
         <v>9</v>
       </c>
     </row>
@@ -12695,27 +13026,27 @@
         <v>7.5366389011233617</v>
       </c>
       <c r="C470" s="10">
-        <f t="shared" ref="C470:G470" si="72">C469/SQRT(6)</f>
+        <f t="shared" ref="C470:G470" si="74">C469/SQRT(6)</f>
         <v>7.5366389011233617</v>
       </c>
       <c r="D470" s="10">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>7.5366389011233617</v>
       </c>
       <c r="E470" s="10">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>7.5366389011233617</v>
       </c>
       <c r="F470" s="10">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>7.5366389011233617</v>
       </c>
       <c r="G470" s="10">
-        <f t="shared" si="72"/>
+        <f t="shared" si="74"/>
         <v>7.5366389011233617</v>
       </c>
       <c r="H470" s="9">
-        <f t="shared" ref="H470" si="73">H469/SQRT(7)</f>
+        <f t="shared" ref="H470" si="75">H469/SQRT(7)</f>
         <v>8.505528985525542</v>
       </c>
       <c r="J470">
@@ -12723,19 +13054,19 @@
         <v>1.574801574802362</v>
       </c>
       <c r="K470" s="11">
-        <f t="shared" ref="K470:N470" si="74">K469/SQRT(5)</f>
+        <f t="shared" ref="K470:N470" si="76">K469/SQRT(5)</f>
         <v>1.574801574802362</v>
       </c>
       <c r="L470" s="11">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>1.574801574802362</v>
       </c>
       <c r="M470" s="11">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>1.574801574802362</v>
       </c>
       <c r="N470" s="11">
-        <f t="shared" si="74"/>
+        <f t="shared" si="76"/>
         <v>1.574801574802362</v>
       </c>
     </row>
@@ -12870,35 +13201,35 @@
         <v>225</v>
       </c>
       <c r="D477" s="9">
-        <f t="shared" ref="D477:F477" si="75">(D476-D475)*(D476-D475)</f>
+        <f t="shared" ref="D477:F477" si="77">(D476-D475)*(D476-D475)</f>
         <v>196</v>
       </c>
       <c r="E477" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>9</v>
       </c>
       <c r="F477" s="9">
-        <f t="shared" si="75"/>
+        <f t="shared" si="77"/>
         <v>36</v>
       </c>
       <c r="J477" s="12">
-        <f t="shared" ref="J477:N477" si="76">(J476-J475)*(J476-J475)</f>
+        <f t="shared" ref="J477:N477" si="78">(J476-J475)*(J476-J475)</f>
         <v>190.43999999999875</v>
       </c>
       <c r="K477" s="12">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>60.839999999999293</v>
       </c>
       <c r="L477" s="12">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>7.839999999999745</v>
       </c>
       <c r="M477" s="12">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>331.24000000000166</v>
       </c>
       <c r="N477" s="12">
-        <f t="shared" si="76"/>
+        <f t="shared" si="78"/>
         <v>38.440000000000566</v>
       </c>
     </row>
@@ -12946,19 +13277,19 @@
         <v>4.6043457732885349</v>
       </c>
       <c r="C479" s="9">
-        <f t="shared" ref="C479:F479" si="77">C478/SQRT(5)</f>
+        <f t="shared" ref="C479:F479" si="79">C478/SQRT(5)</f>
         <v>4.6043457732885349</v>
       </c>
       <c r="D479" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>4.6043457732885349</v>
       </c>
       <c r="E479" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>4.6043457732885349</v>
       </c>
       <c r="F479" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="79"/>
         <v>4.6043457732885349</v>
       </c>
       <c r="J479">
@@ -12966,19 +13297,19 @@
         <v>5.0151769659703929</v>
       </c>
       <c r="K479" s="12">
-        <f t="shared" ref="K479:N479" si="78">K478/SQRT(5)</f>
+        <f t="shared" ref="K479:N479" si="80">K478/SQRT(5)</f>
         <v>5.0151769659703929</v>
       </c>
       <c r="L479" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>5.0151769659703929</v>
       </c>
       <c r="M479" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>5.0151769659703929</v>
       </c>
       <c r="N479" s="12">
-        <f t="shared" si="78"/>
+        <f t="shared" si="80"/>
         <v>5.0151769659703929</v>
       </c>
     </row>
@@ -13026,10 +13357,10 @@
       </c>
     </row>
     <row r="485" spans="1:14">
-      <c r="A485" s="18" t="s">
+      <c r="A485" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B485" s="18"/>
+      <c r="B485" s="20"/>
     </row>
     <row r="486" spans="1:14">
       <c r="A486" s="8" t="s">
@@ -13115,39 +13446,39 @@
         <v>0.63999999999992729</v>
       </c>
       <c r="C488" s="9">
-        <f t="shared" ref="C488:F488" si="79">(C487-C486)*(C487-C486)</f>
+        <f t="shared" ref="C488:F488" si="81">(C487-C486)*(C487-C486)</f>
         <v>1536.6400000000035</v>
       </c>
       <c r="D488" s="9">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>1616.0400000000036</v>
       </c>
       <c r="E488" s="9">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>1102.240000000003</v>
       </c>
       <c r="F488" s="9">
-        <f t="shared" si="79"/>
+        <f t="shared" si="81"/>
         <v>17742.240000000013</v>
       </c>
       <c r="J488" s="11">
-        <f t="shared" ref="J488:N488" si="80">(J487-J486)*(J487-J486)</f>
+        <f t="shared" ref="J488:N488" si="82">(J487-J486)*(J487-J486)</f>
         <v>40.95999999999971</v>
       </c>
       <c r="K488" s="11">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>12.960000000000164</v>
       </c>
       <c r="L488" s="11">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>0.3600000000000273</v>
       </c>
       <c r="M488" s="11">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>1.9599999999999362</v>
       </c>
       <c r="N488" s="11">
-        <f t="shared" si="80"/>
+        <f t="shared" si="82"/>
         <v>12.960000000000164</v>
       </c>
     </row>
@@ -13195,19 +13526,19 @@
         <v>19.992798703533229</v>
       </c>
       <c r="C490" s="9">
-        <f t="shared" ref="C490:F490" si="81">C489/SQRT(5)</f>
+        <f t="shared" ref="C490:F490" si="83">C489/SQRT(5)</f>
         <v>19.992798703533229</v>
       </c>
       <c r="D490" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>19.992798703533229</v>
       </c>
       <c r="E490" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>19.992798703533229</v>
       </c>
       <c r="F490" s="9">
-        <f t="shared" si="81"/>
+        <f t="shared" si="83"/>
         <v>19.992798703533229</v>
       </c>
       <c r="J490" s="7">
@@ -13215,19 +13546,19 @@
         <v>1.6637307474468337</v>
       </c>
       <c r="K490" s="11">
-        <f t="shared" ref="K490:N490" si="82">K489/SQRT(5)</f>
+        <f t="shared" ref="K490:N490" si="84">K489/SQRT(5)</f>
         <v>1.6637307474468337</v>
       </c>
       <c r="L490" s="11">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>1.6637307474468337</v>
       </c>
       <c r="M490" s="11">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>1.6637307474468337</v>
       </c>
       <c r="N490" s="11">
-        <f t="shared" si="82"/>
+        <f t="shared" si="84"/>
         <v>1.6637307474468337</v>
       </c>
     </row>
@@ -13283,10 +13614,10 @@
       </c>
     </row>
     <row r="495" spans="1:14" s="7" customFormat="1">
-      <c r="A495" s="18" t="s">
+      <c r="A495" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B495" s="18"/>
+      <c r="B495" s="20"/>
     </row>
     <row r="496" spans="1:14" s="7" customFormat="1">
       <c r="A496" s="8" t="s">
@@ -13371,39 +13702,39 @@
         <v>1989.1600000000021</v>
       </c>
       <c r="C498" s="9">
-        <f t="shared" ref="C498:F498" si="83">(C497-C496)*(C497-C496)</f>
+        <f t="shared" ref="C498:F498" si="85">(C497-C496)*(C497-C496)</f>
         <v>34077.160000000011</v>
       </c>
       <c r="D498" s="9">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>11577.760000000006</v>
       </c>
       <c r="E498" s="9">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>2.5600000000000729</v>
       </c>
       <c r="F498" s="9">
-        <f t="shared" si="83"/>
+        <f t="shared" si="85"/>
         <v>6658.560000000004</v>
       </c>
       <c r="J498" s="12">
-        <f t="shared" ref="J498:N498" si="84">(J497-J496)*(J497-J496)</f>
+        <f t="shared" ref="J498:N498" si="86">(J497-J496)*(J497-J496)</f>
         <v>57.760000000000346</v>
       </c>
       <c r="K498" s="12">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>6.7600000000001179</v>
       </c>
       <c r="L498" s="12">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>21.16000000000021</v>
       </c>
       <c r="M498" s="12">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>6.7600000000001179</v>
       </c>
       <c r="N498" s="12">
-        <f t="shared" si="84"/>
+        <f t="shared" si="86"/>
         <v>302.7599999999992</v>
       </c>
     </row>
@@ -13451,19 +13782,19 @@
         <v>20.534069250881569</v>
       </c>
       <c r="C500" s="9">
-        <f t="shared" ref="C500:F500" si="85">C499/SQRT(5)</f>
+        <f t="shared" ref="C500:F500" si="87">C499/SQRT(5)</f>
         <v>20.534069250881569</v>
       </c>
       <c r="D500" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>20.534069250881569</v>
       </c>
       <c r="E500" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>20.534069250881569</v>
       </c>
       <c r="F500" s="9">
-        <f t="shared" si="85"/>
+        <f t="shared" si="87"/>
         <v>20.534069250881569</v>
       </c>
       <c r="J500" s="7">
@@ -13471,19 +13802,19 @@
         <v>3.9759275647325358</v>
       </c>
       <c r="K500" s="12">
-        <f t="shared" ref="K500:N500" si="86">K499/SQRT(5)</f>
+        <f t="shared" ref="K500:N500" si="88">K499/SQRT(5)</f>
         <v>3.9759275647325358</v>
       </c>
       <c r="L500" s="12">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>3.9759275647325358</v>
       </c>
       <c r="M500" s="12">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>3.9759275647325358</v>
       </c>
       <c r="N500" s="12">
-        <f t="shared" si="86"/>
+        <f t="shared" si="88"/>
         <v>3.9759275647325358</v>
       </c>
     </row>
@@ -13623,35 +13954,35 @@
         <v>10650.240000000009</v>
       </c>
       <c r="C508" s="9">
-        <f t="shared" ref="C508:F508" si="87">(C507-C506)*(C507-C506)</f>
+        <f t="shared" ref="C508:F508" si="89">(C507-C506)*(C507-C506)</f>
         <v>6593.4400000000078</v>
       </c>
       <c r="D508" s="9">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>15326.43999999999</v>
       </c>
       <c r="E508" s="9">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>665.6399999999976</v>
       </c>
       <c r="F508" s="9">
-        <f t="shared" si="87"/>
+        <f t="shared" si="89"/>
         <v>1211.0399999999968</v>
       </c>
       <c r="J508" s="15">
-        <f t="shared" ref="J508:M508" si="88">(J507-J506)*(J507-J506)</f>
+        <f t="shared" ref="J508:M508" si="90">(J507-J506)*(J507-J506)</f>
         <v>324</v>
       </c>
       <c r="K508" s="15">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>484</v>
       </c>
       <c r="L508" s="15">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>3025</v>
       </c>
       <c r="M508" s="15">
-        <f t="shared" si="88"/>
+        <f t="shared" si="90"/>
         <v>225</v>
       </c>
     </row>
@@ -13696,19 +14027,19 @@
         <v>37.119698274635795</v>
       </c>
       <c r="C510" s="9">
-        <f t="shared" ref="C510:F510" si="89">C509/SQRT(5)</f>
+        <f t="shared" ref="C510:F510" si="91">C509/SQRT(5)</f>
         <v>37.119698274635795</v>
       </c>
       <c r="D510" s="9">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>37.119698274635795</v>
       </c>
       <c r="E510" s="9">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>37.119698274635795</v>
       </c>
       <c r="F510" s="9">
-        <f t="shared" si="89"/>
+        <f t="shared" si="91"/>
         <v>37.119698274635795</v>
       </c>
       <c r="J510" s="15">
@@ -13716,15 +14047,15 @@
         <v>15.925608308632986</v>
       </c>
       <c r="K510" s="15">
-        <f t="shared" ref="K510:M510" si="90">K509/SQRT(4)</f>
+        <f t="shared" ref="K510:M510" si="92">K509/SQRT(4)</f>
         <v>15.925608308632986</v>
       </c>
       <c r="L510" s="15">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>15.925608308632986</v>
       </c>
       <c r="M510" s="15">
-        <f t="shared" si="90"/>
+        <f t="shared" si="92"/>
         <v>15.925608308632986</v>
       </c>
     </row>
@@ -13774,10 +14105,10 @@
       </c>
     </row>
     <row r="515" spans="1:22" s="8" customFormat="1">
-      <c r="A515" s="18" t="s">
+      <c r="A515" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B515" s="18"/>
+      <c r="B515" s="20"/>
     </row>
     <row r="516" spans="1:22" s="8" customFormat="1">
       <c r="A516" s="8" t="s">
@@ -13861,39 +14192,39 @@
         <v>282.23999999999847</v>
       </c>
       <c r="C518" s="9">
-        <f t="shared" ref="C518:F518" si="91">(C517-C516)*(C517-C516)</f>
+        <f t="shared" ref="C518:F518" si="93">(C517-C516)*(C517-C516)</f>
         <v>7.839999999999745</v>
       </c>
       <c r="D518" s="9">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>125.44000000000102</v>
       </c>
       <c r="E518" s="9">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>1.4400000000001092</v>
       </c>
       <c r="F518" s="9">
-        <f t="shared" si="91"/>
+        <f t="shared" si="93"/>
         <v>51.840000000000657</v>
       </c>
       <c r="J518" s="11">
-        <f t="shared" ref="J518:N518" si="92">(J517-J516)*(J517-J516)</f>
+        <f t="shared" ref="J518:N518" si="94">(J517-J516)*(J517-J516)</f>
         <v>7.839999999999745</v>
       </c>
       <c r="K518" s="11">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>46.239999999999384</v>
       </c>
       <c r="L518" s="11">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>3.2399999999998363</v>
       </c>
       <c r="M518" s="11">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>4.0000000000018188E-2</v>
       </c>
       <c r="N518" s="11">
-        <f t="shared" si="92"/>
+        <f t="shared" si="94"/>
         <v>125.44000000000102</v>
       </c>
     </row>
@@ -13941,19 +14272,19 @@
         <v>4.3303579528717941</v>
       </c>
       <c r="C520" s="9">
-        <f t="shared" ref="C520:F520" si="93">C519/SQRT(5)</f>
+        <f t="shared" ref="C520:F520" si="95">C519/SQRT(5)</f>
         <v>4.3303579528717941</v>
       </c>
       <c r="D520" s="9">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>4.3303579528717941</v>
       </c>
       <c r="E520" s="9">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>4.3303579528717941</v>
       </c>
       <c r="F520" s="9">
-        <f t="shared" si="93"/>
+        <f t="shared" si="95"/>
         <v>4.3303579528717941</v>
       </c>
       <c r="J520" s="8">
@@ -13961,19 +14292,19 @@
         <v>2.7040710049848915</v>
       </c>
       <c r="K520" s="11">
-        <f t="shared" ref="K520:N520" si="94">K519/SQRT(5)</f>
+        <f t="shared" ref="K520:N520" si="96">K519/SQRT(5)</f>
         <v>2.7040710049848915</v>
       </c>
       <c r="L520" s="11">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>2.7040710049848915</v>
       </c>
       <c r="M520" s="11">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>2.7040710049848915</v>
       </c>
       <c r="N520" s="11">
-        <f t="shared" si="94"/>
+        <f t="shared" si="96"/>
         <v>2.7040710049848915</v>
       </c>
     </row>
@@ -14041,10 +14372,10 @@
       </c>
     </row>
     <row r="525" spans="1:22" s="8" customFormat="1">
-      <c r="A525" s="18" t="s">
+      <c r="A525" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B525" s="18"/>
+      <c r="B525" s="20"/>
     </row>
     <row r="526" spans="1:22" s="8" customFormat="1">
       <c r="A526" s="8" t="s">
@@ -14168,63 +14499,63 @@
         <v>1.4400000000001092</v>
       </c>
       <c r="C528" s="9">
-        <f t="shared" ref="C528:F528" si="95">(C527-C526)*(C527-C526)</f>
+        <f t="shared" ref="C528:F528" si="97">(C527-C526)*(C527-C526)</f>
         <v>912.04000000000269</v>
       </c>
       <c r="D528" s="9">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>3226.2399999999948</v>
       </c>
       <c r="E528" s="9">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>17.640000000000381</v>
       </c>
       <c r="F528" s="9">
-        <f t="shared" si="95"/>
+        <f t="shared" si="97"/>
         <v>449.44000000000193</v>
       </c>
       <c r="J528" s="11">
-        <f t="shared" ref="J528:N528" si="96">(J527-J526)*(J527-J526)</f>
+        <f t="shared" ref="J528:N528" si="98">(J527-J526)*(J527-J526)</f>
         <v>201.64000000000129</v>
       </c>
       <c r="K528" s="11">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>1.4400000000001092</v>
       </c>
       <c r="L528" s="11">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>23.039999999999562</v>
       </c>
       <c r="M528" s="11">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>33.639999999999475</v>
       </c>
       <c r="N528" s="11">
-        <f t="shared" si="96"/>
+        <f t="shared" si="98"/>
         <v>23.039999999999562</v>
       </c>
       <c r="Q528" s="17">
-        <f t="shared" ref="Q528:V528" si="97">(Q527-Q526)*(Q527-Q526)</f>
+        <f t="shared" ref="Q528:V528" si="99">(Q527-Q526)*(Q527-Q526)</f>
         <v>434.02777777777936</v>
       </c>
       <c r="R528" s="17">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>1013.3611111111135</v>
       </c>
       <c r="S528" s="17">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>148.02777777777686</v>
       </c>
       <c r="T528" s="17">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>66.694444444443832</v>
       </c>
       <c r="U528" s="17">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>124.6944444444436</v>
       </c>
       <c r="V528" s="17">
-        <f t="shared" si="97"/>
+        <f t="shared" si="99"/>
         <v>448.02777777777618</v>
       </c>
     </row>
@@ -14290,19 +14621,19 @@
         <v>13.574682316724763</v>
       </c>
       <c r="C530" s="9">
-        <f t="shared" ref="C530:F530" si="98">C529/SQRT(5)</f>
+        <f t="shared" ref="C530:F530" si="100">C529/SQRT(5)</f>
         <v>13.574682316724763</v>
       </c>
       <c r="D530" s="9">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>13.574682316724763</v>
       </c>
       <c r="E530" s="9">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>13.574682316724763</v>
       </c>
       <c r="F530" s="9">
-        <f t="shared" si="98"/>
+        <f t="shared" si="100"/>
         <v>13.574682316724763</v>
       </c>
       <c r="J530" s="8">
@@ -14310,19 +14641,19 @@
         <v>3.3633316815324652</v>
       </c>
       <c r="K530" s="11">
-        <f t="shared" ref="K530:N530" si="99">K529/SQRT(5)</f>
+        <f t="shared" ref="K530:N530" si="101">K529/SQRT(5)</f>
         <v>3.3633316815324652</v>
       </c>
       <c r="L530" s="11">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>3.3633316815324652</v>
       </c>
       <c r="M530" s="11">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>3.3633316815324652</v>
       </c>
       <c r="N530" s="11">
-        <f t="shared" si="99"/>
+        <f t="shared" si="101"/>
         <v>3.3633316815324652</v>
       </c>
       <c r="Q530" s="17">
@@ -14330,23 +14661,23 @@
         <v>7.8790039791653683</v>
       </c>
       <c r="R530" s="17">
-        <f t="shared" ref="R530:V530" si="100">R529/SQRT(6)</f>
+        <f t="shared" ref="R530:V530" si="102">R529/SQRT(6)</f>
         <v>7.8790039791653683</v>
       </c>
       <c r="S530" s="17">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>7.8790039791653683</v>
       </c>
       <c r="T530" s="17">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>7.8790039791653683</v>
       </c>
       <c r="U530" s="17">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>7.8790039791653683</v>
       </c>
       <c r="V530" s="17">
-        <f t="shared" si="100"/>
+        <f t="shared" si="102"/>
         <v>7.8790039791653683</v>
       </c>
     </row>
@@ -14539,19 +14870,19 @@
         <v>1632.1600000000074</v>
       </c>
       <c r="C538" s="9">
-        <f t="shared" ref="C538:F538" si="101">(C537-C536)*(C537-C536)</f>
+        <f t="shared" ref="C538:F538" si="103">(C537-C536)*(C537-C536)</f>
         <v>213.15999999999735</v>
       </c>
       <c r="D538" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>1797.7600000000077</v>
       </c>
       <c r="E538" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>707.55999999999517</v>
       </c>
       <c r="F538" s="9">
-        <f t="shared" si="101"/>
+        <f t="shared" si="103"/>
         <v>1730.5599999999924</v>
       </c>
       <c r="J538" s="8">
@@ -14559,39 +14890,39 @@
         <v>8911.3599999999951</v>
       </c>
       <c r="K538" s="12">
-        <f t="shared" ref="K538:N538" si="102">(K537-K536)*(K537-K536)</f>
+        <f t="shared" ref="K538:N538" si="104">(K537-K536)*(K537-K536)</f>
         <v>6304.359999999996</v>
       </c>
       <c r="L538" s="12">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>2560.3600000000024</v>
       </c>
       <c r="M538" s="12">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>4844.1600000000035</v>
       </c>
       <c r="N538" s="12">
-        <f t="shared" si="102"/>
+        <f t="shared" si="104"/>
         <v>2872.9600000000023</v>
       </c>
       <c r="Q538" s="17">
-        <f t="shared" ref="Q538:U538" si="103">(Q537-Q536)*(Q537-Q536)</f>
+        <f t="shared" ref="Q538:U538" si="105">(Q537-Q536)*(Q537-Q536)</f>
         <v>2061.159999999998</v>
       </c>
       <c r="R538" s="17">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>1713.9599999999982</v>
       </c>
       <c r="S538" s="17">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>11.559999999999846</v>
       </c>
       <c r="T538" s="17">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>2361.9600000000023</v>
       </c>
       <c r="U538" s="17">
-        <f t="shared" si="103"/>
+        <f t="shared" si="105"/>
         <v>1730.560000000002</v>
       </c>
     </row>
@@ -14654,19 +14985,19 @@
         <v>15.596409843294065</v>
       </c>
       <c r="C540" s="9">
-        <f t="shared" ref="C540:F540" si="104">C539/SQRT(5)</f>
+        <f t="shared" ref="C540:F540" si="106">C539/SQRT(5)</f>
         <v>15.596409843294065</v>
       </c>
       <c r="D540" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>15.596409843294065</v>
       </c>
       <c r="E540" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>15.596409843294065</v>
       </c>
       <c r="F540" s="9">
-        <f t="shared" si="104"/>
+        <f t="shared" si="106"/>
         <v>15.596409843294065</v>
       </c>
       <c r="J540" s="8">
@@ -14674,39 +15005,39 @@
         <v>31.933180236237039</v>
       </c>
       <c r="K540" s="12">
-        <f t="shared" ref="K540:N540" si="105">K539/SQRT(5)</f>
+        <f t="shared" ref="K540:N540" si="107">K539/SQRT(5)</f>
         <v>31.933180236237039</v>
       </c>
       <c r="L540" s="12">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>31.933180236237039</v>
       </c>
       <c r="M540" s="12">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>31.933180236237039</v>
       </c>
       <c r="N540" s="12">
-        <f t="shared" si="105"/>
+        <f t="shared" si="107"/>
         <v>31.933180236237039</v>
       </c>
       <c r="Q540" s="17">
-        <f t="shared" ref="Q540:U540" si="106">Q539/SQRT(5)</f>
+        <f t="shared" ref="Q540:U540" si="108">Q539/SQRT(5)</f>
         <v>17.752971582245038</v>
       </c>
       <c r="R540" s="17">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>17.752971582245038</v>
       </c>
       <c r="S540" s="17">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>17.752971582245038</v>
       </c>
       <c r="T540" s="17">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>17.752971582245038</v>
       </c>
       <c r="U540" s="17">
-        <f t="shared" si="106"/>
+        <f t="shared" si="108"/>
         <v>17.752971582245038</v>
       </c>
     </row>
@@ -14789,10 +15120,10 @@
       </c>
     </row>
     <row r="545" spans="1:23" s="8" customFormat="1">
-      <c r="A545" s="18" t="s">
+      <c r="A545" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B545" s="18"/>
+      <c r="B545" s="20"/>
       <c r="O545"/>
       <c r="P545"/>
       <c r="Q545"/>
@@ -14938,75 +15269,75 @@
         <v>501.75999999999897</v>
       </c>
       <c r="C548" s="9">
-        <f t="shared" ref="C548:F548" si="107">(C547-C546)*(C547-C546)</f>
+        <f t="shared" ref="C548:F548" si="109">(C547-C546)*(C547-C546)</f>
         <v>5867.5600000000031</v>
       </c>
       <c r="D548" s="9">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>645.15999999999883</v>
       </c>
       <c r="E548" s="9">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>207.35999999999933</v>
       </c>
       <c r="F548" s="9">
-        <f t="shared" si="107"/>
+        <f t="shared" si="109"/>
         <v>207.35999999999933</v>
       </c>
       <c r="J548" s="11">
-        <f t="shared" ref="J548:W548" si="108">(J547-J546)*(J547-J546)</f>
+        <f t="shared" ref="J548:W548" si="110">(J547-J546)*(J547-J546)</f>
         <v>687.18877551020148</v>
       </c>
       <c r="K548" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>1353.1887755102077</v>
       </c>
       <c r="L548" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>331.76020408163089</v>
       </c>
       <c r="M548" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>1663.4744897959224</v>
       </c>
       <c r="N548" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>408.61734693877355</v>
       </c>
       <c r="O548" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>1504.3316326530651</v>
       </c>
       <c r="P548" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>947.76020408163561</v>
       </c>
       <c r="Q548" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>635.76020408163015</v>
       </c>
       <c r="R548" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>538.90306122448749</v>
       </c>
       <c r="S548" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>190.04591836734829</v>
       </c>
       <c r="T548" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>174.61734693877423</v>
       </c>
       <c r="U548" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>10.331632653060911</v>
       </c>
       <c r="V548" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>331.76020408163089</v>
       </c>
       <c r="W548" s="15">
-        <f t="shared" si="108"/>
+        <f t="shared" si="110"/>
         <v>174.61734693877423</v>
       </c>
     </row>
@@ -15081,19 +15412,19 @@
         <v>17.238561424898538</v>
       </c>
       <c r="C550" s="9">
-        <f t="shared" ref="C550:F550" si="109">C549/SQRT(5)</f>
+        <f t="shared" ref="C550:F550" si="111">C549/SQRT(5)</f>
         <v>17.238561424898538</v>
       </c>
       <c r="D550" s="9">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>17.238561424898538</v>
       </c>
       <c r="E550" s="9">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>17.238561424898538</v>
       </c>
       <c r="F550" s="9">
-        <f t="shared" si="109"/>
+        <f t="shared" si="111"/>
         <v>17.238561424898538</v>
       </c>
       <c r="J550" s="8">
@@ -15101,55 +15432,55 @@
         <v>6.7583497649344473</v>
       </c>
       <c r="K550" s="15">
-        <f t="shared" ref="K550:W550" si="110">K549/SQRT(14)</f>
+        <f t="shared" ref="K550:W550" si="112">K549/SQRT(14)</f>
         <v>6.7583497649344473</v>
       </c>
       <c r="L550" s="15">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>6.7583497649344473</v>
       </c>
       <c r="M550" s="15">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>6.7583497649344473</v>
       </c>
       <c r="N550" s="15">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>6.7583497649344473</v>
       </c>
       <c r="O550" s="15">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>6.7583497649344473</v>
       </c>
       <c r="P550" s="15">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>6.7583497649344473</v>
       </c>
       <c r="Q550" s="15">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>6.7583497649344473</v>
       </c>
       <c r="R550" s="15">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>6.7583497649344473</v>
       </c>
       <c r="S550" s="15">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>6.7583497649344473</v>
       </c>
       <c r="T550" s="15">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>6.7583497649344473</v>
       </c>
       <c r="U550" s="15">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>6.7583497649344473</v>
       </c>
       <c r="V550" s="15">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>6.7583497649344473</v>
       </c>
       <c r="W550" s="15">
-        <f t="shared" si="110"/>
+        <f t="shared" si="112"/>
         <v>6.7583497649344473</v>
       </c>
     </row>
@@ -15202,10 +15533,10 @@
       </c>
     </row>
     <row r="555" spans="1:23" s="8" customFormat="1">
-      <c r="A555" s="18" t="s">
+      <c r="A555" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B555" s="18"/>
+      <c r="B555" s="20"/>
     </row>
     <row r="556" spans="1:23" s="8" customFormat="1">
       <c r="A556" s="8" t="s">
@@ -15292,43 +15623,43 @@
         <v>205.44444444444554</v>
       </c>
       <c r="C558" s="9">
-        <f t="shared" ref="C558:G558" si="111">(C557-C556)*(C557-C556)</f>
+        <f t="shared" ref="C558:G558" si="113">(C557-C556)*(C557-C556)</f>
         <v>32.111111111110681</v>
       </c>
       <c r="D558" s="9">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>11.111111111111363</v>
       </c>
       <c r="E558" s="9">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>5.4444444444446214</v>
       </c>
       <c r="F558" s="9">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>312.11111111110978</v>
       </c>
       <c r="G558" s="9">
-        <f t="shared" si="111"/>
+        <f t="shared" si="113"/>
         <v>11.111111111111363</v>
       </c>
       <c r="J558" s="11">
-        <f t="shared" ref="J558:N558" si="112">(J557-J556)*(J557-J556)</f>
+        <f t="shared" ref="J558:N558" si="114">(J557-J556)*(J557-J556)</f>
         <v>184.9600000000006</v>
       </c>
       <c r="K558" s="12">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>605.16000000000111</v>
       </c>
       <c r="L558" s="12">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>696.95999999999879</v>
       </c>
       <c r="M558" s="12">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>1648.3600000000019</v>
       </c>
       <c r="N558" s="12">
-        <f t="shared" si="112"/>
+        <f t="shared" si="114"/>
         <v>2745.7599999999975</v>
       </c>
     </row>
@@ -15379,23 +15710,23 @@
         <v>4.0046269535422443</v>
       </c>
       <c r="C560" s="9">
-        <f t="shared" ref="C560:G560" si="113">C559/SQRT(6)</f>
+        <f t="shared" ref="C560:G560" si="115">C559/SQRT(6)</f>
         <v>4.0046269535422443</v>
       </c>
       <c r="D560" s="9">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>4.0046269535422443</v>
       </c>
       <c r="E560" s="9">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>4.0046269535422443</v>
       </c>
       <c r="F560" s="9">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>4.0046269535422443</v>
       </c>
       <c r="G560" s="9">
-        <f t="shared" si="113"/>
+        <f t="shared" si="115"/>
         <v>4.0046269535422443</v>
       </c>
       <c r="J560" s="8">
@@ -15403,19 +15734,19 @@
         <v>19.801010075246161</v>
       </c>
       <c r="K560" s="12">
-        <f t="shared" ref="K560:N560" si="114">K559/SQRT(3)</f>
+        <f t="shared" ref="K560:N560" si="116">K559/SQRT(3)</f>
         <v>19.801010075246161</v>
       </c>
       <c r="L560" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="116"/>
         <v>19.801010075246161</v>
       </c>
       <c r="M560" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="116"/>
         <v>19.801010075246161</v>
       </c>
       <c r="N560" s="12">
-        <f t="shared" si="114"/>
+        <f t="shared" si="116"/>
         <v>19.801010075246161</v>
       </c>
     </row>
@@ -15530,31 +15861,31 @@
         <v>4.0000000000018188E-2</v>
       </c>
       <c r="C568" s="9">
-        <f t="shared" ref="C568:F568" si="115">(C567-C566)*(C567-C566)</f>
+        <f t="shared" ref="C568:F568" si="117">(C567-C566)*(C567-C566)</f>
         <v>4.8400000000001997</v>
       </c>
       <c r="D568" s="9">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v>4.8400000000001997</v>
       </c>
       <c r="E568" s="9">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v>96.039999999999111</v>
       </c>
       <c r="F568" s="9">
-        <f t="shared" si="115"/>
+        <f t="shared" si="117"/>
         <v>27.040000000000472</v>
       </c>
       <c r="J568" s="15">
-        <f t="shared" ref="J568:L568" si="116">(J567-J566)*(J567-J566)</f>
+        <f t="shared" ref="J568:L568" si="118">(J567-J566)*(J567-J566)</f>
         <v>58.777777777777196</v>
       </c>
       <c r="K568" s="15">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>336.11111111111251</v>
       </c>
       <c r="L568" s="15">
-        <f t="shared" si="116"/>
+        <f t="shared" si="118"/>
         <v>113.77777777777698</v>
       </c>
     </row>
@@ -15596,19 +15927,19 @@
         <v>2.3047776465420693</v>
       </c>
       <c r="C570" s="9">
-        <f t="shared" ref="C570:F570" si="117">C569/SQRT(5)</f>
+        <f t="shared" ref="C570:F570" si="119">C569/SQRT(5)</f>
         <v>2.3047776465420693</v>
       </c>
       <c r="D570" s="9">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v>2.3047776465420693</v>
       </c>
       <c r="E570" s="9">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v>2.3047776465420693</v>
       </c>
       <c r="F570" s="9">
-        <f t="shared" si="117"/>
+        <f t="shared" si="119"/>
         <v>2.3047776465420693</v>
       </c>
       <c r="J570" s="8">
@@ -15616,11 +15947,11 @@
         <v>7.5178799217943437</v>
       </c>
       <c r="K570" s="15">
-        <f t="shared" ref="K570:L570" si="118">K569/SQRT(3)</f>
+        <f t="shared" ref="K570:L570" si="120">K569/SQRT(3)</f>
         <v>7.5178799217943437</v>
       </c>
       <c r="L570" s="15">
-        <f t="shared" si="118"/>
+        <f t="shared" si="120"/>
         <v>7.5178799217943437</v>
       </c>
     </row>
@@ -15670,10 +16001,10 @@
       </c>
     </row>
     <row r="575" spans="1:14" s="8" customFormat="1">
-      <c r="A575" s="18" t="s">
+      <c r="A575" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B575" s="18"/>
+      <c r="B575" s="20"/>
     </row>
     <row r="576" spans="1:14" s="8" customFormat="1">
       <c r="A576" s="8" t="s">
@@ -15754,39 +16085,39 @@
         <v>2.5600000000000729</v>
       </c>
       <c r="C578" s="9">
-        <f t="shared" ref="C578:F578" si="119">(C577-C576)*(C577-C576)</f>
+        <f t="shared" ref="C578:F578" si="121">(C577-C576)*(C577-C576)</f>
         <v>54.759999999999664</v>
       </c>
       <c r="D578" s="9">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>54.759999999999664</v>
       </c>
       <c r="E578" s="9">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>184.9600000000006</v>
       </c>
       <c r="F578" s="9">
-        <f t="shared" si="119"/>
+        <f t="shared" si="121"/>
         <v>0.15999999999998182</v>
       </c>
       <c r="J578" s="11">
-        <f t="shared" ref="J578:N578" si="120">(J577-J576)*(J577-J576)</f>
+        <f t="shared" ref="J578:N578" si="122">(J577-J576)*(J577-J576)</f>
         <v>196</v>
       </c>
       <c r="K578" s="11">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>289</v>
       </c>
       <c r="L578" s="11">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>169</v>
       </c>
       <c r="M578" s="11">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>625</v>
       </c>
       <c r="N578" s="11">
-        <f t="shared" si="120"/>
+        <f t="shared" si="122"/>
         <v>49</v>
       </c>
     </row>
@@ -15834,19 +16165,19 @@
         <v>3.4478979103215917</v>
       </c>
       <c r="C580" s="9">
-        <f t="shared" ref="C580:F580" si="121">C579/SQRT(5)</f>
+        <f t="shared" ref="C580:F580" si="123">C579/SQRT(5)</f>
         <v>3.4478979103215917</v>
       </c>
       <c r="D580" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>3.4478979103215917</v>
       </c>
       <c r="E580" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>3.4478979103215917</v>
       </c>
       <c r="F580" s="9">
-        <f t="shared" si="121"/>
+        <f t="shared" si="123"/>
         <v>3.4478979103215917</v>
       </c>
       <c r="J580" s="8">
@@ -15854,19 +16185,19 @@
         <v>7.2883468633154385</v>
       </c>
       <c r="K580" s="11">
-        <f t="shared" ref="K580:N580" si="122">K579/SQRT(5)</f>
+        <f t="shared" ref="K580:N580" si="124">K579/SQRT(5)</f>
         <v>7.2883468633154385</v>
       </c>
       <c r="L580" s="11">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>7.2883468633154385</v>
       </c>
       <c r="M580" s="11">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>7.2883468633154385</v>
       </c>
       <c r="N580" s="11">
-        <f t="shared" si="122"/>
+        <f t="shared" si="124"/>
         <v>7.2883468633154385</v>
       </c>
     </row>
@@ -15916,10 +16247,10 @@
       </c>
     </row>
     <row r="585" spans="1:14" s="8" customFormat="1">
-      <c r="A585" s="18" t="s">
+      <c r="A585" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B585" s="18"/>
+      <c r="B585" s="20"/>
     </row>
     <row r="586" spans="1:14" s="8" customFormat="1">
       <c r="A586" s="8" t="s">
@@ -16000,39 +16331,39 @@
         <v>96.039999999999111</v>
       </c>
       <c r="C588" s="9">
-        <f t="shared" ref="C588:F588" si="123">(C587-C586)*(C587-C586)</f>
+        <f t="shared" ref="C588:F588" si="125">(C587-C586)*(C587-C586)</f>
         <v>190.43999999999875</v>
       </c>
       <c r="D588" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>408.04000000000184</v>
       </c>
       <c r="E588" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>116.63999999999902</v>
       </c>
       <c r="F588" s="9">
-        <f t="shared" si="123"/>
+        <f t="shared" si="125"/>
         <v>201.64000000000129</v>
       </c>
       <c r="J588" s="11">
-        <f t="shared" ref="J588:N588" si="124">(J587-J586)*(J587-J586)</f>
+        <f t="shared" ref="J588:N588" si="126">(J587-J586)*(J587-J586)</f>
         <v>19.3599999999998</v>
       </c>
       <c r="K588" s="11">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>129.95999999999947</v>
       </c>
       <c r="L588" s="11">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>243.3600000000007</v>
       </c>
       <c r="M588" s="11">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>466.56000000000097</v>
       </c>
       <c r="N588" s="11">
-        <f t="shared" si="124"/>
+        <f t="shared" si="126"/>
         <v>457.95999999999901</v>
       </c>
     </row>
@@ -16080,19 +16411,19 @@
         <v>6.3649037698931465</v>
       </c>
       <c r="C590" s="9">
-        <f t="shared" ref="C590:F590" si="125">C589/SQRT(5)</f>
+        <f t="shared" ref="C590:F590" si="127">C589/SQRT(5)</f>
         <v>6.3649037698931465</v>
       </c>
       <c r="D590" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>6.3649037698931465</v>
       </c>
       <c r="E590" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>6.3649037698931465</v>
       </c>
       <c r="F590" s="9">
-        <f t="shared" si="125"/>
+        <f t="shared" si="127"/>
         <v>6.3649037698931465</v>
       </c>
       <c r="J590" s="8">
@@ -16100,19 +16431,19 @@
         <v>7.2586500122267905</v>
       </c>
       <c r="K590" s="11">
-        <f t="shared" ref="K590:N590" si="126">K589/SQRT(5)</f>
+        <f t="shared" ref="K590:N590" si="128">K589/SQRT(5)</f>
         <v>7.2586500122267905</v>
       </c>
       <c r="L590" s="11">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>7.2586500122267905</v>
       </c>
       <c r="M590" s="11">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>7.2586500122267905</v>
       </c>
       <c r="N590" s="11">
-        <f t="shared" si="126"/>
+        <f t="shared" si="128"/>
         <v>7.2586500122267905</v>
       </c>
     </row>
@@ -16252,35 +16583,35 @@
         <v>6.25</v>
       </c>
       <c r="D598" s="9">
-        <f t="shared" ref="D598:F598" si="127">(D597-D596)*(D597-D596)</f>
+        <f t="shared" ref="D598:F598" si="129">(D597-D596)*(D597-D596)</f>
         <v>42.25</v>
       </c>
       <c r="E598" s="9">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>12.25</v>
       </c>
       <c r="F598" s="9">
-        <f t="shared" si="127"/>
+        <f t="shared" si="129"/>
         <v>0.25</v>
       </c>
       <c r="J598" s="12">
-        <f t="shared" ref="J598:N598" si="128">(J597-J596)*(J597-J596)</f>
+        <f t="shared" ref="J598:N598" si="130">(J597-J596)*(J597-J596)</f>
         <v>92.160000000000437</v>
       </c>
       <c r="K598" s="12">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v>179.55999999999938</v>
       </c>
       <c r="L598" s="12">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v>0.3600000000000273</v>
       </c>
       <c r="M598" s="12">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v>31.360000000000255</v>
       </c>
       <c r="N598" s="12">
-        <f t="shared" si="128"/>
+        <f t="shared" si="130"/>
         <v>5.7599999999998905</v>
       </c>
     </row>
@@ -16327,15 +16658,15 @@
         <v>1.9525624189766635</v>
       </c>
       <c r="D600" s="9">
-        <f t="shared" ref="D600:F600" si="129">D599/SQRT(4)</f>
+        <f t="shared" ref="D600:F600" si="131">D599/SQRT(4)</f>
         <v>1.9525624189766635</v>
       </c>
       <c r="E600" s="9">
-        <f t="shared" si="129"/>
+        <f t="shared" si="131"/>
         <v>1.9525624189766635</v>
       </c>
       <c r="F600" s="9">
-        <f t="shared" si="129"/>
+        <f t="shared" si="131"/>
         <v>1.9525624189766635</v>
       </c>
       <c r="J600" s="7">
@@ -16343,19 +16674,19 @@
         <v>3.5168167424533223</v>
       </c>
       <c r="K600" s="12">
-        <f t="shared" ref="K600:N600" si="130">K599/SQRT(5)</f>
+        <f t="shared" ref="K600:N600" si="132">K599/SQRT(5)</f>
         <v>3.5168167424533223</v>
       </c>
       <c r="L600" s="12">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>3.5168167424533223</v>
       </c>
       <c r="M600" s="12">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>3.5168167424533223</v>
       </c>
       <c r="N600" s="12">
-        <f t="shared" si="130"/>
+        <f t="shared" si="132"/>
         <v>3.5168167424533223</v>
       </c>
     </row>
@@ -16460,27 +16791,27 @@
         <v>115</v>
       </c>
       <c r="B609">
-        <f t="shared" ref="B609:G609" si="131">(B608-B607)*(B608-B607)</f>
+        <f t="shared" ref="B609:G609" si="133">(B608-B607)*(B608-B607)</f>
         <v>552.25</v>
       </c>
       <c r="C609" s="4">
-        <f t="shared" si="131"/>
+        <f t="shared" si="133"/>
         <v>0.25</v>
       </c>
       <c r="D609" s="4">
-        <f t="shared" si="131"/>
+        <f t="shared" si="133"/>
         <v>1640.25</v>
       </c>
       <c r="E609" s="4">
-        <f t="shared" si="131"/>
+        <f t="shared" si="133"/>
         <v>30.25</v>
       </c>
       <c r="F609" s="4">
-        <f t="shared" si="131"/>
+        <f t="shared" si="133"/>
         <v>30.25</v>
       </c>
       <c r="G609" s="4">
-        <f t="shared" si="131"/>
+        <f t="shared" si="133"/>
         <v>306.25</v>
       </c>
     </row>
@@ -16512,27 +16843,27 @@
         <v>117</v>
       </c>
       <c r="B611">
-        <f t="shared" ref="B611:G611" si="132">B610/SQRT(6)</f>
+        <f t="shared" ref="B611:G611" si="134">B610/SQRT(6)</f>
         <v>8.4319168770939772</v>
       </c>
       <c r="C611" s="4">
-        <f t="shared" si="132"/>
+        <f t="shared" si="134"/>
         <v>8.4319168770939772</v>
       </c>
       <c r="D611" s="4">
-        <f t="shared" si="132"/>
+        <f t="shared" si="134"/>
         <v>8.4319168770939772</v>
       </c>
       <c r="E611" s="4">
-        <f t="shared" si="132"/>
+        <f t="shared" si="134"/>
         <v>8.4319168770939772</v>
       </c>
       <c r="F611" s="4">
-        <f t="shared" si="132"/>
+        <f t="shared" si="134"/>
         <v>8.4319168770939772</v>
       </c>
       <c r="G611" s="4">
-        <f t="shared" si="132"/>
+        <f t="shared" si="134"/>
         <v>8.4319168770939772</v>
       </c>
     </row>
@@ -16612,15 +16943,15 @@
         <v>289</v>
       </c>
       <c r="C621" s="4">
-        <f t="shared" ref="C621:E621" si="133">(C620-C619)*(C620-C619)</f>
+        <f t="shared" ref="C621:E621" si="135">(C620-C619)*(C620-C619)</f>
         <v>484</v>
       </c>
       <c r="D621" s="4">
-        <f t="shared" si="133"/>
+        <f t="shared" si="135"/>
         <v>576</v>
       </c>
       <c r="E621" s="15">
-        <f t="shared" si="133"/>
+        <f t="shared" si="135"/>
         <v>841</v>
       </c>
     </row>
@@ -16650,15 +16981,15 @@
         <v>11.699358956797591</v>
       </c>
       <c r="C623" s="15">
-        <f t="shared" ref="C623:E623" si="134">C622/SQRT(4)</f>
+        <f t="shared" ref="C623:E623" si="136">C622/SQRT(4)</f>
         <v>11.699358956797591</v>
       </c>
       <c r="D623" s="15">
-        <f t="shared" si="134"/>
+        <f t="shared" si="136"/>
         <v>11.699358956797591</v>
       </c>
       <c r="E623" s="15">
-        <f t="shared" si="134"/>
+        <f t="shared" si="136"/>
         <v>11.699358956797591</v>
       </c>
     </row>
@@ -16793,19 +17124,19 @@
         <v>432.63999999999811</v>
       </c>
       <c r="C630" s="12">
-        <f t="shared" ref="C630:F630" si="135">(C629-C628)*(C629-C628)</f>
+        <f t="shared" ref="C630:F630" si="137">(C629-C628)*(C629-C628)</f>
         <v>2724.8400000000047</v>
       </c>
       <c r="D630" s="12">
-        <f t="shared" si="135"/>
+        <f t="shared" si="137"/>
         <v>3696.6399999999944</v>
       </c>
       <c r="E630" s="12">
-        <f t="shared" si="135"/>
+        <f t="shared" si="137"/>
         <v>60.839999999999293</v>
       </c>
       <c r="F630" s="12">
-        <f t="shared" si="135"/>
+        <f t="shared" si="137"/>
         <v>1383.8400000000033</v>
       </c>
       <c r="I630">
@@ -16813,19 +17144,19 @@
         <v>0.15999999999998182</v>
       </c>
       <c r="J630" s="14">
-        <f t="shared" ref="J630:M630" si="136">(J629-J628)*(J629-J628)</f>
+        <f t="shared" ref="J630:M630" si="138">(J629-J628)*(J629-J628)</f>
         <v>112.36000000000048</v>
       </c>
       <c r="K630" s="14">
-        <f t="shared" si="136"/>
+        <f t="shared" si="138"/>
         <v>70.559999999999619</v>
       </c>
       <c r="L630" s="14">
-        <f t="shared" si="136"/>
+        <f t="shared" si="138"/>
         <v>0.15999999999998182</v>
       </c>
       <c r="M630" s="14">
-        <f t="shared" si="136"/>
+        <f t="shared" si="138"/>
         <v>1.9599999999999362</v>
       </c>
     </row>
@@ -16873,39 +17204,39 @@
         <v>23.521337830432465</v>
       </c>
       <c r="C632" s="12">
-        <f t="shared" ref="C632:F632" si="137">C631/SQRT(3)</f>
+        <f t="shared" ref="C632:F632" si="139">C631/SQRT(3)</f>
         <v>23.521337830432465</v>
       </c>
       <c r="D632" s="12">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>23.521337830432465</v>
       </c>
       <c r="E632" s="12">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>23.521337830432465</v>
       </c>
       <c r="F632" s="12">
-        <f t="shared" si="137"/>
+        <f t="shared" si="139"/>
         <v>23.521337830432465</v>
       </c>
       <c r="I632" s="14">
-        <f t="shared" ref="I632:M632" si="138">I631/SQRT(3)</f>
+        <f t="shared" ref="I632:M632" si="140">I631/SQRT(3)</f>
         <v>3.5137823874945173</v>
       </c>
       <c r="J632" s="14">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>3.5137823874945173</v>
       </c>
       <c r="K632" s="14">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>3.5137823874945173</v>
       </c>
       <c r="L632" s="14">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>3.5137823874945173</v>
       </c>
       <c r="M632" s="14">
-        <f t="shared" si="138"/>
+        <f t="shared" si="140"/>
         <v>3.5137823874945173</v>
       </c>
     </row>
@@ -17097,27 +17428,27 @@
         <v>18.489999999999608</v>
       </c>
       <c r="C641">
-        <f t="shared" ref="C641:I641" si="139">(C639-C640)*(C639-C640)</f>
+        <f t="shared" ref="C641:I641" si="141">(C639-C640)*(C639-C640)</f>
         <v>1789.2899999999961</v>
       </c>
       <c r="E641">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>53.289999999999338</v>
       </c>
       <c r="F641">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>2735.2899999999954</v>
       </c>
       <c r="G641">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>5.2899999999997904</v>
       </c>
       <c r="H641">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>691.68999999999755</v>
       </c>
       <c r="I641">
-        <f t="shared" si="139"/>
+        <f t="shared" si="141"/>
         <v>1466.8899999999965</v>
       </c>
       <c r="L641">
@@ -17125,23 +17456,23 @@
         <v>441</v>
       </c>
       <c r="M641" s="5">
-        <f t="shared" ref="M641:Q641" si="140">(M640-M639)*(M640-M639)</f>
+        <f t="shared" ref="M641:Q641" si="142">(M640-M639)*(M640-M639)</f>
         <v>4</v>
       </c>
       <c r="N641" s="5">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v>100</v>
       </c>
       <c r="O641" s="5">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v>144</v>
       </c>
       <c r="P641" s="5">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v>16</v>
       </c>
       <c r="Q641" s="5">
-        <f t="shared" si="140"/>
+        <f t="shared" si="142"/>
         <v>49</v>
       </c>
     </row>
@@ -17198,27 +17529,27 @@
         <v>7.1138185241239524</v>
       </c>
       <c r="C643">
-        <f t="shared" ref="C643:I643" si="141">C642/SQRT(7)</f>
+        <f t="shared" ref="C643:I643" si="143">C642/SQRT(7)</f>
         <v>7.1138185241239524</v>
       </c>
       <c r="E643">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v>7.1138185241239524</v>
       </c>
       <c r="F643">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v>7.1138185241239524</v>
       </c>
       <c r="G643">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v>7.1138185241239524</v>
       </c>
       <c r="H643">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v>7.1138185241239524</v>
       </c>
       <c r="I643">
-        <f t="shared" si="141"/>
+        <f t="shared" si="143"/>
         <v>7.1138185241239524</v>
       </c>
       <c r="L643">
@@ -17226,23 +17557,23 @@
         <v>4.5765100725819936</v>
       </c>
       <c r="M643" s="5">
-        <f t="shared" ref="M643:Q643" si="142">M642/SQRT(6)</f>
+        <f t="shared" ref="M643:Q643" si="144">M642/SQRT(6)</f>
         <v>4.5765100725819936</v>
       </c>
       <c r="N643" s="5">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v>4.5765100725819936</v>
       </c>
       <c r="O643" s="5">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v>4.5765100725819936</v>
       </c>
       <c r="P643" s="5">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v>4.5765100725819936</v>
       </c>
       <c r="Q643" s="5">
-        <f t="shared" si="142"/>
+        <f t="shared" si="144"/>
         <v>4.5765100725819936</v>
       </c>
     </row>
@@ -17396,23 +17727,23 @@
         <v>230.02777777777663</v>
       </c>
       <c r="D650">
-        <f t="shared" ref="D650:H650" si="143">(D649-D648)*(D649-D648)</f>
+        <f t="shared" ref="D650:H650" si="145">(D649-D648)*(D649-D648)</f>
         <v>38.027777777781516</v>
       </c>
       <c r="E650">
-        <f t="shared" si="143"/>
+        <f t="shared" si="145"/>
         <v>220.02777777777891</v>
       </c>
       <c r="F650">
-        <f t="shared" si="143"/>
+        <f t="shared" si="145"/>
         <v>84.027777777777089</v>
       </c>
       <c r="G650">
-        <f t="shared" si="143"/>
+        <f t="shared" si="145"/>
         <v>3.3611111111112502</v>
       </c>
       <c r="H650">
-        <f t="shared" si="143"/>
+        <f t="shared" si="145"/>
         <v>191.36111111111217</v>
       </c>
       <c r="J650">
@@ -17420,19 +17751,19 @@
         <v>38.440000000000566</v>
       </c>
       <c r="K650" s="15">
-        <f t="shared" ref="K650:N650" si="144">(K649-K648)*(K649-K648)</f>
+        <f t="shared" ref="K650:N650" si="146">(K649-K648)*(K649-K648)</f>
         <v>67.240000000000748</v>
       </c>
       <c r="L650" s="15">
-        <f t="shared" si="144"/>
+        <f t="shared" si="146"/>
         <v>1142.4399999999969</v>
       </c>
       <c r="M650" s="15">
-        <f t="shared" si="144"/>
+        <f t="shared" si="146"/>
         <v>4.0000000000018188E-2</v>
       </c>
       <c r="N650" s="15">
-        <f t="shared" si="144"/>
+        <f t="shared" si="146"/>
         <v>368.64000000000175</v>
       </c>
     </row>
@@ -17483,23 +17814,23 @@
         <v>4.6152926154173635</v>
       </c>
       <c r="D652">
-        <f t="shared" ref="D652:H652" si="145">D651/SQRT(6)</f>
+        <f t="shared" ref="D652:H652" si="147">D651/SQRT(6)</f>
         <v>4.6152926154173635</v>
       </c>
       <c r="E652">
-        <f t="shared" si="145"/>
+        <f t="shared" si="147"/>
         <v>4.6152926154173635</v>
       </c>
       <c r="F652">
-        <f t="shared" si="145"/>
+        <f t="shared" si="147"/>
         <v>4.6152926154173635</v>
       </c>
       <c r="G652">
-        <f t="shared" si="145"/>
+        <f t="shared" si="147"/>
         <v>4.6152926154173635</v>
       </c>
       <c r="H652">
-        <f t="shared" si="145"/>
+        <f t="shared" si="147"/>
         <v>4.6152926154173635</v>
       </c>
       <c r="J652">
@@ -17507,19 +17838,19 @@
         <v>8.0418903250417415</v>
       </c>
       <c r="K652" s="15">
-        <f t="shared" ref="K652:N652" si="146">K651/SQRT(5)</f>
+        <f t="shared" ref="K652:N652" si="148">K651/SQRT(5)</f>
         <v>8.0418903250417415</v>
       </c>
       <c r="L652" s="15">
-        <f t="shared" si="146"/>
+        <f t="shared" si="148"/>
         <v>8.0418903250417415</v>
       </c>
       <c r="M652" s="15">
-        <f t="shared" si="146"/>
+        <f t="shared" si="148"/>
         <v>8.0418903250417415</v>
       </c>
       <c r="N652" s="15">
-        <f t="shared" si="146"/>
+        <f t="shared" si="148"/>
         <v>8.0418903250417415</v>
       </c>
     </row>
@@ -17674,23 +18005,23 @@
         <v>1.3611111111112879</v>
       </c>
       <c r="C658">
-        <f t="shared" ref="C658:G658" si="147">(C656-C657)*(C656-C657)</f>
+        <f t="shared" ref="C658:G658" si="149">(C656-C657)*(C656-C657)</f>
         <v>51.361111111112194</v>
       </c>
       <c r="D658">
-        <f t="shared" si="147"/>
+        <f t="shared" si="149"/>
         <v>2040.0277777777846</v>
       </c>
       <c r="E658">
-        <f t="shared" si="147"/>
+        <f t="shared" si="149"/>
         <v>84.027777777779164</v>
       </c>
       <c r="F658">
-        <f t="shared" si="147"/>
+        <f t="shared" si="149"/>
         <v>103.36111111111265</v>
       </c>
       <c r="G658">
-        <f t="shared" si="147"/>
+        <f t="shared" si="149"/>
         <v>5304.6944444444334</v>
       </c>
       <c r="I658">
@@ -17698,19 +18029,19 @@
         <v>1</v>
       </c>
       <c r="J658" s="15">
-        <f t="shared" ref="J658:M658" si="148">(J656-J657)*(J656-J657)</f>
+        <f t="shared" ref="J658:M658" si="150">(J656-J657)*(J656-J657)</f>
         <v>25</v>
       </c>
       <c r="K658" s="15">
-        <f t="shared" si="148"/>
+        <f t="shared" si="150"/>
         <v>121</v>
       </c>
       <c r="L658" s="15">
-        <f t="shared" si="148"/>
+        <f t="shared" si="150"/>
         <v>289</v>
       </c>
       <c r="M658" s="15">
-        <f t="shared" si="148"/>
+        <f t="shared" si="150"/>
         <v>100</v>
       </c>
     </row>
@@ -17761,23 +18092,23 @@
         <v>14.515158105057445</v>
       </c>
       <c r="C660">
-        <f t="shared" ref="C660:G660" si="149">C659/SQRT(6)</f>
+        <f t="shared" ref="C660:G660" si="151">C659/SQRT(6)</f>
         <v>14.515158105057445</v>
       </c>
       <c r="D660">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v>14.515158105057445</v>
       </c>
       <c r="E660">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v>14.515158105057445</v>
       </c>
       <c r="F660">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v>14.515158105057445</v>
       </c>
       <c r="G660">
-        <f t="shared" si="149"/>
+        <f t="shared" si="151"/>
         <v>14.515158105057445</v>
       </c>
       <c r="I660">
@@ -17785,19 +18116,19 @@
         <v>4.6303347611160897</v>
       </c>
       <c r="J660" s="15">
-        <f t="shared" ref="J660:M660" si="150">J659/SQRT(5)</f>
+        <f t="shared" ref="J660:M660" si="152">J659/SQRT(5)</f>
         <v>4.6303347611160897</v>
       </c>
       <c r="K660" s="15">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>4.6303347611160897</v>
       </c>
       <c r="L660" s="15">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>4.6303347611160897</v>
       </c>
       <c r="M660" s="15">
-        <f t="shared" si="150"/>
+        <f t="shared" si="152"/>
         <v>4.6303347611160897</v>
       </c>
     </row>
@@ -17917,23 +18248,23 @@
         <v>0</v>
       </c>
       <c r="C668">
-        <f t="shared" ref="C668:G668" si="151">(C666-C667)*(C666-C667)</f>
+        <f t="shared" ref="C668:G668" si="153">(C666-C667)*(C666-C667)</f>
         <v>25</v>
       </c>
       <c r="D668">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>16</v>
       </c>
       <c r="E668">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>1</v>
       </c>
       <c r="F668">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>169</v>
       </c>
       <c r="G668">
-        <f t="shared" si="151"/>
+        <f t="shared" si="153"/>
         <v>1024</v>
       </c>
       <c r="H668" s="5"/>
@@ -17971,23 +18302,23 @@
         <v>5.576920370269467</v>
       </c>
       <c r="C670">
-        <f t="shared" ref="C670:G670" si="152">C669/SQRT(7)</f>
+        <f t="shared" ref="C670:G670" si="154">C669/SQRT(7)</f>
         <v>5.576920370269467</v>
       </c>
       <c r="D670">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>5.576920370269467</v>
       </c>
       <c r="E670">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>5.576920370269467</v>
       </c>
       <c r="F670">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>5.576920370269467</v>
       </c>
       <c r="G670">
-        <f t="shared" si="152"/>
+        <f t="shared" si="154"/>
         <v>5.576920370269467</v>
       </c>
       <c r="H670" s="5"/>
@@ -18118,31 +18449,31 @@
         <v>395.015625</v>
       </c>
       <c r="C677">
-        <f t="shared" ref="C677" si="153">(C675-C676)*(C675-C676)</f>
+        <f t="shared" ref="C677" si="155">(C675-C676)*(C675-C676)</f>
         <v>47.265625</v>
       </c>
       <c r="D677">
-        <f t="shared" ref="D677:I677" si="154">(D675-D676)*(D675-D676)</f>
+        <f t="shared" ref="D677:I677" si="156">(D675-D676)*(D675-D676)</f>
         <v>228.765625</v>
       </c>
       <c r="E677">
-        <f t="shared" si="154"/>
+        <f t="shared" si="156"/>
         <v>83.265625</v>
       </c>
       <c r="F677">
-        <f t="shared" si="154"/>
+        <f t="shared" si="156"/>
         <v>907.515625</v>
       </c>
       <c r="G677">
-        <f t="shared" si="154"/>
+        <f t="shared" si="156"/>
         <v>435.765625</v>
       </c>
       <c r="H677">
-        <f t="shared" si="154"/>
+        <f t="shared" si="156"/>
         <v>892.515625</v>
       </c>
       <c r="I677">
-        <f t="shared" si="154"/>
+        <f t="shared" si="156"/>
         <v>534.765625</v>
       </c>
     </row>
@@ -18184,31 +18515,31 @@
         <v>6.9968991147666424</v>
       </c>
       <c r="C679">
-        <f t="shared" ref="C679" si="155">C678/3</f>
+        <f t="shared" ref="C679" si="157">C678/3</f>
         <v>6.9968991147666424</v>
       </c>
       <c r="D679">
-        <f t="shared" ref="D679:I679" si="156">D678/3</f>
+        <f t="shared" ref="D679:I679" si="158">D678/3</f>
         <v>6.9968991147666424</v>
       </c>
       <c r="E679">
-        <f t="shared" si="156"/>
+        <f t="shared" si="158"/>
         <v>6.9968991147666424</v>
       </c>
       <c r="F679">
-        <f t="shared" si="156"/>
+        <f t="shared" si="158"/>
         <v>6.9968991147666424</v>
       </c>
       <c r="G679">
-        <f t="shared" si="156"/>
+        <f t="shared" si="158"/>
         <v>6.9968991147666424</v>
       </c>
       <c r="H679">
-        <f t="shared" si="156"/>
+        <f t="shared" si="158"/>
         <v>6.9968991147666424</v>
       </c>
       <c r="I679">
-        <f t="shared" si="156"/>
+        <f t="shared" si="158"/>
         <v>6.9968991147666424</v>
       </c>
     </row>
@@ -18359,27 +18690,27 @@
         <v>4980.326530612243</v>
       </c>
       <c r="C685">
-        <f t="shared" ref="C685:H685" si="157">(C683-C684)*(C683-C684)</f>
+        <f t="shared" ref="C685:H685" si="159">(C683-C684)*(C683-C684)</f>
         <v>31.040816326530432</v>
       </c>
       <c r="D685">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>88.897959183673777</v>
       </c>
       <c r="E685">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>41.326530612245108</v>
       </c>
       <c r="F685">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>108.75510204081667</v>
       </c>
       <c r="G685">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>133.89795918367309</v>
       </c>
       <c r="H685">
-        <f t="shared" si="157"/>
+        <f t="shared" si="159"/>
         <v>3773.469387755104</v>
       </c>
       <c r="J685">
@@ -18387,11 +18718,11 @@
         <v>32.111111111110681</v>
       </c>
       <c r="K685">
-        <f t="shared" ref="K685:L685" si="158">(K683-K684)*(K683-K684)</f>
+        <f t="shared" ref="K685:L685" si="160">(K683-K684)*(K683-K684)</f>
         <v>53.777777777778333</v>
       </c>
       <c r="L685">
-        <f t="shared" si="158"/>
+        <f t="shared" si="160"/>
         <v>2.7777777777776516</v>
       </c>
     </row>
@@ -18439,27 +18770,27 @@
         <v>10.081632653061222</v>
       </c>
       <c r="C687">
-        <f t="shared" ref="C687:H687" si="159">C686/SQRT(7)</f>
+        <f t="shared" ref="C687:H687" si="161">C686/SQRT(7)</f>
         <v>10.081632653061222</v>
       </c>
       <c r="D687">
-        <f t="shared" si="159"/>
+        <f t="shared" si="161"/>
         <v>10.081632653061222</v>
       </c>
       <c r="E687">
-        <f t="shared" si="159"/>
+        <f t="shared" si="161"/>
         <v>10.081632653061222</v>
       </c>
       <c r="F687">
-        <f t="shared" si="159"/>
+        <f t="shared" si="161"/>
         <v>10.081632653061222</v>
       </c>
       <c r="G687">
-        <f t="shared" si="159"/>
+        <f t="shared" si="161"/>
         <v>10.081632653061222</v>
       </c>
       <c r="H687">
-        <f t="shared" si="159"/>
+        <f t="shared" si="161"/>
         <v>10.081632653061222</v>
       </c>
       <c r="J687">
@@ -18467,11 +18798,11 @@
         <v>3.1387659759612303</v>
       </c>
       <c r="K687">
-        <f t="shared" ref="K687:L687" si="160">K686/SQRT(3)</f>
+        <f t="shared" ref="K687:L687" si="162">K686/SQRT(3)</f>
         <v>3.1387659759612303</v>
       </c>
       <c r="L687">
-        <f t="shared" si="160"/>
+        <f t="shared" si="162"/>
         <v>3.1387659759612303</v>
       </c>
     </row>
@@ -18608,35 +18939,35 @@
         <v>16</v>
       </c>
       <c r="C698">
-        <f t="shared" ref="C698:E698" si="161">(C696-C697)*(C696-C697)</f>
+        <f t="shared" ref="C698:E698" si="163">(C696-C697)*(C696-C697)</f>
         <v>16</v>
       </c>
       <c r="D698">
-        <f t="shared" si="161"/>
+        <f t="shared" si="163"/>
         <v>16</v>
       </c>
       <c r="E698">
-        <f t="shared" si="161"/>
+        <f t="shared" si="163"/>
         <v>16</v>
       </c>
       <c r="H698" s="17">
-        <f t="shared" ref="H698:L698" si="162">(H696-H697)*(H696-H697)</f>
+        <f t="shared" ref="H698:L698" si="164">(H696-H697)*(H696-H697)</f>
         <v>1.9599999999999362</v>
       </c>
       <c r="I698" s="17">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>0.15999999999998182</v>
       </c>
       <c r="J698" s="17">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>54.759999999999664</v>
       </c>
       <c r="K698" s="17">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>57.760000000000346</v>
       </c>
       <c r="L698" s="17">
-        <f t="shared" si="162"/>
+        <f t="shared" si="164"/>
         <v>2.5600000000000729</v>
       </c>
     </row>
@@ -18681,15 +19012,15 @@
         <v>2</v>
       </c>
       <c r="C700">
-        <f t="shared" ref="C700:E700" si="163">C699/SQRT(4)</f>
+        <f t="shared" ref="C700:E700" si="165">C699/SQRT(4)</f>
         <v>2</v>
       </c>
       <c r="D700">
-        <f t="shared" si="163"/>
+        <f t="shared" si="165"/>
         <v>2</v>
       </c>
       <c r="E700">
-        <f t="shared" si="163"/>
+        <f t="shared" si="165"/>
         <v>2</v>
       </c>
       <c r="H700" s="17">
@@ -18697,19 +19028,19 @@
         <v>2.1651789764358971</v>
       </c>
       <c r="I700" s="17">
-        <f t="shared" ref="I700:L700" si="164">I699/SQRT(5)</f>
+        <f t="shared" ref="I700:L700" si="166">I699/SQRT(5)</f>
         <v>2.1651789764358971</v>
       </c>
       <c r="J700" s="17">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>2.1651789764358971</v>
       </c>
       <c r="K700" s="17">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>2.1651789764358971</v>
       </c>
       <c r="L700" s="17">
-        <f t="shared" si="164"/>
+        <f t="shared" si="166"/>
         <v>2.1651789764358971</v>
       </c>
     </row>
@@ -18778,11 +19109,11 @@
         <v>169</v>
       </c>
       <c r="C707">
-        <f t="shared" ref="C707:D707" si="165">(C705-C706)*(C705-C706)</f>
+        <f t="shared" ref="C707:D707" si="167">(C705-C706)*(C705-C706)</f>
         <v>49</v>
       </c>
       <c r="D707">
-        <f t="shared" si="165"/>
+        <f t="shared" si="167"/>
         <v>400</v>
       </c>
     </row>
@@ -18795,11 +19126,11 @@
         <v>14.352700094407323</v>
       </c>
       <c r="C708">
-        <f t="shared" ref="C708:D708" si="166">SQRT(206)</f>
+        <f t="shared" ref="C708:D708" si="168">SQRT(206)</f>
         <v>14.352700094407323</v>
       </c>
       <c r="D708">
-        <f t="shared" si="166"/>
+        <f t="shared" si="168"/>
         <v>14.352700094407323</v>
       </c>
     </row>
@@ -18812,11 +19143,11 @@
         <v>8.2865352631040352</v>
       </c>
       <c r="C709">
-        <f t="shared" ref="C709:D709" si="167">C708/SQRT(3)</f>
+        <f t="shared" ref="C709:D709" si="169">C708/SQRT(3)</f>
         <v>8.2865352631040352</v>
       </c>
       <c r="D709">
-        <f t="shared" si="167"/>
+        <f t="shared" si="169"/>
         <v>8.2865352631040352</v>
       </c>
     </row>
@@ -18929,31 +19260,31 @@
         <v>498.77777777777948</v>
       </c>
       <c r="C715">
-        <f t="shared" ref="C715:D715" si="168">(C713-C714)*(C713-C714)</f>
+        <f t="shared" ref="C715:D715" si="170">(C713-C714)*(C713-C714)</f>
         <v>2085.4444444444412</v>
       </c>
       <c r="D715">
-        <f t="shared" si="168"/>
+        <f t="shared" si="170"/>
         <v>544.44444444444616</v>
       </c>
       <c r="G715" s="17">
-        <f t="shared" ref="G715:K715" si="169">(G713-G714)*(G713-G714)</f>
+        <f t="shared" ref="G715:K715" si="171">(G713-G714)*(G713-G714)</f>
         <v>1128.9600000000016</v>
       </c>
       <c r="H715" s="17">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>8723.5599999999959</v>
       </c>
       <c r="I715" s="17">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>1267.3600000000017</v>
       </c>
       <c r="J715" s="17">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>424.36000000000092</v>
       </c>
       <c r="K715" s="17">
-        <f t="shared" si="169"/>
+        <f t="shared" si="171"/>
         <v>12.960000000000164</v>
       </c>
     </row>
@@ -18995,11 +19326,11 @@
         <v>18.644828495581013</v>
       </c>
       <c r="C717">
-        <f t="shared" ref="C717:D717" si="170">C716/SQRT(3)</f>
+        <f t="shared" ref="C717:D717" si="172">C716/SQRT(3)</f>
         <v>18.644828495581013</v>
       </c>
       <c r="D717">
-        <f t="shared" si="170"/>
+        <f t="shared" si="172"/>
         <v>18.644828495581013</v>
       </c>
       <c r="G717" s="17">
@@ -19007,19 +19338,19 @@
         <v>21.500883702769055</v>
       </c>
       <c r="H717" s="17">
-        <f t="shared" ref="H717:K717" si="171">H716/SQRT(5)</f>
+        <f t="shared" ref="H717:K717" si="173">H716/SQRT(5)</f>
         <v>21.500883702769055</v>
       </c>
       <c r="I717" s="17">
-        <f t="shared" si="171"/>
+        <f t="shared" si="173"/>
         <v>21.500883702769055</v>
       </c>
       <c r="J717" s="17">
-        <f t="shared" si="171"/>
+        <f t="shared" si="173"/>
         <v>21.500883702769055</v>
       </c>
       <c r="K717" s="17">
-        <f t="shared" si="171"/>
+        <f t="shared" si="173"/>
         <v>21.500883702769055</v>
       </c>
     </row>
@@ -19111,15 +19442,15 @@
         <v>10.5625</v>
       </c>
       <c r="C726">
-        <f t="shared" ref="C726:E726" si="172">(C724-C725)*(C724-C725)</f>
+        <f t="shared" ref="C726:E726" si="174">(C724-C725)*(C724-C725)</f>
         <v>248.0625</v>
       </c>
       <c r="D726">
-        <f t="shared" si="172"/>
+        <f t="shared" si="174"/>
         <v>27.5625</v>
       </c>
       <c r="E726">
-        <f t="shared" si="172"/>
+        <f t="shared" si="174"/>
         <v>52.5625</v>
       </c>
     </row>
@@ -19149,15 +19480,15 @@
         <v>4.6012905798264905</v>
       </c>
       <c r="C728">
-        <f t="shared" ref="C728:E728" si="173">C727/SQRT(4)</f>
+        <f t="shared" ref="C728:E728" si="175">C727/SQRT(4)</f>
         <v>4.6012905798264905</v>
       </c>
       <c r="D728">
-        <f t="shared" si="173"/>
+        <f t="shared" si="175"/>
         <v>4.6012905798264905</v>
       </c>
       <c r="E728">
-        <f t="shared" si="173"/>
+        <f t="shared" si="175"/>
         <v>4.6012905798264905</v>
       </c>
     </row>
@@ -19247,19 +19578,19 @@
         <v>353.43999999999829</v>
       </c>
       <c r="C735" s="5">
-        <f t="shared" ref="C735:F735" si="174">(C733-C734)*(C733-C734)</f>
+        <f t="shared" ref="C735:F735" si="176">(C733-C734)*(C733-C734)</f>
         <v>249.63999999999857</v>
       </c>
       <c r="D735" s="5">
-        <f t="shared" si="174"/>
+        <f t="shared" si="176"/>
         <v>46.239999999999384</v>
       </c>
       <c r="E735" s="5">
-        <f t="shared" si="174"/>
+        <f t="shared" si="176"/>
         <v>33.639999999999475</v>
       </c>
       <c r="F735" s="5">
-        <f t="shared" si="174"/>
+        <f t="shared" si="176"/>
         <v>2227.8400000000042</v>
       </c>
     </row>
@@ -19292,19 +19623,19 @@
         <v>10.790366073493521</v>
       </c>
       <c r="C737" s="5">
-        <f t="shared" ref="C737:F737" si="175">C736/SQRT(5)</f>
+        <f t="shared" ref="C737:F737" si="177">C736/SQRT(5)</f>
         <v>10.790366073493521</v>
       </c>
       <c r="D737" s="5">
-        <f t="shared" si="175"/>
+        <f t="shared" si="177"/>
         <v>10.790366073493521</v>
       </c>
       <c r="E737" s="5">
-        <f t="shared" si="175"/>
+        <f t="shared" si="177"/>
         <v>10.790366073493521</v>
       </c>
       <c r="F737" s="5">
-        <f t="shared" si="175"/>
+        <f t="shared" si="177"/>
         <v>10.790366073493521</v>
       </c>
     </row>
@@ -19386,19 +19717,19 @@
         <v>484</v>
       </c>
       <c r="C743">
-        <f t="shared" ref="C743:F743" si="176">(C741-C742)*(C741-C742)</f>
+        <f t="shared" ref="C743:F743" si="178">(C741-C742)*(C741-C742)</f>
         <v>169</v>
       </c>
       <c r="D743">
-        <f t="shared" si="176"/>
+        <f t="shared" si="178"/>
         <v>11236</v>
       </c>
       <c r="E743">
-        <f t="shared" si="176"/>
+        <f t="shared" si="178"/>
         <v>1296</v>
       </c>
       <c r="F743">
-        <f t="shared" si="176"/>
+        <f t="shared" si="178"/>
         <v>1225</v>
       </c>
     </row>
@@ -19431,19 +19762,19 @@
         <v>24.008331887076199</v>
       </c>
       <c r="C745">
-        <f t="shared" ref="C745:F745" si="177">C744/SQRT(5)</f>
+        <f t="shared" ref="C745:F745" si="179">C744/SQRT(5)</f>
         <v>24.008331887076199</v>
       </c>
       <c r="D745">
-        <f t="shared" si="177"/>
+        <f t="shared" si="179"/>
         <v>24.008331887076199</v>
       </c>
       <c r="E745">
-        <f t="shared" si="177"/>
+        <f t="shared" si="179"/>
         <v>24.008331887076199</v>
       </c>
       <c r="F745">
-        <f t="shared" si="177"/>
+        <f t="shared" si="179"/>
         <v>24.008331887076199</v>
       </c>
     </row>
@@ -19537,15 +19868,15 @@
         <v>7744</v>
       </c>
       <c r="C754">
-        <f t="shared" ref="C754:E754" si="178">(C752-C753)*(C752-C753)</f>
+        <f t="shared" ref="C754:E754" si="180">(C752-C753)*(C752-C753)</f>
         <v>1089</v>
       </c>
       <c r="D754">
-        <f t="shared" si="178"/>
+        <f t="shared" si="180"/>
         <v>0</v>
       </c>
       <c r="E754">
-        <f t="shared" si="178"/>
+        <f t="shared" si="180"/>
         <v>3025</v>
       </c>
     </row>
@@ -19575,15 +19906,15 @@
         <v>27.223611075682079</v>
       </c>
       <c r="C756">
-        <f t="shared" ref="C756:E756" si="179">C755/SQRT(4)</f>
+        <f t="shared" ref="C756:E756" si="181">C755/SQRT(4)</f>
         <v>27.223611075682079</v>
       </c>
       <c r="D756">
-        <f t="shared" si="179"/>
+        <f t="shared" si="181"/>
         <v>27.223611075682079</v>
       </c>
       <c r="E756">
-        <f t="shared" si="179"/>
+        <f t="shared" si="181"/>
         <v>27.223611075682079</v>
       </c>
     </row>
@@ -19664,15 +19995,15 @@
         <v>12.25</v>
       </c>
       <c r="C763">
-        <f t="shared" ref="C763:E763" si="180">(C761-C762)*(C761-C762)</f>
+        <f t="shared" ref="C763:E763" si="182">(C761-C762)*(C761-C762)</f>
         <v>182.25</v>
       </c>
       <c r="D763">
-        <f t="shared" si="180"/>
+        <f t="shared" si="182"/>
         <v>0.25</v>
       </c>
       <c r="E763">
-        <f t="shared" si="180"/>
+        <f t="shared" si="182"/>
         <v>90.25</v>
       </c>
     </row>
@@ -19702,15 +20033,15 @@
         <v>4.2204857540335334</v>
       </c>
       <c r="C765">
-        <f t="shared" ref="C765:E765" si="181">C764/SQRT(4)</f>
+        <f t="shared" ref="C765:E765" si="183">C764/SQRT(4)</f>
         <v>4.2204857540335334</v>
       </c>
       <c r="D765">
-        <f t="shared" si="181"/>
+        <f t="shared" si="183"/>
         <v>4.2204857540335334</v>
       </c>
       <c r="E765">
-        <f t="shared" si="181"/>
+        <f t="shared" si="183"/>
         <v>4.2204857540335334</v>
       </c>
     </row>
@@ -19812,11 +20143,11 @@
         <v>576</v>
       </c>
       <c r="C771">
-        <f t="shared" ref="C771:D771" si="182">(C769-C770)*(C769-C770)</f>
+        <f t="shared" ref="C771:D771" si="184">(C769-C770)*(C769-C770)</f>
         <v>324</v>
       </c>
       <c r="D771">
-        <f t="shared" si="182"/>
+        <f t="shared" si="184"/>
         <v>36</v>
       </c>
       <c r="F771">
@@ -19824,15 +20155,15 @@
         <v>20.25</v>
       </c>
       <c r="G771">
-        <f t="shared" ref="G771:I771" si="183">(G770-G769)*(G770-G769)</f>
+        <f t="shared" ref="G771:I771" si="185">(G770-G769)*(G770-G769)</f>
         <v>930.25</v>
       </c>
       <c r="H771">
-        <f t="shared" si="183"/>
+        <f t="shared" si="185"/>
         <v>650.25</v>
       </c>
       <c r="I771">
-        <f t="shared" si="183"/>
+        <f t="shared" si="185"/>
         <v>90.25</v>
       </c>
     </row>
@@ -19871,11 +20202,11 @@
         <v>10.198039027185571</v>
       </c>
       <c r="C773">
-        <f t="shared" ref="C773:D773" si="184">C772/SQRT(3)</f>
+        <f t="shared" ref="C773:D773" si="186">C772/SQRT(3)</f>
         <v>10.198039027185571</v>
       </c>
       <c r="D773">
-        <f t="shared" si="184"/>
+        <f t="shared" si="186"/>
         <v>10.198039027185571</v>
       </c>
       <c r="F773">
@@ -19883,15 +20214,15 @@
         <v>10.280442597476044</v>
       </c>
       <c r="G773">
-        <f t="shared" ref="G773:I773" si="185">G772/SQRT(4)</f>
+        <f t="shared" ref="G773:I773" si="187">G772/SQRT(4)</f>
         <v>10.280442597476044</v>
       </c>
       <c r="H773">
-        <f t="shared" si="185"/>
+        <f t="shared" si="187"/>
         <v>10.280442597476044</v>
       </c>
       <c r="I773">
-        <f t="shared" si="185"/>
+        <f t="shared" si="187"/>
         <v>10.280442597476044</v>
       </c>
     </row>
@@ -20685,7 +21016,6 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
     <ignoredError sqref="B50 B87 B93 B99 B129 B136 B143 B195 B202 B346 B353" formula="1"/>
   </ignoredErrors>

--- a/papers/async-re/data/raw_data.xlsx
+++ b/papers/async-re/data/raw_data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="200">
   <si>
     <t>#54</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -767,6 +767,33 @@
   <si>
     <t>161,162**</t>
   </si>
+  <si>
+    <t>hetero</t>
+  </si>
+  <si>
+    <t>exp #</t>
+  </si>
+  <si>
+    <t>exp#</t>
+  </si>
+  <si>
+    <t>Homogeneous</t>
+  </si>
+  <si>
+    <t>Heterogeneous</t>
+  </si>
+  <si>
+    <t>Synchronous</t>
+  </si>
+  <si>
+    <t>Asynchronous (centralized)</t>
+  </si>
+  <si>
+    <t>Asynchronous (decentralized)</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
 </sst>
 </file>
 
@@ -826,7 +853,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="771">
+  <cellStyleXfs count="835">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1598,8 +1625,72 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1621,8 +1712,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="771">
+  <cellStyles count="835">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2008,6 +2101,38 @@
     <cellStyle name="Followed Hyperlink" xfId="766" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="768" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="770" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="772" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="774" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="776" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="778" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="780" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="782" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="784" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="786" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="788" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="790" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="792" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="794" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="796" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="798" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="800" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="802" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="804" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="806" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="808" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="810" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="812" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="814" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="816" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="818" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="820" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="822" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="824" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="826" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="828" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="830" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="832" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="834" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2393,6 +2518,38 @@
     <cellStyle name="Hyperlink" xfId="765" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="767" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="769" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="771" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="773" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="775" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="777" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="779" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="781" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="783" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="785" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="787" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="789" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="791" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="793" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="795" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="797" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="799" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="801" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="803" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="805" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="807" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="809" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="811" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="813" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="815" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="817" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="819" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="821" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="823" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="825" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="827" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="829" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="831" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="833" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2430,7 +2587,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2547,11 +2703,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="383375608"/>
-        <c:axId val="433236648"/>
+        <c:axId val="551424760"/>
+        <c:axId val="84883144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="383375608"/>
+        <c:axId val="551424760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2573,13 +2729,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="433236648"/>
+        <c:crossAx val="84883144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2587,7 +2742,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="433236648"/>
+        <c:axId val="84883144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2610,6 +2765,290 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="551424760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$853</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Homogeneous</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$J$856:$L$856</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>19.0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>15.0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$J$856:$L$856</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>19.0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>15.0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$J$852:$L$852</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Synchronous</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Asynchronous (centralized)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Asynchronous (decentralized)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$853:$L$853</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1008.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>816.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>642.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$854</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heterogeneous</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$J$857:$L$857</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>12.0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.25</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.34</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$J$857:$L$857</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>12.0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.25</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.34</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$J$852:$L$852</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Synchronous</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Asynchronous (centralized)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Asynchronous (decentralized)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$854:$L$854</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1371.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>885.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>781.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="600707864"/>
+        <c:axId val="551591560"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="600707864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="551591560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="551591560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>time to completion (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
@@ -2617,14 +3056,23 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="383375608"/>
+        <c:crossAx val="600707864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.609342342481162"/>
+          <c:y val="0.146826573148945"/>
+          <c:w val="0.167954862123716"/>
+          <c:h val="0.112509318688105"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2744,11 +3192,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="422293304"/>
-        <c:axId val="422205976"/>
+        <c:axId val="601926664"/>
+        <c:axId val="603454008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="422293304"/>
+        <c:axId val="601926664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2775,7 +3223,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="422205976"/>
+        <c:crossAx val="603454008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2783,7 +3231,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="422205976"/>
+        <c:axId val="603454008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2812,7 +3260,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="422293304"/>
+        <c:crossAx val="601926664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3028,11 +3476,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="493891960"/>
-        <c:axId val="491914904"/>
+        <c:axId val="551112824"/>
+        <c:axId val="571289384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="493891960"/>
+        <c:axId val="551112824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3059,7 +3507,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="491914904"/>
+        <c:crossAx val="571289384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3067,7 +3515,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="491914904"/>
+        <c:axId val="571289384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3096,7 +3544,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="493891960"/>
+        <c:crossAx val="551112824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3233,11 +3681,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="403793496"/>
-        <c:axId val="463554904"/>
+        <c:axId val="617540984"/>
+        <c:axId val="525578408"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="403793496"/>
+        <c:axId val="617540984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3246,7 +3694,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="463554904"/>
+        <c:crossAx val="525578408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3254,7 +3702,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="463554904"/>
+        <c:axId val="525578408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3283,7 +3731,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="403793496"/>
+        <c:crossAx val="617540984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3426,11 +3874,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="430911560"/>
-        <c:axId val="430685240"/>
+        <c:axId val="603588344"/>
+        <c:axId val="600382584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="430911560"/>
+        <c:axId val="603588344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3457,7 +3905,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="430685240"/>
+        <c:crossAx val="600382584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3465,7 +3913,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="430685240"/>
+        <c:axId val="600382584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3494,7 +3942,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="430911560"/>
+        <c:crossAx val="603588344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3641,11 +4089,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="403936280"/>
-        <c:axId val="421908728"/>
+        <c:axId val="615898632"/>
+        <c:axId val="481975800"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="403936280"/>
+        <c:axId val="615898632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3672,7 +4120,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="421908728"/>
+        <c:crossAx val="481975800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3680,7 +4128,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="421908728"/>
+        <c:axId val="481975800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3709,7 +4157,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="403936280"/>
+        <c:crossAx val="615898632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4195,11 +4643,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="468453672"/>
-        <c:axId val="493818824"/>
+        <c:axId val="600561960"/>
+        <c:axId val="534894568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="468453672"/>
+        <c:axId val="600561960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4208,7 +4656,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="493818824"/>
+        <c:crossAx val="534894568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4216,7 +4664,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="493818824"/>
+        <c:axId val="534894568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4244,7 +4692,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="468453672"/>
+        <c:crossAx val="600561960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4295,7 +4743,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4455,11 +4902,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="479180664"/>
-        <c:axId val="421889496"/>
+        <c:axId val="616043096"/>
+        <c:axId val="571205864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="479180664"/>
+        <c:axId val="616043096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4468,7 +4915,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="421889496"/>
+        <c:crossAx val="571205864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4476,7 +4923,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="421889496"/>
+        <c:axId val="571205864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4499,21 +4946,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="479180664"/>
+        <c:crossAx val="616043096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4747,11 +5192,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="463903992"/>
-        <c:axId val="428296696"/>
+        <c:axId val="84863688"/>
+        <c:axId val="602088600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="463903992"/>
+        <c:axId val="84863688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4778,7 +5223,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="428296696"/>
+        <c:crossAx val="602088600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4786,7 +5231,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="428296696"/>
+        <c:axId val="602088600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4815,7 +5260,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="463903992"/>
+        <c:crossAx val="84863688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5206,6 +5651,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>850</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>877</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5529,10 +6004,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z814"/>
+  <dimension ref="A1:Z870"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A291" workbookViewId="0">
-      <selection activeCell="A302" sqref="A302"/>
+    <sheetView tabSelected="1" topLeftCell="A840" workbookViewId="0">
+      <selection activeCell="I863" sqref="I863"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -11717,10 +12192,10 @@
       <c r="E414" s="6"/>
     </row>
     <row r="415" spans="1:5">
-      <c r="A415" s="20" t="s">
+      <c r="A415" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B415" s="20"/>
+      <c r="B415" s="22"/>
       <c r="D415" s="6"/>
       <c r="E415" s="6"/>
     </row>
@@ -11847,10 +12322,10 @@
       </c>
     </row>
     <row r="425" spans="1:14">
-      <c r="A425" s="20" t="s">
+      <c r="A425" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B425" s="20"/>
+      <c r="B425" s="22"/>
     </row>
     <row r="426" spans="1:14">
       <c r="A426" t="s">
@@ -12133,10 +12608,10 @@
       </c>
     </row>
     <row r="435" spans="1:14">
-      <c r="A435" s="20" t="s">
+      <c r="A435" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B435" s="20"/>
+      <c r="B435" s="22"/>
     </row>
     <row r="436" spans="1:14">
       <c r="A436" t="s">
@@ -13357,10 +13832,10 @@
       </c>
     </row>
     <row r="485" spans="1:14">
-      <c r="A485" s="20" t="s">
+      <c r="A485" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B485" s="20"/>
+      <c r="B485" s="22"/>
     </row>
     <row r="486" spans="1:14">
       <c r="A486" s="8" t="s">
@@ -13614,10 +14089,10 @@
       </c>
     </row>
     <row r="495" spans="1:14" s="7" customFormat="1">
-      <c r="A495" s="20" t="s">
+      <c r="A495" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B495" s="20"/>
+      <c r="B495" s="22"/>
     </row>
     <row r="496" spans="1:14" s="7" customFormat="1">
       <c r="A496" s="8" t="s">
@@ -14105,10 +14580,10 @@
       </c>
     </row>
     <row r="515" spans="1:22" s="8" customFormat="1">
-      <c r="A515" s="20" t="s">
+      <c r="A515" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B515" s="20"/>
+      <c r="B515" s="22"/>
     </row>
     <row r="516" spans="1:22" s="8" customFormat="1">
       <c r="A516" s="8" t="s">
@@ -14372,10 +14847,10 @@
       </c>
     </row>
     <row r="525" spans="1:22" s="8" customFormat="1">
-      <c r="A525" s="20" t="s">
+      <c r="A525" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B525" s="20"/>
+      <c r="B525" s="22"/>
     </row>
     <row r="526" spans="1:22" s="8" customFormat="1">
       <c r="A526" s="8" t="s">
@@ -15120,10 +15595,10 @@
       </c>
     </row>
     <row r="545" spans="1:23" s="8" customFormat="1">
-      <c r="A545" s="20" t="s">
+      <c r="A545" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B545" s="20"/>
+      <c r="B545" s="22"/>
       <c r="O545"/>
       <c r="P545"/>
       <c r="Q545"/>
@@ -15533,10 +16008,10 @@
       </c>
     </row>
     <row r="555" spans="1:23" s="8" customFormat="1">
-      <c r="A555" s="20" t="s">
+      <c r="A555" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B555" s="20"/>
+      <c r="B555" s="22"/>
     </row>
     <row r="556" spans="1:23" s="8" customFormat="1">
       <c r="A556" s="8" t="s">
@@ -16001,10 +16476,10 @@
       </c>
     </row>
     <row r="575" spans="1:14" s="8" customFormat="1">
-      <c r="A575" s="20" t="s">
+      <c r="A575" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B575" s="20"/>
+      <c r="B575" s="22"/>
     </row>
     <row r="576" spans="1:14" s="8" customFormat="1">
       <c r="A576" s="8" t="s">
@@ -16247,10 +16722,10 @@
       </c>
     </row>
     <row r="585" spans="1:14" s="8" customFormat="1">
-      <c r="A585" s="20" t="s">
+      <c r="A585" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="B585" s="20"/>
+      <c r="B585" s="22"/>
     </row>
     <row r="586" spans="1:14" s="8" customFormat="1">
       <c r="A586" s="8" t="s">
@@ -21000,19 +21475,705 @@
         <v>68</v>
       </c>
     </row>
+    <row r="821" spans="1:6">
+      <c r="A821" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="822" spans="1:6">
+      <c r="A822" t="s">
+        <v>192</v>
+      </c>
+      <c r="B822">
+        <v>195</v>
+      </c>
+      <c r="C822">
+        <v>196</v>
+      </c>
+      <c r="D822">
+        <v>197</v>
+      </c>
+      <c r="E822">
+        <v>198</v>
+      </c>
+      <c r="F822">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="823" spans="1:6">
+      <c r="A823" t="s">
+        <v>184</v>
+      </c>
+      <c r="B823">
+        <f>26*60+49-217</f>
+        <v>1392</v>
+      </c>
+      <c r="C823">
+        <f>26*60+45-217</f>
+        <v>1388</v>
+      </c>
+      <c r="D823">
+        <f>25*60+38-217</f>
+        <v>1321</v>
+      </c>
+      <c r="E823">
+        <f>26*60+41-217</f>
+        <v>1384</v>
+      </c>
+      <c r="F823">
+        <f>26*60+28-217</f>
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="824" spans="1:6">
+      <c r="A824" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="B824">
+        <v>1371.2</v>
+      </c>
+      <c r="C824">
+        <v>1371.2</v>
+      </c>
+      <c r="D824">
+        <v>1371.2</v>
+      </c>
+      <c r="E824">
+        <v>1371.2</v>
+      </c>
+      <c r="F824">
+        <v>1371.2</v>
+      </c>
+    </row>
+    <row r="825" spans="1:6">
+      <c r="A825" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="B825">
+        <f>(B824-B823)*(B824-B823)</f>
+        <v>432.63999999999811</v>
+      </c>
+      <c r="C825" s="20">
+        <f t="shared" ref="C825:F825" si="188">(C824-C823)*(C824-C823)</f>
+        <v>282.23999999999847</v>
+      </c>
+      <c r="D825" s="20">
+        <f t="shared" si="188"/>
+        <v>2520.0400000000045</v>
+      </c>
+      <c r="E825" s="20">
+        <f t="shared" si="188"/>
+        <v>163.83999999999884</v>
+      </c>
+      <c r="F825" s="20">
+        <f t="shared" si="188"/>
+        <v>4.0000000000018188E-2</v>
+      </c>
+    </row>
+    <row r="826" spans="1:6">
+      <c r="A826" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="B826" s="20">
+        <v>26.072207424765551</v>
+      </c>
+      <c r="C826" s="20">
+        <v>26.072207424765551</v>
+      </c>
+      <c r="D826">
+        <v>26.072207424765551</v>
+      </c>
+      <c r="E826">
+        <v>26.072207424765551</v>
+      </c>
+      <c r="F826">
+        <v>26.072207424765551</v>
+      </c>
+    </row>
+    <row r="827" spans="1:6">
+      <c r="A827" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B827">
+        <f>B826/SQRT(5)</f>
+        <v>11.659845625050101</v>
+      </c>
+      <c r="C827" s="20">
+        <f t="shared" ref="C827:F827" si="189">C826/SQRT(5)</f>
+        <v>11.659845625050101</v>
+      </c>
+      <c r="D827" s="20">
+        <f t="shared" si="189"/>
+        <v>11.659845625050101</v>
+      </c>
+      <c r="E827" s="20">
+        <f t="shared" si="189"/>
+        <v>11.659845625050101</v>
+      </c>
+      <c r="F827" s="20">
+        <f t="shared" si="189"/>
+        <v>11.659845625050101</v>
+      </c>
+    </row>
+    <row r="830" spans="1:6">
+      <c r="A830" t="s">
+        <v>193</v>
+      </c>
+      <c r="B830">
+        <v>212</v>
+      </c>
+      <c r="C830" s="20">
+        <v>213</v>
+      </c>
+      <c r="D830" s="20">
+        <v>214</v>
+      </c>
+      <c r="E830" s="20">
+        <v>215</v>
+      </c>
+      <c r="F830" s="20">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="831" spans="1:6">
+      <c r="A831" t="s">
+        <v>34</v>
+      </c>
+      <c r="B831">
+        <f>14*60+40</f>
+        <v>880</v>
+      </c>
+      <c r="C831">
+        <f>14*60+46</f>
+        <v>886</v>
+      </c>
+      <c r="D831">
+        <f>14*60+21</f>
+        <v>861</v>
+      </c>
+      <c r="E831">
+        <f>14*60+56</f>
+        <v>896</v>
+      </c>
+      <c r="F831">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="832" spans="1:6">
+      <c r="A832" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="B832" s="20">
+        <v>884.8</v>
+      </c>
+      <c r="C832">
+        <v>884.8</v>
+      </c>
+      <c r="D832">
+        <v>884.8</v>
+      </c>
+      <c r="E832">
+        <v>884.8</v>
+      </c>
+      <c r="F832">
+        <v>884.8</v>
+      </c>
+    </row>
+    <row r="833" spans="1:7">
+      <c r="A833" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="B833" s="20">
+        <f>(B832-B831)*(B832-B831)</f>
+        <v>23.039999999999562</v>
+      </c>
+      <c r="C833" s="20">
+        <f t="shared" ref="C833:F833" si="190">(C832-C831)*(C832-C831)</f>
+        <v>1.4400000000001092</v>
+      </c>
+      <c r="D833" s="20">
+        <f t="shared" si="190"/>
+        <v>566.43999999999778</v>
+      </c>
+      <c r="E833" s="20">
+        <f t="shared" si="190"/>
+        <v>125.44000000000102</v>
+      </c>
+      <c r="F833" s="20">
+        <f t="shared" si="190"/>
+        <v>262.44000000000148</v>
+      </c>
+    </row>
+    <row r="834" spans="1:7">
+      <c r="A834" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="B834" s="20">
+        <v>13.991425945914161</v>
+      </c>
+      <c r="C834" s="20">
+        <v>13.991425945914161</v>
+      </c>
+      <c r="D834">
+        <v>13.991425945914161</v>
+      </c>
+      <c r="E834">
+        <v>13.991425945914161</v>
+      </c>
+      <c r="F834">
+        <v>13.991425945914161</v>
+      </c>
+    </row>
+    <row r="835" spans="1:7">
+      <c r="A835" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B835">
+        <f>B834/SQRT(5)</f>
+        <v>6.2571559034436719</v>
+      </c>
+      <c r="C835" s="20">
+        <f t="shared" ref="C835:F835" si="191">C834/SQRT(5)</f>
+        <v>6.2571559034436719</v>
+      </c>
+      <c r="D835" s="20">
+        <f t="shared" si="191"/>
+        <v>6.2571559034436719</v>
+      </c>
+      <c r="E835" s="20">
+        <f t="shared" si="191"/>
+        <v>6.2571559034436719</v>
+      </c>
+      <c r="F835" s="20">
+        <f t="shared" si="191"/>
+        <v>6.2571559034436719</v>
+      </c>
+    </row>
+    <row r="838" spans="1:7">
+      <c r="A838" t="s">
+        <v>193</v>
+      </c>
+      <c r="B838">
+        <v>220</v>
+      </c>
+      <c r="C838" s="20">
+        <v>221</v>
+      </c>
+      <c r="D838" s="20">
+        <v>222</v>
+      </c>
+      <c r="E838" s="20">
+        <v>223</v>
+      </c>
+      <c r="F838" s="20">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="839" spans="1:7">
+      <c r="A839" t="s">
+        <v>187</v>
+      </c>
+      <c r="B839">
+        <f>13*60</f>
+        <v>780</v>
+      </c>
+      <c r="C839">
+        <v>782</v>
+      </c>
+      <c r="D839">
+        <v>783</v>
+      </c>
+      <c r="E839">
+        <v>775</v>
+      </c>
+      <c r="F839">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="840" spans="1:7">
+      <c r="A840" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="B840">
+        <v>780.6</v>
+      </c>
+      <c r="C840">
+        <v>780.6</v>
+      </c>
+      <c r="D840">
+        <v>780.6</v>
+      </c>
+      <c r="E840">
+        <v>780.6</v>
+      </c>
+      <c r="F840">
+        <v>780.6</v>
+      </c>
+    </row>
+    <row r="841" spans="1:7">
+      <c r="A841" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="B841" s="20">
+        <f t="shared" ref="B841:F841" si="192">(B840-B839)*(B840-B839)</f>
+        <v>0.3600000000000273</v>
+      </c>
+      <c r="C841" s="20">
+        <f t="shared" si="192"/>
+        <v>1.9599999999999362</v>
+      </c>
+      <c r="D841" s="20">
+        <f t="shared" si="192"/>
+        <v>5.7599999999998905</v>
+      </c>
+      <c r="E841" s="20">
+        <f t="shared" si="192"/>
+        <v>31.360000000000255</v>
+      </c>
+      <c r="F841" s="20">
+        <f t="shared" si="192"/>
+        <v>5.7599999999998905</v>
+      </c>
+    </row>
+    <row r="842" spans="1:7">
+      <c r="A842" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="B842" s="20">
+        <v>3.0066592756745818</v>
+      </c>
+      <c r="C842" s="20">
+        <v>3.0066592756745818</v>
+      </c>
+      <c r="D842">
+        <v>3.0066592756745818</v>
+      </c>
+      <c r="E842">
+        <v>3.0066592756745818</v>
+      </c>
+      <c r="F842">
+        <v>3.0066592756745818</v>
+      </c>
+    </row>
+    <row r="843" spans="1:7">
+      <c r="A843" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B843">
+        <f>B842/SQRT(5)</f>
+        <v>1.3446189051177289</v>
+      </c>
+      <c r="C843" s="20">
+        <f t="shared" ref="C843:F843" si="193">C842/SQRT(5)</f>
+        <v>1.3446189051177289</v>
+      </c>
+      <c r="D843" s="20">
+        <f t="shared" si="193"/>
+        <v>1.3446189051177289</v>
+      </c>
+      <c r="E843" s="20">
+        <f t="shared" si="193"/>
+        <v>1.3446189051177289</v>
+      </c>
+      <c r="F843" s="20">
+        <f t="shared" si="193"/>
+        <v>1.3446189051177289</v>
+      </c>
+    </row>
+    <row r="846" spans="1:7">
+      <c r="A846" s="21"/>
+      <c r="B846" s="21"/>
+      <c r="C846" s="21"/>
+      <c r="D846" s="21"/>
+      <c r="E846" s="21"/>
+      <c r="F846" s="21"/>
+      <c r="G846" s="21"/>
+    </row>
+    <row r="847" spans="1:7">
+      <c r="A847" s="21"/>
+      <c r="B847" s="21"/>
+      <c r="C847" s="21"/>
+      <c r="D847" s="21"/>
+      <c r="E847" s="21"/>
+      <c r="F847" s="21"/>
+      <c r="G847" s="21"/>
+    </row>
+    <row r="848" spans="1:7">
+      <c r="A848" s="21"/>
+      <c r="B848" s="21"/>
+      <c r="C848" s="21"/>
+      <c r="D848" s="21"/>
+      <c r="E848" s="21"/>
+      <c r="F848" s="21"/>
+      <c r="G848" s="21"/>
+    </row>
+    <row r="849" spans="1:12">
+      <c r="A849" s="21"/>
+      <c r="B849" s="21"/>
+      <c r="C849" s="21"/>
+      <c r="D849" s="21"/>
+      <c r="E849" s="21"/>
+      <c r="F849" s="21"/>
+      <c r="G849" s="21"/>
+    </row>
+    <row r="850" spans="1:12">
+      <c r="A850" s="21"/>
+      <c r="B850" s="21"/>
+      <c r="C850" s="21"/>
+      <c r="D850" s="21"/>
+      <c r="E850" s="21"/>
+      <c r="F850" s="21"/>
+      <c r="G850" s="21"/>
+    </row>
+    <row r="851" spans="1:12">
+      <c r="A851" s="21"/>
+      <c r="B851" s="21"/>
+      <c r="C851" s="21"/>
+      <c r="D851" s="21"/>
+      <c r="E851" s="21"/>
+      <c r="F851" s="21"/>
+      <c r="G851" s="21"/>
+    </row>
+    <row r="852" spans="1:12">
+      <c r="A852" s="21"/>
+      <c r="B852" s="21"/>
+      <c r="C852" s="21"/>
+      <c r="D852" s="21"/>
+      <c r="E852" s="21"/>
+      <c r="F852" s="21"/>
+      <c r="G852" s="21"/>
+      <c r="J852" t="s">
+        <v>196</v>
+      </c>
+      <c r="K852" t="s">
+        <v>197</v>
+      </c>
+      <c r="L852" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="853" spans="1:12">
+      <c r="A853" s="21"/>
+      <c r="B853" s="21"/>
+      <c r="C853" s="21"/>
+      <c r="D853" s="21"/>
+      <c r="E853" s="21"/>
+      <c r="F853" s="21"/>
+      <c r="G853" s="21"/>
+      <c r="I853" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="J853" s="21">
+        <v>1008</v>
+      </c>
+      <c r="K853" s="21">
+        <v>816</v>
+      </c>
+      <c r="L853" s="21">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="854" spans="1:12">
+      <c r="A854" s="21"/>
+      <c r="B854" s="21"/>
+      <c r="C854" s="21"/>
+      <c r="D854" s="21"/>
+      <c r="E854" s="21"/>
+      <c r="F854" s="21"/>
+      <c r="G854" s="21"/>
+      <c r="I854" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="J854" s="21">
+        <v>1371</v>
+      </c>
+      <c r="K854" s="21">
+        <v>885</v>
+      </c>
+      <c r="L854" s="21">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="855" spans="1:12">
+      <c r="A855" s="21"/>
+      <c r="B855" s="21"/>
+      <c r="C855" s="21"/>
+      <c r="D855" s="21"/>
+      <c r="E855" s="21"/>
+      <c r="F855" s="21"/>
+      <c r="G855" s="21"/>
+    </row>
+    <row r="856" spans="1:12">
+      <c r="A856" s="21"/>
+      <c r="B856" s="21"/>
+      <c r="C856" s="21"/>
+      <c r="D856" s="21"/>
+      <c r="E856" s="21"/>
+      <c r="F856" s="21"/>
+      <c r="G856" s="21"/>
+      <c r="I856" t="s">
+        <v>199</v>
+      </c>
+      <c r="J856">
+        <v>19</v>
+      </c>
+      <c r="K856">
+        <v>15</v>
+      </c>
+      <c r="L856">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="857" spans="1:12">
+      <c r="A857" s="21"/>
+      <c r="B857" s="21"/>
+      <c r="C857" s="21"/>
+      <c r="D857" s="21"/>
+      <c r="E857" s="21"/>
+      <c r="F857" s="21"/>
+      <c r="G857" s="21"/>
+      <c r="I857" t="s">
+        <v>199</v>
+      </c>
+      <c r="J857">
+        <v>12</v>
+      </c>
+      <c r="K857">
+        <v>6.25</v>
+      </c>
+      <c r="L857">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="858" spans="1:12">
+      <c r="A858" s="21"/>
+      <c r="B858" s="21"/>
+      <c r="C858" s="21"/>
+      <c r="D858" s="21"/>
+      <c r="E858" s="21"/>
+      <c r="F858" s="21"/>
+      <c r="G858" s="21"/>
+    </row>
+    <row r="859" spans="1:12">
+      <c r="A859" s="21"/>
+      <c r="B859" s="21"/>
+      <c r="C859" s="21"/>
+      <c r="D859" s="21"/>
+      <c r="E859" s="21"/>
+      <c r="F859" s="21"/>
+      <c r="G859" s="21"/>
+    </row>
+    <row r="860" spans="1:12">
+      <c r="A860" s="21"/>
+      <c r="B860" s="21"/>
+      <c r="C860" s="21"/>
+      <c r="D860" s="21"/>
+      <c r="E860" s="21"/>
+      <c r="F860" s="21"/>
+      <c r="G860" s="21"/>
+    </row>
+    <row r="861" spans="1:12">
+      <c r="A861" s="21"/>
+      <c r="B861" s="21"/>
+      <c r="C861" s="21"/>
+      <c r="D861" s="21"/>
+      <c r="E861" s="21"/>
+      <c r="F861" s="21"/>
+      <c r="G861" s="21"/>
+    </row>
+    <row r="862" spans="1:12">
+      <c r="A862" s="21"/>
+      <c r="B862" s="21"/>
+      <c r="C862" s="21"/>
+      <c r="D862" s="21"/>
+      <c r="E862" s="21"/>
+      <c r="F862" s="21"/>
+      <c r="G862" s="21"/>
+    </row>
+    <row r="863" spans="1:12">
+      <c r="A863" s="21"/>
+      <c r="B863" s="21"/>
+      <c r="C863" s="21"/>
+      <c r="D863" s="21"/>
+      <c r="E863" s="21"/>
+      <c r="F863" s="21"/>
+      <c r="G863" s="21"/>
+    </row>
+    <row r="864" spans="1:12">
+      <c r="A864" s="21"/>
+      <c r="B864" s="21"/>
+      <c r="C864" s="21"/>
+      <c r="D864" s="21"/>
+      <c r="E864" s="21"/>
+      <c r="F864" s="21"/>
+      <c r="G864" s="21"/>
+    </row>
+    <row r="865" spans="1:7">
+      <c r="A865" s="21"/>
+      <c r="B865" s="21"/>
+      <c r="C865" s="21"/>
+      <c r="D865" s="21"/>
+      <c r="E865" s="21"/>
+      <c r="F865" s="21"/>
+      <c r="G865" s="21"/>
+    </row>
+    <row r="866" spans="1:7">
+      <c r="A866" s="21"/>
+      <c r="B866" s="21"/>
+      <c r="C866" s="21"/>
+      <c r="D866" s="21"/>
+      <c r="E866" s="21"/>
+      <c r="F866" s="21"/>
+      <c r="G866" s="21"/>
+    </row>
+    <row r="867" spans="1:7">
+      <c r="A867" s="21"/>
+      <c r="B867" s="21"/>
+      <c r="C867" s="21"/>
+      <c r="D867" s="21"/>
+      <c r="E867" s="21"/>
+      <c r="F867" s="21"/>
+      <c r="G867" s="21"/>
+    </row>
+    <row r="868" spans="1:7">
+      <c r="A868" s="21"/>
+      <c r="B868" s="21"/>
+      <c r="C868" s="21"/>
+      <c r="D868" s="21"/>
+      <c r="E868" s="21"/>
+      <c r="F868" s="21"/>
+      <c r="G868" s="21"/>
+    </row>
+    <row r="869" spans="1:7">
+      <c r="A869" s="21"/>
+      <c r="B869" s="21"/>
+      <c r="C869" s="21"/>
+      <c r="D869" s="21"/>
+      <c r="E869" s="21"/>
+      <c r="F869" s="21"/>
+      <c r="G869" s="21"/>
+    </row>
+    <row r="870" spans="1:7">
+      <c r="A870" s="21"/>
+      <c r="B870" s="21"/>
+      <c r="C870" s="21"/>
+      <c r="D870" s="21"/>
+      <c r="E870" s="21"/>
+      <c r="F870" s="21"/>
+    </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A415:B415"/>
-    <mergeCell ref="A435:B435"/>
-    <mergeCell ref="A425:B425"/>
-    <mergeCell ref="A485:B485"/>
-    <mergeCell ref="A495:B495"/>
     <mergeCell ref="A575:B575"/>
     <mergeCell ref="A585:B585"/>
     <mergeCell ref="A515:B515"/>
     <mergeCell ref="A525:B525"/>
     <mergeCell ref="A545:B545"/>
     <mergeCell ref="A555:B555"/>
+    <mergeCell ref="A415:B415"/>
+    <mergeCell ref="A435:B435"/>
+    <mergeCell ref="A425:B425"/>
+    <mergeCell ref="A485:B485"/>
+    <mergeCell ref="A495:B495"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/papers/async-re/data/raw_data.xlsx
+++ b/papers/async-re/data/raw_data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20515"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1690,7 +1690,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1713,6 +1713,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="835">
@@ -2564,6 +2565,681 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="101"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="1"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0888619858087024"/>
+          <c:y val="0.0167924409448819"/>
+          <c:w val="0.807810356450369"/>
+          <c:h val="0.918514330708661"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$853</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Homogeneous</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$J$856:$L$856</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>19.0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>15.0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$J$856:$L$856</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>19.0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>15.0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$J$852:$L$852</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Synchronous</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Asynchronous (centralized)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Asynchronous (decentralized)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$853:$L$853</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1008.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>816.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>642.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$854</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Heterogeneous</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>Sheet1!$J$857:$L$857</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>12.0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.25</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.34</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>Sheet1!$J$857:$L$857</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>12.0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>6.25</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.34</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$J$852:$L$852</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Synchronous</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Asynchronous (centralized)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Asynchronous (decentralized)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$854:$L$854</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1371.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>885.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>781.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="117414712"/>
+        <c:axId val="117417720"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="117414712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="117417720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="117417720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2000" b="0" i="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2000" b="0" i="0"/>
+                  <a:t>time to completion (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="117414712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.529095460289686"/>
+          <c:y val="0.0571907188072079"/>
+          <c:w val="0.21322235183565"/>
+          <c:h val="0.188139570788945"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln w="0">
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>qb and qb-ranger. always 16 cores per replica</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$378</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>sync</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$377:$G$377</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1. 32 ex, 2 machines</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2. 16 ex, 2 machines</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3. 16 ex, 1 machine</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4. 32 ex, 1 machine</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$378:$G$378</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1206.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>577.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>624.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>685.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$379</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>cent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$377:$G$377</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1. 32 ex, 2 machines</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2. 16 ex, 2 machines</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3. 16 ex, 1 machine</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4. 32 ex, 1 machine</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$379:$G$379</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1140.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>543.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>628.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>630.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$380</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>decent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$377:$G$377</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1. 32 ex, 2 machines</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2. 16 ex, 2 machines</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3. 16 ex, 1 machine</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4. 32 ex, 1 machine</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$380:$G$380</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>589.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>302.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>588.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>609.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="137786040"/>
+        <c:axId val="137792056"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="137786040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>1 - 2 X 64 cores, 4 replicas/bigjob; 2 - in same experiment as 1, time noted for 16 exchanges; 3 - 1 X 64 cores, 4 replicas/bigjob; 4 - 1 X 128 cores, 8 replicas/bigjob</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="137792056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="137792056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>mean run time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="137786040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
       <c14:style val="118"/>
     </mc:Choice>
     <mc:Fallback>
@@ -2703,11 +3379,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="551424760"/>
-        <c:axId val="84883144"/>
+        <c:axId val="137423864"/>
+        <c:axId val="137429400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="551424760"/>
+        <c:axId val="137423864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2734,7 +3410,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84883144"/>
+        <c:crossAx val="137429400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2742,7 +3418,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84883144"/>
+        <c:axId val="137429400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2771,7 +3447,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="551424760"/>
+        <c:crossAx val="137423864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2792,302 +3468,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="1"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="101"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="1"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$I$853</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Homogeneous</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>Sheet1!$J$856:$L$856</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
-                  <c:pt idx="0">
-                    <c:v>19.0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>15.0</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>1.0</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>Sheet1!$J$856:$L$856</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
-                  <c:pt idx="0">
-                    <c:v>19.0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>15.0</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>1.0</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-          </c:errBars>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$J$852:$L$852</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Synchronous</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Asynchronous (centralized)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Asynchronous (decentralized)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$J$853:$L$853</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1008.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>816.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>642.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$I$854</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Heterogeneous</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:errBars>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>Sheet1!$J$857:$L$857</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
-                  <c:pt idx="0">
-                    <c:v>12.0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>6.25</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>1.34</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>Sheet1!$J$857:$L$857</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
-                  <c:pt idx="0">
-                    <c:v>12.0</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>6.25</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>1.34</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-          </c:errBars>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$J$852:$L$852</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Synchronous</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Asynchronous (centralized)</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Asynchronous (decentralized)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$J$854:$L$854</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1371.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>885.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>781.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="600707864"/>
-        <c:axId val="551591560"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="600707864"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="551591560"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="551591560"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1200"/>
-                  <a:t>time to completion (seconds)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="600707864"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.609342342481162"/>
-          <c:y val="0.146826573148945"/>
-          <c:w val="0.167954862123716"/>
-          <c:h val="0.112509318688105"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
@@ -3192,11 +3573,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="601926664"/>
-        <c:axId val="603454008"/>
+        <c:axId val="137464920"/>
+        <c:axId val="137470504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="601926664"/>
+        <c:axId val="137464920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3223,7 +3604,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="603454008"/>
+        <c:crossAx val="137470504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3231,7 +3612,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="603454008"/>
+        <c:axId val="137470504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3260,7 +3641,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="601926664"/>
+        <c:crossAx val="137464920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3281,7 +3662,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
@@ -3476,11 +3857,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="551112824"/>
-        <c:axId val="571289384"/>
+        <c:axId val="137505416"/>
+        <c:axId val="137510920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="551112824"/>
+        <c:axId val="137505416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3507,7 +3888,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="571289384"/>
+        <c:crossAx val="137510920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3515,7 +3896,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="571289384"/>
+        <c:axId val="137510920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3544,7 +3925,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="551112824"/>
+        <c:crossAx val="137505416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3565,7 +3946,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
@@ -3681,11 +4062,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="617540984"/>
-        <c:axId val="525578408"/>
+        <c:axId val="137544024"/>
+        <c:axId val="137546808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="617540984"/>
+        <c:axId val="137544024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3694,7 +4075,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="525578408"/>
+        <c:crossAx val="137546808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3702,7 +4083,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="525578408"/>
+        <c:axId val="137546808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3731,7 +4112,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="617540984"/>
+        <c:crossAx val="137544024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3748,7 +4129,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
@@ -3874,11 +4255,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="603588344"/>
-        <c:axId val="600382584"/>
+        <c:axId val="137580344"/>
+        <c:axId val="137585864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="603588344"/>
+        <c:axId val="137580344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3905,7 +4286,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="600382584"/>
+        <c:crossAx val="137585864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3913,7 +4294,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="600382584"/>
+        <c:axId val="137585864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3942,7 +4323,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="603588344"/>
+        <c:crossAx val="137580344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3963,7 +4344,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
@@ -4089,11 +4470,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="615898632"/>
-        <c:axId val="481975800"/>
+        <c:axId val="137621256"/>
+        <c:axId val="137626776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="615898632"/>
+        <c:axId val="137621256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4120,7 +4501,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="481975800"/>
+        <c:crossAx val="137626776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4128,7 +4509,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="481975800"/>
+        <c:axId val="137626776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4157,7 +4538,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="615898632"/>
+        <c:crossAx val="137621256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4178,7 +4559,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
@@ -4643,11 +5024,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="600561960"/>
-        <c:axId val="534894568"/>
+        <c:axId val="137710312"/>
+        <c:axId val="137713288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="600561960"/>
+        <c:axId val="137710312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4656,7 +5037,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="534894568"/>
+        <c:crossAx val="137713288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4664,7 +5045,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="534894568"/>
+        <c:axId val="137713288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4692,7 +5073,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="600561960"/>
+        <c:crossAx val="137710312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4713,7 +5094,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
@@ -4902,11 +5283,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="616043096"/>
-        <c:axId val="571205864"/>
+        <c:axId val="137743544"/>
+        <c:axId val="137746520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="616043096"/>
+        <c:axId val="137743544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4915,7 +5296,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="571205864"/>
+        <c:crossAx val="137746520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4923,7 +5304,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="571205864"/>
+        <c:axId val="137746520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4952,315 +5333,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="616043096"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="1"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>qb and qb-ranger. always 16 cores per replica</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$378</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>sync</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$D$377:$G$377</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1. 32 ex, 2 machines</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2. 16 ex, 2 machines</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3. 16 ex, 1 machine</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4. 32 ex, 1 machine</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$378:$G$378</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1206.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>577.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>624.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>685.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$379</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>cent</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$D$377:$G$377</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1. 32 ex, 2 machines</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2. 16 ex, 2 machines</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3. 16 ex, 1 machine</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4. 32 ex, 1 machine</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$379:$G$379</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1140.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>543.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>628.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>630.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$380</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>decent</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$D$377:$G$377</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1. 32 ex, 2 machines</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2. 16 ex, 2 machines</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3. 16 ex, 1 machine</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4. 32 ex, 1 machine</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$380:$G$380</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>589.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>302.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>588.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>609.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="84863688"/>
-        <c:axId val="602088600"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="84863688"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>1 - 2 X 64 cores, 4 replicas/bigjob; 2 - in same experiment as 1, time noted for 16 exchanges; 3 - 1 X 64 cores, 4 replicas/bigjob; 4 - 1 X 128 cores, 8 replicas/bigjob</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="602088600"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="602088600"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>mean run time</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84863688"/>
+        <c:crossAx val="137743544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5285,6 +5358,36 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>849</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>926</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>10</xdr:row>
@@ -5307,7 +5410,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5337,7 +5440,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5367,7 +5470,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5397,7 +5500,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5427,7 +5530,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5457,7 +5560,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5487,7 +5590,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5615,7 +5718,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5637,36 +5740,6 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="27" name="Chart 26"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>850</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>877</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="12" name="Chart 11"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6006,8 +6079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z870"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A840" workbookViewId="0">
-      <selection activeCell="I863" sqref="I863"/>
+    <sheetView tabSelected="1" topLeftCell="A833" workbookViewId="0">
+      <selection activeCell="I841" sqref="I841"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
@@ -12192,10 +12265,10 @@
       <c r="E414" s="6"/>
     </row>
     <row r="415" spans="1:5">
-      <c r="A415" s="22" t="s">
+      <c r="A415" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B415" s="22"/>
+      <c r="B415" s="23"/>
       <c r="D415" s="6"/>
       <c r="E415" s="6"/>
     </row>
@@ -12322,10 +12395,10 @@
       </c>
     </row>
     <row r="425" spans="1:14">
-      <c r="A425" s="22" t="s">
+      <c r="A425" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B425" s="22"/>
+      <c r="B425" s="23"/>
     </row>
     <row r="426" spans="1:14">
       <c r="A426" t="s">
@@ -12608,10 +12681,10 @@
       </c>
     </row>
     <row r="435" spans="1:14">
-      <c r="A435" s="22" t="s">
+      <c r="A435" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B435" s="22"/>
+      <c r="B435" s="23"/>
     </row>
     <row r="436" spans="1:14">
       <c r="A436" t="s">
@@ -13832,10 +13905,10 @@
       </c>
     </row>
     <row r="485" spans="1:14">
-      <c r="A485" s="22" t="s">
+      <c r="A485" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B485" s="22"/>
+      <c r="B485" s="23"/>
     </row>
     <row r="486" spans="1:14">
       <c r="A486" s="8" t="s">
@@ -14089,10 +14162,10 @@
       </c>
     </row>
     <row r="495" spans="1:14" s="7" customFormat="1">
-      <c r="A495" s="22" t="s">
+      <c r="A495" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B495" s="22"/>
+      <c r="B495" s="23"/>
     </row>
     <row r="496" spans="1:14" s="7" customFormat="1">
       <c r="A496" s="8" t="s">
@@ -14580,10 +14653,10 @@
       </c>
     </row>
     <row r="515" spans="1:22" s="8" customFormat="1">
-      <c r="A515" s="22" t="s">
+      <c r="A515" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B515" s="22"/>
+      <c r="B515" s="23"/>
     </row>
     <row r="516" spans="1:22" s="8" customFormat="1">
       <c r="A516" s="8" t="s">
@@ -14847,10 +14920,10 @@
       </c>
     </row>
     <row r="525" spans="1:22" s="8" customFormat="1">
-      <c r="A525" s="22" t="s">
+      <c r="A525" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B525" s="22"/>
+      <c r="B525" s="23"/>
     </row>
     <row r="526" spans="1:22" s="8" customFormat="1">
       <c r="A526" s="8" t="s">
@@ -15595,10 +15668,10 @@
       </c>
     </row>
     <row r="545" spans="1:23" s="8" customFormat="1">
-      <c r="A545" s="22" t="s">
+      <c r="A545" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B545" s="22"/>
+      <c r="B545" s="23"/>
       <c r="O545"/>
       <c r="P545"/>
       <c r="Q545"/>
@@ -16008,10 +16081,10 @@
       </c>
     </row>
     <row r="555" spans="1:23" s="8" customFormat="1">
-      <c r="A555" s="22" t="s">
+      <c r="A555" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B555" s="22"/>
+      <c r="B555" s="23"/>
     </row>
     <row r="556" spans="1:23" s="8" customFormat="1">
       <c r="A556" s="8" t="s">
@@ -16476,10 +16549,10 @@
       </c>
     </row>
     <row r="575" spans="1:14" s="8" customFormat="1">
-      <c r="A575" s="22" t="s">
+      <c r="A575" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B575" s="22"/>
+      <c r="B575" s="23"/>
     </row>
     <row r="576" spans="1:14" s="8" customFormat="1">
       <c r="A576" s="8" t="s">
@@ -16722,10 +16795,10 @@
       </c>
     </row>
     <row r="585" spans="1:14" s="8" customFormat="1">
-      <c r="A585" s="22" t="s">
+      <c r="A585" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B585" s="22"/>
+      <c r="B585" s="23"/>
     </row>
     <row r="586" spans="1:14" s="8" customFormat="1">
       <c r="A586" s="8" t="s">
@@ -21679,7 +21752,7 @@
         <v>884.8</v>
       </c>
     </row>
-    <row r="833" spans="1:7">
+    <row r="833" spans="1:8">
       <c r="A833" s="20" t="s">
         <v>115</v>
       </c>
@@ -21704,7 +21777,7 @@
         <v>262.44000000000148</v>
       </c>
     </row>
-    <row r="834" spans="1:7">
+    <row r="834" spans="1:8">
       <c r="A834" s="20" t="s">
         <v>116</v>
       </c>
@@ -21724,7 +21797,7 @@
         <v>13.991425945914161</v>
       </c>
     </row>
-    <row r="835" spans="1:7">
+    <row r="835" spans="1:8">
       <c r="A835" s="20" t="s">
         <v>117</v>
       </c>
@@ -21749,7 +21822,7 @@
         <v>6.2571559034436719</v>
       </c>
     </row>
-    <row r="838" spans="1:7">
+    <row r="838" spans="1:8">
       <c r="A838" t="s">
         <v>193</v>
       </c>
@@ -21769,7 +21842,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="839" spans="1:7">
+    <row r="839" spans="1:8">
       <c r="A839" t="s">
         <v>187</v>
       </c>
@@ -21790,7 +21863,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="840" spans="1:7">
+    <row r="840" spans="1:8">
       <c r="A840" s="20" t="s">
         <v>114</v>
       </c>
@@ -21810,7 +21883,7 @@
         <v>780.6</v>
       </c>
     </row>
-    <row r="841" spans="1:7">
+    <row r="841" spans="1:8">
       <c r="A841" s="20" t="s">
         <v>115</v>
       </c>
@@ -21835,7 +21908,7 @@
         <v>5.7599999999998905</v>
       </c>
     </row>
-    <row r="842" spans="1:7">
+    <row r="842" spans="1:8">
       <c r="A842" s="20" t="s">
         <v>116</v>
       </c>
@@ -21855,7 +21928,7 @@
         <v>3.0066592756745818</v>
       </c>
     </row>
-    <row r="843" spans="1:7">
+    <row r="843" spans="1:8">
       <c r="A843" s="20" t="s">
         <v>117</v>
       </c>
@@ -21880,7 +21953,7 @@
         <v>1.3446189051177289</v>
       </c>
     </row>
-    <row r="846" spans="1:7">
+    <row r="846" spans="1:8">
       <c r="A846" s="21"/>
       <c r="B846" s="21"/>
       <c r="C846" s="21"/>
@@ -21888,8 +21961,9 @@
       <c r="E846" s="21"/>
       <c r="F846" s="21"/>
       <c r="G846" s="21"/>
-    </row>
-    <row r="847" spans="1:7">
+      <c r="H846" s="22"/>
+    </row>
+    <row r="847" spans="1:8">
       <c r="A847" s="21"/>
       <c r="B847" s="21"/>
       <c r="C847" s="21"/>
@@ -21898,7 +21972,7 @@
       <c r="F847" s="21"/>
       <c r="G847" s="21"/>
     </row>
-    <row r="848" spans="1:7">
+    <row r="848" spans="1:8">
       <c r="A848" s="21"/>
       <c r="B848" s="21"/>
       <c r="C848" s="21"/>
@@ -22177,6 +22251,7 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
     <ignoredError sqref="B50 B87 B93 B99 B129 B136 B143 B195 B202 B346 B353" formula="1"/>
   </ignoredErrors>
